--- a/config_hlw/fish3d_config.xlsx
+++ b/config_hlw/fish3d_config.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="427">
   <si>
     <t>line|行号</t>
   </si>
@@ -904,18 +904,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>巨大小丑鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>巨大灯笼鱼</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>巨大燕鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Fish3D020</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -963,10 +955,6 @@
   </si>
   <si>
     <t>Fish3D074</t>
-  </si>
-  <si>
-    <t>fish3dnode/fish3d/x_0003 1/x_0003 2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>fish3d/x_0010 1/xiaoyu</t>
@@ -2247,103 +2235,138 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>Fish3D102</t>
+  </si>
+  <si>
+    <t>Fish3D103</t>
+  </si>
+  <si>
+    <t>Fish3D106</t>
+  </si>
+  <si>
+    <t>Fish3D107</t>
+  </si>
+  <si>
+    <t>Fish3D108</t>
+  </si>
+  <si>
+    <t>Fish3D109</t>
+  </si>
+  <si>
+    <t>Fish3D110</t>
+  </si>
+  <si>
+    <t>Fish3D111</t>
+  </si>
+  <si>
+    <t>Fish3D112</t>
+  </si>
+  <si>
+    <t>close_rota|关闭旋转，鱼不同路径转动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝴蝶鲤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_fdcl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu101</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu102</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu103</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu104</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu105</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu106</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu107</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu108</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu109</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu110</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu111</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu112</t>
+  </si>
+  <si>
+    <t>海马</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔鬼鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>海龟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>海豚</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>锤头鲨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲸鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu113</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>Fish3D101</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Fish3D102</t>
-  </si>
-  <si>
-    <t>Fish3D103</t>
+    <t>Fish3D113</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Fish3D104</t>
-  </si>
-  <si>
-    <t>Fish3D106</t>
-  </si>
-  <si>
-    <t>Fish3D107</t>
-  </si>
-  <si>
-    <t>Fish3D108</t>
-  </si>
-  <si>
-    <t>Fish3D109</t>
-  </si>
-  <si>
-    <t>Fish3D110</t>
-  </si>
-  <si>
-    <t>Fish3D111</t>
-  </si>
-  <si>
-    <t>Fish3D112</t>
-  </si>
-  <si>
-    <t>Fish3D113</t>
-  </si>
-  <si>
-    <t>close_rota|关闭旋转，鱼不同路径转动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝴蝶鲤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_fdcl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D071</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu101</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu102</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu103</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu104</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu105</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu106</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu107</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu108</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu109</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu110</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu111</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu112</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu113</t>
-  </si>
-  <si>
-    <t>海马</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D115</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D114</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3d/FishView/Adapt/DieAction/fish_xiaohaima_001/fish_xiaowugui_001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3d/FishView/Adapt/DieAction/fish_xiaowugui_001/fish_xiaowugui_001 1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2436,7 +2459,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2452,6 +2475,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2498,7 +2527,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2618,6 +2647,30 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2901,7 +2954,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3015,7 +3068,7 @@
         <v>22</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>23</v>
@@ -3030,19 +3083,19 @@
         <v>89</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="9" customFormat="1">
@@ -3053,19 +3106,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>91</v>
@@ -3114,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>25</v>
@@ -3131,7 +3184,7 @@
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
       <c r="AJ2" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:36" s="9" customFormat="1">
@@ -3142,13 +3195,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>62</v>
@@ -3203,7 +3256,7 @@
         <v>0.8</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Y3" s="8" t="s">
         <v>25</v>
@@ -3219,7 +3272,7 @@
       </c>
       <c r="AG3" s="8"/>
       <c r="AJ3" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:36" s="9" customFormat="1">
@@ -3230,13 +3283,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>64</v>
@@ -3291,7 +3344,7 @@
         <v>0.35</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Y4" s="8" t="s">
         <v>27</v>
@@ -3308,7 +3361,7 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
       <c r="AJ4" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="9" customFormat="1">
@@ -3319,13 +3372,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>63</v>
@@ -3380,7 +3433,7 @@
         <v>0.6</v>
       </c>
       <c r="X5" s="11" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Y5" s="8" t="s">
         <v>25</v>
@@ -3396,103 +3449,101 @@
       </c>
       <c r="AG5" s="8"/>
       <c r="AJ5" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="20" customFormat="1">
-      <c r="A6" s="13">
+    <row r="6" spans="1:36" s="47" customFormat="1">
+      <c r="A6" s="40">
         <v>5</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="40">
         <v>5</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="G6" s="14" t="s">
+      <c r="C6" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="G6" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="41">
         <v>0.74</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="41">
         <v>0.86</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="40">
         <v>1.5</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="40">
         <v>30</v>
       </c>
-      <c r="M6" s="15">
-        <v>1</v>
-      </c>
-      <c r="N6" s="13">
+      <c r="M6" s="42">
+        <v>1</v>
+      </c>
+      <c r="N6" s="40">
         <v>25</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="40">
         <v>2</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="14">
+      <c r="P6" s="40"/>
+      <c r="Q6" s="41">
         <v>0.8</v>
       </c>
-      <c r="R6" s="16">
-        <v>1</v>
-      </c>
-      <c r="S6" s="16">
+      <c r="R6" s="43">
+        <v>1</v>
+      </c>
+      <c r="S6" s="43">
         <v>0.26</v>
       </c>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="U6" s="16">
+      <c r="U6" s="43">
         <v>0.8</v>
       </c>
-      <c r="V6" s="16">
-        <v>1</v>
-      </c>
-      <c r="W6" s="16">
+      <c r="V6" s="43">
+        <v>1</v>
+      </c>
+      <c r="W6" s="43">
         <v>0.4</v>
       </c>
-      <c r="X6" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y6" s="19" t="s">
+      <c r="X6" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y6" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="Z6" s="19" t="s">
+      <c r="Z6" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="20">
+      <c r="AC6" s="47">
         <v>7500</v>
       </c>
-      <c r="AD6" s="20">
+      <c r="AD6" s="47">
         <v>1.5</v>
       </c>
-      <c r="AE6" s="20">
+      <c r="AE6" s="47">
         <v>2</v>
       </c>
-      <c r="AF6" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG6" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ6" s="19" t="s">
-        <v>291</v>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46" t="s">
+        <v>425</v>
+      </c>
+      <c r="AJ6" s="46" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:36" s="9" customFormat="1">
@@ -3503,13 +3554,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>72</v>
@@ -3564,7 +3615,7 @@
         <v>0.4</v>
       </c>
       <c r="X7" s="11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Y7" s="8" t="s">
         <v>30</v>
@@ -3583,7 +3634,7 @@
       </c>
       <c r="AG7" s="8"/>
       <c r="AJ7" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:36" s="9" customFormat="1">
@@ -3594,16 +3645,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>61</v>
@@ -3655,7 +3706,7 @@
         <v>0.35</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Y8" s="8" t="s">
         <v>27</v>
@@ -3674,7 +3725,7 @@
         <v>1.2</v>
       </c>
       <c r="AJ8" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:36" s="9" customFormat="1">
@@ -3685,13 +3736,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>71</v>
@@ -3746,7 +3797,7 @@
         <v>0.4</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Y9" s="8" t="s">
         <v>30</v>
@@ -3766,7 +3817,7 @@
       </c>
       <c r="AG9" s="8"/>
       <c r="AJ9" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:36" s="9" customFormat="1">
@@ -3777,13 +3828,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>66</v>
@@ -3838,7 +3889,7 @@
         <v>0.45</v>
       </c>
       <c r="X10" s="11" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Y10" s="10" t="s">
         <v>31</v>
@@ -3857,7 +3908,7 @@
         <v>2</v>
       </c>
       <c r="AJ10" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:36" s="9" customFormat="1">
@@ -3868,13 +3919,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>67</v>
@@ -3929,7 +3980,7 @@
         <v>0.5</v>
       </c>
       <c r="X11" s="11" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Y11" s="8" t="s">
         <v>32</v>
@@ -3949,7 +4000,7 @@
       </c>
       <c r="AG11" s="8"/>
       <c r="AJ11" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:36" s="9" customFormat="1">
@@ -3960,13 +4011,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>68</v>
@@ -4021,7 +4072,7 @@
         <v>0.35</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Y12" s="8" t="s">
         <v>32</v>
@@ -4041,7 +4092,7 @@
       </c>
       <c r="AG12" s="8"/>
       <c r="AJ12" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:36" s="9" customFormat="1">
@@ -4052,13 +4103,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>69</v>
@@ -4113,7 +4164,7 @@
         <v>0.35</v>
       </c>
       <c r="X13" s="11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Y13" s="8" t="s">
         <v>35</v>
@@ -4133,7 +4184,7 @@
       </c>
       <c r="AG13" s="8"/>
       <c r="AJ13" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:36" s="9" customFormat="1">
@@ -4144,13 +4195,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>78</v>
@@ -4205,7 +4256,7 @@
         <v>0.35</v>
       </c>
       <c r="X14" s="11" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Y14" s="8" t="s">
         <v>37</v>
@@ -4226,103 +4277,101 @@
       <c r="AF14" s="8"/>
       <c r="AG14" s="8"/>
       <c r="AJ14" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
-    <row r="15" spans="1:36" s="20" customFormat="1">
-      <c r="A15" s="13">
+    <row r="15" spans="1:36" s="47" customFormat="1">
+      <c r="A15" s="40">
         <v>14</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="40">
         <v>14</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="D15" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="H15" s="14" t="s">
+      <c r="E15" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="H15" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="41">
         <v>0.74</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="41">
         <v>0.86</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="40">
         <v>1.5</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="40">
         <v>30</v>
       </c>
-      <c r="M15" s="15">
-        <v>1</v>
-      </c>
-      <c r="N15" s="13">
+      <c r="M15" s="42">
+        <v>1</v>
+      </c>
+      <c r="N15" s="40">
         <v>25</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="40">
         <v>2</v>
       </c>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="14">
+      <c r="P15" s="40"/>
+      <c r="Q15" s="41">
         <v>0.8</v>
       </c>
-      <c r="R15" s="16">
-        <v>1</v>
-      </c>
-      <c r="S15" s="16">
+      <c r="R15" s="43">
+        <v>1</v>
+      </c>
+      <c r="S15" s="43">
         <v>0.26</v>
       </c>
-      <c r="T15" s="17" t="s">
+      <c r="T15" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="U15" s="16">
+      <c r="U15" s="43">
         <v>0.8</v>
       </c>
-      <c r="V15" s="16">
-        <v>1</v>
-      </c>
-      <c r="W15" s="16">
+      <c r="V15" s="43">
+        <v>1</v>
+      </c>
+      <c r="W15" s="43">
         <v>0.4</v>
       </c>
-      <c r="X15" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y15" s="19" t="s">
+      <c r="X15" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y15" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="Z15" s="19" t="s">
+      <c r="Z15" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="AC15" s="20">
+      <c r="AC15" s="47">
         <v>7500</v>
       </c>
-      <c r="AD15" s="20">
+      <c r="AD15" s="47">
         <v>1.5</v>
       </c>
-      <c r="AE15" s="20">
+      <c r="AE15" s="47">
         <v>2</v>
       </c>
-      <c r="AF15" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG15" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ15" s="19" t="s">
-        <v>291</v>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="46" t="s">
+        <v>426</v>
+      </c>
+      <c r="AJ15" s="46" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:36" s="20" customFormat="1">
@@ -4336,16 +4385,16 @@
         <v>110</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>118</v>
+        <v>414</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>92</v>
@@ -4394,7 +4443,7 @@
         <v>0.35</v>
       </c>
       <c r="X16" s="18" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Y16" s="19" t="s">
         <v>32</v>
@@ -4415,7 +4464,7 @@
         <v>114</v>
       </c>
       <c r="AJ16" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:36" s="20" customFormat="1">
@@ -4426,19 +4475,19 @@
         <v>16</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>119</v>
+        <v>416</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>92</v>
@@ -4487,7 +4536,7 @@
         <v>0.5</v>
       </c>
       <c r="X17" s="18" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Y17" s="19" t="s">
         <v>32</v>
@@ -4505,10 +4554,10 @@
         <v>2</v>
       </c>
       <c r="AG17" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AJ17" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:36" s="20" customFormat="1">
@@ -4519,19 +4568,19 @@
         <v>17</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>41</v>
+        <v>169</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>417</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>65</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>93</v>
@@ -4580,7 +4629,7 @@
         <v>0.35</v>
       </c>
       <c r="X18" s="18" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Y18" s="19" t="s">
         <v>32</v>
@@ -4598,10 +4647,10 @@
         <v>2</v>
       </c>
       <c r="AG18" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AJ18" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:36" s="20" customFormat="1">
@@ -4612,19 +4661,19 @@
         <v>18</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>45</v>
+        <v>418</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>68</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>93</v>
@@ -4673,7 +4722,7 @@
         <v>0.35</v>
       </c>
       <c r="X19" s="18" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>35</v>
@@ -4691,10 +4740,10 @@
         <v>2</v>
       </c>
       <c r="AG19" s="19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AJ19" s="19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:36" s="20" customFormat="1">
@@ -4705,16 +4754,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>38</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>60</v>
@@ -4766,7 +4815,7 @@
         <v>0.35</v>
       </c>
       <c r="X20" s="18" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Y20" s="19" t="s">
         <v>37</v>
@@ -4784,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="AJ20" s="19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:36" s="20" customFormat="1">
@@ -4795,19 +4844,19 @@
         <v>20</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>94</v>
@@ -4855,7 +4904,7 @@
         <v>0.35</v>
       </c>
       <c r="X21" s="18" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Y21" s="19" t="s">
         <v>42</v>
@@ -4876,10 +4925,10 @@
         <v>102</v>
       </c>
       <c r="AG21" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AJ21" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:36" s="20" customFormat="1">
@@ -4893,16 +4942,16 @@
         <v>55</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>56</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H22" s="21" t="s">
         <v>95</v>
@@ -4951,7 +5000,7 @@
         <v>0.35</v>
       </c>
       <c r="X22" s="18" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Y22" s="19" t="s">
         <v>39</v>
@@ -4969,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="AJ22" s="19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:36" s="20" customFormat="1">
@@ -4980,19 +5029,19 @@
         <v>22</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H23" s="21" t="s">
         <v>94</v>
@@ -5041,7 +5090,7 @@
         <v>0.35</v>
       </c>
       <c r="X23" s="18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y23" s="19" t="s">
         <v>39</v>
@@ -5059,10 +5108,10 @@
         <v>1</v>
       </c>
       <c r="AG23" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AJ23" s="19" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:36" s="20" customFormat="1">
@@ -5076,16 +5125,16 @@
         <v>96</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>99</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H24" s="21" t="s">
         <v>94</v>
@@ -5134,7 +5183,7 @@
         <v>0.8</v>
       </c>
       <c r="X24" s="18" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Y24" s="19" t="s">
         <v>25</v>
@@ -5155,7 +5204,7 @@
         <v>104</v>
       </c>
       <c r="AJ24" s="19" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:36" s="20" customFormat="1">
@@ -5169,16 +5218,16 @@
         <v>97</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H25" s="21" t="s">
         <v>94</v>
@@ -5227,7 +5276,7 @@
         <v>0.7</v>
       </c>
       <c r="X25" s="18" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Y25" s="19" t="s">
         <v>25</v>
@@ -5245,7 +5294,7 @@
         <v>103</v>
       </c>
       <c r="AJ25" s="19" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:36" s="20" customFormat="1">
@@ -5259,16 +5308,16 @@
         <v>51</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>69</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H26" s="21" t="s">
         <v>94</v>
@@ -5317,7 +5366,7 @@
         <v>0.35</v>
       </c>
       <c r="X26" s="18" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Y26" s="19" t="s">
         <v>46</v>
@@ -5336,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="AJ26" s="19" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:36" s="20" customFormat="1">
@@ -5350,16 +5399,16 @@
         <v>112</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>67</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H27" s="21" t="s">
         <v>94</v>
@@ -5408,7 +5457,7 @@
         <v>0.35</v>
       </c>
       <c r="X27" s="18" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Y27" s="19" t="s">
         <v>37</v>
@@ -5427,13 +5476,13 @@
         <v>1</v>
       </c>
       <c r="AF27" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AG27" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AJ27" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:36" s="20" customFormat="1">
@@ -5447,16 +5496,16 @@
         <v>111</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>73</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>94</v>
@@ -5505,7 +5554,7 @@
         <v>0.1</v>
       </c>
       <c r="X28" s="18" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Y28" s="19" t="s">
         <v>58</v>
@@ -5528,7 +5577,7 @@
         <v>115</v>
       </c>
       <c r="AJ28" s="19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:36" s="20" customFormat="1">
@@ -5539,19 +5588,19 @@
         <v>28</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H29" s="14" t="s">
         <v>82</v>
@@ -5617,10 +5666,10 @@
         <v>1</v>
       </c>
       <c r="AG29" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AJ29" s="19" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:36" s="20" customFormat="1">
@@ -5634,16 +5683,16 @@
         <v>52</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>53</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>82</v>
@@ -5692,7 +5741,7 @@
         <v>0.35</v>
       </c>
       <c r="X30" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Y30" s="19" t="s">
         <v>39</v>
@@ -5710,10 +5759,10 @@
         <v>2</v>
       </c>
       <c r="AH30" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AJ30" s="19" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:36" s="20" customFormat="1">
@@ -5724,19 +5773,19 @@
         <v>30</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>54</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>82</v>
@@ -5784,7 +5833,7 @@
         <v>0.35</v>
       </c>
       <c r="X31" s="18" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Y31" s="19" t="s">
         <v>37</v>
@@ -5803,10 +5852,10 @@
         <v>2</v>
       </c>
       <c r="AH31" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AJ31" s="19" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:36" s="20" customFormat="1">
@@ -5817,19 +5866,19 @@
         <v>31</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>82</v>
@@ -5878,7 +5927,7 @@
         <v>0.35</v>
       </c>
       <c r="X32" s="18" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Y32" s="19" t="s">
         <v>37</v>
@@ -5900,10 +5949,10 @@
         <v>1</v>
       </c>
       <c r="AH32" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AJ32" s="19" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:36" s="20" customFormat="1">
@@ -5914,19 +5963,19 @@
         <v>32</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>82</v>
@@ -5993,7 +6042,7 @@
       </c>
       <c r="AI33" s="23"/>
       <c r="AJ33" s="19" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:36" s="20" customFormat="1">
@@ -6004,19 +6053,19 @@
         <v>33</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H34" s="14" t="s">
         <v>82</v>
@@ -6065,7 +6114,7 @@
         <v>0.35</v>
       </c>
       <c r="X34" s="18" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Y34" s="19" t="s">
         <v>37</v>
@@ -6085,7 +6134,7 @@
       </c>
       <c r="AI34" s="24"/>
       <c r="AJ34" s="19" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:36" s="20" customFormat="1">
@@ -6096,19 +6145,19 @@
         <v>34</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H35" s="14" t="s">
         <v>82</v>
@@ -6174,7 +6223,7 @@
       </c>
       <c r="AI35" s="24"/>
       <c r="AJ35" s="19" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:36" s="20" customFormat="1">
@@ -6185,19 +6234,19 @@
         <v>35</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H36" s="14" t="s">
         <v>82</v>
@@ -6266,7 +6315,7 @@
       </c>
       <c r="AI36" s="24"/>
       <c r="AJ36" s="19" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:36" s="20" customFormat="1">
@@ -6277,19 +6326,19 @@
         <v>36</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>100</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H37" s="14" t="s">
         <v>82</v>
@@ -6354,14 +6403,14 @@
         <v>2</v>
       </c>
       <c r="AF37" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AG37" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AI37" s="24"/>
       <c r="AJ37" s="19" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:36" s="29" customFormat="1">
@@ -6372,19 +6421,19 @@
         <v>37</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E38" s="26" t="s">
         <v>85</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H38" s="26" t="s">
         <v>82</v>
@@ -6421,7 +6470,7 @@
         <v>0.74</v>
       </c>
       <c r="T38" s="26" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="U38" s="28">
         <v>1</v>
@@ -6434,7 +6483,7 @@
       </c>
       <c r="X38" s="25"/>
       <c r="Y38" s="29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Z38" s="29" t="s">
         <v>59</v>
@@ -6452,7 +6501,7 @@
         <v>1</v>
       </c>
       <c r="AG38" s="29" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AI38" s="30"/>
       <c r="AJ38" s="30"/>
@@ -6465,19 +6514,19 @@
         <v>38</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F39" s="33" t="s">
         <v>74</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H39" s="32" t="s">
         <v>84</v>
@@ -6514,7 +6563,7 @@
         <v>0.74</v>
       </c>
       <c r="T39" s="32" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="U39" s="34">
         <v>1</v>
@@ -6527,7 +6576,7 @@
       </c>
       <c r="X39" s="31"/>
       <c r="Y39" s="35" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z39" s="35" t="s">
         <v>47</v>
@@ -6542,10 +6591,10 @@
         <v>1</v>
       </c>
       <c r="AI39" s="36" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AJ39" s="19" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:36" s="35" customFormat="1">
@@ -6559,7 +6608,7 @@
         <v>113</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E40" s="32" t="s">
         <v>90</v>
@@ -6568,7 +6617,7 @@
         <v>73</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H40" s="32" t="s">
         <v>84</v>
@@ -6618,7 +6667,7 @@
       </c>
       <c r="X40" s="31"/>
       <c r="Y40" s="35" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Z40" s="35" t="s">
         <v>40</v>
@@ -6633,16 +6682,16 @@
         <v>1</v>
       </c>
       <c r="AF40" s="35" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AG40" s="35" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AI40" s="36" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AJ40" s="19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:36" s="35" customFormat="1">
@@ -6653,19 +6702,19 @@
         <v>40</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F41" s="32" t="s">
         <v>70</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H41" s="32" t="s">
         <v>84</v>
@@ -6730,10 +6779,10 @@
         <v>1</v>
       </c>
       <c r="AI41" s="36" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AJ41" s="19" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:36" s="35" customFormat="1">
@@ -6744,19 +6793,19 @@
         <v>41</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H42" s="32" t="s">
         <v>84</v>
@@ -6806,7 +6855,7 @@
       </c>
       <c r="X42" s="31"/>
       <c r="Y42" s="35" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z42" s="35" t="s">
         <v>33</v>
@@ -6821,13 +6870,13 @@
         <v>2</v>
       </c>
       <c r="AG42" s="35" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AI42" s="36" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AJ42" s="19" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:36" s="29" customFormat="1">
@@ -6838,13 +6887,13 @@
         <v>42</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F43" s="26" t="s">
         <v>67</v>
@@ -6900,7 +6949,7 @@
       </c>
       <c r="X43" s="25"/>
       <c r="Y43" s="29" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z43" s="29" t="s">
         <v>33</v>
@@ -6918,7 +6967,7 @@
         <v>2</v>
       </c>
       <c r="AG43" s="29" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AI43" s="30"/>
       <c r="AJ43" s="30"/>
@@ -6931,19 +6980,19 @@
         <v>43</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F44" s="32" t="s">
         <v>69</v>
       </c>
       <c r="G44" s="32" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H44" s="32" t="s">
         <v>84</v>
@@ -6993,7 +7042,7 @@
       </c>
       <c r="X44" s="31"/>
       <c r="Y44" s="35" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Z44" s="35" t="s">
         <v>36</v>
@@ -7011,10 +7060,10 @@
         <v>107</v>
       </c>
       <c r="AI44" s="36" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AJ44" s="19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:36" s="29" customFormat="1">
@@ -7025,13 +7074,13 @@
         <v>44</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F45" s="26" t="s">
         <v>67</v>
@@ -7087,7 +7136,7 @@
       </c>
       <c r="X45" s="25"/>
       <c r="Y45" s="29" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z45" s="29" t="s">
         <v>33</v>
@@ -7105,7 +7154,7 @@
         <v>2</v>
       </c>
       <c r="AG45" s="29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AI45" s="30"/>
       <c r="AJ45" s="30"/>
@@ -7121,7 +7170,7 @@
         <v>98</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E46" s="26" t="s">
         <v>101</v>
@@ -7180,7 +7229,7 @@
       </c>
       <c r="X46" s="25"/>
       <c r="Y46" s="29" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z46" s="29" t="s">
         <v>36</v>
@@ -7208,19 +7257,19 @@
         <v>46</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H47" s="32" t="s">
         <v>84</v>
@@ -7270,7 +7319,7 @@
       </c>
       <c r="X47" s="31"/>
       <c r="Y47" s="35" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Z47" s="35" t="s">
         <v>28</v>
@@ -7285,19 +7334,19 @@
         <v>2</v>
       </c>
       <c r="AF47" s="35" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AG47" s="35" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AH47" s="35" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AI47" s="36" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AJ47" s="19" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:36" s="35" customFormat="1">
@@ -7308,19 +7357,19 @@
         <v>47</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H48" s="32" t="s">
         <v>84</v>
@@ -7370,7 +7419,7 @@
       </c>
       <c r="X48" s="31"/>
       <c r="Y48" s="35" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z48" s="35" t="s">
         <v>33</v>
@@ -7385,13 +7434,13 @@
         <v>2</v>
       </c>
       <c r="AG48" s="35" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AI48" s="36" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AJ48" s="19" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:36" s="35" customFormat="1">
@@ -7402,19 +7451,19 @@
         <v>48</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H49" s="32" t="s">
         <v>84</v>
@@ -7482,10 +7531,10 @@
         <v>105</v>
       </c>
       <c r="AI49" s="36" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AJ49" s="19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:36" s="35" customFormat="1">
@@ -7496,19 +7545,19 @@
         <v>49</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H50" s="32" t="s">
         <v>84</v>
@@ -7576,13 +7625,13 @@
         <v>2</v>
       </c>
       <c r="AG50" s="35" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AI50" s="36" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AJ50" s="19" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:36" s="35" customFormat="1">
@@ -7593,13 +7642,13 @@
         <v>50</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F51" s="32" t="s">
         <v>71</v>
@@ -7608,7 +7657,7 @@
         <v>72</v>
       </c>
       <c r="H51" s="32" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I51" s="32">
         <v>2</v>
@@ -7642,7 +7691,7 @@
         <v>0.22</v>
       </c>
       <c r="T51" s="32" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="U51" s="34">
         <v>0.8</v>
@@ -7680,22 +7729,22 @@
         <v>51</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G52" s="32" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H52" s="32" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I52" s="32">
         <v>2.64</v>
@@ -7728,7 +7777,7 @@
         <v>0.74</v>
       </c>
       <c r="T52" s="32" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="U52" s="34">
         <v>1</v>
@@ -7740,10 +7789,10 @@
         <v>0.1</v>
       </c>
       <c r="Y52" s="37" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="Z52" s="35" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AA52" s="35">
         <v>1</v>
@@ -7764,22 +7813,22 @@
         <v>52</v>
       </c>
       <c r="C53" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="F53" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="G53" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="D53" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>329</v>
-      </c>
-      <c r="F53" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="G53" s="32" t="s">
-        <v>333</v>
-      </c>
       <c r="H53" s="32" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I53" s="32">
         <v>2.64</v>
@@ -7812,7 +7861,7 @@
         <v>0.74</v>
       </c>
       <c r="T53" s="32" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="U53" s="34">
         <v>1</v>
@@ -7824,10 +7873,10 @@
         <v>0.1</v>
       </c>
       <c r="Y53" s="37" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Z53" s="35" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AA53" s="35">
         <v>1</v>
@@ -7847,10 +7896,10 @@
         <v>53</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>116</v>
@@ -7924,13 +7973,13 @@
         <v>2</v>
       </c>
       <c r="AF54" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AG54" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AJ54" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:36" s="20" customFormat="1">
@@ -7941,16 +7990,16 @@
         <v>54</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>72</v>
@@ -8021,7 +8070,7 @@
         <v>114</v>
       </c>
       <c r="AJ55" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:36" s="20" customFormat="1">
@@ -8032,10 +8081,10 @@
         <v>55</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>41</v>
@@ -8044,7 +8093,7 @@
         <v>65</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>93</v>
@@ -8109,10 +8158,10 @@
         <v>2</v>
       </c>
       <c r="AG56" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AJ56" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:36" s="20" customFormat="1">
@@ -8123,10 +8172,10 @@
         <v>56</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>45</v>
@@ -8135,7 +8184,7 @@
         <v>68</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>93</v>
@@ -8200,10 +8249,10 @@
         <v>2</v>
       </c>
       <c r="AG57" s="19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AJ57" s="19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58" spans="1:36" s="20" customFormat="1">
@@ -8214,22 +8263,22 @@
         <v>57</v>
       </c>
       <c r="C58" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="E58" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="D58" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="E58" s="32" t="s">
-        <v>341</v>
-      </c>
       <c r="F58" s="32" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G58" s="32" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H58" s="32" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I58" s="32">
         <v>2.64</v>
@@ -8262,7 +8311,7 @@
         <v>0.74</v>
       </c>
       <c r="T58" s="32" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="U58" s="34">
         <v>1</v>
@@ -8274,10 +8323,10 @@
         <v>0.1</v>
       </c>
       <c r="Y58" s="37" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Z58" s="35" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AA58" s="35">
         <v>1</v>
@@ -8297,22 +8346,22 @@
         <v>58</v>
       </c>
       <c r="C59" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="D59" s="32" t="s">
         <v>358</v>
       </c>
-      <c r="D59" s="32" t="s">
-        <v>361</v>
-      </c>
       <c r="E59" s="32" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G59" s="32" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H59" s="32" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I59" s="32">
         <v>2.64</v>
@@ -8345,7 +8394,7 @@
         <v>0.74</v>
       </c>
       <c r="T59" s="32" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="U59" s="34">
         <v>1</v>
@@ -8357,10 +8406,10 @@
         <v>0.1</v>
       </c>
       <c r="Y59" s="37" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Z59" s="35" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AA59" s="35">
         <v>1</v>
@@ -8380,22 +8429,22 @@
         <v>59</v>
       </c>
       <c r="C60" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="D60" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="F60" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="D60" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="E60" s="32" t="s">
+      <c r="G60" s="32" t="s">
         <v>363</v>
       </c>
-      <c r="F60" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="G60" s="32" t="s">
-        <v>366</v>
-      </c>
       <c r="H60" s="32" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I60" s="32">
         <v>2.64</v>
@@ -8428,7 +8477,7 @@
         <v>0.74</v>
       </c>
       <c r="T60" s="32" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="U60" s="34">
         <v>1</v>
@@ -8440,10 +8489,10 @@
         <v>0.1</v>
       </c>
       <c r="Y60" s="37" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Z60" s="35" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AA60" s="35">
         <v>1</v>
@@ -8463,22 +8512,22 @@
         <v>60</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F61" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="G61" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="G61" s="32" t="s">
-        <v>368</v>
-      </c>
       <c r="H61" s="32" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I61" s="32">
         <v>2.64</v>
@@ -8511,7 +8560,7 @@
         <v>0.74</v>
       </c>
       <c r="T61" s="32" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="U61" s="34">
         <v>1</v>
@@ -8523,7 +8572,7 @@
         <v>0.1</v>
       </c>
       <c r="Y61" s="37" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Z61" s="35" t="s">
         <v>59</v>
@@ -8546,22 +8595,22 @@
         <v>61</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D62" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="E62" s="32" t="s">
         <v>371</v>
       </c>
-      <c r="E62" s="32" t="s">
-        <v>374</v>
-      </c>
       <c r="F62" s="38" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G62" s="38" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H62" s="32" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I62" s="32">
         <v>2.64</v>
@@ -8594,7 +8643,7 @@
         <v>0.74</v>
       </c>
       <c r="T62" s="32" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="U62" s="34">
         <v>1</v>
@@ -8606,10 +8655,10 @@
         <v>0.1</v>
       </c>
       <c r="X62" s="13" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Y62" s="39" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Z62" s="31" t="s">
         <v>59</v>
@@ -8632,22 +8681,22 @@
         <v>62</v>
       </c>
       <c r="C63" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="F63" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="G63" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="D63" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="E63" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F63" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="G63" s="32" t="s">
-        <v>378</v>
-      </c>
       <c r="H63" s="32" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I63" s="32">
         <v>2.64</v>
@@ -8680,7 +8729,7 @@
         <v>0.74</v>
       </c>
       <c r="T63" s="32" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="U63" s="34">
         <v>1</v>
@@ -8692,7 +8741,7 @@
         <v>0.1</v>
       </c>
       <c r="Y63" s="37" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Z63" s="35" t="s">
         <v>59</v>
@@ -8715,19 +8764,19 @@
         <v>63</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H64" s="14" t="s">
         <v>94</v>
@@ -8775,7 +8824,7 @@
         <v>0.35</v>
       </c>
       <c r="X64" s="18" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Y64" s="19" t="s">
         <v>42</v>
@@ -8796,10 +8845,10 @@
         <v>102</v>
       </c>
       <c r="AG64" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AJ64" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" spans="1:36" s="20" customFormat="1">
@@ -8810,19 +8859,19 @@
         <v>64</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H65" s="21" t="s">
         <v>94</v>
@@ -8871,7 +8920,7 @@
         <v>0.35</v>
       </c>
       <c r="X65" s="18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y65" s="19" t="s">
         <v>39</v>
@@ -8889,10 +8938,10 @@
         <v>1</v>
       </c>
       <c r="AG65" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AJ65" s="19" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:36" s="20" customFormat="1">
@@ -8906,16 +8955,16 @@
         <v>96</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>99</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H66" s="21" t="s">
         <v>94</v>
@@ -8964,7 +9013,7 @@
         <v>0.8</v>
       </c>
       <c r="X66" s="18" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Y66" s="19" t="s">
         <v>25</v>
@@ -8985,7 +9034,7 @@
         <v>104</v>
       </c>
       <c r="AJ66" s="19" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="1:36" s="20" customFormat="1">
@@ -8999,16 +9048,16 @@
         <v>51</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F67" s="17" t="s">
         <v>69</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H67" s="21" t="s">
         <v>94</v>
@@ -9057,7 +9106,7 @@
         <v>0.35</v>
       </c>
       <c r="X67" s="18" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Y67" s="19" t="s">
         <v>46</v>
@@ -9076,7 +9125,7 @@
         <v>1</v>
       </c>
       <c r="AJ67" s="19" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="68" spans="1:36" s="20" customFormat="1">
@@ -9090,16 +9139,16 @@
         <v>112</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>67</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H68" s="21" t="s">
         <v>94</v>
@@ -9148,7 +9197,7 @@
         <v>0.35</v>
       </c>
       <c r="X68" s="18" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Y68" s="19" t="s">
         <v>37</v>
@@ -9170,10 +9219,10 @@
         <v>102</v>
       </c>
       <c r="AG68" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AJ68" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="69" spans="1:36" s="20" customFormat="1">
@@ -9187,16 +9236,16 @@
         <v>111</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F69" s="21" t="s">
         <v>73</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H69" s="21" t="s">
         <v>94</v>
@@ -9245,7 +9294,7 @@
         <v>0.1</v>
       </c>
       <c r="X69" s="18" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Y69" s="19" t="s">
         <v>58</v>
@@ -9268,7 +9317,7 @@
         <v>115</v>
       </c>
       <c r="AJ69" s="19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/fish3d_config.xlsx
+++ b/config_hlw/fish3d_config.xlsx
@@ -25,7 +25,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="AH1" authorId="0" shapeId="0">
+    <comment ref="AI1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="1" shapeId="0">
+    <comment ref="AJ1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="434">
   <si>
     <t>line|行号</t>
   </si>
@@ -878,10 +878,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Fish3D045</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Fish3D048</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -945,19 +941,6 @@
   </si>
   <si>
     <t>Fish3D075</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D072</t>
-  </si>
-  <si>
-    <t>Fish3D073</t>
-  </si>
-  <si>
-    <t>Fish3D074</t>
-  </si>
-  <si>
-    <t>fish3d/x_0010 1/xiaoyu</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2334,10 +2317,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>鲸鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_icon_yu113</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2367,6 +2346,111 @@
   </si>
   <si>
     <t>fish3d/FishView/Adapt/DieAction/fish_xiaowugui_001/fish_xiaowugui_001 1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D117</t>
+  </si>
+  <si>
+    <t>Fish3D118</t>
+  </si>
+  <si>
+    <t>Fish3D116</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3d/FishView/Adapt/DieAction/fish_fuyu_001/fish_fuyu_001 1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3d/FishView/Adapt/DieAction/fish_haitun/fish_haitun_001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3d/FishView/Adapt/DieAction/fish_shuangqisha_001/bone_00001/fish_shuangqisha_001 1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotation</t>
+  </si>
+  <si>
+    <t>Fish3D074</t>
+  </si>
+  <si>
+    <t>3dby_imgf_hj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,11,12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fish3d/z_0007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"bgm_by_siwang15",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2527,7 +2611,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2671,6 +2755,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2950,11 +3040,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AJ69"/>
+  <dimension ref="A1:AK69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2968,27 +3058,28 @@
     <col min="11" max="11" width="17.875" customWidth="1"/>
     <col min="12" max="12" width="17.625" customWidth="1"/>
     <col min="13" max="14" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.75" customWidth="1"/>
-    <col min="18" max="18" width="21.75" customWidth="1"/>
-    <col min="19" max="20" width="24.25" customWidth="1"/>
-    <col min="21" max="21" width="21.125" customWidth="1"/>
-    <col min="22" max="23" width="19.75" customWidth="1"/>
-    <col min="24" max="24" width="18.625" customWidth="1"/>
-    <col min="25" max="25" width="12.75" customWidth="1"/>
-    <col min="26" max="26" width="14.25" customWidth="1"/>
-    <col min="27" max="27" width="14.5" customWidth="1"/>
-    <col min="28" max="28" width="12.625" customWidth="1"/>
-    <col min="29" max="29" width="10.75" customWidth="1"/>
-    <col min="30" max="30" width="18.875" customWidth="1"/>
-    <col min="32" max="32" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="41.75" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="30.75" customWidth="1"/>
-    <col min="36" max="36" width="83.875" customWidth="1"/>
+    <col min="15" max="15" width="14.375" customWidth="1"/>
+    <col min="16" max="17" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.75" customWidth="1"/>
+    <col min="19" max="19" width="21.75" customWidth="1"/>
+    <col min="20" max="21" width="24.25" customWidth="1"/>
+    <col min="22" max="22" width="21.125" customWidth="1"/>
+    <col min="23" max="24" width="19.75" customWidth="1"/>
+    <col min="25" max="25" width="18.625" customWidth="1"/>
+    <col min="26" max="26" width="12.75" customWidth="1"/>
+    <col min="27" max="27" width="14.25" customWidth="1"/>
+    <col min="28" max="28" width="14.5" customWidth="1"/>
+    <col min="29" max="29" width="12.625" customWidth="1"/>
+    <col min="30" max="30" width="10.75" customWidth="1"/>
+    <col min="31" max="31" width="18.875" customWidth="1"/>
+    <col min="33" max="33" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="41.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="30.75" customWidth="1"/>
+    <col min="37" max="37" width="83.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="60.75" customHeight="1">
+    <row r="1" spans="1:37" ht="60.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3032,73 +3123,76 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="AB1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="AG1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>243</v>
+        <v>146</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>285</v>
+        <v>238</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="9" customFormat="1">
+    <row r="2" spans="1:37" s="9" customFormat="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3106,19 +3200,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>91</v>
@@ -3141,53 +3235,54 @@
       <c r="N2" s="3">
         <v>2</v>
       </c>
-      <c r="O2" s="3">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="5">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="5">
         <v>0.5</v>
       </c>
-      <c r="R2" s="7">
-        <v>1</v>
-      </c>
       <c r="S2" s="7">
+        <v>1</v>
+      </c>
+      <c r="T2" s="7">
         <v>0.1</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="7">
+      <c r="V2" s="7">
         <v>0.6</v>
       </c>
-      <c r="V2" s="7">
-        <v>1</v>
-      </c>
       <c r="W2" s="7">
         <v>1</v>
       </c>
-      <c r="X2" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y2" s="8" t="s">
+      <c r="X2" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="9">
+      <c r="AD2" s="9">
         <v>9000</v>
       </c>
-      <c r="AD2" s="9">
+      <c r="AE2" s="9">
         <v>1.2</v>
       </c>
-      <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
-      <c r="AJ2" s="8" t="s">
-        <v>315</v>
+      <c r="AH2" s="8"/>
+      <c r="AK2" s="8" t="s">
+        <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="9" customFormat="1">
+    <row r="3" spans="1:37" s="9" customFormat="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3195,13 +3290,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>62</v>
@@ -3230,52 +3325,53 @@
       <c r="N3" s="3">
         <v>2</v>
       </c>
-      <c r="O3" s="3">
-        <v>1</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="5">
+      <c r="O3" s="3"/>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="5">
         <v>0.60000000000000009</v>
       </c>
-      <c r="R3" s="7">
-        <v>1</v>
-      </c>
       <c r="S3" s="7">
+        <v>1</v>
+      </c>
+      <c r="T3" s="7">
         <v>0.12</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="7">
+      <c r="V3" s="7">
         <v>0.6</v>
       </c>
-      <c r="V3" s="7">
-        <v>1</v>
-      </c>
       <c r="W3" s="7">
+        <v>1</v>
+      </c>
+      <c r="X3" s="7">
         <v>0.8</v>
       </c>
-      <c r="X3" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Y3" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="AA3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AC3" s="9">
+      <c r="AD3" s="9">
         <v>8900</v>
       </c>
-      <c r="AD3" s="9">
+      <c r="AE3" s="9">
         <v>1.2</v>
       </c>
-      <c r="AG3" s="8"/>
-      <c r="AJ3" s="8" t="s">
-        <v>315</v>
+      <c r="AH3" s="8"/>
+      <c r="AK3" s="8" t="s">
+        <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="9" customFormat="1">
+    <row r="4" spans="1:37" s="9" customFormat="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3283,13 +3379,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>64</v>
@@ -3318,53 +3414,54 @@
       <c r="N4" s="3">
         <v>3</v>
       </c>
-      <c r="O4" s="3">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="5">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="5">
         <v>0.7</v>
       </c>
-      <c r="R4" s="7">
-        <v>1</v>
-      </c>
       <c r="S4" s="7">
+        <v>1</v>
+      </c>
+      <c r="T4" s="7">
         <v>0.32</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="7">
+      <c r="V4" s="7">
         <v>0.6</v>
       </c>
-      <c r="V4" s="7">
-        <v>1</v>
-      </c>
       <c r="W4" s="7">
+        <v>1</v>
+      </c>
+      <c r="X4" s="7">
         <v>0.35</v>
       </c>
-      <c r="X4" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y4" s="8" t="s">
+      <c r="Y4" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="AA4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AC4" s="9">
+      <c r="AD4" s="9">
         <v>8800</v>
       </c>
-      <c r="AD4" s="9">
+      <c r="AE4" s="9">
         <v>1.2</v>
       </c>
-      <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
-      <c r="AJ4" s="8" t="s">
-        <v>315</v>
+      <c r="AH4" s="8"/>
+      <c r="AK4" s="8" t="s">
+        <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="9" customFormat="1">
+    <row r="5" spans="1:37" s="9" customFormat="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3372,13 +3469,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>63</v>
@@ -3407,52 +3504,53 @@
       <c r="N5" s="3">
         <v>4</v>
       </c>
-      <c r="O5" s="3">
-        <v>1</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="5">
+      <c r="O5" s="3"/>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="5">
         <v>0.60000000000000009</v>
       </c>
-      <c r="R5" s="7">
+      <c r="S5" s="7">
         <v>1.2</v>
       </c>
-      <c r="S5" s="7">
+      <c r="T5" s="7">
         <v>0.18</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="U5" s="7">
+      <c r="V5" s="7">
         <v>0.6</v>
       </c>
-      <c r="V5" s="7">
-        <v>1</v>
-      </c>
       <c r="W5" s="7">
+        <v>1</v>
+      </c>
+      <c r="X5" s="7">
         <v>0.6</v>
       </c>
-      <c r="X5" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="Y5" s="8" t="s">
+      <c r="Y5" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="8" t="s">
+      <c r="AA5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AC5" s="9">
+      <c r="AD5" s="9">
         <v>8700</v>
       </c>
-      <c r="AD5" s="9">
+      <c r="AE5" s="9">
         <v>1.2</v>
       </c>
-      <c r="AG5" s="8"/>
-      <c r="AJ5" s="8" t="s">
-        <v>315</v>
+      <c r="AH5" s="8"/>
+      <c r="AK5" s="8" t="s">
+        <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="47" customFormat="1">
+    <row r="6" spans="1:37" s="47" customFormat="1">
       <c r="A6" s="40">
         <v>5</v>
       </c>
@@ -3460,16 +3558,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>72</v>
@@ -3495,58 +3593,59 @@
       <c r="N6" s="40">
         <v>25</v>
       </c>
-      <c r="O6" s="40">
+      <c r="O6" s="40"/>
+      <c r="P6" s="40">
         <v>2</v>
       </c>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="41">
+      <c r="Q6" s="40"/>
+      <c r="R6" s="41">
         <v>0.8</v>
       </c>
-      <c r="R6" s="43">
-        <v>1</v>
-      </c>
       <c r="S6" s="43">
+        <v>1</v>
+      </c>
+      <c r="T6" s="43">
         <v>0.26</v>
       </c>
-      <c r="T6" s="44" t="s">
+      <c r="U6" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="U6" s="43">
+      <c r="V6" s="43">
         <v>0.8</v>
       </c>
-      <c r="V6" s="43">
-        <v>1</v>
-      </c>
       <c r="W6" s="43">
+        <v>1</v>
+      </c>
+      <c r="X6" s="43">
         <v>0.4</v>
       </c>
-      <c r="X6" s="45" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y6" s="46" t="s">
+      <c r="Y6" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z6" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="Z6" s="46" t="s">
+      <c r="AA6" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="47">
+      <c r="AD6" s="47">
         <v>7500</v>
       </c>
-      <c r="AD6" s="47">
+      <c r="AE6" s="47">
         <v>1.5</v>
       </c>
-      <c r="AE6" s="47">
+      <c r="AF6" s="47">
         <v>2</v>
       </c>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46" t="s">
-        <v>425</v>
-      </c>
-      <c r="AJ6" s="46" t="s">
-        <v>288</v>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="46" t="s">
+        <v>419</v>
+      </c>
+      <c r="AK6" s="46" t="s">
+        <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:36" s="9" customFormat="1">
+    <row r="7" spans="1:37" s="9" customFormat="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3554,13 +3653,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>72</v>
@@ -3589,55 +3688,56 @@
       <c r="N7" s="3">
         <v>6</v>
       </c>
-      <c r="O7" s="3">
-        <v>1</v>
-      </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="5">
+      <c r="O7" s="3"/>
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="5">
         <v>0.60000000000000009</v>
       </c>
-      <c r="R7" s="7">
-        <v>1</v>
-      </c>
       <c r="S7" s="7">
+        <v>1</v>
+      </c>
+      <c r="T7" s="7">
         <v>0.26</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="U7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="U7" s="7">
+      <c r="V7" s="7">
         <v>0.8</v>
       </c>
-      <c r="V7" s="7">
-        <v>1</v>
-      </c>
       <c r="W7" s="7">
+        <v>1</v>
+      </c>
+      <c r="X7" s="7">
         <v>0.4</v>
       </c>
-      <c r="X7" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y7" s="8" t="s">
+      <c r="Y7" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Z7" s="8" t="s">
+      <c r="AA7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AC7" s="9">
+      <c r="AD7" s="9">
         <v>8500</v>
       </c>
-      <c r="AD7" s="9">
+      <c r="AE7" s="9">
         <v>1.5</v>
       </c>
-      <c r="AE7" s="9">
+      <c r="AF7" s="9">
         <v>2</v>
       </c>
-      <c r="AG7" s="8"/>
-      <c r="AJ7" s="8" t="s">
-        <v>315</v>
+      <c r="AH7" s="8"/>
+      <c r="AK7" s="8" t="s">
+        <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="9" customFormat="1">
+    <row r="8" spans="1:37" s="9" customFormat="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3645,16 +3745,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>61</v>
@@ -3680,55 +3780,56 @@
       <c r="N8" s="3">
         <v>7</v>
       </c>
-      <c r="O8" s="3">
-        <v>1</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="5">
+      <c r="O8" s="3"/>
+      <c r="P8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="5">
         <v>0.7</v>
       </c>
-      <c r="R8" s="7">
-        <v>1</v>
-      </c>
       <c r="S8" s="7">
+        <v>1</v>
+      </c>
+      <c r="T8" s="7">
         <v>0.32</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="U8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="U8" s="7">
+      <c r="V8" s="7">
         <v>0.6</v>
       </c>
-      <c r="V8" s="7">
-        <v>1</v>
-      </c>
       <c r="W8" s="7">
+        <v>1</v>
+      </c>
+      <c r="X8" s="7">
         <v>0.35</v>
       </c>
-      <c r="X8" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y8" s="8" t="s">
+      <c r="Y8" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Z8" s="8" t="s">
+      <c r="AA8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AA8" s="9">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="9">
-        <f>AC7-100</f>
+      <c r="AB8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="9">
+        <f>AD7-100</f>
         <v>8400</v>
       </c>
-      <c r="AD8" s="9">
+      <c r="AE8" s="9">
         <v>1.2</v>
       </c>
-      <c r="AJ8" s="8" t="s">
-        <v>315</v>
+      <c r="AK8" s="8" t="s">
+        <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:36" s="9" customFormat="1">
+    <row r="9" spans="1:37" s="9" customFormat="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3736,13 +3837,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>71</v>
@@ -3771,56 +3872,57 @@
       <c r="N9" s="3">
         <v>8</v>
       </c>
-      <c r="O9" s="3">
-        <v>1</v>
-      </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="5">
+      <c r="O9" s="3"/>
+      <c r="P9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="5">
         <v>0.60000000000000009</v>
       </c>
-      <c r="R9" s="7">
-        <v>1</v>
-      </c>
       <c r="S9" s="7">
+        <v>1</v>
+      </c>
+      <c r="T9" s="7">
         <v>0.26</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="U9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="U9" s="7">
+      <c r="V9" s="7">
         <v>0.8</v>
       </c>
-      <c r="V9" s="7">
-        <v>1</v>
-      </c>
       <c r="W9" s="7">
+        <v>1</v>
+      </c>
+      <c r="X9" s="7">
         <v>0.4</v>
       </c>
-      <c r="X9" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="Y9" s="8" t="s">
+      <c r="Y9" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Z9" s="8" t="s">
+      <c r="AA9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AC9" s="9">
-        <f t="shared" ref="AC9:AC14" si="0">AC8-100</f>
+      <c r="AD9" s="9">
+        <f t="shared" ref="AD9:AD14" si="0">AD8-100</f>
         <v>8300</v>
       </c>
-      <c r="AD9" s="9">
+      <c r="AE9" s="9">
         <v>1.5</v>
       </c>
-      <c r="AE9" s="9">
+      <c r="AF9" s="9">
         <v>2</v>
       </c>
-      <c r="AG9" s="8"/>
-      <c r="AJ9" s="8" t="s">
-        <v>315</v>
+      <c r="AH9" s="8"/>
+      <c r="AK9" s="8" t="s">
+        <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="9" customFormat="1">
+    <row r="10" spans="1:37" s="9" customFormat="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3828,13 +3930,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>66</v>
@@ -3863,55 +3965,56 @@
       <c r="N10" s="3">
         <v>10</v>
       </c>
-      <c r="O10" s="3">
-        <v>1</v>
-      </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="5">
+      <c r="O10" s="3"/>
+      <c r="P10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="5">
         <v>0.5</v>
       </c>
-      <c r="R10" s="7">
-        <v>1</v>
-      </c>
       <c r="S10" s="7">
+        <v>1</v>
+      </c>
+      <c r="T10" s="7">
         <v>0.22</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="U10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="U10" s="7">
+      <c r="V10" s="7">
         <v>0.8</v>
       </c>
-      <c r="V10" s="7">
-        <v>1</v>
-      </c>
       <c r="W10" s="7">
+        <v>1</v>
+      </c>
+      <c r="X10" s="7">
         <v>0.45</v>
       </c>
-      <c r="X10" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="Y10" s="10" t="s">
+      <c r="Y10" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Z10" s="8" t="s">
+      <c r="AA10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AC10" s="9">
+      <c r="AD10" s="9">
         <f t="shared" si="0"/>
         <v>8200</v>
       </c>
-      <c r="AD10" s="9">
+      <c r="AE10" s="9">
         <v>1.5</v>
       </c>
-      <c r="AE10" s="9">
+      <c r="AF10" s="9">
         <v>2</v>
       </c>
-      <c r="AJ10" s="8" t="s">
-        <v>315</v>
+      <c r="AK10" s="8" t="s">
+        <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:36" s="9" customFormat="1">
+    <row r="11" spans="1:37" s="9" customFormat="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3919,13 +4022,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>67</v>
@@ -3954,56 +4057,57 @@
       <c r="N11" s="3">
         <v>12</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3">
         <v>2</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="5">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="R11" s="7">
+      <c r="S11" s="7">
         <v>1.2</v>
       </c>
-      <c r="S11" s="7">
+      <c r="T11" s="7">
         <v>0.4</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="U11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="U11" s="7">
-        <v>1</v>
-      </c>
       <c r="V11" s="7">
         <v>1</v>
       </c>
       <c r="W11" s="7">
+        <v>1</v>
+      </c>
+      <c r="X11" s="7">
         <v>0.5</v>
       </c>
-      <c r="X11" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="Y11" s="8" t="s">
+      <c r="Y11" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Z11" s="8" t="s">
+      <c r="AA11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AC11" s="9">
+      <c r="AD11" s="9">
         <f t="shared" si="0"/>
         <v>8100</v>
       </c>
-      <c r="AD11" s="9">
+      <c r="AE11" s="9">
         <v>1.5</v>
       </c>
-      <c r="AE11" s="9">
+      <c r="AF11" s="9">
         <v>2</v>
       </c>
-      <c r="AG11" s="8"/>
-      <c r="AJ11" s="8" t="s">
-        <v>288</v>
+      <c r="AH11" s="8"/>
+      <c r="AK11" s="8" t="s">
+        <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:36" s="9" customFormat="1">
+    <row r="12" spans="1:37" s="9" customFormat="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4011,13 +4115,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>68</v>
@@ -4046,56 +4150,57 @@
       <c r="N12" s="3">
         <v>15</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3"/>
+      <c r="P12" s="3">
         <v>2</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="5">
+      <c r="Q12" s="3"/>
+      <c r="R12" s="5">
         <v>0.8</v>
       </c>
-      <c r="R12" s="7">
-        <v>1</v>
-      </c>
       <c r="S12" s="7">
+        <v>1</v>
+      </c>
+      <c r="T12" s="7">
         <v>0.6</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="U12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U12" s="7">
+      <c r="V12" s="7">
         <v>0.7</v>
       </c>
-      <c r="V12" s="7">
-        <v>1</v>
-      </c>
       <c r="W12" s="7">
+        <v>1</v>
+      </c>
+      <c r="X12" s="7">
         <v>0.35</v>
       </c>
-      <c r="X12" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="Y12" s="8" t="s">
+      <c r="Y12" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Z12" s="8" t="s">
+      <c r="AA12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AC12" s="9">
+      <c r="AD12" s="9">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="AD12" s="9">
+      <c r="AE12" s="9">
         <v>1.5</v>
       </c>
-      <c r="AE12" s="9">
+      <c r="AF12" s="9">
         <v>2</v>
       </c>
-      <c r="AG12" s="8"/>
-      <c r="AJ12" s="8" t="s">
-        <v>288</v>
+      <c r="AH12" s="8"/>
+      <c r="AK12" s="8" t="s">
+        <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:36" s="9" customFormat="1">
+    <row r="13" spans="1:37" s="9" customFormat="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4103,13 +4208,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>69</v>
@@ -4138,56 +4243,57 @@
       <c r="N13" s="3">
         <v>18</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="3"/>
+      <c r="P13" s="3">
         <v>3</v>
       </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="5">
+      <c r="Q13" s="3"/>
+      <c r="R13" s="5">
         <v>0.7</v>
       </c>
-      <c r="R13" s="7">
-        <v>1</v>
-      </c>
       <c r="S13" s="7">
+        <v>1</v>
+      </c>
+      <c r="T13" s="7">
         <v>0.74</v>
       </c>
-      <c r="T13" s="5" t="s">
+      <c r="U13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U13" s="7">
-        <v>1</v>
-      </c>
       <c r="V13" s="7">
+        <v>1</v>
+      </c>
+      <c r="W13" s="7">
         <v>0.7</v>
       </c>
-      <c r="W13" s="7">
+      <c r="X13" s="7">
         <v>0.35</v>
       </c>
-      <c r="X13" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y13" s="8" t="s">
+      <c r="Y13" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Z13" s="8" t="s">
+      <c r="AA13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AC13" s="9">
+      <c r="AD13" s="9">
         <f t="shared" si="0"/>
         <v>7900</v>
       </c>
-      <c r="AD13" s="9">
+      <c r="AE13" s="9">
         <v>1.5</v>
       </c>
-      <c r="AE13" s="9">
+      <c r="AF13" s="9">
         <v>2</v>
       </c>
-      <c r="AG13" s="8"/>
-      <c r="AJ13" s="8" t="s">
-        <v>288</v>
+      <c r="AH13" s="8"/>
+      <c r="AK13" s="8" t="s">
+        <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="9" customFormat="1">
+    <row r="14" spans="1:37" s="9" customFormat="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4195,13 +4301,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>78</v>
@@ -4230,57 +4336,58 @@
       <c r="N14" s="3">
         <v>20</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3"/>
+      <c r="P14" s="3">
         <v>3</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="5">
+      <c r="Q14" s="3"/>
+      <c r="R14" s="5">
         <v>0.7</v>
       </c>
-      <c r="R14" s="7">
-        <v>1</v>
-      </c>
       <c r="S14" s="7">
+        <v>1</v>
+      </c>
+      <c r="T14" s="7">
         <v>0.8</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="U14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U14" s="7">
+      <c r="V14" s="7">
         <v>0.7</v>
       </c>
-      <c r="V14" s="7">
-        <v>1</v>
-      </c>
       <c r="W14" s="7">
+        <v>1</v>
+      </c>
+      <c r="X14" s="7">
         <v>0.35</v>
       </c>
-      <c r="X14" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y14" s="8" t="s">
+      <c r="Y14" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Z14" s="8" t="s">
+      <c r="AA14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AC14" s="9">
+      <c r="AD14" s="9">
         <f t="shared" si="0"/>
         <v>7800</v>
       </c>
-      <c r="AD14" s="9">
+      <c r="AE14" s="9">
         <v>1.5</v>
       </c>
-      <c r="AE14" s="9">
+      <c r="AF14" s="9">
         <v>2</v>
       </c>
-      <c r="AF14" s="8"/>
       <c r="AG14" s="8"/>
-      <c r="AJ14" s="8" t="s">
-        <v>288</v>
+      <c r="AH14" s="8"/>
+      <c r="AK14" s="8" t="s">
+        <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:36" s="47" customFormat="1">
+    <row r="15" spans="1:37" s="47" customFormat="1">
       <c r="A15" s="40">
         <v>14</v>
       </c>
@@ -4288,19 +4395,19 @@
         <v>14</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>75</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H15" s="41" t="s">
         <v>92</v>
@@ -4323,430 +4430,434 @@
       <c r="N15" s="40">
         <v>25</v>
       </c>
-      <c r="O15" s="40">
+      <c r="O15" s="40"/>
+      <c r="P15" s="40">
         <v>2</v>
       </c>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="41">
+      <c r="Q15" s="40"/>
+      <c r="R15" s="41">
         <v>0.8</v>
       </c>
-      <c r="R15" s="43">
-        <v>1</v>
-      </c>
       <c r="S15" s="43">
+        <v>1</v>
+      </c>
+      <c r="T15" s="43">
         <v>0.26</v>
       </c>
-      <c r="T15" s="44" t="s">
+      <c r="U15" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="U15" s="43">
+      <c r="V15" s="43">
         <v>0.8</v>
       </c>
-      <c r="V15" s="43">
-        <v>1</v>
-      </c>
       <c r="W15" s="43">
+        <v>1</v>
+      </c>
+      <c r="X15" s="43">
         <v>0.4</v>
       </c>
-      <c r="X15" s="45" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y15" s="46" t="s">
+      <c r="Y15" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z15" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="Z15" s="46" t="s">
+      <c r="AA15" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="AC15" s="47">
+      <c r="AD15" s="47">
         <v>7500</v>
       </c>
-      <c r="AD15" s="47">
+      <c r="AE15" s="47">
         <v>1.5</v>
       </c>
-      <c r="AE15" s="47">
+      <c r="AF15" s="47">
         <v>2</v>
       </c>
-      <c r="AF15" s="46"/>
-      <c r="AG15" s="46" t="s">
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="46" t="s">
+        <v>420</v>
+      </c>
+      <c r="AK15" s="46" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" s="47" customFormat="1">
+      <c r="A16" s="40">
+        <v>15</v>
+      </c>
+      <c r="B16" s="40">
+        <v>15</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="41">
+        <v>1.53</v>
+      </c>
+      <c r="J16" s="41">
+        <v>1.48</v>
+      </c>
+      <c r="K16" s="40">
+        <v>1.5</v>
+      </c>
+      <c r="L16" s="40">
+        <v>30</v>
+      </c>
+      <c r="M16" s="42">
+        <v>1</v>
+      </c>
+      <c r="N16" s="40">
+        <v>30</v>
+      </c>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="S16" s="43">
+        <v>1</v>
+      </c>
+      <c r="T16" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="U16" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="V16" s="43">
+        <v>0.7</v>
+      </c>
+      <c r="W16" s="43">
+        <v>1</v>
+      </c>
+      <c r="X16" s="43">
+        <v>0.35</v>
+      </c>
+      <c r="Y16" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z16" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA16" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD16" s="47">
+        <v>7400</v>
+      </c>
+      <c r="AE16" s="47">
+        <v>1.5</v>
+      </c>
+      <c r="AF16" s="47">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="46" t="s">
+        <v>424</v>
+      </c>
+      <c r="AK16" s="46" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" s="47" customFormat="1">
+      <c r="A17" s="40">
+        <v>16</v>
+      </c>
+      <c r="B17" s="40">
+        <v>16</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="J17" s="41">
+        <v>1.3</v>
+      </c>
+      <c r="K17" s="40">
+        <v>1.5</v>
+      </c>
+      <c r="L17" s="40">
+        <v>30</v>
+      </c>
+      <c r="M17" s="42">
+        <v>1</v>
+      </c>
+      <c r="N17" s="40">
+        <v>35</v>
+      </c>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="S17" s="43">
+        <v>1</v>
+      </c>
+      <c r="T17" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="U17" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="V17" s="43">
+        <v>1</v>
+      </c>
+      <c r="W17" s="43">
+        <v>1</v>
+      </c>
+      <c r="X17" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="Y17" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z17" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA17" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD17" s="47">
+        <v>7300</v>
+      </c>
+      <c r="AE17" s="47">
+        <v>1.5</v>
+      </c>
+      <c r="AF17" s="47">
+        <v>2</v>
+      </c>
+      <c r="AH17" s="46" t="s">
+        <v>425</v>
+      </c>
+      <c r="AK17" s="46" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" s="47" customFormat="1">
+      <c r="A18" s="40">
+        <v>17</v>
+      </c>
+      <c r="B18" s="40">
+        <v>17</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="41">
+        <v>1.53</v>
+      </c>
+      <c r="J18" s="41">
+        <v>1.48</v>
+      </c>
+      <c r="K18" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="L18" s="40">
+        <v>30</v>
+      </c>
+      <c r="M18" s="42">
+        <v>1</v>
+      </c>
+      <c r="N18" s="40">
+        <v>40</v>
+      </c>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="S18" s="43">
+        <v>1</v>
+      </c>
+      <c r="T18" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="U18" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="V18" s="43">
+        <v>1.2</v>
+      </c>
+      <c r="W18" s="43">
+        <v>1</v>
+      </c>
+      <c r="X18" s="43">
+        <v>0.35</v>
+      </c>
+      <c r="Y18" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z18" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA18" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD18" s="47">
+        <v>7200</v>
+      </c>
+      <c r="AE18" s="47">
+        <v>1.5</v>
+      </c>
+      <c r="AF18" s="47">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="46" t="s">
         <v>426</v>
       </c>
-      <c r="AJ15" s="46" t="s">
-        <v>288</v>
+      <c r="AK18" s="46" t="s">
+        <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:36" s="20" customFormat="1">
-      <c r="A16" s="13">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13">
-        <v>15</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="14">
-        <v>1.53</v>
-      </c>
-      <c r="J16" s="14">
-        <v>1.48</v>
-      </c>
-      <c r="K16" s="13">
+    <row r="19" spans="1:37" s="9" customFormat="1">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="K19" s="3">
         <v>1.5</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L19" s="3">
         <v>30</v>
       </c>
-      <c r="M16" s="15">
-        <v>1</v>
-      </c>
-      <c r="N16" s="13">
-        <v>30</v>
-      </c>
-      <c r="O16" s="13">
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
+      <c r="N19" s="3">
+        <v>60</v>
+      </c>
+      <c r="O19" s="3">
         <v>4</v>
       </c>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="14">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="R19" s="7">
+        <v>1</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U19" s="7">
         <v>0.7</v>
       </c>
-      <c r="R16" s="16">
-        <v>1</v>
-      </c>
-      <c r="S16" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="T16" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="U16" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="V16" s="16">
-        <v>1</v>
-      </c>
-      <c r="W16" s="16">
+      <c r="V19" s="7">
+        <v>1</v>
+      </c>
+      <c r="W19" s="7">
         <v>0.35</v>
       </c>
-      <c r="X16" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y16" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z16" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC16" s="20">
-        <v>7400</v>
-      </c>
-      <c r="AD16" s="20">
+      <c r="X19" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC19" s="9">
+        <v>7100</v>
+      </c>
+      <c r="AD19" s="9">
         <v>1.5</v>
       </c>
-      <c r="AE16" s="20">
+      <c r="AE19" s="9">
         <v>2</v>
       </c>
-      <c r="AG16" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ16" s="19" t="s">
-        <v>288</v>
+      <c r="AG19" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="AJ19" s="8" t="s">
+        <v>433</v>
       </c>
     </row>
-    <row r="17" spans="1:36" s="20" customFormat="1">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13">
-        <v>16</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="J17" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="K17" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="L17" s="13">
-        <v>30</v>
-      </c>
-      <c r="M17" s="15">
-        <v>1</v>
-      </c>
-      <c r="N17" s="13">
-        <v>35</v>
-      </c>
-      <c r="O17" s="13">
-        <v>3</v>
-      </c>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="R17" s="16">
-        <v>1</v>
-      </c>
-      <c r="S17" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="T17" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="U17" s="16">
-        <v>1</v>
-      </c>
-      <c r="V17" s="16">
-        <v>1</v>
-      </c>
-      <c r="W17" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="X17" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y17" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC17" s="20">
-        <v>7300</v>
-      </c>
-      <c r="AD17" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="AE17" s="20">
-        <v>2</v>
-      </c>
-      <c r="AG17" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ17" s="19" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" s="20" customFormat="1">
-      <c r="A18" s="13">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13">
-        <v>17</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="14">
-        <v>1.53</v>
-      </c>
-      <c r="J18" s="14">
-        <v>1.48</v>
-      </c>
-      <c r="K18" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="L18" s="13">
-        <v>30</v>
-      </c>
-      <c r="M18" s="15">
-        <v>1</v>
-      </c>
-      <c r="N18" s="13">
-        <v>40</v>
-      </c>
-      <c r="O18" s="13">
-        <v>4</v>
-      </c>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="R18" s="16">
-        <v>1</v>
-      </c>
-      <c r="S18" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="T18" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="U18" s="16">
-        <v>1.2</v>
-      </c>
-      <c r="V18" s="16">
-        <v>1</v>
-      </c>
-      <c r="W18" s="16">
-        <v>0.35</v>
-      </c>
-      <c r="X18" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y18" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z18" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC18" s="20">
-        <v>7200</v>
-      </c>
-      <c r="AD18" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="AE18" s="20">
-        <v>2</v>
-      </c>
-      <c r="AG18" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="AJ18" s="19" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" s="20" customFormat="1">
-      <c r="A19" s="13">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13">
-        <v>18</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I19" s="14">
-        <v>0.66</v>
-      </c>
-      <c r="J19" s="14">
-        <v>0.89</v>
-      </c>
-      <c r="K19" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="L19" s="13">
-        <v>30</v>
-      </c>
-      <c r="M19" s="15">
-        <v>1</v>
-      </c>
-      <c r="N19" s="13">
-        <v>60</v>
-      </c>
-      <c r="O19" s="13">
-        <v>4</v>
-      </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="R19" s="16">
-        <v>1</v>
-      </c>
-      <c r="S19" s="16">
-        <v>0.74</v>
-      </c>
-      <c r="T19" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="U19" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="V19" s="16">
-        <v>1</v>
-      </c>
-      <c r="W19" s="16">
-        <v>0.35</v>
-      </c>
-      <c r="X19" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y19" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z19" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC19" s="20">
-        <v>7100</v>
-      </c>
-      <c r="AD19" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="AE19" s="20">
-        <v>2</v>
-      </c>
-      <c r="AG19" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ19" s="19" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36" s="20" customFormat="1">
+    <row r="20" spans="1:37" s="20" customFormat="1">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -4754,16 +4865,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>38</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>60</v>
@@ -4789,798 +4900,807 @@
       <c r="N20" s="13">
         <v>60</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="13"/>
+      <c r="P20" s="13">
         <v>4</v>
       </c>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="14">
+      <c r="Q20" s="13"/>
+      <c r="R20" s="14">
         <v>0.7</v>
       </c>
-      <c r="R20" s="16">
-        <v>1</v>
-      </c>
       <c r="S20" s="16">
+        <v>1</v>
+      </c>
+      <c r="T20" s="16">
         <v>0.74</v>
       </c>
-      <c r="T20" s="14" t="s">
+      <c r="U20" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U20" s="16">
-        <v>1</v>
-      </c>
       <c r="V20" s="16">
         <v>1</v>
       </c>
       <c r="W20" s="16">
+        <v>1</v>
+      </c>
+      <c r="X20" s="16">
         <v>0.35</v>
       </c>
-      <c r="X20" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="Y20" s="19" t="s">
+      <c r="Y20" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Z20" s="19" t="s">
+      <c r="AA20" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AC20" s="20">
+      <c r="AD20" s="20">
         <v>7000</v>
       </c>
-      <c r="AD20" s="20">
+      <c r="AE20" s="20">
         <v>2</v>
       </c>
-      <c r="AE20" s="20">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="19" t="s">
+      <c r="AF20" s="20">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" s="47" customFormat="1">
+      <c r="A21" s="40">
+        <v>20</v>
+      </c>
+      <c r="B21" s="40">
+        <v>20</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="41">
+        <v>2.72</v>
+      </c>
+      <c r="J21" s="41">
+        <v>2.62</v>
+      </c>
+      <c r="K21" s="40">
+        <v>1</v>
+      </c>
+      <c r="L21" s="40">
+        <v>30</v>
+      </c>
+      <c r="M21" s="42">
+        <v>1</v>
+      </c>
+      <c r="N21" s="40">
+        <v>120</v>
+      </c>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40">
+        <v>1</v>
+      </c>
+      <c r="R21" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="S21" s="43">
+        <v>1</v>
+      </c>
+      <c r="T21" s="43">
+        <v>0.74</v>
+      </c>
+      <c r="U21" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="V21" s="43">
+        <v>1</v>
+      </c>
+      <c r="W21" s="43">
+        <v>1</v>
+      </c>
+      <c r="X21" s="43">
+        <v>0.35</v>
+      </c>
+      <c r="Y21" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z21" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA21" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD21" s="47">
+        <v>6500</v>
+      </c>
+      <c r="AE21" s="47">
+        <v>2</v>
+      </c>
+      <c r="AF21" s="47">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH21" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK21" s="46" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" s="47" customFormat="1">
+      <c r="A22" s="40">
+        <v>21</v>
+      </c>
+      <c r="B22" s="40">
+        <v>21</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="H22" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="41">
+        <v>1.29</v>
+      </c>
+      <c r="J22" s="41">
+        <v>1.8</v>
+      </c>
+      <c r="K22" s="40">
+        <v>1</v>
+      </c>
+      <c r="L22" s="40">
+        <v>30</v>
+      </c>
+      <c r="M22" s="42">
+        <v>1</v>
+      </c>
+      <c r="N22" s="40">
+        <v>55</v>
+      </c>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="S22" s="43">
+        <v>1</v>
+      </c>
+      <c r="T22" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="U22" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="V22" s="43">
+        <v>1.5</v>
+      </c>
+      <c r="W22" s="43">
+        <v>1</v>
+      </c>
+      <c r="X22" s="43">
+        <v>0.35</v>
+      </c>
+      <c r="Y22" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z22" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA22" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD22" s="47">
+        <v>6400</v>
+      </c>
+      <c r="AE22" s="47">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="47">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="46" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" s="47" customFormat="1">
+      <c r="A23" s="40">
+        <v>22</v>
+      </c>
+      <c r="B23" s="40">
+        <v>22</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="H23" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="41">
+        <v>1.29</v>
+      </c>
+      <c r="J23" s="41">
+        <v>1.8</v>
+      </c>
+      <c r="K23" s="40">
+        <v>1</v>
+      </c>
+      <c r="L23" s="40">
+        <v>30</v>
+      </c>
+      <c r="M23" s="42">
+        <v>1</v>
+      </c>
+      <c r="N23" s="40">
+        <v>120</v>
+      </c>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="S23" s="43">
+        <v>1</v>
+      </c>
+      <c r="T23" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="U23" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="V23" s="43">
+        <v>1.5</v>
+      </c>
+      <c r="W23" s="43">
+        <v>1</v>
+      </c>
+      <c r="X23" s="43">
+        <v>0.35</v>
+      </c>
+      <c r="Y23" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z23" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA23" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD23" s="47">
+        <v>6300</v>
+      </c>
+      <c r="AE23" s="47">
+        <v>2</v>
+      </c>
+      <c r="AF23" s="47">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK23" s="46" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" s="47" customFormat="1">
+      <c r="A24" s="40">
+        <v>23</v>
+      </c>
+      <c r="B24" s="40">
+        <v>23</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="H24" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="41">
+        <v>0.94</v>
+      </c>
+      <c r="J24" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="K24" s="40">
+        <v>1</v>
+      </c>
+      <c r="L24" s="40">
+        <v>30</v>
+      </c>
+      <c r="M24" s="42">
+        <v>1</v>
+      </c>
+      <c r="N24" s="40">
+        <v>120</v>
+      </c>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="41">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="S24" s="43">
+        <v>1</v>
+      </c>
+      <c r="T24" s="43">
+        <v>0.12</v>
+      </c>
+      <c r="U24" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="V24" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="W24" s="43">
+        <v>1</v>
+      </c>
+      <c r="X24" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="Y24" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z24" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA24" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD24" s="47">
+        <v>6200</v>
+      </c>
+      <c r="AE24" s="47">
+        <v>1.2</v>
+      </c>
+      <c r="AG24" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH24" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK24" s="46" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" s="47" customFormat="1">
+      <c r="A25" s="40">
+        <v>24</v>
+      </c>
+      <c r="B25" s="40">
+        <v>24</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="41">
+        <v>1</v>
+      </c>
+      <c r="J25" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="K25" s="40">
+        <v>1</v>
+      </c>
+      <c r="L25" s="40">
+        <v>30</v>
+      </c>
+      <c r="M25" s="42">
+        <v>1</v>
+      </c>
+      <c r="N25" s="40">
+        <v>50</v>
+      </c>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="S25" s="43">
+        <v>1</v>
+      </c>
+      <c r="T25" s="43">
+        <v>0.15</v>
+      </c>
+      <c r="U25" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="V25" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="W25" s="43">
+        <v>1</v>
+      </c>
+      <c r="X25" s="43">
+        <v>0.7</v>
+      </c>
+      <c r="Y25" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z25" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA25" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD25" s="47">
+        <v>6100</v>
+      </c>
+      <c r="AE25" s="47">
+        <v>1.2</v>
+      </c>
+      <c r="AH25" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK25" s="46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" s="47" customFormat="1">
+      <c r="A26" s="40">
+        <v>25</v>
+      </c>
+      <c r="B26" s="40">
+        <v>25</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="H26" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="41">
+        <v>1.44</v>
+      </c>
+      <c r="J26" s="41">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="K26" s="40">
+        <v>1</v>
+      </c>
+      <c r="L26" s="40">
+        <v>30</v>
+      </c>
+      <c r="M26" s="42">
+        <v>1</v>
+      </c>
+      <c r="N26" s="40">
+        <v>160</v>
+      </c>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S26" s="43">
+        <v>1</v>
+      </c>
+      <c r="T26" s="43">
+        <v>0.74</v>
+      </c>
+      <c r="U26" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="V26" s="43">
+        <v>1</v>
+      </c>
+      <c r="W26" s="43">
+        <v>1</v>
+      </c>
+      <c r="X26" s="43">
+        <v>0.35</v>
+      </c>
+      <c r="Y26" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z26" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA26" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="47">
+        <v>6000</v>
+      </c>
+      <c r="AE26" s="47">
+        <v>2</v>
+      </c>
+      <c r="AF26" s="47">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="46" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:36" s="20" customFormat="1">
-      <c r="A21" s="13">
-        <v>20</v>
-      </c>
-      <c r="B21" s="13">
-        <v>20</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="H21" s="14" t="s">
+    <row r="27" spans="1:37" s="47" customFormat="1">
+      <c r="A27" s="40">
+        <v>26</v>
+      </c>
+      <c r="B27" s="40">
+        <v>26</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="H27" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="I21" s="14">
-        <v>2.72</v>
-      </c>
-      <c r="J21" s="14">
-        <v>2.62</v>
-      </c>
-      <c r="K21" s="13">
-        <v>1</v>
-      </c>
-      <c r="L21" s="13">
+      <c r="I27" s="41">
+        <v>3.77</v>
+      </c>
+      <c r="J27" s="41">
+        <v>2.8</v>
+      </c>
+      <c r="K27" s="40">
+        <v>1</v>
+      </c>
+      <c r="L27" s="40">
         <v>30</v>
       </c>
-      <c r="M21" s="15">
-        <v>1</v>
-      </c>
-      <c r="N21" s="13">
-        <v>120</v>
-      </c>
-      <c r="O21" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="14">
+      <c r="M27" s="42">
+        <v>1</v>
+      </c>
+      <c r="N27" s="40">
+        <v>200</v>
+      </c>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="S27" s="43">
+        <v>1</v>
+      </c>
+      <c r="T27" s="43">
+        <v>0.74</v>
+      </c>
+      <c r="U27" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="43">
+        <v>1</v>
+      </c>
+      <c r="W27" s="43">
+        <v>1</v>
+      </c>
+      <c r="X27" s="43">
+        <v>0.35</v>
+      </c>
+      <c r="Y27" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z27" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA27" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="47">
+        <v>5900</v>
+      </c>
+      <c r="AE27" s="47">
+        <v>2</v>
+      </c>
+      <c r="AF27" s="47">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH27" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK27" s="46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" s="47" customFormat="1">
+      <c r="A28" s="40">
+        <v>27</v>
+      </c>
+      <c r="B28" s="40">
+        <v>27</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="41">
+        <v>2.64</v>
+      </c>
+      <c r="J28" s="41">
+        <v>2.38</v>
+      </c>
+      <c r="K28" s="40">
+        <v>1</v>
+      </c>
+      <c r="L28" s="40">
+        <v>30</v>
+      </c>
+      <c r="M28" s="49">
+        <v>1</v>
+      </c>
+      <c r="N28" s="40">
+        <v>200</v>
+      </c>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="41">
+        <v>1.2</v>
+      </c>
+      <c r="S28" s="43">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="T28" s="43">
+        <v>0.74</v>
+      </c>
+      <c r="U28" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="V28" s="43">
+        <v>1</v>
+      </c>
+      <c r="W28" s="43">
         <v>0.8</v>
       </c>
-      <c r="R21" s="16">
-        <v>1</v>
-      </c>
-      <c r="S21" s="16">
-        <v>0.74</v>
-      </c>
-      <c r="T21" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="U21" s="16">
-        <v>1</v>
-      </c>
-      <c r="V21" s="16">
-        <v>1</v>
-      </c>
-      <c r="W21" s="16">
-        <v>0.35</v>
-      </c>
-      <c r="X21" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="Y21" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z21" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC21" s="20">
-        <v>6500</v>
-      </c>
-      <c r="AD21" s="20">
+      <c r="X28" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="Y28" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z28" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA28" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB28" s="46"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="47">
+        <v>5800</v>
+      </c>
+      <c r="AE28" s="47">
         <v>2</v>
       </c>
-      <c r="AE21" s="20">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG21" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ21" s="19" t="s">
-        <v>290</v>
+      <c r="AF28" s="47">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK28" s="46" t="s">
+        <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:36" s="20" customFormat="1">
-      <c r="A22" s="13">
-        <v>21</v>
-      </c>
-      <c r="B22" s="13">
-        <v>21</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22" s="14">
-        <v>1.29</v>
-      </c>
-      <c r="J22" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="K22" s="13">
-        <v>1</v>
-      </c>
-      <c r="L22" s="13">
-        <v>30</v>
-      </c>
-      <c r="M22" s="15">
-        <v>1</v>
-      </c>
-      <c r="N22" s="13">
-        <v>55</v>
-      </c>
-      <c r="O22" s="13">
-        <v>3</v>
-      </c>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="R22" s="16">
-        <v>1</v>
-      </c>
-      <c r="S22" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="T22" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="U22" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="V22" s="16">
-        <v>1</v>
-      </c>
-      <c r="W22" s="16">
-        <v>0.35</v>
-      </c>
-      <c r="X22" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="Y22" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z22" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC22" s="20">
-        <v>6400</v>
-      </c>
-      <c r="AD22" s="20">
-        <v>2</v>
-      </c>
-      <c r="AE22" s="20">
-        <v>1</v>
-      </c>
-      <c r="AJ22" s="19" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" s="20" customFormat="1">
-      <c r="A23" s="13">
-        <v>22</v>
-      </c>
-      <c r="B23" s="13">
-        <v>22</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="14">
-        <v>1.29</v>
-      </c>
-      <c r="J23" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="K23" s="13">
-        <v>1</v>
-      </c>
-      <c r="L23" s="13">
-        <v>30</v>
-      </c>
-      <c r="M23" s="15">
-        <v>1</v>
-      </c>
-      <c r="N23" s="13">
-        <v>120</v>
-      </c>
-      <c r="O23" s="13">
-        <v>3</v>
-      </c>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="R23" s="16">
-        <v>1</v>
-      </c>
-      <c r="S23" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="T23" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="U23" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="V23" s="16">
-        <v>1</v>
-      </c>
-      <c r="W23" s="16">
-        <v>0.35</v>
-      </c>
-      <c r="X23" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="Y23" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z23" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC23" s="20">
-        <v>6300</v>
-      </c>
-      <c r="AD23" s="20">
-        <v>2</v>
-      </c>
-      <c r="AE23" s="20">
-        <v>1</v>
-      </c>
-      <c r="AG23" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ23" s="19" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" s="20" customFormat="1">
-      <c r="A24" s="13">
-        <v>23</v>
-      </c>
-      <c r="B24" s="13">
-        <v>23</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="14">
-        <v>0.94</v>
-      </c>
-      <c r="J24" s="14">
-        <v>1.9</v>
-      </c>
-      <c r="K24" s="13">
-        <v>1</v>
-      </c>
-      <c r="L24" s="13">
-        <v>30</v>
-      </c>
-      <c r="M24" s="15">
-        <v>1</v>
-      </c>
-      <c r="N24" s="13">
-        <v>120</v>
-      </c>
-      <c r="O24" s="13">
-        <v>1</v>
-      </c>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="14">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="R24" s="16">
-        <v>1</v>
-      </c>
-      <c r="S24" s="16">
-        <v>0.12</v>
-      </c>
-      <c r="T24" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="U24" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="V24" s="16">
-        <v>1</v>
-      </c>
-      <c r="W24" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="X24" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="Y24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z24" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC24" s="20">
-        <v>6200</v>
-      </c>
-      <c r="AD24" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="AF24" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG24" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ24" s="19" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" s="20" customFormat="1">
-      <c r="A25" s="13">
-        <v>24</v>
-      </c>
-      <c r="B25" s="13">
-        <v>24</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="14">
-        <v>1</v>
-      </c>
-      <c r="J25" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="K25" s="13">
-        <v>1</v>
-      </c>
-      <c r="L25" s="13">
-        <v>30</v>
-      </c>
-      <c r="M25" s="15">
-        <v>1</v>
-      </c>
-      <c r="N25" s="13">
-        <v>50</v>
-      </c>
-      <c r="O25" s="13">
-        <v>1</v>
-      </c>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="R25" s="16">
-        <v>1</v>
-      </c>
-      <c r="S25" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="T25" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="U25" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="V25" s="16">
-        <v>1</v>
-      </c>
-      <c r="W25" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="X25" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="Y25" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z25" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC25" s="20">
-        <v>6100</v>
-      </c>
-      <c r="AD25" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="AG25" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ25" s="19" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36" s="20" customFormat="1">
-      <c r="A26" s="13">
-        <v>25</v>
-      </c>
-      <c r="B26" s="13">
-        <v>25</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="I26" s="14">
-        <v>1.44</v>
-      </c>
-      <c r="J26" s="14">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="K26" s="13">
-        <v>1</v>
-      </c>
-      <c r="L26" s="13">
-        <v>30</v>
-      </c>
-      <c r="M26" s="15">
-        <v>1</v>
-      </c>
-      <c r="N26" s="13">
-        <v>160</v>
-      </c>
-      <c r="O26" s="13">
-        <v>2</v>
-      </c>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R26" s="16">
-        <v>1</v>
-      </c>
-      <c r="S26" s="16">
-        <v>0.74</v>
-      </c>
-      <c r="T26" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="U26" s="16">
-        <v>1</v>
-      </c>
-      <c r="V26" s="16">
-        <v>1</v>
-      </c>
-      <c r="W26" s="16">
-        <v>0.35</v>
-      </c>
-      <c r="X26" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="Y26" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z26" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="20">
-        <v>6000</v>
-      </c>
-      <c r="AD26" s="20">
-        <v>2</v>
-      </c>
-      <c r="AE26" s="20">
-        <v>1</v>
-      </c>
-      <c r="AJ26" s="19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" s="20" customFormat="1">
-      <c r="A27" s="13">
-        <v>26</v>
-      </c>
-      <c r="B27" s="13">
-        <v>26</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="14">
-        <v>3.77</v>
-      </c>
-      <c r="J27" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="K27" s="13">
-        <v>1</v>
-      </c>
-      <c r="L27" s="13">
-        <v>30</v>
-      </c>
-      <c r="M27" s="15">
-        <v>1</v>
-      </c>
-      <c r="N27" s="13">
-        <v>200</v>
-      </c>
-      <c r="O27" s="13">
-        <v>4</v>
-      </c>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="R27" s="16">
-        <v>1</v>
-      </c>
-      <c r="S27" s="16">
-        <v>0.74</v>
-      </c>
-      <c r="T27" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="U27" s="16">
-        <v>1</v>
-      </c>
-      <c r="V27" s="16">
-        <v>1</v>
-      </c>
-      <c r="W27" s="16">
-        <v>0.35</v>
-      </c>
-      <c r="X27" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="Y27" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z27" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="20">
-        <v>5900</v>
-      </c>
-      <c r="AD27" s="20">
-        <v>2</v>
-      </c>
-      <c r="AE27" s="20">
-        <v>1</v>
-      </c>
-      <c r="AF27" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG27" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ27" s="19" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" s="20" customFormat="1">
-      <c r="A28" s="13">
-        <v>27</v>
-      </c>
-      <c r="B28" s="13">
-        <v>27</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28" s="14">
-        <v>2.64</v>
-      </c>
-      <c r="J28" s="14">
-        <v>2.38</v>
-      </c>
-      <c r="K28" s="13">
-        <v>1</v>
-      </c>
-      <c r="L28" s="13">
-        <v>30</v>
-      </c>
-      <c r="M28" s="22">
-        <v>1</v>
-      </c>
-      <c r="N28" s="13">
-        <v>200</v>
-      </c>
-      <c r="O28" s="13">
-        <v>4</v>
-      </c>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="R28" s="16">
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="S28" s="16">
-        <v>0.74</v>
-      </c>
-      <c r="T28" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U28" s="16">
-        <v>1</v>
-      </c>
-      <c r="V28" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="W28" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="X28" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="Y28" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z28" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="20">
-        <v>5800</v>
-      </c>
-      <c r="AD28" s="20">
-        <v>2</v>
-      </c>
-      <c r="AE28" s="20">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ28" s="19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36" s="20" customFormat="1">
+    <row r="29" spans="1:37" s="20" customFormat="1">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -5588,19 +5708,19 @@
         <v>28</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H29" s="14" t="s">
         <v>82</v>
@@ -5623,56 +5743,57 @@
       <c r="N29" s="13">
         <v>0</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="13"/>
+      <c r="P29" s="13">
         <v>4</v>
       </c>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="14">
+      <c r="Q29" s="13"/>
+      <c r="R29" s="14">
         <v>0.7</v>
       </c>
-      <c r="R29" s="16">
-        <v>1</v>
-      </c>
       <c r="S29" s="16">
+        <v>1</v>
+      </c>
+      <c r="T29" s="16">
         <v>0.74</v>
       </c>
-      <c r="T29" s="14" t="s">
+      <c r="U29" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U29" s="16">
-        <v>1</v>
-      </c>
       <c r="V29" s="16">
         <v>1</v>
       </c>
       <c r="W29" s="16">
+        <v>1</v>
+      </c>
+      <c r="X29" s="16">
         <v>0.35</v>
       </c>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="19" t="s">
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Z29" s="19" t="s">
+      <c r="AA29" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="20">
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="20">
         <v>5000</v>
       </c>
-      <c r="AD29" s="20">
+      <c r="AE29" s="20">
         <v>2</v>
       </c>
-      <c r="AE29" s="20">
-        <v>1</v>
-      </c>
-      <c r="AG29" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ29" s="19" t="s">
-        <v>299</v>
+      <c r="AF29" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK29" s="19" t="s">
+        <v>294</v>
       </c>
     </row>
-    <row r="30" spans="1:36" s="20" customFormat="1">
+    <row r="30" spans="1:37" s="20" customFormat="1">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -5683,16 +5804,16 @@
         <v>52</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>53</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>82</v>
@@ -5715,57 +5836,58 @@
       <c r="N30" s="13">
         <v>0</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="13"/>
+      <c r="P30" s="13">
         <v>3</v>
       </c>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="14">
+      <c r="Q30" s="18"/>
+      <c r="R30" s="14">
         <v>0.7</v>
       </c>
-      <c r="R30" s="16">
-        <v>1</v>
-      </c>
       <c r="S30" s="16">
+        <v>1</v>
+      </c>
+      <c r="T30" s="16">
         <v>0.74</v>
       </c>
-      <c r="T30" s="14" t="s">
+      <c r="U30" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U30" s="16">
-        <v>1</v>
-      </c>
       <c r="V30" s="16">
         <v>1</v>
       </c>
       <c r="W30" s="16">
+        <v>1</v>
+      </c>
+      <c r="X30" s="16">
         <v>0.35</v>
       </c>
-      <c r="X30" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y30" s="19" t="s">
+      <c r="Y30" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z30" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Z30" s="19" t="s">
+      <c r="AA30" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AA30" s="20">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="20">
+      <c r="AB30" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="20">
         <v>9200</v>
       </c>
-      <c r="AD30" s="20">
+      <c r="AE30" s="20">
         <v>2</v>
       </c>
-      <c r="AH30" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ30" s="19" t="s">
-        <v>300</v>
+      <c r="AI30" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK30" s="19" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:36" s="20" customFormat="1">
+    <row r="31" spans="1:37" s="20" customFormat="1">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -5773,19 +5895,19 @@
         <v>30</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>54</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>82</v>
@@ -5808,57 +5930,58 @@
       <c r="N31" s="13">
         <v>0</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="13"/>
+      <c r="P31" s="13">
         <v>4</v>
       </c>
-      <c r="Q31" s="14">
+      <c r="R31" s="14">
         <v>0.7</v>
       </c>
-      <c r="R31" s="16">
-        <v>1</v>
-      </c>
       <c r="S31" s="16">
+        <v>1</v>
+      </c>
+      <c r="T31" s="16">
         <v>0.74</v>
       </c>
-      <c r="T31" s="14" t="s">
+      <c r="U31" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U31" s="16">
-        <v>1</v>
-      </c>
       <c r="V31" s="16">
         <v>1</v>
       </c>
       <c r="W31" s="16">
+        <v>1</v>
+      </c>
+      <c r="X31" s="16">
         <v>0.35</v>
       </c>
-      <c r="X31" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="Y31" s="19" t="s">
+      <c r="Y31" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z31" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Z31" s="19" t="s">
+      <c r="AA31" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AA31" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="20">
+      <c r="AB31" s="20">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="20">
         <v>9200</v>
       </c>
-      <c r="AD31" s="20">
+      <c r="AE31" s="20">
         <v>2</v>
       </c>
-      <c r="AH31" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ31" s="19" t="s">
-        <v>300</v>
+      <c r="AI31" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK31" s="19" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:36" s="20" customFormat="1">
+    <row r="32" spans="1:37" s="20" customFormat="1">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -5866,19 +5989,19 @@
         <v>31</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E32" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="F32" s="21" t="s">
-        <v>238</v>
-      </c>
       <c r="G32" s="21" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>82</v>
@@ -5901,61 +6024,62 @@
       <c r="N32" s="13">
         <v>0</v>
       </c>
-      <c r="O32" s="13">
+      <c r="O32" s="13"/>
+      <c r="P32" s="13">
         <v>4</v>
       </c>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="14">
+      <c r="Q32" s="13"/>
+      <c r="R32" s="14">
         <v>0.7</v>
       </c>
-      <c r="R32" s="16">
-        <v>1</v>
-      </c>
       <c r="S32" s="16">
+        <v>1</v>
+      </c>
+      <c r="T32" s="16">
         <v>0.74</v>
       </c>
-      <c r="T32" s="14" t="s">
+      <c r="U32" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U32" s="16">
-        <v>1</v>
-      </c>
       <c r="V32" s="16">
         <v>1</v>
       </c>
       <c r="W32" s="16">
+        <v>1</v>
+      </c>
+      <c r="X32" s="16">
         <v>0.35</v>
       </c>
-      <c r="X32" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="Y32" s="19" t="s">
+      <c r="Y32" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z32" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Z32" s="19" t="s">
+      <c r="AA32" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AA32" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="20">
+      <c r="AB32" s="20">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="20">
         <v>9200</v>
       </c>
-      <c r="AD32" s="20">
+      <c r="AE32" s="20">
         <v>2</v>
       </c>
-      <c r="AE32" s="20">
-        <v>1</v>
-      </c>
-      <c r="AH32" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ32" s="19" t="s">
-        <v>300</v>
+      <c r="AF32" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI32" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK32" s="19" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="33" spans="1:36" s="20" customFormat="1">
+    <row r="33" spans="1:37" s="20" customFormat="1">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -5963,19 +6087,19 @@
         <v>32</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>82</v>
@@ -5998,54 +6122,55 @@
       <c r="N33" s="13">
         <v>0</v>
       </c>
-      <c r="O33" s="13">
+      <c r="O33" s="13"/>
+      <c r="P33" s="13">
         <v>4</v>
       </c>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="14">
+      <c r="Q33" s="18"/>
+      <c r="R33" s="14">
         <v>0.89999999999999991</v>
       </c>
-      <c r="R33" s="16">
-        <v>1</v>
-      </c>
       <c r="S33" s="16">
+        <v>1</v>
+      </c>
+      <c r="T33" s="16">
         <v>0.74</v>
       </c>
-      <c r="T33" s="14" t="s">
+      <c r="U33" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U33" s="16">
-        <v>1</v>
-      </c>
       <c r="V33" s="16">
         <v>1</v>
       </c>
       <c r="W33" s="16">
+        <v>1</v>
+      </c>
+      <c r="X33" s="16">
         <v>0.35</v>
       </c>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="19" t="s">
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Z33" s="19" t="s">
+      <c r="AA33" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AB33" s="19"/>
-      <c r="AC33" s="20">
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="20">
         <v>4600</v>
       </c>
-      <c r="AD33" s="20">
+      <c r="AE33" s="20">
         <v>2</v>
       </c>
-      <c r="AE33" s="20">
-        <v>1</v>
-      </c>
-      <c r="AI33" s="23"/>
-      <c r="AJ33" s="19" t="s">
-        <v>301</v>
+      <c r="AF33" s="20">
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="23"/>
+      <c r="AK33" s="19" t="s">
+        <v>296</v>
       </c>
     </row>
-    <row r="34" spans="1:36" s="20" customFormat="1">
+    <row r="34" spans="1:37" s="20" customFormat="1">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -6053,19 +6178,19 @@
         <v>33</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H34" s="14" t="s">
         <v>82</v>
@@ -6088,56 +6213,57 @@
       <c r="N34" s="13">
         <v>0</v>
       </c>
-      <c r="O34" s="13">
-        <v>1</v>
-      </c>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="14">
+      <c r="O34" s="13"/>
+      <c r="P34" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="14">
         <v>0.7</v>
       </c>
-      <c r="R34" s="16">
-        <v>1</v>
-      </c>
       <c r="S34" s="16">
+        <v>1</v>
+      </c>
+      <c r="T34" s="16">
         <v>0.74</v>
       </c>
-      <c r="T34" s="14" t="s">
+      <c r="U34" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U34" s="16">
-        <v>1</v>
-      </c>
       <c r="V34" s="16">
         <v>1</v>
       </c>
       <c r="W34" s="16">
+        <v>1</v>
+      </c>
+      <c r="X34" s="16">
         <v>0.35</v>
       </c>
-      <c r="X34" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y34" s="19" t="s">
+      <c r="Y34" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z34" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Z34" s="19" t="s">
+      <c r="AA34" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AB34" s="19"/>
-      <c r="AC34" s="20">
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="20">
         <v>4500</v>
       </c>
-      <c r="AD34" s="20">
+      <c r="AE34" s="20">
         <v>2</v>
       </c>
-      <c r="AE34" s="20">
-        <v>1</v>
-      </c>
-      <c r="AI34" s="24"/>
-      <c r="AJ34" s="19" t="s">
-        <v>302</v>
+      <c r="AF34" s="20">
+        <v>1</v>
+      </c>
+      <c r="AJ34" s="24"/>
+      <c r="AK34" s="19" t="s">
+        <v>297</v>
       </c>
     </row>
-    <row r="35" spans="1:36" s="20" customFormat="1">
+    <row r="35" spans="1:37" s="20" customFormat="1">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -6145,19 +6271,19 @@
         <v>34</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H35" s="14" t="s">
         <v>82</v>
@@ -6180,53 +6306,54 @@
       <c r="N35" s="13">
         <v>0</v>
       </c>
-      <c r="O35" s="13">
-        <v>1</v>
-      </c>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="14">
+      <c r="O35" s="13"/>
+      <c r="P35" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="14">
         <v>0.60000000000000009</v>
       </c>
-      <c r="R35" s="16">
-        <v>1</v>
-      </c>
       <c r="S35" s="16">
+        <v>1</v>
+      </c>
+      <c r="T35" s="16">
         <v>0.25</v>
       </c>
-      <c r="T35" s="17" t="s">
+      <c r="U35" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="U35" s="16">
+      <c r="V35" s="16">
         <v>0.6</v>
       </c>
-      <c r="V35" s="16">
-        <v>1</v>
-      </c>
       <c r="W35" s="16">
+        <v>1</v>
+      </c>
+      <c r="X35" s="16">
         <v>0.45</v>
       </c>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="19" t="s">
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="Z35" s="19" t="s">
+      <c r="AA35" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AC35" s="20">
+      <c r="AD35" s="20">
         <v>4400</v>
       </c>
-      <c r="AD35" s="20">
+      <c r="AE35" s="20">
         <v>1.2</v>
       </c>
-      <c r="AG35" s="19" t="s">
+      <c r="AH35" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AI35" s="24"/>
-      <c r="AJ35" s="19" t="s">
-        <v>303</v>
+      <c r="AJ35" s="24"/>
+      <c r="AK35" s="19" t="s">
+        <v>298</v>
       </c>
     </row>
-    <row r="36" spans="1:36" s="20" customFormat="1">
+    <row r="36" spans="1:37" s="20" customFormat="1">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -6234,19 +6361,19 @@
         <v>35</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H36" s="14" t="s">
         <v>82</v>
@@ -6269,56 +6396,57 @@
       <c r="N36" s="13">
         <v>0</v>
       </c>
-      <c r="O36" s="13">
-        <v>1</v>
-      </c>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="14">
+      <c r="O36" s="13"/>
+      <c r="P36" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="14">
         <v>0.7</v>
       </c>
-      <c r="R36" s="16">
-        <v>1</v>
-      </c>
       <c r="S36" s="16">
+        <v>1</v>
+      </c>
+      <c r="T36" s="16">
         <v>0.32</v>
       </c>
-      <c r="T36" s="17" t="s">
+      <c r="U36" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="U36" s="16">
+      <c r="V36" s="16">
         <v>0.6</v>
       </c>
-      <c r="V36" s="16">
-        <v>1</v>
-      </c>
       <c r="W36" s="16">
+        <v>1</v>
+      </c>
+      <c r="X36" s="16">
         <v>0.35</v>
       </c>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="19" t="s">
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="Z36" s="19" t="s">
+      <c r="AA36" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AA36" s="20">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="20">
+      <c r="AB36" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="20">
         <v>4300</v>
       </c>
-      <c r="AD36" s="20">
+      <c r="AE36" s="20">
         <v>1.2</v>
       </c>
-      <c r="AG36" s="19" t="s">
+      <c r="AH36" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="AI36" s="24"/>
-      <c r="AJ36" s="19" t="s">
-        <v>307</v>
+      <c r="AJ36" s="24"/>
+      <c r="AK36" s="19" t="s">
+        <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:36" s="20" customFormat="1">
+    <row r="37" spans="1:37" s="20" customFormat="1">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -6326,19 +6454,19 @@
         <v>36</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>100</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H37" s="14" t="s">
         <v>82</v>
@@ -6361,59 +6489,60 @@
       <c r="N37" s="13">
         <v>0</v>
       </c>
-      <c r="O37" s="13">
-        <v>1</v>
-      </c>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="14">
+      <c r="O37" s="13"/>
+      <c r="P37" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="14">
         <v>0.60000000000000009</v>
       </c>
-      <c r="R37" s="16">
-        <v>1</v>
-      </c>
       <c r="S37" s="16">
+        <v>1</v>
+      </c>
+      <c r="T37" s="16">
         <v>0.26</v>
       </c>
-      <c r="T37" s="17" t="s">
+      <c r="U37" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="U37" s="16">
+      <c r="V37" s="16">
         <v>0.8</v>
       </c>
-      <c r="V37" s="16">
-        <v>1</v>
-      </c>
       <c r="W37" s="16">
+        <v>1</v>
+      </c>
+      <c r="X37" s="16">
         <v>0.4</v>
       </c>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="19" t="s">
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="Z37" s="19" t="s">
+      <c r="AA37" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AC37" s="20">
+      <c r="AD37" s="20">
         <v>4200</v>
       </c>
-      <c r="AD37" s="20">
+      <c r="AE37" s="20">
         <v>1.5</v>
       </c>
-      <c r="AE37" s="20">
+      <c r="AF37" s="20">
         <v>2</v>
       </c>
-      <c r="AF37" s="19" t="s">
-        <v>159</v>
-      </c>
       <c r="AG37" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI37" s="24"/>
-      <c r="AJ37" s="19" t="s">
-        <v>305</v>
+        <v>154</v>
+      </c>
+      <c r="AH37" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ37" s="24"/>
+      <c r="AK37" s="19" t="s">
+        <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:36" s="29" customFormat="1">
+    <row r="38" spans="1:37" s="29" customFormat="1">
       <c r="A38" s="25">
         <v>37</v>
       </c>
@@ -6421,19 +6550,19 @@
         <v>37</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E38" s="26" t="s">
         <v>85</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H38" s="26" t="s">
         <v>82</v>
@@ -6456,57 +6585,58 @@
       <c r="N38" s="25">
         <v>0</v>
       </c>
-      <c r="O38" s="25">
+      <c r="O38" s="25"/>
+      <c r="P38" s="25">
         <v>4</v>
       </c>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="26">
+      <c r="Q38" s="25"/>
+      <c r="R38" s="26">
         <v>1.2</v>
       </c>
-      <c r="R38" s="28">
+      <c r="S38" s="28">
         <v>0.73333333333333328</v>
       </c>
-      <c r="S38" s="28">
+      <c r="T38" s="28">
         <v>0.74</v>
       </c>
-      <c r="T38" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="U38" s="28">
-        <v>1</v>
+      <c r="U38" s="26" t="s">
+        <v>281</v>
       </c>
       <c r="V38" s="28">
+        <v>1</v>
+      </c>
+      <c r="W38" s="28">
         <v>0.8</v>
       </c>
-      <c r="W38" s="28">
+      <c r="X38" s="28">
         <v>0.1</v>
       </c>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="29" t="s">
-        <v>287</v>
-      </c>
+      <c r="Y38" s="25"/>
       <c r="Z38" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA38" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AA38" s="29">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="29">
+      <c r="AB38" s="29">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="29">
         <v>4100</v>
       </c>
-      <c r="AD38" s="29">
+      <c r="AE38" s="29">
         <v>2</v>
       </c>
-      <c r="AE38" s="29">
-        <v>1</v>
-      </c>
-      <c r="AG38" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI38" s="30"/>
+      <c r="AF38" s="29">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="29" t="s">
+        <v>135</v>
+      </c>
       <c r="AJ38" s="30"/>
+      <c r="AK38" s="30"/>
     </row>
-    <row r="39" spans="1:36" s="35" customFormat="1">
+    <row r="39" spans="1:37" s="35" customFormat="1">
       <c r="A39" s="31">
         <v>38</v>
       </c>
@@ -6514,19 +6644,19 @@
         <v>38</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F39" s="33" t="s">
         <v>74</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H39" s="32" t="s">
         <v>84</v>
@@ -6549,55 +6679,56 @@
       <c r="N39" s="31">
         <v>300</v>
       </c>
-      <c r="O39" s="31">
+      <c r="O39" s="31"/>
+      <c r="P39" s="31">
         <v>4</v>
       </c>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="32">
+      <c r="Q39" s="31"/>
+      <c r="R39" s="32">
         <v>1.2</v>
       </c>
-      <c r="R39" s="34">
-        <v>1</v>
-      </c>
       <c r="S39" s="34">
+        <v>1</v>
+      </c>
+      <c r="T39" s="34">
         <v>0.74</v>
       </c>
-      <c r="T39" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="U39" s="34">
-        <v>1</v>
+      <c r="U39" s="32" t="s">
+        <v>315</v>
       </c>
       <c r="V39" s="34">
         <v>1</v>
       </c>
       <c r="W39" s="34">
+        <v>1</v>
+      </c>
+      <c r="X39" s="34">
         <v>0.35</v>
       </c>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="35" t="s">
-        <v>250</v>
-      </c>
+      <c r="Y39" s="31"/>
       <c r="Z39" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA39" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="AC39" s="35">
+      <c r="AD39" s="35">
         <v>3500</v>
       </c>
-      <c r="AD39" s="35">
+      <c r="AE39" s="35">
         <v>2</v>
       </c>
-      <c r="AE39" s="35">
-        <v>1</v>
-      </c>
-      <c r="AI39" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="AJ39" s="19" t="s">
-        <v>306</v>
+      <c r="AF39" s="35">
+        <v>1</v>
+      </c>
+      <c r="AJ39" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK39" s="19" t="s">
+        <v>301</v>
       </c>
     </row>
-    <row r="40" spans="1:36" s="35" customFormat="1">
+    <row r="40" spans="1:37" s="35" customFormat="1">
       <c r="A40" s="31">
         <v>39</v>
       </c>
@@ -6605,10 +6736,10 @@
         <v>39</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E40" s="32" t="s">
         <v>90</v>
@@ -6617,7 +6748,7 @@
         <v>73</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H40" s="32" t="s">
         <v>84</v>
@@ -6640,61 +6771,62 @@
       <c r="N40" s="31">
         <v>200</v>
       </c>
-      <c r="O40" s="31">
+      <c r="O40" s="31"/>
+      <c r="P40" s="31">
         <v>3</v>
       </c>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="32">
+      <c r="Q40" s="31"/>
+      <c r="R40" s="32">
         <v>0.7</v>
       </c>
-      <c r="R40" s="34">
-        <v>1</v>
-      </c>
       <c r="S40" s="34">
+        <v>1</v>
+      </c>
+      <c r="T40" s="34">
         <v>0.74</v>
       </c>
-      <c r="T40" s="32" t="s">
+      <c r="U40" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="U40" s="34">
-        <v>1</v>
-      </c>
       <c r="V40" s="34">
         <v>1</v>
       </c>
       <c r="W40" s="34">
+        <v>1</v>
+      </c>
+      <c r="X40" s="34">
         <v>0.35</v>
       </c>
-      <c r="X40" s="31"/>
-      <c r="Y40" s="35" t="s">
-        <v>244</v>
-      </c>
+      <c r="Y40" s="31"/>
       <c r="Z40" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA40" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AC40" s="35">
+      <c r="AD40" s="35">
         <v>9100</v>
       </c>
-      <c r="AD40" s="35">
+      <c r="AE40" s="35">
         <v>2</v>
       </c>
-      <c r="AE40" s="35">
-        <v>1</v>
-      </c>
-      <c r="AF40" s="35" t="s">
-        <v>143</v>
+      <c r="AF40" s="35">
+        <v>1</v>
       </c>
       <c r="AG40" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI40" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="AJ40" s="19" t="s">
-        <v>304</v>
+        <v>138</v>
+      </c>
+      <c r="AH40" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ40" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK40" s="19" t="s">
+        <v>299</v>
       </c>
     </row>
-    <row r="41" spans="1:36" s="35" customFormat="1">
+    <row r="41" spans="1:37" s="35" customFormat="1">
       <c r="A41" s="31">
         <v>40</v>
       </c>
@@ -6702,19 +6834,19 @@
         <v>40</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D41" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="E41" s="32" t="s">
         <v>237</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>242</v>
       </c>
       <c r="F41" s="32" t="s">
         <v>70</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H41" s="32" t="s">
         <v>84</v>
@@ -6737,55 +6869,56 @@
       <c r="N41" s="31">
         <v>600</v>
       </c>
-      <c r="O41" s="31">
-        <v>1</v>
-      </c>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="32">
+      <c r="O41" s="31"/>
+      <c r="P41" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="32">
         <v>1.4</v>
       </c>
-      <c r="R41" s="34">
-        <v>1</v>
-      </c>
       <c r="S41" s="34">
+        <v>1</v>
+      </c>
+      <c r="T41" s="34">
         <v>0.74</v>
       </c>
-      <c r="T41" s="32" t="s">
+      <c r="U41" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="U41" s="34">
-        <v>1</v>
-      </c>
       <c r="V41" s="34">
         <v>1</v>
       </c>
       <c r="W41" s="34">
+        <v>1</v>
+      </c>
+      <c r="X41" s="34">
         <v>0.35</v>
       </c>
-      <c r="X41" s="31"/>
-      <c r="Y41" s="35" t="s">
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="Z41" s="35" t="s">
+      <c r="AA41" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="AC41" s="35">
+      <c r="AD41" s="35">
         <v>9100</v>
       </c>
-      <c r="AD41" s="35">
+      <c r="AE41" s="35">
         <v>2</v>
       </c>
-      <c r="AE41" s="35">
-        <v>1</v>
-      </c>
-      <c r="AI41" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="AJ41" s="19" t="s">
-        <v>308</v>
+      <c r="AF41" s="35">
+        <v>1</v>
+      </c>
+      <c r="AJ41" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK41" s="19" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="42" spans="1:36" s="35" customFormat="1">
+    <row r="42" spans="1:37" s="35" customFormat="1">
       <c r="A42" s="31">
         <v>41</v>
       </c>
@@ -6793,19 +6926,19 @@
         <v>41</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H42" s="32" t="s">
         <v>84</v>
@@ -6828,58 +6961,59 @@
       <c r="N42" s="31">
         <v>300</v>
       </c>
-      <c r="O42" s="31">
+      <c r="O42" s="31"/>
+      <c r="P42" s="31">
         <v>2</v>
       </c>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="32">
+      <c r="Q42" s="31"/>
+      <c r="R42" s="32">
         <v>0.55000000000000004</v>
       </c>
-      <c r="R42" s="34">
+      <c r="S42" s="34">
         <v>1.2</v>
       </c>
-      <c r="S42" s="34">
+      <c r="T42" s="34">
         <v>0.4</v>
       </c>
-      <c r="T42" s="32" t="s">
+      <c r="U42" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="U42" s="34">
-        <v>1</v>
-      </c>
       <c r="V42" s="34">
         <v>1</v>
       </c>
       <c r="W42" s="34">
+        <v>1</v>
+      </c>
+      <c r="X42" s="34">
         <v>0.5</v>
       </c>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="35" t="s">
-        <v>245</v>
-      </c>
+      <c r="Y42" s="31"/>
       <c r="Z42" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA42" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="AC42" s="35">
+      <c r="AD42" s="35">
         <v>3200</v>
       </c>
-      <c r="AD42" s="35">
+      <c r="AE42" s="35">
         <v>1.5</v>
       </c>
-      <c r="AE42" s="35">
+      <c r="AF42" s="35">
         <v>2</v>
       </c>
-      <c r="AG42" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI42" s="36" t="s">
-        <v>280</v>
-      </c>
-      <c r="AJ42" s="19" t="s">
-        <v>309</v>
+      <c r="AH42" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ42" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK42" s="19" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="43" spans="1:36" s="29" customFormat="1">
+    <row r="43" spans="1:37" s="29" customFormat="1">
       <c r="A43" s="25">
         <v>42</v>
       </c>
@@ -6887,13 +7021,13 @@
         <v>42</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F43" s="26" t="s">
         <v>67</v>
@@ -6922,57 +7056,58 @@
       <c r="N43" s="25">
         <v>0</v>
       </c>
-      <c r="O43" s="25">
+      <c r="O43" s="25"/>
+      <c r="P43" s="25">
         <v>2</v>
       </c>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="26">
+      <c r="Q43" s="25"/>
+      <c r="R43" s="26">
         <v>0.55000000000000004</v>
       </c>
-      <c r="R43" s="28">
+      <c r="S43" s="28">
         <v>1.2</v>
       </c>
-      <c r="S43" s="28">
+      <c r="T43" s="28">
         <v>0.4</v>
       </c>
-      <c r="T43" s="26" t="s">
+      <c r="U43" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="U43" s="28">
-        <v>1</v>
-      </c>
       <c r="V43" s="28">
         <v>1</v>
       </c>
       <c r="W43" s="28">
+        <v>1</v>
+      </c>
+      <c r="X43" s="28">
         <v>0.5</v>
       </c>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="29" t="s">
-        <v>245</v>
-      </c>
+      <c r="Y43" s="25"/>
       <c r="Z43" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA43" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="AA43" s="29">
-        <v>1</v>
-      </c>
-      <c r="AC43" s="29">
+      <c r="AB43" s="29">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="29">
         <v>3100</v>
       </c>
-      <c r="AD43" s="29">
+      <c r="AE43" s="29">
         <v>1.5</v>
       </c>
-      <c r="AE43" s="29">
+      <c r="AF43" s="29">
         <v>2</v>
       </c>
-      <c r="AG43" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI43" s="30"/>
+      <c r="AH43" s="29" t="s">
+        <v>142</v>
+      </c>
       <c r="AJ43" s="30"/>
+      <c r="AK43" s="30"/>
     </row>
-    <row r="44" spans="1:36" s="35" customFormat="1">
+    <row r="44" spans="1:37" s="35" customFormat="1">
       <c r="A44" s="31">
         <v>43</v>
       </c>
@@ -6980,19 +7115,19 @@
         <v>43</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F44" s="32" t="s">
         <v>69</v>
       </c>
       <c r="G44" s="32" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H44" s="32" t="s">
         <v>84</v>
@@ -7015,58 +7150,59 @@
       <c r="N44" s="31">
         <v>500</v>
       </c>
-      <c r="O44" s="31">
+      <c r="O44" s="31"/>
+      <c r="P44" s="31">
         <v>3</v>
       </c>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="32">
+      <c r="Q44" s="31"/>
+      <c r="R44" s="32">
         <v>0.7</v>
       </c>
-      <c r="R44" s="34">
-        <v>1</v>
-      </c>
       <c r="S44" s="34">
+        <v>1</v>
+      </c>
+      <c r="T44" s="34">
         <v>0.74</v>
       </c>
-      <c r="T44" s="32" t="s">
+      <c r="U44" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="U44" s="34">
-        <v>1</v>
-      </c>
       <c r="V44" s="34">
+        <v>1</v>
+      </c>
+      <c r="W44" s="34">
         <v>0.7</v>
       </c>
-      <c r="W44" s="34">
+      <c r="X44" s="34">
         <v>0.35</v>
       </c>
-      <c r="X44" s="31"/>
-      <c r="Y44" s="35" t="s">
-        <v>246</v>
-      </c>
+      <c r="Y44" s="31"/>
       <c r="Z44" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA44" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AC44" s="35">
+      <c r="AD44" s="35">
         <v>9100</v>
       </c>
-      <c r="AD44" s="35">
+      <c r="AE44" s="35">
         <v>1.5</v>
       </c>
-      <c r="AE44" s="35">
+      <c r="AF44" s="35">
         <v>2</v>
       </c>
-      <c r="AG44" s="35" t="s">
+      <c r="AH44" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="AI44" s="36" t="s">
-        <v>281</v>
-      </c>
-      <c r="AJ44" s="19" t="s">
-        <v>310</v>
+      <c r="AJ44" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK44" s="19" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="45" spans="1:36" s="29" customFormat="1">
+    <row r="45" spans="1:37" s="29" customFormat="1">
       <c r="A45" s="25">
         <v>44</v>
       </c>
@@ -7074,13 +7210,13 @@
         <v>44</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F45" s="26" t="s">
         <v>67</v>
@@ -7109,57 +7245,58 @@
       <c r="N45" s="25">
         <v>0</v>
       </c>
-      <c r="O45" s="25">
+      <c r="O45" s="25"/>
+      <c r="P45" s="25">
         <v>2</v>
       </c>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="26">
+      <c r="Q45" s="25"/>
+      <c r="R45" s="26">
         <v>0.55000000000000004</v>
       </c>
-      <c r="R45" s="28">
+      <c r="S45" s="28">
         <v>1.2</v>
       </c>
-      <c r="S45" s="28">
+      <c r="T45" s="28">
         <v>0.4</v>
       </c>
-      <c r="T45" s="26" t="s">
+      <c r="U45" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="U45" s="28">
-        <v>1</v>
-      </c>
       <c r="V45" s="28">
         <v>1</v>
       </c>
       <c r="W45" s="28">
+        <v>1</v>
+      </c>
+      <c r="X45" s="28">
         <v>0.5</v>
       </c>
-      <c r="X45" s="25"/>
-      <c r="Y45" s="29" t="s">
-        <v>245</v>
-      </c>
+      <c r="Y45" s="25"/>
       <c r="Z45" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA45" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="AA45" s="29">
-        <v>1</v>
-      </c>
-      <c r="AC45" s="29">
+      <c r="AB45" s="29">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="29">
         <v>2900</v>
       </c>
-      <c r="AD45" s="29">
+      <c r="AE45" s="29">
         <v>1.5</v>
       </c>
-      <c r="AE45" s="29">
+      <c r="AF45" s="29">
         <v>2</v>
       </c>
-      <c r="AG45" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI45" s="30"/>
+      <c r="AH45" s="29" t="s">
+        <v>141</v>
+      </c>
       <c r="AJ45" s="30"/>
+      <c r="AK45" s="30"/>
     </row>
-    <row r="46" spans="1:36" s="29" customFormat="1">
+    <row r="46" spans="1:37" s="29" customFormat="1">
       <c r="A46" s="25">
         <v>45</v>
       </c>
@@ -7170,7 +7307,7 @@
         <v>98</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E46" s="26" t="s">
         <v>101</v>
@@ -7202,54 +7339,55 @@
       <c r="N46" s="25">
         <v>0</v>
       </c>
-      <c r="O46" s="25">
+      <c r="O46" s="25"/>
+      <c r="P46" s="25">
         <v>3</v>
       </c>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="26">
+      <c r="Q46" s="25"/>
+      <c r="R46" s="26">
         <v>0.7</v>
       </c>
-      <c r="R46" s="28">
-        <v>1</v>
-      </c>
       <c r="S46" s="28">
+        <v>1</v>
+      </c>
+      <c r="T46" s="28">
         <v>0.8</v>
       </c>
-      <c r="T46" s="26" t="s">
+      <c r="U46" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="U46" s="28">
+      <c r="V46" s="28">
         <v>1.5</v>
       </c>
-      <c r="V46" s="28">
-        <v>1</v>
-      </c>
       <c r="W46" s="28">
+        <v>1</v>
+      </c>
+      <c r="X46" s="28">
         <v>0.35</v>
       </c>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="29" t="s">
-        <v>250</v>
-      </c>
+      <c r="Y46" s="25"/>
       <c r="Z46" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA46" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AC46" s="29">
+      <c r="AD46" s="29">
         <v>2800</v>
       </c>
-      <c r="AD46" s="29">
+      <c r="AE46" s="29">
         <v>1.5</v>
       </c>
-      <c r="AE46" s="29">
+      <c r="AF46" s="29">
         <v>2</v>
       </c>
-      <c r="AG46" s="29" t="s">
+      <c r="AH46" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AI46" s="30"/>
       <c r="AJ46" s="30"/>
+      <c r="AK46" s="30"/>
     </row>
-    <row r="47" spans="1:36" s="35" customFormat="1">
+    <row r="47" spans="1:37" s="35" customFormat="1">
       <c r="A47" s="31">
         <v>46</v>
       </c>
@@ -7257,19 +7395,19 @@
         <v>46</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H47" s="32" t="s">
         <v>84</v>
@@ -7292,64 +7430,65 @@
       <c r="N47" s="31">
         <v>400</v>
       </c>
-      <c r="O47" s="31">
+      <c r="O47" s="31"/>
+      <c r="P47" s="31">
         <v>2</v>
       </c>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="32">
+      <c r="Q47" s="31"/>
+      <c r="R47" s="32">
         <v>0.8</v>
       </c>
-      <c r="R47" s="34">
-        <v>1</v>
-      </c>
       <c r="S47" s="34">
+        <v>1</v>
+      </c>
+      <c r="T47" s="34">
         <v>0.26</v>
       </c>
-      <c r="T47" s="32" t="s">
+      <c r="U47" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="U47" s="34">
+      <c r="V47" s="34">
         <v>0.8</v>
       </c>
-      <c r="V47" s="34">
-        <v>1</v>
-      </c>
       <c r="W47" s="34">
+        <v>1</v>
+      </c>
+      <c r="X47" s="34">
         <v>0.4</v>
       </c>
-      <c r="X47" s="31"/>
-      <c r="Y47" s="35" t="s">
-        <v>247</v>
-      </c>
+      <c r="Y47" s="31"/>
       <c r="Z47" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA47" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="AC47" s="35">
+      <c r="AD47" s="35">
         <v>9100</v>
       </c>
-      <c r="AD47" s="35">
+      <c r="AE47" s="35">
         <v>1.5</v>
       </c>
-      <c r="AE47" s="35">
+      <c r="AF47" s="35">
         <v>2</v>
       </c>
-      <c r="AF47" s="35" t="s">
-        <v>248</v>
-      </c>
       <c r="AG47" s="35" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="AH47" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI47" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJ47" s="19" t="s">
-        <v>311</v>
+        <v>140</v>
+      </c>
+      <c r="AI47" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ47" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="AK47" s="19" t="s">
+        <v>306</v>
       </c>
     </row>
-    <row r="48" spans="1:36" s="35" customFormat="1">
+    <row r="48" spans="1:37" s="35" customFormat="1">
       <c r="A48" s="31">
         <v>47</v>
       </c>
@@ -7357,19 +7496,19 @@
         <v>47</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H48" s="32" t="s">
         <v>84</v>
@@ -7392,58 +7531,59 @@
       <c r="N48" s="31">
         <v>500</v>
       </c>
-      <c r="O48" s="31">
+      <c r="O48" s="31"/>
+      <c r="P48" s="31">
         <v>2</v>
       </c>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="32">
+      <c r="Q48" s="31"/>
+      <c r="R48" s="32">
         <v>0.55000000000000004</v>
       </c>
-      <c r="R48" s="34">
+      <c r="S48" s="34">
         <v>1.2</v>
       </c>
-      <c r="S48" s="34">
+      <c r="T48" s="34">
         <v>0.4</v>
       </c>
-      <c r="T48" s="32" t="s">
+      <c r="U48" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="U48" s="34">
-        <v>1</v>
-      </c>
       <c r="V48" s="34">
         <v>1</v>
       </c>
       <c r="W48" s="34">
+        <v>1</v>
+      </c>
+      <c r="X48" s="34">
         <v>0.5</v>
       </c>
-      <c r="X48" s="31"/>
-      <c r="Y48" s="35" t="s">
-        <v>245</v>
-      </c>
+      <c r="Y48" s="31"/>
       <c r="Z48" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA48" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="AC48" s="35">
+      <c r="AD48" s="35">
         <v>3300</v>
       </c>
-      <c r="AD48" s="35">
+      <c r="AE48" s="35">
         <v>1.5</v>
       </c>
-      <c r="AE48" s="35">
+      <c r="AF48" s="35">
         <v>2</v>
       </c>
-      <c r="AG48" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI48" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="AJ48" s="19" t="s">
-        <v>312</v>
+      <c r="AH48" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ48" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="AK48" s="19" t="s">
+        <v>307</v>
       </c>
     </row>
-    <row r="49" spans="1:36" s="35" customFormat="1">
+    <row r="49" spans="1:37" s="35" customFormat="1">
       <c r="A49" s="31">
         <v>48</v>
       </c>
@@ -7451,19 +7591,19 @@
         <v>48</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H49" s="32" t="s">
         <v>84</v>
@@ -7486,58 +7626,59 @@
       <c r="N49" s="31">
         <v>600</v>
       </c>
-      <c r="O49" s="31">
+      <c r="O49" s="31"/>
+      <c r="P49" s="31">
         <v>3</v>
       </c>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="32">
+      <c r="Q49" s="31"/>
+      <c r="R49" s="32">
         <v>0.66</v>
       </c>
-      <c r="R49" s="34">
-        <v>1</v>
-      </c>
       <c r="S49" s="34">
+        <v>1</v>
+      </c>
+      <c r="T49" s="34">
         <v>0.22</v>
       </c>
-      <c r="T49" s="32" t="s">
+      <c r="U49" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="U49" s="34">
+      <c r="V49" s="34">
         <v>0.8</v>
       </c>
-      <c r="V49" s="34">
-        <v>1</v>
-      </c>
       <c r="W49" s="34">
+        <v>1</v>
+      </c>
+      <c r="X49" s="34">
         <v>0.45</v>
       </c>
-      <c r="X49" s="31"/>
-      <c r="Y49" s="37" t="s">
+      <c r="Y49" s="31"/>
+      <c r="Z49" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="Z49" s="35" t="s">
+      <c r="AA49" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="AC49" s="35">
+      <c r="AD49" s="35">
         <v>9100</v>
       </c>
-      <c r="AD49" s="35">
+      <c r="AE49" s="35">
         <v>1.5</v>
       </c>
-      <c r="AE49" s="35">
+      <c r="AF49" s="35">
         <v>2</v>
       </c>
-      <c r="AG49" s="35" t="s">
+      <c r="AH49" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="AI49" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="AJ49" s="19" t="s">
-        <v>313</v>
+      <c r="AJ49" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="AK49" s="19" t="s">
+        <v>308</v>
       </c>
     </row>
-    <row r="50" spans="1:36" s="35" customFormat="1">
+    <row r="50" spans="1:37" s="35" customFormat="1">
       <c r="A50" s="31">
         <v>49</v>
       </c>
@@ -7545,19 +7686,19 @@
         <v>49</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H50" s="32" t="s">
         <v>84</v>
@@ -7580,61 +7721,62 @@
       <c r="N50" s="31">
         <v>800</v>
       </c>
-      <c r="O50" s="31">
+      <c r="O50" s="31"/>
+      <c r="P50" s="31">
         <v>3</v>
       </c>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="32">
+      <c r="Q50" s="31"/>
+      <c r="R50" s="32">
         <v>0.66</v>
       </c>
-      <c r="R50" s="34">
-        <v>1</v>
-      </c>
       <c r="S50" s="34">
+        <v>1</v>
+      </c>
+      <c r="T50" s="34">
         <v>0.22</v>
       </c>
-      <c r="T50" s="32" t="s">
+      <c r="U50" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="U50" s="34">
+      <c r="V50" s="34">
         <v>0.8</v>
       </c>
-      <c r="V50" s="34">
-        <v>1</v>
-      </c>
       <c r="W50" s="34">
+        <v>1</v>
+      </c>
+      <c r="X50" s="34">
         <v>0.45</v>
       </c>
-      <c r="X50" s="31"/>
-      <c r="Y50" s="37" t="s">
+      <c r="Y50" s="31"/>
+      <c r="Z50" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="Z50" s="35" t="s">
+      <c r="AA50" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="AA50" s="35">
-        <v>1</v>
-      </c>
-      <c r="AC50" s="35">
+      <c r="AB50" s="35">
+        <v>1</v>
+      </c>
+      <c r="AD50" s="35">
         <v>9400</v>
       </c>
-      <c r="AD50" s="35">
+      <c r="AE50" s="35">
         <v>1.5</v>
       </c>
-      <c r="AE50" s="35">
+      <c r="AF50" s="35">
         <v>2</v>
       </c>
-      <c r="AG50" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="AI50" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="AJ50" s="19" t="s">
-        <v>314</v>
+      <c r="AH50" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ50" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK50" s="19" t="s">
+        <v>309</v>
       </c>
     </row>
-    <row r="51" spans="1:36" s="35" customFormat="1">
+    <row r="51" spans="1:37" s="35" customFormat="1">
       <c r="A51" s="31">
         <v>50</v>
       </c>
@@ -7642,13 +7784,13 @@
         <v>50</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F51" s="32" t="s">
         <v>71</v>
@@ -7657,7 +7799,7 @@
         <v>72</v>
       </c>
       <c r="H51" s="32" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I51" s="32">
         <v>2</v>
@@ -7677,51 +7819,52 @@
       <c r="N51" s="31">
         <v>50</v>
       </c>
-      <c r="O51" s="31">
+      <c r="O51" s="31"/>
+      <c r="P51" s="31">
         <v>3</v>
       </c>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="32">
+      <c r="Q51" s="31"/>
+      <c r="R51" s="32">
         <v>0.66</v>
       </c>
-      <c r="R51" s="34">
-        <v>1</v>
-      </c>
       <c r="S51" s="34">
+        <v>1</v>
+      </c>
+      <c r="T51" s="34">
         <v>0.22</v>
       </c>
-      <c r="T51" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="U51" s="34">
+      <c r="U51" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="V51" s="34">
         <v>0.8</v>
       </c>
-      <c r="V51" s="34">
-        <v>1</v>
-      </c>
       <c r="W51" s="34">
+        <v>1</v>
+      </c>
+      <c r="X51" s="34">
         <v>0.45</v>
       </c>
-      <c r="X51" s="31"/>
-      <c r="Y51" s="37" t="s">
+      <c r="Y51" s="31"/>
+      <c r="Z51" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="Z51" s="35" t="s">
+      <c r="AA51" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="AA51" s="35">
-        <v>1</v>
-      </c>
-      <c r="AC51" s="35">
+      <c r="AB51" s="35">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="35">
         <v>1000</v>
       </c>
-      <c r="AD51" s="35">
+      <c r="AE51" s="35">
         <v>1.5</v>
       </c>
-      <c r="AI51" s="36"/>
       <c r="AJ51" s="36"/>
+      <c r="AK51" s="36"/>
     </row>
-    <row r="52" spans="1:36" s="20" customFormat="1">
+    <row r="52" spans="1:37" s="20" customFormat="1">
       <c r="A52" s="31">
         <v>51</v>
       </c>
@@ -7729,22 +7872,22 @@
         <v>51</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G52" s="32" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H52" s="32" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I52" s="32">
         <v>2.64</v>
@@ -7764,48 +7907,49 @@
       <c r="N52" s="31">
         <v>200</v>
       </c>
-      <c r="O52" s="31">
+      <c r="O52" s="31"/>
+      <c r="P52" s="31">
         <v>4</v>
       </c>
-      <c r="Q52" s="32">
+      <c r="R52" s="32">
         <v>0.64</v>
       </c>
-      <c r="R52" s="34">
+      <c r="S52" s="34">
         <v>0.73</v>
       </c>
-      <c r="S52" s="34">
+      <c r="T52" s="34">
         <v>0.74</v>
       </c>
-      <c r="T52" s="32" t="s">
-        <v>321</v>
-      </c>
-      <c r="U52" s="34">
-        <v>1</v>
+      <c r="U52" s="32" t="s">
+        <v>316</v>
       </c>
       <c r="V52" s="34">
+        <v>1</v>
+      </c>
+      <c r="W52" s="34">
         <v>0.8</v>
       </c>
-      <c r="W52" s="34">
+      <c r="X52" s="34">
         <v>0.1</v>
       </c>
-      <c r="Y52" s="37" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z52" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="AA52" s="35">
-        <v>1</v>
-      </c>
-      <c r="AC52" s="35">
+      <c r="Z52" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA52" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB52" s="35">
+        <v>1</v>
+      </c>
+      <c r="AD52" s="35">
         <v>1000</v>
       </c>
-      <c r="AD52" s="35">
+      <c r="AE52" s="35">
         <v>1.5</v>
       </c>
-      <c r="AE52" s="35"/>
+      <c r="AF52" s="35"/>
     </row>
-    <row r="53" spans="1:36" s="20" customFormat="1">
+    <row r="53" spans="1:37" s="20" customFormat="1">
       <c r="A53" s="31">
         <v>52</v>
       </c>
@@ -7813,22 +7957,22 @@
         <v>52</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E53" s="32" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F53" s="32" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G53" s="32" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H53" s="32" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I53" s="32">
         <v>2.64</v>
@@ -7848,47 +7992,48 @@
       <c r="N53" s="31">
         <v>0</v>
       </c>
-      <c r="O53" s="31">
+      <c r="O53" s="31"/>
+      <c r="P53" s="31">
         <v>4</v>
       </c>
-      <c r="Q53" s="32">
+      <c r="R53" s="32">
         <v>0.64</v>
       </c>
-      <c r="R53" s="34">
+      <c r="S53" s="34">
         <v>0.73</v>
       </c>
-      <c r="S53" s="34">
+      <c r="T53" s="34">
         <v>0.74</v>
       </c>
-      <c r="T53" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="U53" s="34">
-        <v>1</v>
+      <c r="U53" s="32" t="s">
+        <v>281</v>
       </c>
       <c r="V53" s="34">
+        <v>1</v>
+      </c>
+      <c r="W53" s="34">
         <v>0.8</v>
       </c>
-      <c r="W53" s="34">
+      <c r="X53" s="34">
         <v>0.1</v>
       </c>
-      <c r="Y53" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z53" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="AA53" s="35">
-        <v>1</v>
-      </c>
-      <c r="AC53" s="35">
+      <c r="Z53" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA53" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB53" s="35">
+        <v>1</v>
+      </c>
+      <c r="AD53" s="35">
         <v>1000</v>
       </c>
-      <c r="AD53" s="35">
+      <c r="AE53" s="35">
         <v>1.5</v>
       </c>
     </row>
-    <row r="54" spans="1:36" s="20" customFormat="1">
+    <row r="54" spans="1:37" s="20" customFormat="1">
       <c r="A54" s="13">
         <v>53</v>
       </c>
@@ -7896,13 +8041,13 @@
         <v>53</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F54" s="14" t="s">
         <v>78</v>
@@ -7931,58 +8076,59 @@
       <c r="N54" s="13">
         <v>20</v>
       </c>
-      <c r="O54" s="13">
+      <c r="O54" s="13"/>
+      <c r="P54" s="13">
         <v>3</v>
       </c>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="14">
+      <c r="Q54" s="13"/>
+      <c r="R54" s="14">
         <v>0.7</v>
       </c>
-      <c r="R54" s="16">
-        <v>1</v>
-      </c>
       <c r="S54" s="16">
+        <v>1</v>
+      </c>
+      <c r="T54" s="16">
         <v>0.8</v>
       </c>
-      <c r="T54" s="14" t="s">
+      <c r="U54" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U54" s="16">
+      <c r="V54" s="16">
         <v>0.7</v>
       </c>
-      <c r="V54" s="16">
-        <v>1</v>
-      </c>
       <c r="W54" s="16">
+        <v>1</v>
+      </c>
+      <c r="X54" s="16">
         <v>0.35</v>
       </c>
-      <c r="X54" s="13"/>
-      <c r="Y54" s="19" t="s">
+      <c r="Y54" s="13"/>
+      <c r="Z54" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Z54" s="19" t="s">
+      <c r="AA54" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AC54" s="20">
+      <c r="AD54" s="20">
         <v>7800</v>
       </c>
-      <c r="AD54" s="20">
+      <c r="AE54" s="20">
         <v>1.5</v>
       </c>
-      <c r="AE54" s="20">
+      <c r="AF54" s="20">
         <v>2</v>
       </c>
-      <c r="AF54" s="19" t="s">
-        <v>143</v>
-      </c>
       <c r="AG54" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ54" s="19" t="s">
-        <v>288</v>
+        <v>138</v>
+      </c>
+      <c r="AH54" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK54" s="19" t="s">
+        <v>283</v>
       </c>
     </row>
-    <row r="55" spans="1:36" s="20" customFormat="1">
+    <row r="55" spans="1:37" s="20" customFormat="1">
       <c r="A55" s="13">
         <v>54</v>
       </c>
@@ -7990,16 +8136,16 @@
         <v>54</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>72</v>
@@ -8025,55 +8171,56 @@
       <c r="N55" s="13">
         <v>30</v>
       </c>
-      <c r="O55" s="13">
+      <c r="O55" s="13"/>
+      <c r="P55" s="13">
         <v>4</v>
       </c>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="14">
+      <c r="Q55" s="13"/>
+      <c r="R55" s="14">
         <v>0.7</v>
       </c>
-      <c r="R55" s="16">
-        <v>1</v>
-      </c>
       <c r="S55" s="16">
+        <v>1</v>
+      </c>
+      <c r="T55" s="16">
         <v>0.6</v>
       </c>
-      <c r="T55" s="14" t="s">
+      <c r="U55" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U55" s="16">
+      <c r="V55" s="16">
         <v>0.7</v>
       </c>
-      <c r="V55" s="16">
-        <v>1</v>
-      </c>
       <c r="W55" s="16">
+        <v>1</v>
+      </c>
+      <c r="X55" s="16">
         <v>0.35</v>
       </c>
-      <c r="X55" s="13"/>
-      <c r="Y55" s="19" t="s">
+      <c r="Y55" s="13"/>
+      <c r="Z55" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="Z55" s="19" t="s">
+      <c r="AA55" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AC55" s="20">
+      <c r="AD55" s="20">
         <v>7400</v>
       </c>
-      <c r="AD55" s="20">
+      <c r="AE55" s="20">
         <v>1.5</v>
       </c>
-      <c r="AE55" s="20">
+      <c r="AF55" s="20">
         <v>2</v>
       </c>
-      <c r="AG55" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ55" s="19" t="s">
-        <v>288</v>
+      <c r="AH55" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK55" s="19" t="s">
+        <v>283</v>
       </c>
     </row>
-    <row r="56" spans="1:36" s="20" customFormat="1">
+    <row r="56" spans="1:37" s="20" customFormat="1">
       <c r="A56" s="13">
         <v>55</v>
       </c>
@@ -8081,10 +8228,10 @@
         <v>55</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>41</v>
@@ -8093,7 +8240,7 @@
         <v>65</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>93</v>
@@ -8116,55 +8263,56 @@
       <c r="N56" s="13">
         <v>40</v>
       </c>
-      <c r="O56" s="13">
+      <c r="O56" s="13"/>
+      <c r="P56" s="13">
         <v>4</v>
       </c>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="14">
+      <c r="Q56" s="13"/>
+      <c r="R56" s="14">
         <v>0.7</v>
       </c>
-      <c r="R56" s="16">
-        <v>1</v>
-      </c>
       <c r="S56" s="16">
+        <v>1</v>
+      </c>
+      <c r="T56" s="16">
         <v>0.6</v>
       </c>
-      <c r="T56" s="14" t="s">
+      <c r="U56" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U56" s="16">
+      <c r="V56" s="16">
         <v>1.4</v>
       </c>
-      <c r="V56" s="16">
-        <v>1</v>
-      </c>
       <c r="W56" s="16">
+        <v>1</v>
+      </c>
+      <c r="X56" s="16">
         <v>0.35</v>
       </c>
-      <c r="X56" s="13"/>
-      <c r="Y56" s="19" t="s">
+      <c r="Y56" s="13"/>
+      <c r="Z56" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="Z56" s="19" t="s">
+      <c r="AA56" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AC56" s="20">
+      <c r="AD56" s="20">
         <v>7200</v>
       </c>
-      <c r="AD56" s="20">
+      <c r="AE56" s="20">
         <v>1.5</v>
       </c>
-      <c r="AE56" s="20">
+      <c r="AF56" s="20">
         <v>2</v>
       </c>
-      <c r="AG56" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="AJ56" s="19" t="s">
-        <v>288</v>
+      <c r="AH56" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK56" s="19" t="s">
+        <v>283</v>
       </c>
     </row>
-    <row r="57" spans="1:36" s="20" customFormat="1">
+    <row r="57" spans="1:37" s="20" customFormat="1">
       <c r="A57" s="13">
         <v>56</v>
       </c>
@@ -8172,10 +8320,10 @@
         <v>56</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>45</v>
@@ -8184,7 +8332,7 @@
         <v>68</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>93</v>
@@ -8207,55 +8355,56 @@
       <c r="N57" s="13">
         <v>60</v>
       </c>
-      <c r="O57" s="13">
+      <c r="O57" s="13"/>
+      <c r="P57" s="13">
         <v>4</v>
       </c>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="14">
+      <c r="Q57" s="13"/>
+      <c r="R57" s="14">
         <v>0.8</v>
       </c>
-      <c r="R57" s="16">
-        <v>1</v>
-      </c>
       <c r="S57" s="16">
+        <v>1</v>
+      </c>
+      <c r="T57" s="16">
         <v>0.74</v>
       </c>
-      <c r="T57" s="14" t="s">
+      <c r="U57" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U57" s="16">
+      <c r="V57" s="16">
         <v>0.7</v>
       </c>
-      <c r="V57" s="16">
-        <v>1</v>
-      </c>
       <c r="W57" s="16">
+        <v>1</v>
+      </c>
+      <c r="X57" s="16">
         <v>0.35</v>
       </c>
-      <c r="X57" s="13"/>
-      <c r="Y57" s="19" t="s">
+      <c r="Y57" s="13"/>
+      <c r="Z57" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="Z57" s="19" t="s">
+      <c r="AA57" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AC57" s="20">
+      <c r="AD57" s="20">
         <v>7100</v>
       </c>
-      <c r="AD57" s="20">
+      <c r="AE57" s="20">
         <v>1.5</v>
       </c>
-      <c r="AE57" s="20">
+      <c r="AF57" s="20">
         <v>2</v>
       </c>
-      <c r="AG57" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ57" s="19" t="s">
-        <v>289</v>
+      <c r="AH57" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK57" s="19" t="s">
+        <v>284</v>
       </c>
     </row>
-    <row r="58" spans="1:36" s="20" customFormat="1">
+    <row r="58" spans="1:37" s="20" customFormat="1">
       <c r="A58" s="31">
         <v>57</v>
       </c>
@@ -8263,22 +8412,22 @@
         <v>57</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E58" s="32" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F58" s="32" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G58" s="32" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H58" s="32" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I58" s="32">
         <v>2.64</v>
@@ -8298,47 +8447,48 @@
       <c r="N58" s="31">
         <v>0</v>
       </c>
-      <c r="O58" s="31">
+      <c r="O58" s="31"/>
+      <c r="P58" s="31">
         <v>4</v>
       </c>
-      <c r="Q58" s="32">
+      <c r="R58" s="32">
         <v>0.64</v>
       </c>
-      <c r="R58" s="34">
+      <c r="S58" s="34">
         <v>0.73</v>
       </c>
-      <c r="S58" s="34">
+      <c r="T58" s="34">
         <v>0.74</v>
       </c>
-      <c r="T58" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="U58" s="34">
-        <v>1</v>
+      <c r="U58" s="32" t="s">
+        <v>281</v>
       </c>
       <c r="V58" s="34">
+        <v>1</v>
+      </c>
+      <c r="W58" s="34">
         <v>0.8</v>
       </c>
-      <c r="W58" s="34">
+      <c r="X58" s="34">
         <v>0.1</v>
       </c>
-      <c r="Y58" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z58" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="AA58" s="35">
-        <v>1</v>
-      </c>
-      <c r="AC58" s="35">
+      <c r="Z58" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA58" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB58" s="35">
+        <v>1</v>
+      </c>
+      <c r="AD58" s="35">
         <v>1000</v>
       </c>
-      <c r="AD58" s="35">
+      <c r="AE58" s="35">
         <v>1.5</v>
       </c>
     </row>
-    <row r="59" spans="1:36" s="20" customFormat="1">
+    <row r="59" spans="1:37" s="20" customFormat="1">
       <c r="A59" s="31">
         <v>58</v>
       </c>
@@ -8346,22 +8496,22 @@
         <v>58</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G59" s="32" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H59" s="32" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I59" s="32">
         <v>2.64</v>
@@ -8381,47 +8531,48 @@
       <c r="N59" s="31">
         <v>0</v>
       </c>
-      <c r="O59" s="31">
+      <c r="O59" s="31"/>
+      <c r="P59" s="31">
         <v>4</v>
       </c>
-      <c r="Q59" s="32">
+      <c r="R59" s="32">
         <v>0.64</v>
       </c>
-      <c r="R59" s="34">
+      <c r="S59" s="34">
         <v>0.73</v>
       </c>
-      <c r="S59" s="34">
+      <c r="T59" s="34">
         <v>0.74</v>
       </c>
-      <c r="T59" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="U59" s="34">
-        <v>1</v>
+      <c r="U59" s="32" t="s">
+        <v>281</v>
       </c>
       <c r="V59" s="34">
+        <v>1</v>
+      </c>
+      <c r="W59" s="34">
         <v>0.8</v>
       </c>
-      <c r="W59" s="34">
+      <c r="X59" s="34">
         <v>0.1</v>
       </c>
-      <c r="Y59" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z59" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="AA59" s="35">
-        <v>1</v>
-      </c>
-      <c r="AC59" s="35">
+      <c r="Z59" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA59" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB59" s="35">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="35">
         <v>1000</v>
       </c>
-      <c r="AD59" s="35">
+      <c r="AE59" s="35">
         <v>1.5</v>
       </c>
     </row>
-    <row r="60" spans="1:36" s="20" customFormat="1">
+    <row r="60" spans="1:37" s="20" customFormat="1">
       <c r="A60" s="31">
         <v>59</v>
       </c>
@@ -8429,22 +8580,22 @@
         <v>59</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E60" s="32" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F60" s="32" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G60" s="32" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H60" s="32" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I60" s="32">
         <v>2.64</v>
@@ -8464,47 +8615,48 @@
       <c r="N60" s="31">
         <v>0</v>
       </c>
-      <c r="O60" s="31">
+      <c r="O60" s="31"/>
+      <c r="P60" s="31">
         <v>4</v>
       </c>
-      <c r="Q60" s="32">
+      <c r="R60" s="32">
         <v>0.64</v>
       </c>
-      <c r="R60" s="34">
+      <c r="S60" s="34">
         <v>0.73</v>
       </c>
-      <c r="S60" s="34">
+      <c r="T60" s="34">
         <v>0.74</v>
       </c>
-      <c r="T60" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="U60" s="34">
-        <v>1</v>
+      <c r="U60" s="32" t="s">
+        <v>281</v>
       </c>
       <c r="V60" s="34">
+        <v>1</v>
+      </c>
+      <c r="W60" s="34">
         <v>0.8</v>
       </c>
-      <c r="W60" s="34">
+      <c r="X60" s="34">
         <v>0.1</v>
       </c>
-      <c r="Y60" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z60" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="AA60" s="35">
-        <v>1</v>
-      </c>
-      <c r="AC60" s="35">
+      <c r="Z60" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA60" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB60" s="35">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="35">
         <v>1000</v>
       </c>
-      <c r="AD60" s="35">
+      <c r="AE60" s="35">
         <v>1.5</v>
       </c>
     </row>
-    <row r="61" spans="1:36" s="20" customFormat="1">
+    <row r="61" spans="1:37" s="20" customFormat="1">
       <c r="A61" s="31">
         <v>60</v>
       </c>
@@ -8512,22 +8664,22 @@
         <v>60</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H61" s="32" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I61" s="32">
         <v>2.64</v>
@@ -8547,47 +8699,48 @@
       <c r="N61" s="31">
         <v>0</v>
       </c>
-      <c r="O61" s="31">
+      <c r="O61" s="31"/>
+      <c r="P61" s="31">
         <v>4</v>
       </c>
-      <c r="Q61" s="32">
+      <c r="R61" s="32">
         <v>0.64</v>
       </c>
-      <c r="R61" s="34">
+      <c r="S61" s="34">
         <v>0.73</v>
       </c>
-      <c r="S61" s="34">
+      <c r="T61" s="34">
         <v>0.74</v>
       </c>
-      <c r="T61" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="U61" s="34">
-        <v>1</v>
+      <c r="U61" s="32" t="s">
+        <v>281</v>
       </c>
       <c r="V61" s="34">
+        <v>1</v>
+      </c>
+      <c r="W61" s="34">
         <v>0.8</v>
       </c>
-      <c r="W61" s="34">
+      <c r="X61" s="34">
         <v>0.1</v>
       </c>
-      <c r="Y61" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z61" s="35" t="s">
+      <c r="Z61" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA61" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="AA61" s="35">
-        <v>1</v>
-      </c>
-      <c r="AC61" s="35">
+      <c r="AB61" s="35">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="35">
         <v>1000</v>
       </c>
-      <c r="AD61" s="35">
+      <c r="AE61" s="35">
         <v>1.5</v>
       </c>
     </row>
-    <row r="62" spans="1:36" s="13" customFormat="1" ht="16.5">
+    <row r="62" spans="1:37" s="13" customFormat="1" ht="16.5">
       <c r="A62" s="31">
         <v>61</v>
       </c>
@@ -8595,22 +8748,22 @@
         <v>61</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F62" s="38" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G62" s="38" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H62" s="32" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I62" s="32">
         <v>2.64</v>
@@ -8630,50 +8783,51 @@
       <c r="N62" s="31">
         <v>0</v>
       </c>
-      <c r="O62" s="31">
+      <c r="O62" s="31"/>
+      <c r="P62" s="31">
         <v>4</v>
       </c>
-      <c r="Q62" s="32">
+      <c r="R62" s="32">
         <v>0.64</v>
       </c>
-      <c r="R62" s="34">
+      <c r="S62" s="34">
         <v>0.73</v>
       </c>
-      <c r="S62" s="34">
+      <c r="T62" s="34">
         <v>0.74</v>
       </c>
-      <c r="T62" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="U62" s="34">
-        <v>1</v>
+      <c r="U62" s="32" t="s">
+        <v>281</v>
       </c>
       <c r="V62" s="34">
+        <v>1</v>
+      </c>
+      <c r="W62" s="34">
         <v>0.8</v>
       </c>
-      <c r="W62" s="34">
+      <c r="X62" s="34">
         <v>0.1</v>
       </c>
-      <c r="X62" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y62" s="39" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z62" s="31" t="s">
+      <c r="Y62" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z62" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA62" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="AA62" s="31">
-        <v>1</v>
-      </c>
-      <c r="AC62" s="31">
+      <c r="AB62" s="31">
+        <v>1</v>
+      </c>
+      <c r="AD62" s="31">
         <v>1000</v>
       </c>
-      <c r="AD62" s="31">
+      <c r="AE62" s="31">
         <v>1.5</v>
       </c>
     </row>
-    <row r="63" spans="1:36" s="20" customFormat="1">
+    <row r="63" spans="1:37" s="20" customFormat="1">
       <c r="A63" s="31">
         <v>62</v>
       </c>
@@ -8681,22 +8835,22 @@
         <v>62</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E63" s="32" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F63" s="32" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G63" s="32" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="H63" s="32" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I63" s="32">
         <v>2.64</v>
@@ -8716,47 +8870,48 @@
       <c r="N63" s="31">
         <v>0</v>
       </c>
-      <c r="O63" s="31">
+      <c r="O63" s="31"/>
+      <c r="P63" s="31">
         <v>4</v>
       </c>
-      <c r="Q63" s="32">
+      <c r="R63" s="32">
         <v>0.64</v>
       </c>
-      <c r="R63" s="34">
+      <c r="S63" s="34">
         <v>0.73</v>
       </c>
-      <c r="S63" s="34">
+      <c r="T63" s="34">
         <v>0.74</v>
       </c>
-      <c r="T63" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="U63" s="34">
-        <v>1</v>
+      <c r="U63" s="32" t="s">
+        <v>281</v>
       </c>
       <c r="V63" s="34">
+        <v>1</v>
+      </c>
+      <c r="W63" s="34">
         <v>0.8</v>
       </c>
-      <c r="W63" s="34">
+      <c r="X63" s="34">
         <v>0.1</v>
       </c>
-      <c r="Y63" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z63" s="35" t="s">
+      <c r="Z63" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA63" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="AA63" s="35">
-        <v>1</v>
-      </c>
-      <c r="AC63" s="35">
+      <c r="AB63" s="35">
+        <v>1</v>
+      </c>
+      <c r="AD63" s="35">
         <v>1000</v>
       </c>
-      <c r="AD63" s="35">
+      <c r="AE63" s="35">
         <v>1.5</v>
       </c>
     </row>
-    <row r="64" spans="1:36" s="20" customFormat="1">
+    <row r="64" spans="1:37" s="20" customFormat="1">
       <c r="A64" s="13">
         <v>63</v>
       </c>
@@ -8764,19 +8919,19 @@
         <v>63</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H64" s="14" t="s">
         <v>94</v>
@@ -8799,59 +8954,60 @@
       <c r="N64" s="13">
         <v>120</v>
       </c>
-      <c r="O64" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="14">
+      <c r="O64" s="13"/>
+      <c r="P64" s="13">
+        <v>1</v>
+      </c>
+      <c r="R64" s="14">
         <v>0.8</v>
       </c>
-      <c r="R64" s="16">
-        <v>1</v>
-      </c>
       <c r="S64" s="16">
+        <v>1</v>
+      </c>
+      <c r="T64" s="16">
         <v>0.74</v>
       </c>
-      <c r="T64" s="14" t="s">
+      <c r="U64" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="U64" s="16">
-        <v>1</v>
-      </c>
       <c r="V64" s="16">
         <v>1</v>
       </c>
       <c r="W64" s="16">
+        <v>1</v>
+      </c>
+      <c r="X64" s="16">
         <v>0.35</v>
       </c>
-      <c r="X64" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="Y64" s="19" t="s">
+      <c r="Y64" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z64" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="Z64" s="19" t="s">
+      <c r="AA64" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AC64" s="20">
+      <c r="AD64" s="20">
         <v>6500</v>
       </c>
-      <c r="AD64" s="20">
+      <c r="AE64" s="20">
         <v>2</v>
       </c>
-      <c r="AE64" s="20">
-        <v>1</v>
-      </c>
-      <c r="AF64" s="19" t="s">
+      <c r="AF64" s="20">
+        <v>1</v>
+      </c>
+      <c r="AG64" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="AG64" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ64" s="19" t="s">
-        <v>290</v>
+      <c r="AH64" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK64" s="19" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="65" spans="1:36" s="20" customFormat="1">
+    <row r="65" spans="1:37" s="20" customFormat="1">
       <c r="A65" s="13">
         <v>64</v>
       </c>
@@ -8859,19 +9015,19 @@
         <v>64</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H65" s="21" t="s">
         <v>94</v>
@@ -8894,57 +9050,58 @@
       <c r="N65" s="13">
         <v>120</v>
       </c>
-      <c r="O65" s="13">
+      <c r="O65" s="13"/>
+      <c r="P65" s="13">
         <v>3</v>
       </c>
-      <c r="P65" s="13"/>
-      <c r="Q65" s="14">
+      <c r="Q65" s="13"/>
+      <c r="R65" s="14">
         <v>0.8</v>
       </c>
-      <c r="R65" s="16">
-        <v>1</v>
-      </c>
       <c r="S65" s="16">
+        <v>1</v>
+      </c>
+      <c r="T65" s="16">
         <v>0.8</v>
       </c>
-      <c r="T65" s="14" t="s">
+      <c r="U65" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U65" s="16">
+      <c r="V65" s="16">
         <v>1.5</v>
       </c>
-      <c r="V65" s="16">
-        <v>1</v>
-      </c>
       <c r="W65" s="16">
+        <v>1</v>
+      </c>
+      <c r="X65" s="16">
         <v>0.35</v>
       </c>
-      <c r="X65" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="Y65" s="19" t="s">
+      <c r="Y65" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z65" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Z65" s="19" t="s">
+      <c r="AA65" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AC65" s="20">
+      <c r="AD65" s="20">
         <v>6300</v>
       </c>
-      <c r="AD65" s="20">
+      <c r="AE65" s="20">
         <v>2</v>
       </c>
-      <c r="AE65" s="20">
-        <v>1</v>
-      </c>
-      <c r="AG65" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ65" s="19" t="s">
-        <v>293</v>
+      <c r="AF65" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH65" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK65" s="19" t="s">
+        <v>288</v>
       </c>
     </row>
-    <row r="66" spans="1:36" s="20" customFormat="1">
+    <row r="66" spans="1:37" s="20" customFormat="1">
       <c r="A66" s="13">
         <v>65</v>
       </c>
@@ -8955,16 +9112,16 @@
         <v>96</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>99</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H66" s="21" t="s">
         <v>94</v>
@@ -8987,57 +9144,58 @@
       <c r="N66" s="13">
         <v>120</v>
       </c>
-      <c r="O66" s="13">
-        <v>1</v>
-      </c>
-      <c r="P66" s="13"/>
-      <c r="Q66" s="14">
+      <c r="O66" s="13"/>
+      <c r="P66" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="14">
         <v>0.60000000000000009</v>
       </c>
-      <c r="R66" s="16">
-        <v>1</v>
-      </c>
       <c r="S66" s="16">
+        <v>1</v>
+      </c>
+      <c r="T66" s="16">
         <v>0.12</v>
       </c>
-      <c r="T66" s="17" t="s">
+      <c r="U66" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="U66" s="16">
+      <c r="V66" s="16">
         <v>0.6</v>
       </c>
-      <c r="V66" s="16">
-        <v>1</v>
-      </c>
       <c r="W66" s="16">
+        <v>1</v>
+      </c>
+      <c r="X66" s="16">
         <v>0.8</v>
       </c>
-      <c r="X66" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="Y66" s="19" t="s">
+      <c r="Y66" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z66" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="Z66" s="19" t="s">
+      <c r="AA66" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AC66" s="20">
+      <c r="AD66" s="20">
         <v>6200</v>
       </c>
-      <c r="AD66" s="20">
+      <c r="AE66" s="20">
         <v>1.2</v>
       </c>
-      <c r="AF66" s="19" t="s">
+      <c r="AG66" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="AG66" s="19" t="s">
+      <c r="AH66" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="AJ66" s="19" t="s">
-        <v>294</v>
+      <c r="AK66" s="19" t="s">
+        <v>289</v>
       </c>
     </row>
-    <row r="67" spans="1:36" s="20" customFormat="1">
+    <row r="67" spans="1:37" s="20" customFormat="1">
       <c r="A67" s="13">
         <v>66</v>
       </c>
@@ -9048,16 +9206,16 @@
         <v>51</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F67" s="17" t="s">
         <v>69</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H67" s="21" t="s">
         <v>94</v>
@@ -9080,55 +9238,56 @@
       <c r="N67" s="13">
         <v>160</v>
       </c>
-      <c r="O67" s="13">
+      <c r="O67" s="13"/>
+      <c r="P67" s="13">
         <v>2</v>
       </c>
-      <c r="P67" s="18"/>
-      <c r="Q67" s="14">
+      <c r="Q67" s="18"/>
+      <c r="R67" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="R67" s="16">
-        <v>1</v>
-      </c>
       <c r="S67" s="16">
+        <v>1</v>
+      </c>
+      <c r="T67" s="16">
         <v>0.74</v>
       </c>
-      <c r="T67" s="14" t="s">
+      <c r="U67" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U67" s="16">
-        <v>1</v>
-      </c>
       <c r="V67" s="16">
         <v>1</v>
       </c>
       <c r="W67" s="16">
+        <v>1</v>
+      </c>
+      <c r="X67" s="16">
         <v>0.35</v>
       </c>
-      <c r="X67" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="Y67" s="19" t="s">
+      <c r="Y67" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z67" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="Z67" s="19" t="s">
+      <c r="AA67" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AB67" s="19"/>
-      <c r="AC67" s="20">
+      <c r="AC67" s="19"/>
+      <c r="AD67" s="20">
         <v>6000</v>
       </c>
-      <c r="AD67" s="20">
+      <c r="AE67" s="20">
         <v>2</v>
       </c>
-      <c r="AE67" s="20">
-        <v>1</v>
-      </c>
-      <c r="AJ67" s="19" t="s">
-        <v>296</v>
+      <c r="AF67" s="20">
+        <v>1</v>
+      </c>
+      <c r="AK67" s="19" t="s">
+        <v>291</v>
       </c>
     </row>
-    <row r="68" spans="1:36" s="20" customFormat="1">
+    <row r="68" spans="1:37" s="20" customFormat="1">
       <c r="A68" s="13">
         <v>67</v>
       </c>
@@ -9136,19 +9295,19 @@
         <v>67</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>67</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H68" s="21" t="s">
         <v>94</v>
@@ -9171,61 +9330,62 @@
       <c r="N68" s="13">
         <v>200</v>
       </c>
-      <c r="O68" s="13">
+      <c r="O68" s="13"/>
+      <c r="P68" s="13">
         <v>4</v>
       </c>
-      <c r="P68" s="18"/>
-      <c r="Q68" s="14">
+      <c r="Q68" s="18"/>
+      <c r="R68" s="14">
         <v>0.7</v>
       </c>
-      <c r="R68" s="16">
-        <v>1</v>
-      </c>
       <c r="S68" s="16">
+        <v>1</v>
+      </c>
+      <c r="T68" s="16">
         <v>0.74</v>
       </c>
-      <c r="T68" s="14" t="s">
+      <c r="U68" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="U68" s="16">
-        <v>1</v>
-      </c>
       <c r="V68" s="16">
         <v>1</v>
       </c>
       <c r="W68" s="16">
+        <v>1</v>
+      </c>
+      <c r="X68" s="16">
         <v>0.35</v>
       </c>
-      <c r="X68" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="Y68" s="19" t="s">
+      <c r="Y68" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z68" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Z68" s="19" t="s">
+      <c r="AA68" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AB68" s="19"/>
-      <c r="AC68" s="20">
+      <c r="AC68" s="19"/>
+      <c r="AD68" s="20">
         <v>5900</v>
       </c>
-      <c r="AD68" s="20">
+      <c r="AE68" s="20">
         <v>2</v>
       </c>
-      <c r="AE68" s="20">
-        <v>1</v>
-      </c>
-      <c r="AF68" s="19" t="s">
+      <c r="AF68" s="20">
+        <v>1</v>
+      </c>
+      <c r="AG68" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="AG68" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ68" s="19" t="s">
-        <v>297</v>
+      <c r="AH68" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK68" s="19" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="69" spans="1:36" s="20" customFormat="1">
+    <row r="69" spans="1:37" s="20" customFormat="1">
       <c r="A69" s="13">
         <v>68</v>
       </c>
@@ -9233,19 +9393,19 @@
         <v>68</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F69" s="21" t="s">
         <v>73</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H69" s="21" t="s">
         <v>94</v>
@@ -9268,56 +9428,57 @@
       <c r="N69" s="13">
         <v>200</v>
       </c>
-      <c r="O69" s="13">
+      <c r="O69" s="13"/>
+      <c r="P69" s="13">
         <v>4</v>
       </c>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="14">
+      <c r="Q69" s="18"/>
+      <c r="R69" s="14">
         <v>1.2</v>
       </c>
-      <c r="R69" s="16">
+      <c r="S69" s="16">
         <v>0.73333333333333328</v>
       </c>
-      <c r="S69" s="16">
+      <c r="T69" s="16">
         <v>0.74</v>
       </c>
-      <c r="T69" s="14" t="s">
+      <c r="U69" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="U69" s="16">
-        <v>1</v>
-      </c>
       <c r="V69" s="16">
+        <v>1</v>
+      </c>
+      <c r="W69" s="16">
         <v>0.8</v>
       </c>
-      <c r="W69" s="16">
+      <c r="X69" s="16">
         <v>0.1</v>
       </c>
-      <c r="X69" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="Y69" s="19" t="s">
+      <c r="Y69" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z69" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Z69" s="19" t="s">
+      <c r="AA69" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="AA69" s="19"/>
       <c r="AB69" s="19"/>
-      <c r="AC69" s="20">
+      <c r="AC69" s="19"/>
+      <c r="AD69" s="20">
         <v>5800</v>
       </c>
-      <c r="AD69" s="20">
+      <c r="AE69" s="20">
         <v>2</v>
       </c>
-      <c r="AE69" s="20">
-        <v>1</v>
-      </c>
-      <c r="AG69" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ69" s="19" t="s">
-        <v>298</v>
+      <c r="AF69" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH69" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK69" s="19" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/config_hlw/fish3d_config.xlsx
+++ b/config_hlw/fish3d_config.xlsx
@@ -3042,9 +3042,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="AK23" sqref="AK23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4807,53 +4807,53 @@
       <c r="N19" s="3">
         <v>60</v>
       </c>
-      <c r="O19" s="3">
+      <c r="P19" s="3">
         <v>4</v>
       </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="5">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="5">
         <v>0.8</v>
       </c>
-      <c r="R19" s="7">
-        <v>1</v>
-      </c>
       <c r="S19" s="7">
+        <v>1</v>
+      </c>
+      <c r="T19" s="7">
         <v>0.74</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="U19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U19" s="7">
+      <c r="V19" s="7">
         <v>0.7</v>
       </c>
-      <c r="V19" s="7">
-        <v>1</v>
-      </c>
       <c r="W19" s="7">
+        <v>1</v>
+      </c>
+      <c r="X19" s="7">
         <v>0.35</v>
       </c>
-      <c r="X19" s="11" t="s">
+      <c r="Y19" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="Y19" s="8" t="s">
+      <c r="Z19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Z19" s="8" t="s">
+      <c r="AA19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AC19" s="9">
+      <c r="AD19" s="9">
         <v>7100</v>
       </c>
-      <c r="AD19" s="9">
+      <c r="AE19" s="9">
         <v>1.5</v>
       </c>
-      <c r="AE19" s="9">
+      <c r="AF19" s="9">
         <v>2</v>
       </c>
-      <c r="AG19" s="8" t="s">
+      <c r="AH19" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="AJ19" s="8" t="s">
+      <c r="AK19" s="8" t="s">
         <v>433</v>
       </c>
     </row>

--- a/config_hlw/fish3d_config.xlsx
+++ b/config_hlw/fish3d_config.xlsx
@@ -2333,10 +2333,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Fish3D115</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Fish3D114</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2451,6 +2447,10 @@
   </si>
   <si>
     <t>"bgm_by_siwang15",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D105</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3042,9 +3042,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK23" sqref="AK23"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3123,7 +3123,7 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>12</v>
@@ -3558,7 +3558,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>400</v>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="AG6" s="46"/>
       <c r="AH6" s="46" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AK6" s="46" t="s">
         <v>283</v>
@@ -4395,7 +4395,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>75</v>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AG15" s="46"/>
       <c r="AH15" s="46" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AK15" s="46" t="s">
         <v>283</v>
@@ -4490,7 +4490,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D16" s="41" t="s">
         <v>200</v>
@@ -4570,7 +4570,7 @@
         <v>2</v>
       </c>
       <c r="AH16" s="46" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AK16" s="46" t="s">
         <v>283</v>
@@ -4584,7 +4584,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D17" s="41" t="s">
         <v>163</v>
@@ -4664,7 +4664,7 @@
         <v>2</v>
       </c>
       <c r="AH17" s="46" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AK17" s="46" t="s">
         <v>283</v>
@@ -4678,7 +4678,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D18" s="41" t="s">
         <v>164</v>
@@ -4758,7 +4758,7 @@
         <v>2</v>
       </c>
       <c r="AH18" s="46" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AK18" s="46" t="s">
         <v>283</v>
@@ -4772,7 +4772,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>165</v>
@@ -4784,10 +4784,10 @@
         <v>68</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I19" s="5">
         <v>0.66</v>
@@ -4833,7 +4833,7 @@
         <v>0.35</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Z19" s="8" t="s">
         <v>35</v>
@@ -4851,10 +4851,10 @@
         <v>2</v>
       </c>
       <c r="AH19" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AK19" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:37" s="20" customFormat="1">

--- a/config_hlw/fish3d_config.xlsx
+++ b/config_hlw/fish3d_config.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="491">
   <si>
     <t>line|行号</t>
   </si>
@@ -1183,10 +1183,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>小飞鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>小丑鱼</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1202,23 +1198,13 @@
     <t>Fish3D102</t>
   </si>
   <si>
-    <t>Fish3D103</t>
-  </si>
-  <si>
     <t>Fish3D106</t>
   </si>
   <si>
     <t>Fish3D107</t>
   </si>
   <si>
-    <t>Fish3D108</t>
-  </si>
-  <si>
     <t>close_rota|关闭旋转，鱼不同路径转动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子鱼</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1281,10 +1267,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>黄金狮子鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"bgm_by_siwang26",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1668,10 +1650,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>FishNew023</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_icon_yu23</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1684,34 +1662,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>fish3dnode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fish3d</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>黄金河豚</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1733,22 +1683,6 @@
   </si>
   <si>
     <t>3dby_imgf_jc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>大金鲨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew043</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金锤头鲨</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2110,10 +2044,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Fish3D081</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_icon_yu22</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2143,10 +2073,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>fish3dnode/fish3d/j_0004 1/j_0004 2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>FishNew041</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2382,9 +2308,6 @@
     <t>fish3dnode/fish3d/fish/Baozhahetun/Baozhahetun_Body</t>
   </si>
   <si>
-    <t>fish3dnode/fish3d/j_0015 1/j_0015 2</t>
-  </si>
-  <si>
     <t>fish3d/j_0002 1/x_0004</t>
   </si>
   <si>
@@ -2532,6 +2455,78 @@
       </rPr>
       <t>,</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D110</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>招财鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D111</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔雀鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D117</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3d/FishView/Adapt/DieAction/fish_hjdjj/Bone024/fish_dujiaojing_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金独角鲸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3d/FishView/Adapt/DieAction/fish_huangjihaigui_001/fish_huangjihaigui_001 1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D112</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鲸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D113</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金锤头鲨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D105</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金猪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D103</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3d/FishView/Adapt/DieAction/fish_huangjinshuangqisha_001/Bone001/fish_huangjinshuangqisha_001 1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3d/FishView/Adapt/DieAction/Bone/fish_jinzhu_skin/Bone001/fish_jinzhu_001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3d/FishView/Adapt/DieAction/fish_jingyu_001/Bone024/fish_jingyu_001 1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2624,7 +2619,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2673,6 +2668,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2716,7 +2717,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2822,9 +2823,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2852,9 +2850,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3025,6 +3020,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4432,9 +4457,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4513,7 +4538,7 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>12</v>
@@ -4552,7 +4577,7 @@
         <v>22</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>23</v>
@@ -4590,10 +4615,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>168</v>
@@ -4680,10 +4705,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>169</v>
@@ -4769,13 +4794,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>175</v>
+        <v>473</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>170</v>
+        <v>474</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>57</v>
@@ -4859,13 +4884,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>56</v>
@@ -4948,22 +4973,22 @@
         <v>5</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I6" s="28">
         <v>1.76</v>
@@ -4984,7 +5009,7 @@
         <v>8</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P6" s="27">
         <v>1</v>
@@ -4999,7 +5024,7 @@
       <c r="T6" s="31">
         <v>0.26</v>
       </c>
-      <c r="U6" s="101" t="s">
+      <c r="U6" s="99" t="s">
         <v>29</v>
       </c>
       <c r="V6" s="31">
@@ -5012,7 +5037,7 @@
         <v>0.4</v>
       </c>
       <c r="Y6" s="30" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="Z6" s="32" t="s">
         <v>30</v>
@@ -5031,14 +5056,14 @@
         <v>2</v>
       </c>
       <c r="AG6" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AH6" s="32" t="str">
         <f>VLOOKUP(C6,[1]Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Jianyu/Jianyu_Body</v>
       </c>
       <c r="AK6" s="32" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:37" s="9" customFormat="1">
@@ -5049,13 +5074,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>62</v>
@@ -5141,13 +5166,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>91</v>
@@ -5232,13 +5257,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>178</v>
+        <v>475</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>180</v>
+        <v>476</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>61</v>
@@ -5324,13 +5349,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>58</v>
@@ -5339,7 +5364,7 @@
         <v>58</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="I10" s="28">
         <v>1.64</v>
@@ -5360,7 +5385,7 @@
         <v>10</v>
       </c>
       <c r="O10" s="30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P10" s="27">
         <v>1</v>
@@ -5375,7 +5400,7 @@
       <c r="T10" s="31">
         <v>0.22</v>
       </c>
-      <c r="U10" s="101" t="s">
+      <c r="U10" s="99" t="s">
         <v>29</v>
       </c>
       <c r="V10" s="31">
@@ -5388,9 +5413,9 @@
         <v>0.45</v>
       </c>
       <c r="Y10" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="Z10" s="102" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z10" s="100" t="s">
         <v>31</v>
       </c>
       <c r="AA10" s="32" t="s">
@@ -5406,13 +5431,13 @@
         <v>2</v>
       </c>
       <c r="AG10" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AH10" s="32" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="AK10" s="32" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:37" s="33" customFormat="1">
@@ -5423,13 +5448,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>58</v>
@@ -5438,7 +5463,7 @@
         <v>58</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="I11" s="28">
         <v>1</v>
@@ -5459,7 +5484,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P11" s="27">
         <v>2</v>
@@ -5474,7 +5499,7 @@
       <c r="T11" s="31">
         <v>0.4</v>
       </c>
-      <c r="U11" s="101" t="s">
+      <c r="U11" s="99" t="s">
         <v>29</v>
       </c>
       <c r="V11" s="31">
@@ -5487,7 +5512,7 @@
         <v>0.5</v>
       </c>
       <c r="Y11" s="30" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="Z11" s="32" t="s">
         <v>129</v>
@@ -5505,13 +5530,13 @@
         <v>2</v>
       </c>
       <c r="AG11" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AH11" s="32" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="AK11" s="32" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:37" s="33" customFormat="1">
@@ -5522,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>58</v>
@@ -5537,7 +5562,7 @@
         <v>58</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="I12" s="28">
         <v>2.36</v>
@@ -5558,7 +5583,7 @@
         <v>15</v>
       </c>
       <c r="O12" s="30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P12" s="27">
         <v>2</v>
@@ -5586,7 +5611,7 @@
         <v>0.35</v>
       </c>
       <c r="Y12" s="30" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="Z12" s="32" t="s">
         <v>129</v>
@@ -5604,13 +5629,13 @@
         <v>2</v>
       </c>
       <c r="AG12" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AH12" s="32" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="AK12" s="32" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:37" s="33" customFormat="1">
@@ -5621,22 +5646,22 @@
         <v>12</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="I13" s="28">
         <v>0.96</v>
@@ -5657,7 +5682,7 @@
         <v>18</v>
       </c>
       <c r="O13" s="30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P13" s="27">
         <v>3</v>
@@ -5685,7 +5710,7 @@
         <v>0.35</v>
       </c>
       <c r="Y13" s="30" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="Z13" s="32" t="s">
         <v>35</v>
@@ -5703,13 +5728,13 @@
         <v>2</v>
       </c>
       <c r="AG13" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AH13" s="32" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="AK13" s="32" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:37" s="33" customFormat="1">
@@ -5720,22 +5745,22 @@
         <v>13</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="I14" s="28">
         <v>0.96</v>
@@ -5756,7 +5781,7 @@
         <v>20</v>
       </c>
       <c r="O14" s="30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P14" s="27">
         <v>3</v>
@@ -5784,7 +5809,7 @@
         <v>0.35</v>
       </c>
       <c r="Y14" s="30" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="Z14" s="32" t="s">
         <v>37</v>
@@ -5802,13 +5827,13 @@
         <v>2</v>
       </c>
       <c r="AG14" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AH14" s="32" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="AK14" s="32" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:37" s="33" customFormat="1">
@@ -5819,22 +5844,22 @@
         <v>14</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="I15" s="28">
         <v>0.74</v>
@@ -5855,7 +5880,7 @@
         <v>25</v>
       </c>
       <c r="O15" s="30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P15" s="27">
         <v>2</v>
@@ -5870,7 +5895,7 @@
       <c r="T15" s="31">
         <v>0.26</v>
       </c>
-      <c r="U15" s="101" t="s">
+      <c r="U15" s="99" t="s">
         <v>29</v>
       </c>
       <c r="V15" s="31">
@@ -5883,7 +5908,7 @@
         <v>0.4</v>
       </c>
       <c r="Y15" s="30" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="Z15" s="32" t="s">
         <v>30</v>
@@ -5901,13 +5926,13 @@
         <v>2</v>
       </c>
       <c r="AG15" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AH15" s="32" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="AK15" s="32" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:37" s="33" customFormat="1">
@@ -5918,22 +5943,22 @@
         <v>15</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="I16" s="28">
         <v>1.53</v>
@@ -5954,7 +5979,7 @@
         <v>30</v>
       </c>
       <c r="O16" s="30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P16" s="27">
         <v>4</v>
@@ -5982,7 +6007,7 @@
         <v>0.35</v>
       </c>
       <c r="Y16" s="30" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Z16" s="32" t="s">
         <v>32</v>
@@ -6000,13 +6025,13 @@
         <v>2</v>
       </c>
       <c r="AG16" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AH16" s="32" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="AK16" s="32" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:37" s="33" customFormat="1">
@@ -6017,22 +6042,22 @@
         <v>16</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="D17" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="E17" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="E17" s="28" t="s">
-        <v>426</v>
-      </c>
       <c r="F17" s="28" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="I17" s="28">
         <v>0.8</v>
@@ -6053,7 +6078,7 @@
         <v>35</v>
       </c>
       <c r="O17" s="30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P17" s="27">
         <v>3</v>
@@ -6068,7 +6093,7 @@
       <c r="T17" s="31">
         <v>0.4</v>
       </c>
-      <c r="U17" s="101" t="s">
+      <c r="U17" s="99" t="s">
         <v>29</v>
       </c>
       <c r="V17" s="31">
@@ -6081,7 +6106,7 @@
         <v>0.5</v>
       </c>
       <c r="Y17" s="30" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="Z17" s="32" t="s">
         <v>32</v>
@@ -6099,13 +6124,13 @@
         <v>2</v>
       </c>
       <c r="AG17" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AH17" s="32" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="AK17" s="32" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:37" s="33" customFormat="1">
@@ -6116,22 +6141,22 @@
         <v>17</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="101" t="s">
-        <v>404</v>
+      <c r="E18" s="99" t="s">
+        <v>391</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="I18" s="28">
         <v>1.53</v>
@@ -6152,7 +6177,7 @@
         <v>40</v>
       </c>
       <c r="O18" s="30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P18" s="27">
         <v>4</v>
@@ -6180,7 +6205,7 @@
         <v>0.35</v>
       </c>
       <c r="Y18" s="30" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Z18" s="32" t="s">
         <v>32</v>
@@ -6198,13 +6223,13 @@
         <v>2</v>
       </c>
       <c r="AG18" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AH18" s="32" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="AK18" s="32" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:37" s="33" customFormat="1">
@@ -6215,22 +6240,22 @@
         <v>18</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>103</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="I19" s="28">
         <v>0.66</v>
@@ -6251,7 +6276,7 @@
         <v>60</v>
       </c>
       <c r="O19" s="30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P19" s="27">
         <v>4</v>
@@ -6279,7 +6304,7 @@
         <v>0.35</v>
       </c>
       <c r="Y19" s="30" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="Z19" s="32" t="s">
         <v>35</v>
@@ -6297,13 +6322,13 @@
         <v>2</v>
       </c>
       <c r="AG19" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AH19" s="32" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="AK19" s="32" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:37" s="33" customFormat="1">
@@ -6314,22 +6339,22 @@
         <v>19</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="I20" s="28">
         <v>2.2799999999999998</v>
@@ -6350,7 +6375,7 @@
         <v>60</v>
       </c>
       <c r="O20" s="30" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="P20" s="27">
         <v>4</v>
@@ -6378,7 +6403,7 @@
         <v>0.35</v>
       </c>
       <c r="Y20" s="30" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="Z20" s="32" t="s">
         <v>37</v>
@@ -6396,108 +6421,106 @@
         <v>1</v>
       </c>
       <c r="AG20" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AH20" s="32" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="AK20" s="32" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
     </row>
-    <row r="21" spans="1:37" s="44" customFormat="1">
-      <c r="A21" s="37">
+    <row r="21" spans="1:37" s="108" customFormat="1">
+      <c r="A21" s="101">
         <v>20</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="101">
         <v>20</v>
       </c>
-      <c r="C21" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>381</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="I21" s="38">
+      <c r="C21" s="102" t="s">
+        <v>487</v>
+      </c>
+      <c r="D21" s="102" t="s">
+        <v>369</v>
+      </c>
+      <c r="E21" s="102" t="s">
+        <v>486</v>
+      </c>
+      <c r="F21" s="102" t="s">
+        <v>370</v>
+      </c>
+      <c r="G21" s="102" t="s">
+        <v>270</v>
+      </c>
+      <c r="H21" s="102" t="s">
+        <v>371</v>
+      </c>
+      <c r="I21" s="102">
         <v>2.72</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21" s="102">
         <v>2.62</v>
       </c>
-      <c r="K21" s="37">
-        <v>1</v>
-      </c>
-      <c r="L21" s="37">
+      <c r="K21" s="101">
+        <v>1</v>
+      </c>
+      <c r="L21" s="101">
         <v>30</v>
       </c>
-      <c r="M21" s="40">
-        <v>1</v>
-      </c>
-      <c r="N21" s="37">
+      <c r="M21" s="104">
+        <v>1</v>
+      </c>
+      <c r="N21" s="101">
         <v>120</v>
       </c>
-      <c r="P21" s="37">
-        <v>1</v>
-      </c>
-      <c r="R21" s="38">
+      <c r="P21" s="101">
+        <v>1</v>
+      </c>
+      <c r="R21" s="102">
         <v>0.8</v>
       </c>
-      <c r="S21" s="42">
-        <v>1</v>
-      </c>
-      <c r="T21" s="42">
+      <c r="S21" s="105">
+        <v>1</v>
+      </c>
+      <c r="T21" s="105">
         <v>0.74</v>
       </c>
-      <c r="U21" s="38" t="s">
+      <c r="U21" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="V21" s="42">
-        <v>1</v>
-      </c>
-      <c r="W21" s="42">
-        <v>1</v>
-      </c>
-      <c r="X21" s="42">
+      <c r="V21" s="105">
+        <v>1</v>
+      </c>
+      <c r="W21" s="105">
+        <v>1</v>
+      </c>
+      <c r="X21" s="105">
         <v>0.35</v>
       </c>
-      <c r="Y21" s="41" t="s">
-        <v>384</v>
-      </c>
-      <c r="Z21" s="43" t="s">
+      <c r="Y21" s="106" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z21" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="AA21" s="43" t="s">
+      <c r="AA21" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="AD21" s="44">
+      <c r="AD21" s="108">
         <v>6500</v>
       </c>
-      <c r="AE21" s="44">
+      <c r="AE21" s="108">
         <v>2</v>
       </c>
-      <c r="AF21" s="44">
-        <v>1</v>
-      </c>
-      <c r="AG21" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH21" s="43" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK21" s="43" t="s">
-        <v>379</v>
+      <c r="AF21" s="108">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="107"/>
+      <c r="AH21" s="107" t="s">
+        <v>489</v>
+      </c>
+      <c r="AK21" s="107" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:37" s="33" customFormat="1">
@@ -6508,19 +6531,19 @@
         <v>21</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H22" s="34" t="s">
         <v>76</v>
@@ -6570,7 +6593,7 @@
         <v>0.35</v>
       </c>
       <c r="Y22" s="30" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Z22" s="32" t="s">
         <v>38</v>
@@ -6588,2952 +6611,2942 @@
         <v>1</v>
       </c>
       <c r="AG22" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH22" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="AK22" s="32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" s="108" customFormat="1">
+      <c r="A23" s="101">
+        <v>22</v>
+      </c>
+      <c r="B23" s="101">
+        <v>22</v>
+      </c>
+      <c r="C23" s="102" t="s">
+        <v>485</v>
+      </c>
+      <c r="D23" s="102" t="s">
+        <v>277</v>
+      </c>
+      <c r="E23" s="102" t="s">
+        <v>484</v>
+      </c>
+      <c r="F23" s="102" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="102" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="102">
+        <v>1.29</v>
+      </c>
+      <c r="J23" s="102">
+        <v>1.8</v>
+      </c>
+      <c r="K23" s="101">
+        <v>0.8</v>
+      </c>
+      <c r="L23" s="101">
+        <v>30</v>
+      </c>
+      <c r="M23" s="104">
+        <v>1</v>
+      </c>
+      <c r="N23" s="101">
+        <v>120</v>
+      </c>
+      <c r="O23" s="101"/>
+      <c r="P23" s="101">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="101"/>
+      <c r="R23" s="102">
+        <v>0.8</v>
+      </c>
+      <c r="S23" s="105">
+        <v>1</v>
+      </c>
+      <c r="T23" s="105">
+        <v>0.8</v>
+      </c>
+      <c r="U23" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="V23" s="105">
+        <v>1.5</v>
+      </c>
+      <c r="W23" s="105">
+        <v>1</v>
+      </c>
+      <c r="X23" s="105">
+        <v>0.35</v>
+      </c>
+      <c r="Y23" s="106" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z23" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA23" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD23" s="108">
+        <v>6300</v>
+      </c>
+      <c r="AE23" s="108">
+        <v>2</v>
+      </c>
+      <c r="AF23" s="108">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="107" t="s">
+        <v>488</v>
+      </c>
+      <c r="AK23" s="107" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" s="108" customFormat="1">
+      <c r="A24" s="101">
+        <v>23</v>
+      </c>
+      <c r="B24" s="101">
+        <v>23</v>
+      </c>
+      <c r="C24" s="102" t="s">
+        <v>483</v>
+      </c>
+      <c r="D24" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="102" t="s">
         <v>192</v>
       </c>
-      <c r="AH22" s="32" t="s">
-        <v>441</v>
-      </c>
-      <c r="AK22" s="32" t="s">
+      <c r="F24" s="102" t="s">
+        <v>278</v>
+      </c>
+      <c r="G24" s="102" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="103" t="s">
+        <v>279</v>
+      </c>
+      <c r="I24" s="102">
+        <v>0.94</v>
+      </c>
+      <c r="J24" s="102">
+        <v>1.9</v>
+      </c>
+      <c r="K24" s="101">
+        <v>1</v>
+      </c>
+      <c r="L24" s="101">
+        <v>30</v>
+      </c>
+      <c r="M24" s="104">
+        <v>1</v>
+      </c>
+      <c r="N24" s="101">
+        <v>140</v>
+      </c>
+      <c r="O24" s="101"/>
+      <c r="P24" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="101"/>
+      <c r="R24" s="102">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="S24" s="105">
+        <v>1</v>
+      </c>
+      <c r="T24" s="105">
+        <v>0.12</v>
+      </c>
+      <c r="U24" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="V24" s="105">
+        <v>0.6</v>
+      </c>
+      <c r="W24" s="105">
+        <v>1</v>
+      </c>
+      <c r="X24" s="105">
+        <v>0.8</v>
+      </c>
+      <c r="Y24" s="106" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z24" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA24" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD24" s="108">
+        <v>6200</v>
+      </c>
+      <c r="AE24" s="108">
+        <v>1.2</v>
+      </c>
+      <c r="AG24" s="33"/>
+      <c r="AH24" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="AK24" s="107" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" s="108" customFormat="1">
+      <c r="A25" s="101">
+        <v>24</v>
+      </c>
+      <c r="B25" s="101">
+        <v>24</v>
+      </c>
+      <c r="C25" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="102" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="102" t="s">
+        <v>280</v>
+      </c>
+      <c r="F25" s="102" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" s="102" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="103" t="s">
+        <v>279</v>
+      </c>
+      <c r="I25" s="102">
+        <v>1</v>
+      </c>
+      <c r="J25" s="102">
+        <v>0.7</v>
+      </c>
+      <c r="K25" s="101">
+        <v>1</v>
+      </c>
+      <c r="L25" s="101">
+        <v>30</v>
+      </c>
+      <c r="M25" s="104">
+        <v>1</v>
+      </c>
+      <c r="N25" s="101">
+        <v>150</v>
+      </c>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="102">
+        <v>0.5</v>
+      </c>
+      <c r="S25" s="105">
+        <v>1</v>
+      </c>
+      <c r="T25" s="105">
+        <v>0.15</v>
+      </c>
+      <c r="U25" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="V25" s="105">
+        <v>0.6</v>
+      </c>
+      <c r="W25" s="105">
+        <v>1</v>
+      </c>
+      <c r="X25" s="105">
+        <v>0.7</v>
+      </c>
+      <c r="Y25" s="106" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z25" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA25" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD25" s="108">
+        <v>6100</v>
+      </c>
+      <c r="AE25" s="108">
+        <v>1.2</v>
+      </c>
+      <c r="AH25" s="107" t="s">
+        <v>429</v>
+      </c>
+      <c r="AK25" s="107" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="33" customFormat="1">
-      <c r="A23" s="27">
-        <v>22</v>
-      </c>
-      <c r="B23" s="27">
-        <v>22</v>
-      </c>
-      <c r="C23" s="28" t="s">
+    <row r="26" spans="1:37" s="108" customFormat="1">
+      <c r="A26" s="101">
+        <v>25</v>
+      </c>
+      <c r="B26" s="101">
+        <v>25</v>
+      </c>
+      <c r="C26" s="102" t="s">
         <v>282</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D26" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="E23" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="H23" s="34" t="s">
+      <c r="E26" s="102" t="s">
+        <v>284</v>
+      </c>
+      <c r="F26" s="102" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="102" t="s">
+        <v>285</v>
+      </c>
+      <c r="H26" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="I23" s="28">
-        <v>1.29</v>
-      </c>
-      <c r="J23" s="28">
-        <v>1.8</v>
-      </c>
-      <c r="K23" s="27">
+      <c r="I26" s="102">
+        <v>1.44</v>
+      </c>
+      <c r="J26" s="102">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="K26" s="101">
+        <v>1</v>
+      </c>
+      <c r="L26" s="101">
+        <v>30</v>
+      </c>
+      <c r="M26" s="104">
+        <v>1</v>
+      </c>
+      <c r="N26" s="101">
+        <v>200</v>
+      </c>
+      <c r="O26" s="101"/>
+      <c r="P26" s="101">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="102">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S26" s="105">
+        <v>1</v>
+      </c>
+      <c r="T26" s="105">
+        <v>0.74</v>
+      </c>
+      <c r="U26" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="V26" s="105">
+        <v>1</v>
+      </c>
+      <c r="W26" s="105">
+        <v>1</v>
+      </c>
+      <c r="X26" s="105">
+        <v>0.35</v>
+      </c>
+      <c r="Y26" s="106" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z26" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA26" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC26" s="107"/>
+      <c r="AD26" s="108">
+        <v>6000</v>
+      </c>
+      <c r="AE26" s="108">
+        <v>2</v>
+      </c>
+      <c r="AF26" s="108">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="107"/>
+      <c r="AK26" s="107" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" s="108" customFormat="1">
+      <c r="A27" s="101">
+        <v>26</v>
+      </c>
+      <c r="B27" s="101">
+        <v>26</v>
+      </c>
+      <c r="C27" s="102" t="s">
+        <v>481</v>
+      </c>
+      <c r="D27" s="102" t="s">
+        <v>267</v>
+      </c>
+      <c r="E27" s="102" t="s">
+        <v>482</v>
+      </c>
+      <c r="F27" s="102" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="102" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="102">
+        <v>3.77</v>
+      </c>
+      <c r="J27" s="102">
+        <v>2.8</v>
+      </c>
+      <c r="K27" s="101">
         <v>0.8</v>
       </c>
-      <c r="L23" s="27">
+      <c r="L27" s="101">
         <v>30</v>
       </c>
-      <c r="M23" s="29">
-        <v>1</v>
-      </c>
-      <c r="N23" s="27">
+      <c r="M27" s="104">
+        <v>1</v>
+      </c>
+      <c r="N27" s="101">
+        <v>180</v>
+      </c>
+      <c r="O27" s="101" t="s">
+        <v>189</v>
+      </c>
+      <c r="P27" s="101">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="106"/>
+      <c r="R27" s="102">
+        <v>0.7</v>
+      </c>
+      <c r="S27" s="105">
+        <v>1</v>
+      </c>
+      <c r="T27" s="105">
+        <v>0.74</v>
+      </c>
+      <c r="U27" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="105">
+        <v>1</v>
+      </c>
+      <c r="W27" s="105">
+        <v>1</v>
+      </c>
+      <c r="X27" s="105">
+        <v>0.35</v>
+      </c>
+      <c r="Y27" s="106" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z27" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA27" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC27" s="107"/>
+      <c r="AD27" s="108">
+        <v>5900</v>
+      </c>
+      <c r="AE27" s="108">
+        <v>2</v>
+      </c>
+      <c r="AF27" s="108">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="107" t="s">
+        <v>490</v>
+      </c>
+      <c r="AK27" s="107" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" s="108" customFormat="1">
+      <c r="A28" s="101">
+        <v>27</v>
+      </c>
+      <c r="B28" s="101">
+        <v>27</v>
+      </c>
+      <c r="C28" s="102" t="s">
+        <v>477</v>
+      </c>
+      <c r="D28" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" s="102" t="s">
+        <v>479</v>
+      </c>
+      <c r="F28" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="103" t="s">
+        <v>199</v>
+      </c>
+      <c r="H28" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="102">
+        <v>2.64</v>
+      </c>
+      <c r="J28" s="102">
+        <v>2.38</v>
+      </c>
+      <c r="K28" s="101">
+        <v>0.6</v>
+      </c>
+      <c r="L28" s="101">
+        <v>30</v>
+      </c>
+      <c r="M28" s="110">
+        <v>1</v>
+      </c>
+      <c r="N28" s="101">
+        <v>200</v>
+      </c>
+      <c r="O28" s="101" t="s">
+        <v>189</v>
+      </c>
+      <c r="P28" s="101">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="106"/>
+      <c r="R28" s="102">
+        <v>1.2</v>
+      </c>
+      <c r="S28" s="105">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="T28" s="105">
+        <v>0.74</v>
+      </c>
+      <c r="U28" s="102" t="s">
+        <v>286</v>
+      </c>
+      <c r="V28" s="105">
+        <v>1</v>
+      </c>
+      <c r="W28" s="105">
+        <v>0.8</v>
+      </c>
+      <c r="X28" s="105">
+        <v>0.1</v>
+      </c>
+      <c r="Y28" s="106" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z28" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA28" s="107" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB28" s="107"/>
+      <c r="AC28" s="107"/>
+      <c r="AD28" s="108">
+        <v>5800</v>
+      </c>
+      <c r="AE28" s="108">
+        <v>2</v>
+      </c>
+      <c r="AF28" s="108">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="33"/>
+      <c r="AH28" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="AK28" s="107" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" s="43" customFormat="1">
+      <c r="A29" s="36">
+        <v>28</v>
+      </c>
+      <c r="B29" s="36">
+        <v>28</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" s="44">
+        <v>2.1</v>
+      </c>
+      <c r="J29" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="K29" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="L29" s="36">
+        <v>30</v>
+      </c>
+      <c r="M29" s="39">
+        <v>1</v>
+      </c>
+      <c r="N29" s="36">
+        <v>0</v>
+      </c>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="S29" s="41">
+        <v>1</v>
+      </c>
+      <c r="T29" s="41">
+        <v>0.74</v>
+      </c>
+      <c r="U29" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="V29" s="41">
+        <v>1</v>
+      </c>
+      <c r="W29" s="41">
+        <v>1</v>
+      </c>
+      <c r="X29" s="41">
+        <v>0.35</v>
+      </c>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA29" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC29" s="42"/>
+      <c r="AD29" s="43">
+        <v>5000</v>
+      </c>
+      <c r="AE29" s="43">
+        <v>2</v>
+      </c>
+      <c r="AF29" s="43">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="AK29" s="42" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" s="43" customFormat="1">
+      <c r="A30" s="36">
+        <v>29</v>
+      </c>
+      <c r="B30" s="36">
+        <v>29</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I30" s="37">
+        <v>1.68</v>
+      </c>
+      <c r="J30" s="37">
+        <v>2.84</v>
+      </c>
+      <c r="K30" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="L30" s="36">
+        <v>30</v>
+      </c>
+      <c r="M30" s="39">
+        <v>1</v>
+      </c>
+      <c r="N30" s="36">
+        <v>0</v>
+      </c>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="S30" s="41">
+        <v>1</v>
+      </c>
+      <c r="T30" s="41">
+        <v>0.74</v>
+      </c>
+      <c r="U30" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="V30" s="41">
+        <v>1</v>
+      </c>
+      <c r="W30" s="41">
+        <v>1</v>
+      </c>
+      <c r="X30" s="41">
+        <v>0.35</v>
+      </c>
+      <c r="Y30" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z30" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA30" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB30" s="43">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="43">
+        <v>9200</v>
+      </c>
+      <c r="AE30" s="43">
+        <v>2</v>
+      </c>
+      <c r="AH30" s="35"/>
+      <c r="AK30" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" s="43" customFormat="1">
+      <c r="A31" s="36">
+        <v>30</v>
+      </c>
+      <c r="B31" s="36">
+        <v>30</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I31" s="44">
+        <v>1.48</v>
+      </c>
+      <c r="J31" s="36">
+        <v>2.77</v>
+      </c>
+      <c r="K31" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="L31" s="36">
+        <v>30</v>
+      </c>
+      <c r="M31" s="39">
+        <v>1</v>
+      </c>
+      <c r="N31" s="36">
+        <v>0</v>
+      </c>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36">
+        <v>4</v>
+      </c>
+      <c r="R31" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="S31" s="41">
+        <v>1</v>
+      </c>
+      <c r="T31" s="41">
+        <v>0.74</v>
+      </c>
+      <c r="U31" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="V31" s="41">
+        <v>1</v>
+      </c>
+      <c r="W31" s="41">
+        <v>1</v>
+      </c>
+      <c r="X31" s="41">
+        <v>0.35</v>
+      </c>
+      <c r="Y31" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z31" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA31" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB31" s="43">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="42"/>
+      <c r="AD31" s="43">
+        <v>9200</v>
+      </c>
+      <c r="AE31" s="43">
+        <v>2</v>
+      </c>
+      <c r="AH31" s="35"/>
+      <c r="AK31" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" s="43" customFormat="1">
+      <c r="A32" s="36">
+        <v>31</v>
+      </c>
+      <c r="B32" s="36">
+        <v>31</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="H32" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I32" s="44">
+        <v>1.48</v>
+      </c>
+      <c r="J32" s="36">
+        <v>1.96</v>
+      </c>
+      <c r="K32" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="L32" s="36">
+        <v>30</v>
+      </c>
+      <c r="M32" s="39">
+        <v>1</v>
+      </c>
+      <c r="N32" s="36">
+        <v>0</v>
+      </c>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="S32" s="41">
+        <v>1</v>
+      </c>
+      <c r="T32" s="41">
+        <v>0.74</v>
+      </c>
+      <c r="U32" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="V32" s="41">
+        <v>1</v>
+      </c>
+      <c r="W32" s="41">
+        <v>1</v>
+      </c>
+      <c r="X32" s="41">
+        <v>0.35</v>
+      </c>
+      <c r="Y32" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z32" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA32" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB32" s="43">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="42"/>
+      <c r="AD32" s="43">
+        <v>9200</v>
+      </c>
+      <c r="AE32" s="43">
+        <v>2</v>
+      </c>
+      <c r="AF32" s="43">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="35"/>
+      <c r="AK32" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" s="43" customFormat="1">
+      <c r="A33" s="36">
+        <v>32</v>
+      </c>
+      <c r="B33" s="36">
+        <v>32</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="H33" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33" s="37">
+        <v>1.56</v>
+      </c>
+      <c r="J33" s="37">
+        <v>2.27</v>
+      </c>
+      <c r="K33" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="L33" s="36">
+        <v>30</v>
+      </c>
+      <c r="M33" s="39">
+        <v>1</v>
+      </c>
+      <c r="N33" s="36">
+        <v>0</v>
+      </c>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="37">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="S33" s="41">
+        <v>1</v>
+      </c>
+      <c r="T33" s="41">
+        <v>0.74</v>
+      </c>
+      <c r="U33" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="V33" s="41">
+        <v>1</v>
+      </c>
+      <c r="W33" s="41">
+        <v>1</v>
+      </c>
+      <c r="X33" s="41">
+        <v>0.35</v>
+      </c>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA33" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC33" s="42"/>
+      <c r="AD33" s="43">
+        <v>4600</v>
+      </c>
+      <c r="AE33" s="43">
+        <v>2</v>
+      </c>
+      <c r="AF33" s="43">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="35"/>
+      <c r="AI33" s="45"/>
+      <c r="AK33" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" s="43" customFormat="1">
+      <c r="A34" s="36">
+        <v>33</v>
+      </c>
+      <c r="B34" s="36">
+        <v>33</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I34" s="37">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J34" s="37">
+        <v>3</v>
+      </c>
+      <c r="K34" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="L34" s="36">
+        <v>30</v>
+      </c>
+      <c r="M34" s="39">
+        <v>1</v>
+      </c>
+      <c r="N34" s="36">
+        <v>0</v>
+      </c>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="S34" s="41">
+        <v>1</v>
+      </c>
+      <c r="T34" s="41">
+        <v>0.74</v>
+      </c>
+      <c r="U34" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="V34" s="41">
+        <v>1</v>
+      </c>
+      <c r="W34" s="41">
+        <v>1</v>
+      </c>
+      <c r="X34" s="41">
+        <v>0.35</v>
+      </c>
+      <c r="Y34" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z34" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA34" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC34" s="42"/>
+      <c r="AD34" s="43">
+        <v>4500</v>
+      </c>
+      <c r="AE34" s="43">
+        <v>2</v>
+      </c>
+      <c r="AF34" s="43">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="35"/>
+      <c r="AI34" s="46"/>
+      <c r="AK34" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" s="43" customFormat="1">
+      <c r="A35" s="36">
+        <v>34</v>
+      </c>
+      <c r="B35" s="36">
+        <v>34</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="G35" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="H35" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I35" s="37">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J35" s="37">
+        <v>0.84</v>
+      </c>
+      <c r="K35" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="L35" s="36">
+        <v>30</v>
+      </c>
+      <c r="M35" s="39">
+        <v>1</v>
+      </c>
+      <c r="N35" s="36">
+        <v>0</v>
+      </c>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="37">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="S35" s="41">
+        <v>1</v>
+      </c>
+      <c r="T35" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="U35" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="V35" s="41">
+        <v>0.6</v>
+      </c>
+      <c r="W35" s="41">
+        <v>1</v>
+      </c>
+      <c r="X35" s="41">
+        <v>0.45</v>
+      </c>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA35" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD35" s="43">
+        <v>4400</v>
+      </c>
+      <c r="AE35" s="43">
+        <v>1.2</v>
+      </c>
+      <c r="AH35" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="AI35" s="46"/>
+      <c r="AK35" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" s="43" customFormat="1">
+      <c r="A36" s="36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="36">
+        <v>35</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27">
+      <c r="E36" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="G36" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I36" s="37">
+        <v>0.78</v>
+      </c>
+      <c r="J36" s="37">
+        <v>0.72</v>
+      </c>
+      <c r="K36" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="L36" s="36">
+        <v>30</v>
+      </c>
+      <c r="M36" s="39">
+        <v>1</v>
+      </c>
+      <c r="N36" s="36">
+        <v>0</v>
+      </c>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="S36" s="41">
+        <v>1</v>
+      </c>
+      <c r="T36" s="41">
+        <v>0.32</v>
+      </c>
+      <c r="U36" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="V36" s="41">
+        <v>0.6</v>
+      </c>
+      <c r="W36" s="41">
+        <v>1</v>
+      </c>
+      <c r="X36" s="41">
+        <v>0.35</v>
+      </c>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA36" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB36" s="43">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="43">
+        <v>4300</v>
+      </c>
+      <c r="AE36" s="43">
+        <v>1.2</v>
+      </c>
+      <c r="AH36" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="AI36" s="46"/>
+      <c r="AK36" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" s="43" customFormat="1">
+      <c r="A37" s="36">
+        <v>36</v>
+      </c>
+      <c r="B37" s="36">
+        <v>36</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="H37" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I37" s="37">
+        <v>1.76</v>
+      </c>
+      <c r="J37" s="37">
+        <v>2.74</v>
+      </c>
+      <c r="K37" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="L37" s="36">
+        <v>30</v>
+      </c>
+      <c r="M37" s="39">
+        <v>1</v>
+      </c>
+      <c r="N37" s="36">
+        <v>0</v>
+      </c>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="37">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="S37" s="41">
+        <v>1</v>
+      </c>
+      <c r="T37" s="41">
+        <v>0.26</v>
+      </c>
+      <c r="U37" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="V37" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="W37" s="41">
+        <v>1</v>
+      </c>
+      <c r="X37" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA37" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD37" s="43">
+        <v>4200</v>
+      </c>
+      <c r="AE37" s="43">
+        <v>1.5</v>
+      </c>
+      <c r="AF37" s="43">
+        <v>2</v>
+      </c>
+      <c r="AG37" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="AH37" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="AI37" s="46"/>
+      <c r="AK37" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" s="51" customFormat="1">
+      <c r="A38" s="47">
+        <v>37</v>
+      </c>
+      <c r="B38" s="47">
+        <v>37</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>312</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="G38" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="H38" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="I38" s="48">
+        <v>2.64</v>
+      </c>
+      <c r="J38" s="48">
+        <v>2.38</v>
+      </c>
+      <c r="K38" s="47">
+        <v>1</v>
+      </c>
+      <c r="L38" s="47">
+        <v>30</v>
+      </c>
+      <c r="M38" s="48">
+        <v>1</v>
+      </c>
+      <c r="N38" s="47">
+        <v>0</v>
+      </c>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="48">
+        <v>1.2</v>
+      </c>
+      <c r="S38" s="50">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="T38" s="50">
+        <v>0.74</v>
+      </c>
+      <c r="U38" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="V38" s="50">
+        <v>1</v>
+      </c>
+      <c r="W38" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="X38" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="Y38" s="47"/>
+      <c r="Z38" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA38" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB38" s="51">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="51">
+        <v>4100</v>
+      </c>
+      <c r="AE38" s="51">
+        <v>2</v>
+      </c>
+      <c r="AF38" s="51">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="AI38" s="52"/>
+      <c r="AJ38" s="52"/>
+    </row>
+    <row r="39" spans="1:37" s="57" customFormat="1">
+      <c r="A39" s="53">
+        <v>38</v>
+      </c>
+      <c r="B39" s="53">
+        <v>38</v>
+      </c>
+      <c r="C39" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="D39" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="E39" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="F39" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="G39" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="H39" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="I39" s="54">
+        <v>10</v>
+      </c>
+      <c r="J39" s="53">
+        <v>10</v>
+      </c>
+      <c r="K39" s="53">
+        <v>1</v>
+      </c>
+      <c r="L39" s="53">
+        <v>30</v>
+      </c>
+      <c r="M39" s="54">
+        <v>1</v>
+      </c>
+      <c r="N39" s="53">
+        <v>300</v>
+      </c>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53">
+        <v>4</v>
+      </c>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="54">
+        <v>1.2</v>
+      </c>
+      <c r="S39" s="56">
+        <v>1</v>
+      </c>
+      <c r="T39" s="56">
+        <v>0.74</v>
+      </c>
+      <c r="U39" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="V39" s="56">
+        <v>1</v>
+      </c>
+      <c r="W39" s="56">
+        <v>1</v>
+      </c>
+      <c r="X39" s="56">
+        <v>0.35</v>
+      </c>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA39" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD39" s="57">
+        <v>3500</v>
+      </c>
+      <c r="AE39" s="57">
+        <v>2</v>
+      </c>
+      <c r="AF39" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH39" s="35"/>
+      <c r="AJ39" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK39" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" s="63" customFormat="1">
+      <c r="A40" s="59">
+        <v>39</v>
+      </c>
+      <c r="B40" s="59">
+        <v>39</v>
+      </c>
+      <c r="C40" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="D40" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="F40" s="60" t="s">
+        <v>365</v>
+      </c>
+      <c r="G40" s="60" t="s">
+        <v>317</v>
+      </c>
+      <c r="H40" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" s="60">
+        <v>1.68</v>
+      </c>
+      <c r="J40" s="60">
+        <v>2.84</v>
+      </c>
+      <c r="K40" s="59">
+        <v>0.8</v>
+      </c>
+      <c r="L40" s="59">
+        <v>30</v>
+      </c>
+      <c r="M40" s="60">
+        <v>1</v>
+      </c>
+      <c r="N40" s="59">
+        <v>200</v>
+      </c>
+      <c r="O40" s="61"/>
+      <c r="P40" s="59">
         <v>3</v>
       </c>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="28">
+      <c r="Q40" s="59"/>
+      <c r="R40" s="60">
+        <v>0.7</v>
+      </c>
+      <c r="S40" s="62">
+        <v>1</v>
+      </c>
+      <c r="T40" s="62">
+        <v>0.74</v>
+      </c>
+      <c r="U40" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="V40" s="62">
+        <v>1</v>
+      </c>
+      <c r="W40" s="62">
+        <v>1</v>
+      </c>
+      <c r="X40" s="62">
+        <v>0.35</v>
+      </c>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA40" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD40" s="63">
+        <v>9100</v>
+      </c>
+      <c r="AE40" s="63">
+        <v>2</v>
+      </c>
+      <c r="AF40" s="63">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH40" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="AJ40" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="AK40" s="32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" s="57" customFormat="1">
+      <c r="A41" s="53">
+        <v>40</v>
+      </c>
+      <c r="B41" s="53">
+        <v>40</v>
+      </c>
+      <c r="C41" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="D41" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="E41" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="G41" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="H41" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" s="54">
+        <v>7.28</v>
+      </c>
+      <c r="J41" s="54">
+        <v>7.53</v>
+      </c>
+      <c r="K41" s="53">
         <v>0.8</v>
       </c>
-      <c r="S23" s="31">
-        <v>1</v>
-      </c>
-      <c r="T23" s="31">
-        <v>0.8</v>
-      </c>
-      <c r="U23" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="V23" s="31">
-        <v>1.5</v>
-      </c>
-      <c r="W23" s="31">
-        <v>1</v>
-      </c>
-      <c r="X23" s="31">
+      <c r="L41" s="53">
+        <v>30</v>
+      </c>
+      <c r="M41" s="54">
+        <v>1</v>
+      </c>
+      <c r="N41" s="53">
+        <v>600</v>
+      </c>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="54">
+        <v>1.4</v>
+      </c>
+      <c r="S41" s="56">
+        <v>1</v>
+      </c>
+      <c r="T41" s="56">
+        <v>0.74</v>
+      </c>
+      <c r="U41" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="V41" s="56">
+        <v>1</v>
+      </c>
+      <c r="W41" s="56">
+        <v>1</v>
+      </c>
+      <c r="X41" s="56">
         <v>0.35</v>
       </c>
-      <c r="Y23" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z23" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA23" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD23" s="33">
-        <v>6300</v>
-      </c>
-      <c r="AE23" s="33">
+      <c r="Y41" s="53"/>
+      <c r="Z41" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA41" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD41" s="57">
+        <v>9100</v>
+      </c>
+      <c r="AE41" s="57">
         <v>2</v>
       </c>
-      <c r="AF23" s="33">
-        <v>1</v>
-      </c>
-      <c r="AG23" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH23" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="AK23" s="32" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" s="9" customFormat="1">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3">
-        <v>23</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="I24" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="J24" s="5">
-        <v>1.9</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1</v>
-      </c>
-      <c r="L24" s="3">
-        <v>30</v>
-      </c>
-      <c r="M24" s="6">
-        <v>1</v>
-      </c>
-      <c r="N24" s="3">
-        <v>140</v>
-      </c>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="5">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="S24" s="7">
-        <v>1</v>
-      </c>
-      <c r="T24" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="U24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V24" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="W24" s="7">
-        <v>1</v>
-      </c>
-      <c r="X24" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="Y24" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD24" s="9">
-        <v>6200</v>
-      </c>
-      <c r="AE24" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="AG24" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="AH24" s="36" t="s">
-        <v>442</v>
-      </c>
-      <c r="AK24" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" s="9" customFormat="1">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3">
-        <v>24</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="H25" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="I25" s="5">
-        <v>1</v>
-      </c>
-      <c r="J25" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="K25" s="3">
-        <v>1</v>
-      </c>
-      <c r="L25" s="3">
-        <v>30</v>
-      </c>
-      <c r="M25" s="6">
-        <v>1</v>
-      </c>
-      <c r="N25" s="3">
-        <v>150</v>
-      </c>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="S25" s="7">
-        <v>1</v>
-      </c>
-      <c r="T25" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="U25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V25" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="W25" s="7">
-        <v>1</v>
-      </c>
-      <c r="X25" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="Y25" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD25" s="9">
-        <v>6100</v>
-      </c>
-      <c r="AE25" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="AH25" s="36" t="s">
-        <v>443</v>
-      </c>
-      <c r="AK25" s="8" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37" s="44" customFormat="1">
-      <c r="A26" s="37">
-        <v>25</v>
-      </c>
-      <c r="B26" s="37">
-        <v>25</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="H26" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="I26" s="38">
-        <v>1.44</v>
-      </c>
-      <c r="J26" s="38">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="K26" s="37">
-        <v>1</v>
-      </c>
-      <c r="L26" s="37">
-        <v>30</v>
-      </c>
-      <c r="M26" s="40">
-        <v>1</v>
-      </c>
-      <c r="N26" s="37">
-        <v>200</v>
-      </c>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="38">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="S26" s="42">
-        <v>1</v>
-      </c>
-      <c r="T26" s="42">
-        <v>0.74</v>
-      </c>
-      <c r="U26" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="V26" s="42">
-        <v>1</v>
-      </c>
-      <c r="W26" s="42">
-        <v>1</v>
-      </c>
-      <c r="X26" s="42">
-        <v>0.35</v>
-      </c>
-      <c r="Y26" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z26" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA26" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC26" s="43"/>
-      <c r="AD26" s="44">
-        <v>6000</v>
-      </c>
-      <c r="AE26" s="44">
-        <v>2</v>
-      </c>
-      <c r="AF26" s="44">
-        <v>1</v>
-      </c>
-      <c r="AH26" s="36"/>
-      <c r="AK26" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37" s="33" customFormat="1">
-      <c r="A27" s="27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="27">
-        <v>26</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I27" s="28">
-        <v>3.77</v>
-      </c>
-      <c r="J27" s="28">
-        <v>2.8</v>
-      </c>
-      <c r="K27" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="L27" s="27">
-        <v>30</v>
-      </c>
-      <c r="M27" s="29">
-        <v>1</v>
-      </c>
-      <c r="N27" s="27">
-        <v>180</v>
-      </c>
-      <c r="O27" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="P27" s="27">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="28">
-        <v>0.7</v>
-      </c>
-      <c r="S27" s="31">
-        <v>1</v>
-      </c>
-      <c r="T27" s="31">
-        <v>0.74</v>
-      </c>
-      <c r="U27" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="V27" s="31">
-        <v>1</v>
-      </c>
-      <c r="W27" s="31">
-        <v>1</v>
-      </c>
-      <c r="X27" s="31">
-        <v>0.35</v>
-      </c>
-      <c r="Y27" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z27" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA27" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="33">
-        <v>5900</v>
-      </c>
-      <c r="AE27" s="33">
-        <v>2</v>
-      </c>
-      <c r="AF27" s="33">
-        <v>1</v>
-      </c>
-      <c r="AG27" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH27" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="AK27" s="32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37" s="33" customFormat="1">
-      <c r="A28" s="27">
-        <v>27</v>
-      </c>
-      <c r="B28" s="27">
-        <v>27</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I28" s="28">
-        <v>2.64</v>
-      </c>
-      <c r="J28" s="28">
-        <v>2.38</v>
-      </c>
-      <c r="K28" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="L28" s="27">
-        <v>30</v>
-      </c>
-      <c r="M28" s="45">
-        <v>1</v>
-      </c>
-      <c r="N28" s="27">
-        <v>200</v>
-      </c>
-      <c r="O28" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="P28" s="27">
-        <v>4</v>
-      </c>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="28">
-        <v>1.2</v>
-      </c>
-      <c r="S28" s="31">
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="T28" s="31">
-        <v>0.74</v>
-      </c>
-      <c r="U28" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="V28" s="31">
-        <v>1</v>
-      </c>
-      <c r="W28" s="31">
-        <v>0.8</v>
-      </c>
-      <c r="X28" s="31">
-        <v>0.1</v>
-      </c>
-      <c r="Y28" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z28" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA28" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="33">
-        <v>5800</v>
-      </c>
-      <c r="AE28" s="33">
-        <v>2</v>
-      </c>
-      <c r="AF28" s="33">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH28" s="32" t="s">
-        <v>444</v>
-      </c>
-      <c r="AK28" s="32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37" s="44" customFormat="1">
-      <c r="A29" s="37">
-        <v>28</v>
-      </c>
-      <c r="B29" s="37">
-        <v>28</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>299</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="I29" s="46">
-        <v>2.1</v>
-      </c>
-      <c r="J29" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="K29" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="L29" s="37">
-        <v>30</v>
-      </c>
-      <c r="M29" s="40">
-        <v>1</v>
-      </c>
-      <c r="N29" s="37">
-        <v>0</v>
-      </c>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="38">
-        <v>0.7</v>
-      </c>
-      <c r="S29" s="42">
-        <v>1</v>
-      </c>
-      <c r="T29" s="42">
-        <v>0.74</v>
-      </c>
-      <c r="U29" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="V29" s="42">
-        <v>1</v>
-      </c>
-      <c r="W29" s="42">
-        <v>1</v>
-      </c>
-      <c r="X29" s="42">
-        <v>0.35</v>
-      </c>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA29" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC29" s="43"/>
-      <c r="AD29" s="44">
-        <v>5000</v>
-      </c>
-      <c r="AE29" s="44">
-        <v>2</v>
-      </c>
-      <c r="AF29" s="44">
-        <v>1</v>
-      </c>
-      <c r="AH29" s="36" t="s">
-        <v>445</v>
-      </c>
-      <c r="AK29" s="43" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37" s="44" customFormat="1">
-      <c r="A30" s="37">
-        <v>29</v>
-      </c>
-      <c r="B30" s="37">
-        <v>29</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>302</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="G30" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="H30" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="I30" s="38">
-        <v>1.68</v>
-      </c>
-      <c r="J30" s="38">
-        <v>2.84</v>
-      </c>
-      <c r="K30" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="L30" s="37">
-        <v>30</v>
-      </c>
-      <c r="M30" s="40">
-        <v>1</v>
-      </c>
-      <c r="N30" s="37">
-        <v>0</v>
-      </c>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37">
-        <v>3</v>
-      </c>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="38">
-        <v>0.7</v>
-      </c>
-      <c r="S30" s="42">
-        <v>1</v>
-      </c>
-      <c r="T30" s="42">
-        <v>0.74</v>
-      </c>
-      <c r="U30" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="V30" s="42">
-        <v>1</v>
-      </c>
-      <c r="W30" s="42">
-        <v>1</v>
-      </c>
-      <c r="X30" s="42">
-        <v>0.35</v>
-      </c>
-      <c r="Y30" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z30" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA30" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB30" s="44">
-        <v>1</v>
-      </c>
-      <c r="AD30" s="44">
-        <v>9200</v>
-      </c>
-      <c r="AE30" s="44">
-        <v>2</v>
-      </c>
-      <c r="AH30" s="36"/>
-      <c r="AK30" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37" s="44" customFormat="1">
-      <c r="A31" s="37">
-        <v>30</v>
-      </c>
-      <c r="B31" s="37">
-        <v>30</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="G31" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="H31" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="I31" s="46">
-        <v>1.48</v>
-      </c>
-      <c r="J31" s="37">
-        <v>2.77</v>
-      </c>
-      <c r="K31" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="L31" s="37">
-        <v>30</v>
-      </c>
-      <c r="M31" s="40">
-        <v>1</v>
-      </c>
-      <c r="N31" s="37">
-        <v>0</v>
-      </c>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37">
-        <v>4</v>
-      </c>
-      <c r="R31" s="38">
-        <v>0.7</v>
-      </c>
-      <c r="S31" s="42">
-        <v>1</v>
-      </c>
-      <c r="T31" s="42">
-        <v>0.74</v>
-      </c>
-      <c r="U31" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="V31" s="42">
-        <v>1</v>
-      </c>
-      <c r="W31" s="42">
-        <v>1</v>
-      </c>
-      <c r="X31" s="42">
-        <v>0.35</v>
-      </c>
-      <c r="Y31" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z31" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA31" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB31" s="44">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="43"/>
-      <c r="AD31" s="44">
-        <v>9200</v>
-      </c>
-      <c r="AE31" s="44">
-        <v>2</v>
-      </c>
-      <c r="AH31" s="36"/>
-      <c r="AK31" s="8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37" s="44" customFormat="1">
-      <c r="A32" s="37">
-        <v>31</v>
-      </c>
-      <c r="B32" s="37">
-        <v>31</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="F32" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="H32" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="I32" s="46">
-        <v>1.48</v>
-      </c>
-      <c r="J32" s="37">
-        <v>1.96</v>
-      </c>
-      <c r="K32" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="L32" s="37">
-        <v>30</v>
-      </c>
-      <c r="M32" s="40">
-        <v>1</v>
-      </c>
-      <c r="N32" s="37">
-        <v>0</v>
-      </c>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="38">
-        <v>0.7</v>
-      </c>
-      <c r="S32" s="42">
-        <v>1</v>
-      </c>
-      <c r="T32" s="42">
-        <v>0.74</v>
-      </c>
-      <c r="U32" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="V32" s="42">
-        <v>1</v>
-      </c>
-      <c r="W32" s="42">
-        <v>1</v>
-      </c>
-      <c r="X32" s="42">
-        <v>0.35</v>
-      </c>
-      <c r="Y32" s="41" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z32" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA32" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB32" s="44">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="43"/>
-      <c r="AD32" s="44">
-        <v>9200</v>
-      </c>
-      <c r="AE32" s="44">
-        <v>2</v>
-      </c>
-      <c r="AF32" s="44">
-        <v>1</v>
-      </c>
-      <c r="AH32" s="36"/>
-      <c r="AK32" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="33" spans="1:37" s="44" customFormat="1">
-      <c r="A33" s="37">
-        <v>32</v>
-      </c>
-      <c r="B33" s="37">
-        <v>32</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>311</v>
-      </c>
-      <c r="G33" s="39" t="s">
-        <v>311</v>
-      </c>
-      <c r="H33" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="I33" s="38">
-        <v>1.56</v>
-      </c>
-      <c r="J33" s="38">
-        <v>2.27</v>
-      </c>
-      <c r="K33" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="L33" s="37">
-        <v>30</v>
-      </c>
-      <c r="M33" s="40">
-        <v>1</v>
-      </c>
-      <c r="N33" s="37">
-        <v>0</v>
-      </c>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="38">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="S33" s="42">
-        <v>1</v>
-      </c>
-      <c r="T33" s="42">
-        <v>0.74</v>
-      </c>
-      <c r="U33" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="V33" s="42">
-        <v>1</v>
-      </c>
-      <c r="W33" s="42">
-        <v>1</v>
-      </c>
-      <c r="X33" s="42">
-        <v>0.35</v>
-      </c>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA33" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC33" s="43"/>
-      <c r="AD33" s="44">
-        <v>4600</v>
-      </c>
-      <c r="AE33" s="44">
-        <v>2</v>
-      </c>
-      <c r="AF33" s="44">
-        <v>1</v>
-      </c>
-      <c r="AH33" s="36"/>
-      <c r="AI33" s="47"/>
-      <c r="AK33" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:37" s="44" customFormat="1">
-      <c r="A34" s="37">
-        <v>33</v>
-      </c>
-      <c r="B34" s="37">
-        <v>33</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>313</v>
-      </c>
-      <c r="F34" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="G34" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="H34" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="I34" s="38">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J34" s="38">
-        <v>3</v>
-      </c>
-      <c r="K34" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="L34" s="37">
-        <v>30</v>
-      </c>
-      <c r="M34" s="40">
-        <v>1</v>
-      </c>
-      <c r="N34" s="37">
-        <v>0</v>
-      </c>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="38">
-        <v>0.7</v>
-      </c>
-      <c r="S34" s="42">
-        <v>1</v>
-      </c>
-      <c r="T34" s="42">
-        <v>0.74</v>
-      </c>
-      <c r="U34" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="V34" s="42">
-        <v>1</v>
-      </c>
-      <c r="W34" s="42">
-        <v>1</v>
-      </c>
-      <c r="X34" s="42">
-        <v>0.35</v>
-      </c>
-      <c r="Y34" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z34" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA34" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC34" s="43"/>
-      <c r="AD34" s="44">
-        <v>4500</v>
-      </c>
-      <c r="AE34" s="44">
-        <v>2</v>
-      </c>
-      <c r="AF34" s="44">
-        <v>1</v>
-      </c>
-      <c r="AH34" s="36"/>
-      <c r="AI34" s="48"/>
-      <c r="AK34" s="8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="35" spans="1:37" s="44" customFormat="1">
-      <c r="A35" s="37">
-        <v>34</v>
-      </c>
-      <c r="B35" s="37">
-        <v>34</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>315</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="F35" s="38" t="s">
-        <v>317</v>
-      </c>
-      <c r="G35" s="38" t="s">
-        <v>317</v>
-      </c>
-      <c r="H35" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="I35" s="38">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="J35" s="38">
-        <v>0.84</v>
-      </c>
-      <c r="K35" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="L35" s="37">
-        <v>30</v>
-      </c>
-      <c r="M35" s="40">
-        <v>1</v>
-      </c>
-      <c r="N35" s="37">
-        <v>0</v>
-      </c>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="38">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="S35" s="42">
-        <v>1</v>
-      </c>
-      <c r="T35" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="U35" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="V35" s="42">
-        <v>0.6</v>
-      </c>
-      <c r="W35" s="42">
-        <v>1</v>
-      </c>
-      <c r="X35" s="42">
-        <v>0.45</v>
-      </c>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA35" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD35" s="44">
-        <v>4400</v>
-      </c>
-      <c r="AE35" s="44">
-        <v>1.2</v>
-      </c>
-      <c r="AH35" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="AI35" s="48"/>
-      <c r="AK35" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="36" spans="1:37" s="44" customFormat="1">
-      <c r="A36" s="37">
-        <v>35</v>
-      </c>
-      <c r="B36" s="37">
-        <v>35</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="F36" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="G36" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="H36" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="I36" s="38">
-        <v>0.78</v>
-      </c>
-      <c r="J36" s="38">
-        <v>0.72</v>
-      </c>
-      <c r="K36" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="L36" s="37">
-        <v>30</v>
-      </c>
-      <c r="M36" s="40">
-        <v>1</v>
-      </c>
-      <c r="N36" s="37">
-        <v>0</v>
-      </c>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="38">
-        <v>0.7</v>
-      </c>
-      <c r="S36" s="42">
-        <v>1</v>
-      </c>
-      <c r="T36" s="42">
-        <v>0.32</v>
-      </c>
-      <c r="U36" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="V36" s="42">
-        <v>0.6</v>
-      </c>
-      <c r="W36" s="42">
-        <v>1</v>
-      </c>
-      <c r="X36" s="42">
-        <v>0.35</v>
-      </c>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA36" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB36" s="44">
-        <v>1</v>
-      </c>
-      <c r="AD36" s="44">
-        <v>4300</v>
-      </c>
-      <c r="AE36" s="44">
-        <v>1.2</v>
-      </c>
-      <c r="AH36" s="36" t="s">
-        <v>447</v>
-      </c>
-      <c r="AI36" s="48"/>
-      <c r="AK36" s="8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="37" spans="1:37" s="44" customFormat="1">
-      <c r="A37" s="37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="37">
-        <v>36</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="F37" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="G37" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="H37" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="I37" s="38">
-        <v>1.76</v>
-      </c>
-      <c r="J37" s="38">
-        <v>2.74</v>
-      </c>
-      <c r="K37" s="37">
-        <v>1.5</v>
-      </c>
-      <c r="L37" s="37">
-        <v>30</v>
-      </c>
-      <c r="M37" s="40">
-        <v>1</v>
-      </c>
-      <c r="N37" s="37">
-        <v>0</v>
-      </c>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="38">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="S37" s="42">
-        <v>1</v>
-      </c>
-      <c r="T37" s="42">
-        <v>0.26</v>
-      </c>
-      <c r="U37" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="V37" s="42">
-        <v>0.8</v>
-      </c>
-      <c r="W37" s="42">
-        <v>1</v>
-      </c>
-      <c r="X37" s="42">
-        <v>0.4</v>
-      </c>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA37" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD37" s="44">
-        <v>4200</v>
-      </c>
-      <c r="AE37" s="44">
-        <v>1.5</v>
-      </c>
-      <c r="AF37" s="44">
-        <v>2</v>
-      </c>
-      <c r="AG37" s="43" t="s">
-        <v>322</v>
-      </c>
-      <c r="AH37" s="36" t="s">
-        <v>448</v>
-      </c>
-      <c r="AI37" s="48"/>
-      <c r="AK37" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="38" spans="1:37" s="53" customFormat="1">
-      <c r="A38" s="49">
-        <v>37</v>
-      </c>
-      <c r="B38" s="49">
-        <v>37</v>
-      </c>
-      <c r="C38" s="50" t="s">
-        <v>323</v>
-      </c>
-      <c r="D38" s="50" t="s">
-        <v>324</v>
-      </c>
-      <c r="E38" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="G38" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="H38" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="I38" s="50">
-        <v>2.64</v>
-      </c>
-      <c r="J38" s="50">
-        <v>2.38</v>
-      </c>
-      <c r="K38" s="49">
-        <v>1</v>
-      </c>
-      <c r="L38" s="49">
-        <v>30</v>
-      </c>
-      <c r="M38" s="50">
-        <v>1</v>
-      </c>
-      <c r="N38" s="49">
-        <v>0</v>
-      </c>
-      <c r="O38" s="49"/>
-      <c r="P38" s="49">
-        <v>4</v>
-      </c>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="50">
-        <v>1.2</v>
-      </c>
-      <c r="S38" s="52">
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="T38" s="52">
-        <v>0.74</v>
-      </c>
-      <c r="U38" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="V38" s="52">
-        <v>1</v>
-      </c>
-      <c r="W38" s="52">
-        <v>0.8</v>
-      </c>
-      <c r="X38" s="52">
-        <v>0.1</v>
-      </c>
-      <c r="Y38" s="49"/>
-      <c r="Z38" s="53" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA38" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="AB38" s="53">
-        <v>1</v>
-      </c>
-      <c r="AD38" s="53">
-        <v>4100</v>
-      </c>
-      <c r="AE38" s="53">
-        <v>2</v>
-      </c>
-      <c r="AF38" s="53">
-        <v>1</v>
-      </c>
-      <c r="AH38" s="36" t="s">
-        <v>449</v>
-      </c>
-      <c r="AI38" s="54"/>
-      <c r="AJ38" s="54"/>
-    </row>
-    <row r="39" spans="1:37" s="59" customFormat="1">
-      <c r="A39" s="55">
-        <v>38</v>
-      </c>
-      <c r="B39" s="55">
-        <v>38</v>
-      </c>
-      <c r="C39" s="56" t="s">
-        <v>325</v>
-      </c>
-      <c r="D39" s="56" t="s">
-        <v>326</v>
-      </c>
-      <c r="E39" s="56" t="s">
-        <v>223</v>
-      </c>
-      <c r="F39" s="57" t="s">
-        <v>251</v>
-      </c>
-      <c r="G39" s="56" t="s">
-        <v>224</v>
-      </c>
-      <c r="H39" s="56" t="s">
-        <v>235</v>
-      </c>
-      <c r="I39" s="56">
-        <v>10</v>
-      </c>
-      <c r="J39" s="55">
-        <v>10</v>
-      </c>
-      <c r="K39" s="55">
-        <v>1</v>
-      </c>
-      <c r="L39" s="55">
-        <v>30</v>
-      </c>
-      <c r="M39" s="56">
-        <v>1</v>
-      </c>
-      <c r="N39" s="55">
-        <v>300</v>
-      </c>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55">
-        <v>4</v>
-      </c>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="56">
-        <v>1.2</v>
-      </c>
-      <c r="S39" s="58">
-        <v>1</v>
-      </c>
-      <c r="T39" s="58">
-        <v>0.74</v>
-      </c>
-      <c r="U39" s="56" t="s">
-        <v>266</v>
-      </c>
-      <c r="V39" s="58">
-        <v>1</v>
-      </c>
-      <c r="W39" s="58">
-        <v>1</v>
-      </c>
-      <c r="X39" s="58">
-        <v>0.35</v>
-      </c>
-      <c r="Y39" s="55"/>
-      <c r="Z39" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA39" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD39" s="59">
-        <v>3500</v>
-      </c>
-      <c r="AE39" s="59">
-        <v>2</v>
-      </c>
-      <c r="AF39" s="59">
-        <v>1</v>
-      </c>
-      <c r="AH39" s="36"/>
-      <c r="AJ39" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK39" s="8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="40" spans="1:37" s="65" customFormat="1">
-      <c r="A40" s="61">
-        <v>39</v>
-      </c>
-      <c r="B40" s="61">
-        <v>39</v>
-      </c>
-      <c r="C40" s="62" t="s">
-        <v>225</v>
-      </c>
-      <c r="D40" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="F40" s="62" t="s">
-        <v>376</v>
-      </c>
-      <c r="G40" s="62" t="s">
-        <v>328</v>
-      </c>
-      <c r="H40" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="I40" s="62">
-        <v>1.68</v>
-      </c>
-      <c r="J40" s="62">
-        <v>2.84</v>
-      </c>
-      <c r="K40" s="61">
-        <v>0.8</v>
-      </c>
-      <c r="L40" s="61">
-        <v>30</v>
-      </c>
-      <c r="M40" s="62">
-        <v>1</v>
-      </c>
-      <c r="N40" s="61">
-        <v>200</v>
-      </c>
-      <c r="O40" s="63"/>
-      <c r="P40" s="61">
-        <v>3</v>
-      </c>
-      <c r="Q40" s="61"/>
-      <c r="R40" s="62">
-        <v>0.7</v>
-      </c>
-      <c r="S40" s="64">
-        <v>1</v>
-      </c>
-      <c r="T40" s="64">
-        <v>0.74</v>
-      </c>
-      <c r="U40" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="V40" s="64">
-        <v>1</v>
-      </c>
-      <c r="W40" s="64">
-        <v>1</v>
-      </c>
-      <c r="X40" s="64">
-        <v>0.35</v>
-      </c>
-      <c r="Y40" s="61"/>
-      <c r="Z40" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA40" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD40" s="65">
-        <v>9100</v>
-      </c>
-      <c r="AE40" s="65">
-        <v>2</v>
-      </c>
-      <c r="AF40" s="65">
-        <v>1</v>
-      </c>
-      <c r="AG40" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH40" s="32" t="s">
-        <v>450</v>
-      </c>
-      <c r="AJ40" s="66" t="s">
-        <v>329</v>
-      </c>
-      <c r="AK40" s="32" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="41" spans="1:37" s="59" customFormat="1">
-      <c r="A41" s="55">
-        <v>40</v>
-      </c>
-      <c r="B41" s="55">
-        <v>40</v>
-      </c>
-      <c r="C41" s="56" t="s">
-        <v>331</v>
-      </c>
-      <c r="D41" s="56" t="s">
-        <v>332</v>
-      </c>
-      <c r="E41" s="56" t="s">
-        <v>228</v>
-      </c>
-      <c r="F41" s="56" t="s">
-        <v>251</v>
-      </c>
-      <c r="G41" s="56" t="s">
-        <v>333</v>
-      </c>
-      <c r="H41" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="I41" s="56">
-        <v>7.28</v>
-      </c>
-      <c r="J41" s="56">
-        <v>7.53</v>
-      </c>
-      <c r="K41" s="55">
-        <v>0.8</v>
-      </c>
-      <c r="L41" s="55">
-        <v>30</v>
-      </c>
-      <c r="M41" s="56">
-        <v>1</v>
-      </c>
-      <c r="N41" s="55">
-        <v>600</v>
-      </c>
-      <c r="O41" s="55"/>
-      <c r="P41" s="55">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="56">
-        <v>1.4</v>
-      </c>
-      <c r="S41" s="58">
-        <v>1</v>
-      </c>
-      <c r="T41" s="58">
-        <v>0.74</v>
-      </c>
-      <c r="U41" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="V41" s="58">
-        <v>1</v>
-      </c>
-      <c r="W41" s="58">
-        <v>1</v>
-      </c>
-      <c r="X41" s="58">
-        <v>0.35</v>
-      </c>
-      <c r="Y41" s="55"/>
-      <c r="Z41" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA41" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD41" s="59">
-        <v>9100</v>
-      </c>
-      <c r="AE41" s="59">
-        <v>2</v>
-      </c>
-      <c r="AF41" s="59">
-        <v>1</v>
-      </c>
-      <c r="AH41" s="36"/>
-      <c r="AJ41" s="60" t="s">
+      <c r="AF41" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="35"/>
+      <c r="AJ41" s="58" t="s">
         <v>141</v>
       </c>
       <c r="AK41" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:37" s="65" customFormat="1">
-      <c r="A42" s="61">
+    <row r="42" spans="1:37" s="63" customFormat="1">
+      <c r="A42" s="59">
         <v>41</v>
       </c>
-      <c r="B42" s="61">
+      <c r="B42" s="59">
         <v>41</v>
       </c>
-      <c r="C42" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="D42" s="62" t="s">
-        <v>334</v>
-      </c>
-      <c r="E42" s="62" t="s">
+      <c r="C42" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="D42" s="60" t="s">
+        <v>323</v>
+      </c>
+      <c r="E42" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="F42" s="62" t="s">
-        <v>251</v>
-      </c>
-      <c r="G42" s="62" t="s">
-        <v>335</v>
-      </c>
-      <c r="H42" s="62" t="s">
-        <v>235</v>
-      </c>
-      <c r="I42" s="62">
-        <v>1</v>
-      </c>
-      <c r="J42" s="62">
+      <c r="F42" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="G42" s="60" t="s">
+        <v>324</v>
+      </c>
+      <c r="H42" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="I42" s="60">
+        <v>1</v>
+      </c>
+      <c r="J42" s="60">
         <v>1.5</v>
       </c>
-      <c r="K42" s="61">
+      <c r="K42" s="59">
         <v>0.8</v>
       </c>
-      <c r="L42" s="61">
+      <c r="L42" s="59">
         <v>30</v>
       </c>
-      <c r="M42" s="62">
-        <v>1</v>
-      </c>
-      <c r="N42" s="61">
+      <c r="M42" s="60">
+        <v>1</v>
+      </c>
+      <c r="N42" s="59">
         <v>300</v>
       </c>
       <c r="O42" s="27"/>
-      <c r="P42" s="61">
+      <c r="P42" s="59">
         <v>2</v>
       </c>
-      <c r="Q42" s="61"/>
-      <c r="R42" s="62">
+      <c r="Q42" s="59"/>
+      <c r="R42" s="60">
         <v>0.55000000000000004</v>
       </c>
-      <c r="S42" s="64">
+      <c r="S42" s="62">
         <v>1.2</v>
       </c>
-      <c r="T42" s="64">
+      <c r="T42" s="62">
         <v>0.4</v>
       </c>
-      <c r="U42" s="62" t="s">
+      <c r="U42" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="V42" s="64">
-        <v>1</v>
-      </c>
-      <c r="W42" s="64">
-        <v>1</v>
-      </c>
-      <c r="X42" s="64">
+      <c r="V42" s="62">
+        <v>1</v>
+      </c>
+      <c r="W42" s="62">
+        <v>1</v>
+      </c>
+      <c r="X42" s="62">
         <v>0.5</v>
       </c>
-      <c r="Y42" s="61"/>
-      <c r="Z42" s="65" t="s">
+      <c r="Y42" s="59"/>
+      <c r="Z42" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="AA42" s="65" t="s">
+      <c r="AA42" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="AD42" s="65">
+      <c r="AD42" s="63">
         <v>3200</v>
       </c>
-      <c r="AE42" s="65">
+      <c r="AE42" s="63">
         <v>1.5</v>
       </c>
-      <c r="AF42" s="65">
+      <c r="AF42" s="63">
         <v>2</v>
       </c>
       <c r="AG42" s="33"/>
       <c r="AH42" s="32" t="s">
-        <v>451</v>
-      </c>
-      <c r="AJ42" s="66" t="s">
+        <v>437</v>
+      </c>
+      <c r="AJ42" s="64" t="s">
         <v>142</v>
       </c>
       <c r="AK42" s="32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" s="68" customFormat="1">
+      <c r="A43" s="65">
+        <v>42</v>
+      </c>
+      <c r="B43" s="65">
+        <v>42</v>
+      </c>
+      <c r="C43" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="D43" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="E43" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="F43" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="G43" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="I43" s="66">
+        <v>1</v>
+      </c>
+      <c r="J43" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="K43" s="65">
+        <v>1</v>
+      </c>
+      <c r="L43" s="65">
+        <v>30</v>
+      </c>
+      <c r="M43" s="66">
+        <v>1</v>
+      </c>
+      <c r="N43" s="65">
+        <v>0</v>
+      </c>
+      <c r="O43" s="65"/>
+      <c r="P43" s="65">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="65"/>
+      <c r="R43" s="66">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S43" s="67">
+        <v>1.2</v>
+      </c>
+      <c r="T43" s="67">
+        <v>0.4</v>
+      </c>
+      <c r="U43" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="V43" s="67">
+        <v>1</v>
+      </c>
+      <c r="W43" s="67">
+        <v>1</v>
+      </c>
+      <c r="X43" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="Y43" s="65"/>
+      <c r="Z43" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA43" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB43" s="68">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="68">
+        <v>3100</v>
+      </c>
+      <c r="AE43" s="68">
+        <v>1.5</v>
+      </c>
+      <c r="AF43" s="68">
+        <v>2</v>
+      </c>
+      <c r="AH43" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="AJ43" s="69"/>
+      <c r="AK43" s="69"/>
+    </row>
+    <row r="44" spans="1:37" s="63" customFormat="1">
+      <c r="A44" s="59">
+        <v>43</v>
+      </c>
+      <c r="B44" s="59">
+        <v>43</v>
+      </c>
+      <c r="C44" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="D44" s="60" t="s">
+        <v>367</v>
+      </c>
+      <c r="E44" s="60" t="s">
+        <v>327</v>
+      </c>
+      <c r="F44" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="60" t="s">
+        <v>328</v>
+      </c>
+      <c r="H44" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="I44" s="60">
+        <v>0.96</v>
+      </c>
+      <c r="J44" s="60">
+        <v>0.83</v>
+      </c>
+      <c r="K44" s="59">
+        <v>0.8</v>
+      </c>
+      <c r="L44" s="59">
+        <v>30</v>
+      </c>
+      <c r="M44" s="60">
+        <v>1</v>
+      </c>
+      <c r="N44" s="59">
+        <v>500</v>
+      </c>
+      <c r="O44" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="P44" s="59">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="59"/>
+      <c r="R44" s="60">
+        <v>0.7</v>
+      </c>
+      <c r="S44" s="62">
+        <v>1</v>
+      </c>
+      <c r="T44" s="62">
+        <v>0.74</v>
+      </c>
+      <c r="U44" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="V44" s="62">
+        <v>1</v>
+      </c>
+      <c r="W44" s="62">
+        <v>0.7</v>
+      </c>
+      <c r="X44" s="62">
+        <v>0.35</v>
+      </c>
+      <c r="Y44" s="59"/>
+      <c r="Z44" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA44" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD44" s="63">
+        <v>9100</v>
+      </c>
+      <c r="AE44" s="63">
+        <v>1.5</v>
+      </c>
+      <c r="AF44" s="63">
+        <v>2</v>
+      </c>
+      <c r="AG44" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH44" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="AJ44" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="AK44" s="32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" s="68" customFormat="1">
+      <c r="A45" s="65">
+        <v>44</v>
+      </c>
+      <c r="B45" s="65">
+        <v>44</v>
+      </c>
+      <c r="C45" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="D45" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="E45" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="F45" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="H45" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="I45" s="66">
+        <v>1</v>
+      </c>
+      <c r="J45" s="66">
+        <v>1.5</v>
+      </c>
+      <c r="K45" s="65">
+        <v>1</v>
+      </c>
+      <c r="L45" s="65">
+        <v>30</v>
+      </c>
+      <c r="M45" s="66">
+        <v>1</v>
+      </c>
+      <c r="N45" s="65">
+        <v>0</v>
+      </c>
+      <c r="O45" s="65"/>
+      <c r="P45" s="65">
+        <v>2</v>
+      </c>
+      <c r="Q45" s="65"/>
+      <c r="R45" s="66">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S45" s="67">
+        <v>1.2</v>
+      </c>
+      <c r="T45" s="67">
+        <v>0.4</v>
+      </c>
+      <c r="U45" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="V45" s="67">
+        <v>1</v>
+      </c>
+      <c r="W45" s="67">
+        <v>1</v>
+      </c>
+      <c r="X45" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="Y45" s="65"/>
+      <c r="Z45" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA45" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB45" s="68">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="68">
+        <v>2900</v>
+      </c>
+      <c r="AE45" s="68">
+        <v>1.5</v>
+      </c>
+      <c r="AF45" s="68">
+        <v>2</v>
+      </c>
+      <c r="AH45" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="AJ45" s="69"/>
+      <c r="AK45" s="69"/>
+    </row>
+    <row r="46" spans="1:37" s="68" customFormat="1">
+      <c r="A46" s="65">
+        <v>45</v>
+      </c>
+      <c r="B46" s="65">
+        <v>45</v>
+      </c>
+      <c r="C46" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="66" t="s">
+        <v>332</v>
+      </c>
+      <c r="F46" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="G46" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="H46" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="I46" s="66">
+        <v>0.96</v>
+      </c>
+      <c r="J46" s="66">
+        <v>0.68</v>
+      </c>
+      <c r="K46" s="65">
+        <v>1</v>
+      </c>
+      <c r="L46" s="65">
+        <v>30</v>
+      </c>
+      <c r="M46" s="66">
+        <v>1</v>
+      </c>
+      <c r="N46" s="65">
+        <v>0</v>
+      </c>
+      <c r="O46" s="65"/>
+      <c r="P46" s="65">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="65"/>
+      <c r="R46" s="66">
+        <v>0.7</v>
+      </c>
+      <c r="S46" s="67">
+        <v>1</v>
+      </c>
+      <c r="T46" s="67">
+        <v>0.8</v>
+      </c>
+      <c r="U46" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="V46" s="67">
+        <v>1.5</v>
+      </c>
+      <c r="W46" s="67">
+        <v>1</v>
+      </c>
+      <c r="X46" s="67">
+        <v>0.35</v>
+      </c>
+      <c r="Y46" s="65"/>
+      <c r="Z46" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA46" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD46" s="68">
+        <v>2800</v>
+      </c>
+      <c r="AE46" s="68">
+        <v>1.5</v>
+      </c>
+      <c r="AF46" s="68">
+        <v>2</v>
+      </c>
+      <c r="AH46" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="AJ46" s="69"/>
+      <c r="AK46" s="69"/>
+    </row>
+    <row r="47" spans="1:37" s="63" customFormat="1">
+      <c r="A47" s="59">
+        <v>46</v>
+      </c>
+      <c r="B47" s="59">
+        <v>46</v>
+      </c>
+      <c r="C47" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="D47" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="E47" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="60" t="s">
+        <v>334</v>
+      </c>
+      <c r="G47" s="60" t="s">
+        <v>334</v>
+      </c>
+      <c r="H47" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="I47" s="60">
+        <v>0.74</v>
+      </c>
+      <c r="J47" s="60">
+        <v>0.86</v>
+      </c>
+      <c r="K47" s="59">
+        <v>0.8</v>
+      </c>
+      <c r="L47" s="59">
+        <v>30</v>
+      </c>
+      <c r="M47" s="60">
+        <v>1</v>
+      </c>
+      <c r="N47" s="59">
+        <v>400</v>
+      </c>
+      <c r="O47" s="59"/>
+      <c r="P47" s="59">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="59"/>
+      <c r="R47" s="60">
+        <v>0.8</v>
+      </c>
+      <c r="S47" s="62">
+        <v>1</v>
+      </c>
+      <c r="T47" s="62">
+        <v>0.26</v>
+      </c>
+      <c r="U47" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="V47" s="62">
+        <v>0.8</v>
+      </c>
+      <c r="W47" s="62">
+        <v>1</v>
+      </c>
+      <c r="X47" s="62">
+        <v>0.4</v>
+      </c>
+      <c r="Y47" s="59"/>
+      <c r="Z47" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA47" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD47" s="63">
+        <v>9100</v>
+      </c>
+      <c r="AE47" s="63">
+        <v>1.5</v>
+      </c>
+      <c r="AF47" s="63">
+        <v>2</v>
+      </c>
+      <c r="AG47" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH47" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="AJ47" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="AK47" s="32" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" s="73" customFormat="1">
+      <c r="A48" s="70">
+        <v>47</v>
+      </c>
+      <c r="B48" s="70">
+        <v>47</v>
+      </c>
+      <c r="C48" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" s="71" t="s">
+        <v>335</v>
+      </c>
+      <c r="E48" s="71" t="s">
+        <v>235</v>
+      </c>
+      <c r="F48" s="71" t="s">
         <v>336</v>
       </c>
+      <c r="G48" s="71" t="s">
+        <v>336</v>
+      </c>
+      <c r="H48" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="I48" s="71">
+        <v>1</v>
+      </c>
+      <c r="J48" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="K48" s="70">
+        <v>1</v>
+      </c>
+      <c r="L48" s="70">
+        <v>30</v>
+      </c>
+      <c r="M48" s="71">
+        <v>1</v>
+      </c>
+      <c r="N48" s="70">
+        <v>500</v>
+      </c>
+      <c r="O48" s="70"/>
+      <c r="P48" s="70">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="70"/>
+      <c r="R48" s="71">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S48" s="72">
+        <v>1.2</v>
+      </c>
+      <c r="T48" s="72">
+        <v>0.4</v>
+      </c>
+      <c r="U48" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="V48" s="72">
+        <v>1</v>
+      </c>
+      <c r="W48" s="72">
+        <v>1</v>
+      </c>
+      <c r="X48" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="Y48" s="70"/>
+      <c r="Z48" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA48" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD48" s="73">
+        <v>3300</v>
+      </c>
+      <c r="AE48" s="73">
+        <v>1.5</v>
+      </c>
+      <c r="AF48" s="73">
+        <v>2</v>
+      </c>
+      <c r="AH48" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="AJ48" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK48" s="8" t="s">
+        <v>337</v>
+      </c>
     </row>
-    <row r="43" spans="1:37" s="70" customFormat="1">
-      <c r="A43" s="67">
-        <v>42</v>
-      </c>
-      <c r="B43" s="67">
-        <v>42</v>
-      </c>
-      <c r="C43" s="68" t="s">
+    <row r="49" spans="1:37" s="63" customFormat="1">
+      <c r="A49" s="59">
+        <v>48</v>
+      </c>
+      <c r="B49" s="59">
+        <v>48</v>
+      </c>
+      <c r="C49" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="E49" s="60" t="s">
+        <v>339</v>
+      </c>
+      <c r="F49" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="G49" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="H49" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="D43" s="68" t="s">
-        <v>337</v>
-      </c>
-      <c r="E43" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="F43" s="68" t="s">
-        <v>251</v>
-      </c>
-      <c r="G43" s="68" t="s">
+      <c r="I49" s="60">
+        <v>2</v>
+      </c>
+      <c r="J49" s="60">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K49" s="59">
+        <v>0.8</v>
+      </c>
+      <c r="L49" s="59">
+        <v>30</v>
+      </c>
+      <c r="M49" s="60">
+        <v>1</v>
+      </c>
+      <c r="N49" s="59">
+        <v>600</v>
+      </c>
+      <c r="O49" s="30"/>
+      <c r="P49" s="59">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="59"/>
+      <c r="R49" s="60">
+        <v>0.66</v>
+      </c>
+      <c r="S49" s="62">
+        <v>1</v>
+      </c>
+      <c r="T49" s="62">
+        <v>0.22</v>
+      </c>
+      <c r="U49" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="V49" s="62">
+        <v>0.8</v>
+      </c>
+      <c r="W49" s="62">
+        <v>1</v>
+      </c>
+      <c r="X49" s="62">
+        <v>0.45</v>
+      </c>
+      <c r="Y49" s="59"/>
+      <c r="Z49" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA49" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD49" s="63">
+        <v>3000</v>
+      </c>
+      <c r="AE49" s="63">
+        <v>1.5</v>
+      </c>
+      <c r="AF49" s="63">
+        <v>2</v>
+      </c>
+      <c r="AG49" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH49" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="AJ49" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK49" s="32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37" s="73" customFormat="1">
+      <c r="A50" s="70">
+        <v>49</v>
+      </c>
+      <c r="B50" s="70">
+        <v>49</v>
+      </c>
+      <c r="C50" s="71" t="s">
+        <v>341</v>
+      </c>
+      <c r="D50" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="E50" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="G50" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="H50" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="I50" s="71">
+        <v>2</v>
+      </c>
+      <c r="J50" s="71">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K50" s="70">
+        <v>1</v>
+      </c>
+      <c r="L50" s="70">
+        <v>30</v>
+      </c>
+      <c r="M50" s="71">
+        <v>1</v>
+      </c>
+      <c r="N50" s="70">
+        <v>800</v>
+      </c>
+      <c r="O50" s="70"/>
+      <c r="P50" s="70">
+        <v>3</v>
+      </c>
+      <c r="Q50" s="70"/>
+      <c r="R50" s="71">
+        <v>0.66</v>
+      </c>
+      <c r="S50" s="72">
+        <v>1</v>
+      </c>
+      <c r="T50" s="72">
+        <v>0.22</v>
+      </c>
+      <c r="U50" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="V50" s="72">
+        <v>0.8</v>
+      </c>
+      <c r="W50" s="72">
+        <v>1</v>
+      </c>
+      <c r="X50" s="72">
+        <v>0.45</v>
+      </c>
+      <c r="Y50" s="70"/>
+      <c r="Z50" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA50" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB50" s="73">
+        <v>1</v>
+      </c>
+      <c r="AD50" s="73">
+        <v>9400</v>
+      </c>
+      <c r="AE50" s="73">
+        <v>1.5</v>
+      </c>
+      <c r="AF50" s="73">
+        <v>2</v>
+      </c>
+      <c r="AH50" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="AJ50" s="74" t="s">
+        <v>343</v>
+      </c>
+      <c r="AK50" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" s="80" customFormat="1">
+      <c r="A51" s="77">
+        <v>50</v>
+      </c>
+      <c r="B51" s="77">
+        <v>50</v>
+      </c>
+      <c r="C51" s="78" t="s">
+        <v>241</v>
+      </c>
+      <c r="D51" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="78" t="s">
+        <v>344</v>
+      </c>
+      <c r="F51" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="H43" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="I43" s="68">
-        <v>1</v>
-      </c>
-      <c r="J43" s="68">
+      <c r="G51" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="H51" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="I51" s="71">
+        <v>2</v>
+      </c>
+      <c r="J51" s="71">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K51" s="70">
+        <v>1</v>
+      </c>
+      <c r="L51" s="70">
+        <v>30</v>
+      </c>
+      <c r="M51" s="71">
+        <v>1</v>
+      </c>
+      <c r="N51" s="70">
+        <v>50</v>
+      </c>
+      <c r="O51" s="70"/>
+      <c r="P51" s="70">
+        <v>3</v>
+      </c>
+      <c r="Q51" s="70"/>
+      <c r="R51" s="71">
+        <v>0.66</v>
+      </c>
+      <c r="S51" s="72">
+        <v>1</v>
+      </c>
+      <c r="T51" s="72">
+        <v>0.22</v>
+      </c>
+      <c r="U51" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="V51" s="72">
+        <v>0.8</v>
+      </c>
+      <c r="W51" s="72">
+        <v>1</v>
+      </c>
+      <c r="X51" s="72">
+        <v>0.45</v>
+      </c>
+      <c r="Y51" s="70"/>
+      <c r="Z51" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA51" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB51" s="73">
+        <v>1</v>
+      </c>
+      <c r="AC51" s="73"/>
+      <c r="AD51" s="73">
+        <v>1000</v>
+      </c>
+      <c r="AE51" s="73">
         <v>1.5</v>
       </c>
-      <c r="K43" s="67">
-        <v>1</v>
-      </c>
-      <c r="L43" s="67">
-        <v>30</v>
-      </c>
-      <c r="M43" s="68">
-        <v>1</v>
-      </c>
-      <c r="N43" s="67">
-        <v>0</v>
-      </c>
-      <c r="O43" s="67"/>
-      <c r="P43" s="67">
-        <v>2</v>
-      </c>
-      <c r="Q43" s="67"/>
-      <c r="R43" s="68">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="S43" s="69">
-        <v>1.2</v>
-      </c>
-      <c r="T43" s="69">
-        <v>0.4</v>
-      </c>
-      <c r="U43" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="V43" s="69">
-        <v>1</v>
-      </c>
-      <c r="W43" s="69">
-        <v>1</v>
-      </c>
-      <c r="X43" s="69">
-        <v>0.5</v>
-      </c>
-      <c r="Y43" s="67"/>
-      <c r="Z43" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA43" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB43" s="70">
-        <v>1</v>
-      </c>
-      <c r="AD43" s="70">
-        <v>3100</v>
-      </c>
-      <c r="AE43" s="70">
-        <v>1.5</v>
-      </c>
-      <c r="AF43" s="70">
-        <v>2</v>
-      </c>
-      <c r="AH43" s="36" t="s">
-        <v>452</v>
-      </c>
-      <c r="AJ43" s="71"/>
-      <c r="AK43" s="71"/>
-    </row>
-    <row r="44" spans="1:37" s="65" customFormat="1">
-      <c r="A44" s="61">
-        <v>43</v>
-      </c>
-      <c r="B44" s="61">
-        <v>43</v>
-      </c>
-      <c r="C44" s="62" t="s">
-        <v>232</v>
-      </c>
-      <c r="D44" s="62" t="s">
-        <v>378</v>
-      </c>
-      <c r="E44" s="62" t="s">
-        <v>338</v>
-      </c>
-      <c r="F44" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="G44" s="62" t="s">
-        <v>339</v>
-      </c>
-      <c r="H44" s="62" t="s">
-        <v>235</v>
-      </c>
-      <c r="I44" s="62">
-        <v>0.96</v>
-      </c>
-      <c r="J44" s="62">
-        <v>0.83</v>
-      </c>
-      <c r="K44" s="61">
-        <v>0.8</v>
-      </c>
-      <c r="L44" s="61">
-        <v>30</v>
-      </c>
-      <c r="M44" s="62">
-        <v>1</v>
-      </c>
-      <c r="N44" s="61">
-        <v>500</v>
-      </c>
-      <c r="O44" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="P44" s="61">
-        <v>3</v>
-      </c>
-      <c r="Q44" s="61"/>
-      <c r="R44" s="62">
-        <v>0.7</v>
-      </c>
-      <c r="S44" s="64">
-        <v>1</v>
-      </c>
-      <c r="T44" s="64">
-        <v>0.74</v>
-      </c>
-      <c r="U44" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="V44" s="64">
-        <v>1</v>
-      </c>
-      <c r="W44" s="64">
-        <v>0.7</v>
-      </c>
-      <c r="X44" s="64">
-        <v>0.35</v>
-      </c>
-      <c r="Y44" s="61"/>
-      <c r="Z44" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA44" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD44" s="65">
-        <v>9100</v>
-      </c>
-      <c r="AE44" s="65">
-        <v>1.5</v>
-      </c>
-      <c r="AF44" s="65">
-        <v>2</v>
-      </c>
-      <c r="AG44" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH44" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="AJ44" s="66" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK44" s="32" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="45" spans="1:37" s="70" customFormat="1">
-      <c r="A45" s="67">
-        <v>44</v>
-      </c>
-      <c r="B45" s="67">
-        <v>44</v>
-      </c>
-      <c r="C45" s="68" t="s">
-        <v>234</v>
-      </c>
-      <c r="D45" s="68" t="s">
-        <v>341</v>
-      </c>
-      <c r="E45" s="68" t="s">
-        <v>342</v>
-      </c>
-      <c r="F45" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="G45" s="68" t="s">
-        <v>251</v>
-      </c>
-      <c r="H45" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="I45" s="68">
-        <v>1</v>
-      </c>
-      <c r="J45" s="68">
-        <v>1.5</v>
-      </c>
-      <c r="K45" s="67">
-        <v>1</v>
-      </c>
-      <c r="L45" s="67">
-        <v>30</v>
-      </c>
-      <c r="M45" s="68">
-        <v>1</v>
-      </c>
-      <c r="N45" s="67">
-        <v>0</v>
-      </c>
-      <c r="O45" s="67"/>
-      <c r="P45" s="67">
-        <v>2</v>
-      </c>
-      <c r="Q45" s="67"/>
-      <c r="R45" s="68">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="S45" s="69">
-        <v>1.2</v>
-      </c>
-      <c r="T45" s="69">
-        <v>0.4</v>
-      </c>
-      <c r="U45" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="V45" s="69">
-        <v>1</v>
-      </c>
-      <c r="W45" s="69">
-        <v>1</v>
-      </c>
-      <c r="X45" s="69">
-        <v>0.5</v>
-      </c>
-      <c r="Y45" s="67"/>
-      <c r="Z45" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA45" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB45" s="70">
-        <v>1</v>
-      </c>
-      <c r="AD45" s="70">
-        <v>2900</v>
-      </c>
-      <c r="AE45" s="70">
-        <v>1.5</v>
-      </c>
-      <c r="AF45" s="70">
-        <v>2</v>
-      </c>
-      <c r="AH45" s="36" t="s">
-        <v>454</v>
-      </c>
-      <c r="AJ45" s="71"/>
-      <c r="AK45" s="71"/>
-    </row>
-    <row r="46" spans="1:37" s="70" customFormat="1">
-      <c r="A46" s="67">
-        <v>45</v>
-      </c>
-      <c r="B46" s="67">
-        <v>45</v>
-      </c>
-      <c r="C46" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="68" t="s">
-        <v>343</v>
-      </c>
-      <c r="F46" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="G46" s="68" t="s">
-        <v>251</v>
-      </c>
-      <c r="H46" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="I46" s="68">
-        <v>0.96</v>
-      </c>
-      <c r="J46" s="68">
-        <v>0.68</v>
-      </c>
-      <c r="K46" s="67">
-        <v>1</v>
-      </c>
-      <c r="L46" s="67">
-        <v>30</v>
-      </c>
-      <c r="M46" s="68">
-        <v>1</v>
-      </c>
-      <c r="N46" s="67">
-        <v>0</v>
-      </c>
-      <c r="O46" s="67"/>
-      <c r="P46" s="67">
-        <v>3</v>
-      </c>
-      <c r="Q46" s="67"/>
-      <c r="R46" s="68">
-        <v>0.7</v>
-      </c>
-      <c r="S46" s="69">
-        <v>1</v>
-      </c>
-      <c r="T46" s="69">
-        <v>0.8</v>
-      </c>
-      <c r="U46" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="V46" s="69">
-        <v>1.5</v>
-      </c>
-      <c r="W46" s="69">
-        <v>1</v>
-      </c>
-      <c r="X46" s="69">
-        <v>0.35</v>
-      </c>
-      <c r="Y46" s="67"/>
-      <c r="Z46" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA46" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD46" s="70">
-        <v>2800</v>
-      </c>
-      <c r="AE46" s="70">
-        <v>1.5</v>
-      </c>
-      <c r="AF46" s="70">
-        <v>2</v>
-      </c>
-      <c r="AH46" s="36" t="s">
-        <v>455</v>
-      </c>
-      <c r="AJ46" s="71"/>
-      <c r="AK46" s="71"/>
-    </row>
-    <row r="47" spans="1:37" s="65" customFormat="1">
-      <c r="A47" s="61">
-        <v>46</v>
-      </c>
-      <c r="B47" s="61">
-        <v>46</v>
-      </c>
-      <c r="C47" s="62" t="s">
-        <v>236</v>
-      </c>
-      <c r="D47" s="62" t="s">
-        <v>344</v>
-      </c>
-      <c r="E47" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="F47" s="62" t="s">
-        <v>345</v>
-      </c>
-      <c r="G47" s="62" t="s">
-        <v>345</v>
-      </c>
-      <c r="H47" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="I47" s="62">
-        <v>0.74</v>
-      </c>
-      <c r="J47" s="62">
-        <v>0.86</v>
-      </c>
-      <c r="K47" s="61">
-        <v>0.8</v>
-      </c>
-      <c r="L47" s="61">
-        <v>30</v>
-      </c>
-      <c r="M47" s="62">
-        <v>1</v>
-      </c>
-      <c r="N47" s="61">
-        <v>400</v>
-      </c>
-      <c r="O47" s="61"/>
-      <c r="P47" s="61">
-        <v>2</v>
-      </c>
-      <c r="Q47" s="61"/>
-      <c r="R47" s="62">
-        <v>0.8</v>
-      </c>
-      <c r="S47" s="64">
-        <v>1</v>
-      </c>
-      <c r="T47" s="64">
-        <v>0.26</v>
-      </c>
-      <c r="U47" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="V47" s="64">
-        <v>0.8</v>
-      </c>
-      <c r="W47" s="64">
-        <v>1</v>
-      </c>
-      <c r="X47" s="64">
-        <v>0.4</v>
-      </c>
-      <c r="Y47" s="61"/>
-      <c r="Z47" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA47" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD47" s="65">
-        <v>9100</v>
-      </c>
-      <c r="AE47" s="65">
-        <v>1.5</v>
-      </c>
-      <c r="AF47" s="65">
-        <v>2</v>
-      </c>
-      <c r="AG47" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH47" s="32" t="s">
-        <v>456</v>
-      </c>
-      <c r="AJ47" s="66" t="s">
-        <v>237</v>
-      </c>
-      <c r="AK47" s="32" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="48" spans="1:37" s="75" customFormat="1">
-      <c r="A48" s="72">
-        <v>47</v>
-      </c>
-      <c r="B48" s="72">
-        <v>47</v>
-      </c>
-      <c r="C48" s="73" t="s">
-        <v>239</v>
-      </c>
-      <c r="D48" s="73" t="s">
-        <v>346</v>
-      </c>
-      <c r="E48" s="73" t="s">
-        <v>240</v>
-      </c>
-      <c r="F48" s="73" t="s">
-        <v>347</v>
-      </c>
-      <c r="G48" s="73" t="s">
-        <v>347</v>
-      </c>
-      <c r="H48" s="73" t="s">
-        <v>235</v>
-      </c>
-      <c r="I48" s="73">
-        <v>1</v>
-      </c>
-      <c r="J48" s="73">
-        <v>1.5</v>
-      </c>
-      <c r="K48" s="72">
-        <v>1</v>
-      </c>
-      <c r="L48" s="72">
-        <v>30</v>
-      </c>
-      <c r="M48" s="73">
-        <v>1</v>
-      </c>
-      <c r="N48" s="72">
-        <v>500</v>
-      </c>
-      <c r="O48" s="72"/>
-      <c r="P48" s="72">
-        <v>2</v>
-      </c>
-      <c r="Q48" s="72"/>
-      <c r="R48" s="73">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="S48" s="74">
-        <v>1.2</v>
-      </c>
-      <c r="T48" s="74">
-        <v>0.4</v>
-      </c>
-      <c r="U48" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="V48" s="74">
-        <v>1</v>
-      </c>
-      <c r="W48" s="74">
-        <v>1</v>
-      </c>
-      <c r="X48" s="74">
-        <v>0.5</v>
-      </c>
-      <c r="Y48" s="72"/>
-      <c r="Z48" s="75" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA48" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD48" s="75">
-        <v>3300</v>
-      </c>
-      <c r="AE48" s="75">
-        <v>1.5</v>
-      </c>
-      <c r="AF48" s="75">
-        <v>2</v>
-      </c>
-      <c r="AH48" s="36" t="s">
-        <v>457</v>
-      </c>
-      <c r="AJ48" s="76" t="s">
-        <v>143</v>
-      </c>
-      <c r="AK48" s="8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="49" spans="1:37" s="65" customFormat="1">
-      <c r="A49" s="61">
-        <v>48</v>
-      </c>
-      <c r="B49" s="61">
-        <v>48</v>
-      </c>
-      <c r="C49" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="D49" s="62" t="s">
-        <v>349</v>
-      </c>
-      <c r="E49" s="62" t="s">
-        <v>350</v>
-      </c>
-      <c r="F49" s="62" t="s">
-        <v>351</v>
-      </c>
-      <c r="G49" s="62" t="s">
-        <v>351</v>
-      </c>
-      <c r="H49" s="62" t="s">
-        <v>235</v>
-      </c>
-      <c r="I49" s="62">
-        <v>2</v>
-      </c>
-      <c r="J49" s="62">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="K49" s="61">
-        <v>0.8</v>
-      </c>
-      <c r="L49" s="61">
-        <v>30</v>
-      </c>
-      <c r="M49" s="62">
-        <v>1</v>
-      </c>
-      <c r="N49" s="61">
-        <v>600</v>
-      </c>
-      <c r="O49" s="30"/>
-      <c r="P49" s="61">
-        <v>3</v>
-      </c>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="62">
-        <v>0.66</v>
-      </c>
-      <c r="S49" s="64">
-        <v>1</v>
-      </c>
-      <c r="T49" s="64">
-        <v>0.22</v>
-      </c>
-      <c r="U49" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="V49" s="64">
-        <v>0.8</v>
-      </c>
-      <c r="W49" s="64">
-        <v>1</v>
-      </c>
-      <c r="X49" s="64">
-        <v>0.45</v>
-      </c>
-      <c r="Y49" s="61"/>
-      <c r="Z49" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA49" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD49" s="65">
-        <v>3000</v>
-      </c>
-      <c r="AE49" s="65">
-        <v>1.5</v>
-      </c>
-      <c r="AF49" s="65">
-        <v>2</v>
-      </c>
-      <c r="AG49" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH49" s="32" t="s">
-        <v>458</v>
-      </c>
-      <c r="AJ49" s="66" t="s">
-        <v>242</v>
-      </c>
-      <c r="AK49" s="32" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="50" spans="1:37" s="75" customFormat="1">
-      <c r="A50" s="72">
-        <v>49</v>
-      </c>
-      <c r="B50" s="72">
-        <v>49</v>
-      </c>
-      <c r="C50" s="73" t="s">
-        <v>352</v>
-      </c>
-      <c r="D50" s="73" t="s">
-        <v>244</v>
-      </c>
-      <c r="E50" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="73" t="s">
-        <v>353</v>
-      </c>
-      <c r="G50" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="H50" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="I50" s="73">
-        <v>2</v>
-      </c>
-      <c r="J50" s="73">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="K50" s="72">
-        <v>1</v>
-      </c>
-      <c r="L50" s="72">
-        <v>30</v>
-      </c>
-      <c r="M50" s="73">
-        <v>1</v>
-      </c>
-      <c r="N50" s="72">
-        <v>800</v>
-      </c>
-      <c r="O50" s="72"/>
-      <c r="P50" s="72">
-        <v>3</v>
-      </c>
-      <c r="Q50" s="72"/>
-      <c r="R50" s="73">
-        <v>0.66</v>
-      </c>
-      <c r="S50" s="74">
-        <v>1</v>
-      </c>
-      <c r="T50" s="74">
-        <v>0.22</v>
-      </c>
-      <c r="U50" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="V50" s="74">
-        <v>0.8</v>
-      </c>
-      <c r="W50" s="74">
-        <v>1</v>
-      </c>
-      <c r="X50" s="74">
-        <v>0.45</v>
-      </c>
-      <c r="Y50" s="72"/>
-      <c r="Z50" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA50" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB50" s="75">
-        <v>1</v>
-      </c>
-      <c r="AD50" s="75">
-        <v>9400</v>
-      </c>
-      <c r="AE50" s="75">
-        <v>1.5</v>
-      </c>
-      <c r="AF50" s="75">
-        <v>2</v>
-      </c>
-      <c r="AH50" s="36" t="s">
-        <v>459</v>
-      </c>
-      <c r="AJ50" s="76" t="s">
-        <v>354</v>
-      </c>
-      <c r="AK50" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="51" spans="1:37" s="82" customFormat="1">
-      <c r="A51" s="79">
-        <v>50</v>
-      </c>
-      <c r="B51" s="79">
-        <v>50</v>
-      </c>
-      <c r="C51" s="80" t="s">
-        <v>246</v>
-      </c>
-      <c r="D51" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="E51" s="80" t="s">
-        <v>355</v>
-      </c>
-      <c r="F51" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="G51" s="73" t="s">
-        <v>251</v>
-      </c>
-      <c r="H51" s="73" t="s">
-        <v>263</v>
-      </c>
-      <c r="I51" s="73">
-        <v>2</v>
-      </c>
-      <c r="J51" s="73">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="K51" s="72">
-        <v>1</v>
-      </c>
-      <c r="L51" s="72">
-        <v>30</v>
-      </c>
-      <c r="M51" s="73">
-        <v>1</v>
-      </c>
-      <c r="N51" s="72">
-        <v>50</v>
-      </c>
-      <c r="O51" s="72"/>
-      <c r="P51" s="72">
-        <v>3</v>
-      </c>
-      <c r="Q51" s="72"/>
-      <c r="R51" s="73">
-        <v>0.66</v>
-      </c>
-      <c r="S51" s="74">
-        <v>1</v>
-      </c>
-      <c r="T51" s="74">
-        <v>0.22</v>
-      </c>
-      <c r="U51" s="73" t="s">
-        <v>248</v>
-      </c>
-      <c r="V51" s="74">
-        <v>0.8</v>
-      </c>
-      <c r="W51" s="74">
-        <v>1</v>
-      </c>
-      <c r="X51" s="74">
-        <v>0.45</v>
-      </c>
-      <c r="Y51" s="72"/>
-      <c r="Z51" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA51" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB51" s="75">
-        <v>1</v>
-      </c>
-      <c r="AC51" s="75"/>
-      <c r="AD51" s="75">
-        <v>1000</v>
-      </c>
-      <c r="AE51" s="75">
-        <v>1.5</v>
-      </c>
-      <c r="AF51" s="75"/>
-      <c r="AG51" s="75"/>
-      <c r="AH51" s="36"/>
-      <c r="AJ51" s="81"/>
-      <c r="AK51" s="81"/>
+      <c r="AF51" s="73"/>
+      <c r="AG51" s="73"/>
+      <c r="AH51" s="35"/>
+      <c r="AJ51" s="79"/>
+      <c r="AK51" s="79"/>
     </row>
     <row r="52" spans="1:37" s="33" customFormat="1">
-      <c r="A52" s="61">
+      <c r="A52" s="59">
         <v>51</v>
       </c>
-      <c r="B52" s="61">
+      <c r="B52" s="59">
         <v>51</v>
       </c>
-      <c r="C52" s="62" t="s">
-        <v>249</v>
-      </c>
-      <c r="D52" s="62" t="s">
-        <v>377</v>
-      </c>
-      <c r="E52" s="62" t="s">
-        <v>356</v>
-      </c>
-      <c r="F52" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="G52" s="62" t="s">
-        <v>251</v>
-      </c>
-      <c r="H52" s="62" t="s">
-        <v>235</v>
-      </c>
-      <c r="I52" s="62">
+      <c r="C52" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="D52" s="60" t="s">
+        <v>366</v>
+      </c>
+      <c r="E52" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="F52" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="G52" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="H52" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="I52" s="60">
         <v>2.64</v>
       </c>
-      <c r="J52" s="62">
+      <c r="J52" s="60">
         <v>2.38</v>
       </c>
-      <c r="K52" s="61">
+      <c r="K52" s="59">
         <v>0.8</v>
       </c>
-      <c r="L52" s="61">
+      <c r="L52" s="59">
         <v>30</v>
       </c>
-      <c r="M52" s="62">
-        <v>1</v>
-      </c>
-      <c r="N52" s="61">
+      <c r="M52" s="60">
+        <v>1</v>
+      </c>
+      <c r="N52" s="59">
         <v>200</v>
       </c>
       <c r="O52" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="P52" s="61">
+        <v>189</v>
+      </c>
+      <c r="P52" s="59">
         <v>4</v>
       </c>
-      <c r="R52" s="62">
+      <c r="R52" s="60">
         <v>0.64</v>
       </c>
-      <c r="S52" s="64">
+      <c r="S52" s="62">
         <v>0.73</v>
       </c>
-      <c r="T52" s="64">
+      <c r="T52" s="62">
         <v>0.74</v>
       </c>
-      <c r="U52" s="62" t="s">
+      <c r="U52" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="V52" s="64">
-        <v>1</v>
-      </c>
-      <c r="W52" s="64">
+      <c r="V52" s="62">
+        <v>1</v>
+      </c>
+      <c r="W52" s="62">
         <v>0.8</v>
       </c>
-      <c r="X52" s="64">
+      <c r="X52" s="62">
         <v>0.1</v>
       </c>
-      <c r="Z52" s="77" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA52" s="65" t="s">
-        <v>298</v>
-      </c>
-      <c r="AB52" s="65"/>
-      <c r="AD52" s="65">
+      <c r="Z52" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA52" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB52" s="63"/>
+      <c r="AD52" s="63">
         <v>3000</v>
       </c>
-      <c r="AE52" s="65">
+      <c r="AE52" s="63">
         <v>1.5</v>
       </c>
-      <c r="AF52" s="65">
+      <c r="AF52" s="63">
         <v>1</v>
       </c>
       <c r="AG52" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AH52" s="32" t="s">
-        <v>460</v>
-      </c>
-      <c r="AJ52" s="66" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ52" s="64" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:37" s="33" customFormat="1">
-      <c r="A53" s="61">
+      <c r="A53" s="59">
         <v>52</v>
       </c>
-      <c r="B53" s="61">
+      <c r="B53" s="59">
         <v>52</v>
       </c>
-      <c r="C53" s="62" t="s">
-        <v>357</v>
-      </c>
-      <c r="D53" s="62" t="s">
-        <v>358</v>
-      </c>
-      <c r="E53" s="62" t="s">
-        <v>250</v>
-      </c>
-      <c r="F53" s="62" t="s">
-        <v>251</v>
-      </c>
-      <c r="G53" s="62" t="s">
+      <c r="C53" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="D53" s="60" t="s">
+        <v>347</v>
+      </c>
+      <c r="E53" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="F53" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="G53" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H53" s="62" t="s">
+      <c r="H53" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="I53" s="62">
+      <c r="I53" s="60">
         <v>2.64</v>
       </c>
-      <c r="J53" s="62">
+      <c r="J53" s="60">
         <v>2.38</v>
       </c>
-      <c r="K53" s="61">
+      <c r="K53" s="59">
         <v>0.8</v>
       </c>
-      <c r="L53" s="61">
+      <c r="L53" s="59">
         <v>30</v>
       </c>
-      <c r="M53" s="62">
-        <v>1</v>
-      </c>
-      <c r="N53" s="61">
+      <c r="M53" s="60">
+        <v>1</v>
+      </c>
+      <c r="N53" s="59">
         <v>200</v>
       </c>
       <c r="O53" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="P53" s="61">
+        <v>189</v>
+      </c>
+      <c r="P53" s="59">
         <v>4</v>
       </c>
-      <c r="R53" s="62">
+      <c r="R53" s="60">
         <v>0.64</v>
       </c>
-      <c r="S53" s="64">
+      <c r="S53" s="62">
         <v>0.73</v>
       </c>
-      <c r="T53" s="64">
+      <c r="T53" s="62">
         <v>0.74</v>
       </c>
-      <c r="U53" s="62" t="s">
+      <c r="U53" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="V53" s="64">
-        <v>1</v>
-      </c>
-      <c r="W53" s="64">
+      <c r="V53" s="62">
+        <v>1</v>
+      </c>
+      <c r="W53" s="62">
         <v>0.8</v>
       </c>
-      <c r="X53" s="64">
+      <c r="X53" s="62">
         <v>0.1</v>
       </c>
-      <c r="Z53" s="77" t="s">
+      <c r="Z53" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="AA53" s="65" t="s">
+      <c r="AA53" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="AB53" s="65"/>
-      <c r="AD53" s="65">
+      <c r="AB53" s="63"/>
+      <c r="AD53" s="63">
         <v>9200</v>
       </c>
-      <c r="AE53" s="65">
+      <c r="AE53" s="63">
         <v>1.5</v>
       </c>
       <c r="AF53" s="33">
         <v>1</v>
       </c>
       <c r="AG53" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AH53" s="32" t="s">
-        <v>461</v>
-      </c>
-      <c r="AJ53" s="66" t="s">
+        <v>447</v>
+      </c>
+      <c r="AJ53" s="64" t="s">
         <v>142</v>
       </c>
     </row>
@@ -9545,22 +9558,22 @@
         <v>53</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="E54" s="62" t="s">
-        <v>360</v>
-      </c>
-      <c r="F54" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="E54" s="60" t="s">
+        <v>349</v>
+      </c>
+      <c r="F54" s="60" t="s">
         <v>58</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="H54" s="62" t="s">
-        <v>235</v>
+      <c r="H54" s="60" t="s">
+        <v>230</v>
       </c>
       <c r="I54" s="28">
         <v>0.96</v>
@@ -9581,7 +9594,7 @@
         <v>200</v>
       </c>
       <c r="O54" s="27" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P54" s="27">
         <v>3</v>
@@ -9625,16 +9638,16 @@
         <v>2</v>
       </c>
       <c r="AG54" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AH54" s="32" t="s">
-        <v>462</v>
-      </c>
-      <c r="AJ54" s="66" t="s">
+        <v>448</v>
+      </c>
+      <c r="AJ54" s="64" t="s">
         <v>142</v>
       </c>
       <c r="AK54" s="32" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:37" s="33" customFormat="1">
@@ -9645,21 +9658,21 @@
         <v>54</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="F55" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="F55" s="60" t="s">
         <v>58</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="H55" s="62" t="s">
+      <c r="H55" s="60" t="s">
         <v>70</v>
       </c>
       <c r="I55" s="28">
@@ -9681,7 +9694,7 @@
         <v>200</v>
       </c>
       <c r="O55" s="27" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P55" s="27">
         <v>4</v>
@@ -9725,16 +9738,16 @@
         <v>2</v>
       </c>
       <c r="AG55" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AH55" s="32" t="s">
-        <v>463</v>
-      </c>
-      <c r="AJ55" s="66" t="s">
-        <v>363</v>
+        <v>449</v>
+      </c>
+      <c r="AJ55" s="64" t="s">
+        <v>352</v>
       </c>
       <c r="AK55" s="32" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:37" s="33" customFormat="1">
@@ -9745,22 +9758,22 @@
         <v>55</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="F56" s="62" t="s">
+        <v>355</v>
+      </c>
+      <c r="F56" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="G56" s="62" t="s">
+      <c r="G56" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H56" s="62" t="s">
-        <v>235</v>
+      <c r="H56" s="60" t="s">
+        <v>230</v>
       </c>
       <c r="I56" s="28">
         <v>1.53</v>
@@ -9781,7 +9794,7 @@
         <v>200</v>
       </c>
       <c r="O56" s="27" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P56" s="27">
         <v>4</v>
@@ -9825,537 +9838,537 @@
         <v>2</v>
       </c>
       <c r="AG56" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AH56" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ56" s="66" t="s">
+        <v>450</v>
+      </c>
+      <c r="AJ56" s="64" t="s">
         <v>142</v>
       </c>
       <c r="AK56" s="32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:37" s="86" customFormat="1">
+      <c r="A57" s="81">
+        <v>56</v>
+      </c>
+      <c r="B57" s="81">
+        <v>56</v>
+      </c>
+      <c r="C57" s="82" t="s">
+        <v>356</v>
+      </c>
+      <c r="D57" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="82" t="s">
+        <v>246</v>
+      </c>
+      <c r="G57" s="82" t="s">
+        <v>249</v>
+      </c>
+      <c r="H57" s="82" t="s">
+        <v>250</v>
+      </c>
+      <c r="I57" s="82">
+        <v>0.66</v>
+      </c>
+      <c r="J57" s="82">
+        <v>0.89</v>
+      </c>
+      <c r="K57" s="81">
+        <v>1.5</v>
+      </c>
+      <c r="L57" s="81">
+        <v>30</v>
+      </c>
+      <c r="M57" s="83">
+        <v>1</v>
+      </c>
+      <c r="N57" s="81">
+        <v>60</v>
+      </c>
+      <c r="O57" s="81"/>
+      <c r="P57" s="81">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="81"/>
+      <c r="R57" s="82">
+        <v>0.8</v>
+      </c>
+      <c r="S57" s="84">
+        <v>1</v>
+      </c>
+      <c r="T57" s="84">
+        <v>0.74</v>
+      </c>
+      <c r="U57" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="V57" s="84">
+        <v>0.7</v>
+      </c>
+      <c r="W57" s="84">
+        <v>1</v>
+      </c>
+      <c r="X57" s="84">
+        <v>0.35</v>
+      </c>
+      <c r="Y57" s="81"/>
+      <c r="Z57" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA57" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD57" s="86">
+        <v>7100</v>
+      </c>
+      <c r="AE57" s="86">
+        <v>1.5</v>
+      </c>
+      <c r="AF57" s="86">
+        <v>2</v>
+      </c>
+      <c r="AH57" s="85" t="s">
+        <v>451</v>
+      </c>
+      <c r="AK57" s="85" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:37" s="86" customFormat="1">
+      <c r="A58" s="87">
+        <v>57</v>
+      </c>
+      <c r="B58" s="87">
+        <v>57</v>
+      </c>
+      <c r="C58" s="88" t="s">
+        <v>251</v>
+      </c>
+      <c r="D58" s="88" t="s">
+        <v>252</v>
+      </c>
+      <c r="E58" s="88" t="s">
         <v>253</v>
       </c>
+      <c r="F58" s="88" t="s">
+        <v>254</v>
+      </c>
+      <c r="G58" s="88" t="s">
+        <v>254</v>
+      </c>
+      <c r="H58" s="88" t="s">
+        <v>258</v>
+      </c>
+      <c r="I58" s="88">
+        <v>2.64</v>
+      </c>
+      <c r="J58" s="88">
+        <v>2.38</v>
+      </c>
+      <c r="K58" s="87">
+        <v>1</v>
+      </c>
+      <c r="L58" s="87">
+        <v>30</v>
+      </c>
+      <c r="M58" s="88">
+        <v>1</v>
+      </c>
+      <c r="N58" s="87">
+        <v>0</v>
+      </c>
+      <c r="O58" s="87"/>
+      <c r="P58" s="87">
+        <v>4</v>
+      </c>
+      <c r="R58" s="88">
+        <v>0.64</v>
+      </c>
+      <c r="S58" s="89">
+        <v>0.73</v>
+      </c>
+      <c r="T58" s="89">
+        <v>0.74</v>
+      </c>
+      <c r="U58" s="88" t="s">
+        <v>261</v>
+      </c>
+      <c r="V58" s="89">
+        <v>1</v>
+      </c>
+      <c r="W58" s="89">
+        <v>0.8</v>
+      </c>
+      <c r="X58" s="89">
+        <v>0.1</v>
+      </c>
+      <c r="Z58" s="90" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA58" s="91" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB58" s="91">
+        <v>1</v>
+      </c>
+      <c r="AD58" s="91">
+        <v>1000</v>
+      </c>
+      <c r="AE58" s="91">
+        <v>1.5</v>
+      </c>
+      <c r="AH58" s="85"/>
     </row>
-    <row r="57" spans="1:37" s="88" customFormat="1">
-      <c r="A57" s="83">
-        <v>56</v>
-      </c>
-      <c r="B57" s="83">
-        <v>56</v>
-      </c>
-      <c r="C57" s="84" t="s">
-        <v>367</v>
-      </c>
-      <c r="D57" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="E57" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="F57" s="84" t="s">
-        <v>251</v>
-      </c>
-      <c r="G57" s="84" t="s">
-        <v>254</v>
-      </c>
-      <c r="H57" s="84" t="s">
+    <row r="59" spans="1:37" s="86" customFormat="1">
+      <c r="A59" s="87">
+        <v>58</v>
+      </c>
+      <c r="B59" s="87">
+        <v>58</v>
+      </c>
+      <c r="C59" s="88" t="s">
+        <v>357</v>
+      </c>
+      <c r="D59" s="88" t="s">
+        <v>256</v>
+      </c>
+      <c r="E59" s="88" t="s">
+        <v>358</v>
+      </c>
+      <c r="F59" s="88" t="s">
+        <v>257</v>
+      </c>
+      <c r="G59" s="88" t="s">
+        <v>257</v>
+      </c>
+      <c r="H59" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="I59" s="88">
+        <v>2.64</v>
+      </c>
+      <c r="J59" s="88">
+        <v>2.38</v>
+      </c>
+      <c r="K59" s="87">
+        <v>1</v>
+      </c>
+      <c r="L59" s="87">
+        <v>30</v>
+      </c>
+      <c r="M59" s="88">
+        <v>1</v>
+      </c>
+      <c r="N59" s="87">
+        <v>0</v>
+      </c>
+      <c r="O59" s="87"/>
+      <c r="P59" s="87">
+        <v>4</v>
+      </c>
+      <c r="R59" s="88">
+        <v>0.64</v>
+      </c>
+      <c r="S59" s="89">
+        <v>0.73</v>
+      </c>
+      <c r="T59" s="89">
+        <v>0.74</v>
+      </c>
+      <c r="U59" s="88" t="s">
+        <v>261</v>
+      </c>
+      <c r="V59" s="89">
+        <v>1</v>
+      </c>
+      <c r="W59" s="89">
+        <v>0.8</v>
+      </c>
+      <c r="X59" s="89">
+        <v>0.1</v>
+      </c>
+      <c r="Z59" s="90" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA59" s="91" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB59" s="91">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="91">
+        <v>1000</v>
+      </c>
+      <c r="AE59" s="91">
+        <v>1.5</v>
+      </c>
+      <c r="AH59" s="85"/>
+    </row>
+    <row r="60" spans="1:37" s="86" customFormat="1">
+      <c r="A60" s="87">
+        <v>59</v>
+      </c>
+      <c r="B60" s="87">
+        <v>59</v>
+      </c>
+      <c r="C60" s="88" t="s">
+        <v>359</v>
+      </c>
+      <c r="D60" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="E60" s="88" t="s">
+        <v>360</v>
+      </c>
+      <c r="F60" s="88" t="s">
+        <v>260</v>
+      </c>
+      <c r="G60" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="H60" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="I60" s="88">
+        <v>2.64</v>
+      </c>
+      <c r="J60" s="88">
+        <v>2.38</v>
+      </c>
+      <c r="K60" s="87">
+        <v>1</v>
+      </c>
+      <c r="L60" s="87">
+        <v>30</v>
+      </c>
+      <c r="M60" s="88">
+        <v>1</v>
+      </c>
+      <c r="N60" s="87">
+        <v>0</v>
+      </c>
+      <c r="O60" s="87"/>
+      <c r="P60" s="87">
+        <v>4</v>
+      </c>
+      <c r="R60" s="88">
+        <v>0.64</v>
+      </c>
+      <c r="S60" s="89">
+        <v>0.73</v>
+      </c>
+      <c r="T60" s="89">
+        <v>0.74</v>
+      </c>
+      <c r="U60" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="V60" s="89">
+        <v>1</v>
+      </c>
+      <c r="W60" s="89">
+        <v>0.8</v>
+      </c>
+      <c r="X60" s="89">
+        <v>0.1</v>
+      </c>
+      <c r="Z60" s="90" t="s">
         <v>255</v>
       </c>
-      <c r="I57" s="84">
-        <v>0.66</v>
-      </c>
-      <c r="J57" s="84">
-        <v>0.89</v>
-      </c>
-      <c r="K57" s="83">
+      <c r="AA60" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB60" s="91">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="91">
+        <v>1000</v>
+      </c>
+      <c r="AE60" s="91">
         <v>1.5</v>
       </c>
-      <c r="L57" s="83">
+      <c r="AH60" s="85"/>
+    </row>
+    <row r="61" spans="1:37" s="86" customFormat="1">
+      <c r="A61" s="87">
+        <v>60</v>
+      </c>
+      <c r="B61" s="87">
+        <v>60</v>
+      </c>
+      <c r="C61" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="D61" s="88" t="s">
+        <v>361</v>
+      </c>
+      <c r="E61" s="88" t="s">
+        <v>264</v>
+      </c>
+      <c r="F61" s="88" t="s">
+        <v>362</v>
+      </c>
+      <c r="G61" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="H61" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="I61" s="88">
+        <v>2.64</v>
+      </c>
+      <c r="J61" s="88">
+        <v>2.38</v>
+      </c>
+      <c r="K61" s="87">
+        <v>1</v>
+      </c>
+      <c r="L61" s="87">
         <v>30</v>
       </c>
-      <c r="M57" s="85">
-        <v>1</v>
-      </c>
-      <c r="N57" s="83">
-        <v>60</v>
-      </c>
-      <c r="O57" s="83"/>
-      <c r="P57" s="83">
+      <c r="M61" s="88">
+        <v>1</v>
+      </c>
+      <c r="N61" s="87">
+        <v>0</v>
+      </c>
+      <c r="O61" s="87"/>
+      <c r="P61" s="87">
         <v>4</v>
       </c>
-      <c r="Q57" s="83"/>
-      <c r="R57" s="84">
+      <c r="R61" s="88">
+        <v>0.64</v>
+      </c>
+      <c r="S61" s="89">
+        <v>0.73</v>
+      </c>
+      <c r="T61" s="89">
+        <v>0.74</v>
+      </c>
+      <c r="U61" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="V61" s="89">
+        <v>1</v>
+      </c>
+      <c r="W61" s="89">
         <v>0.8</v>
       </c>
-      <c r="S57" s="86">
-        <v>1</v>
-      </c>
-      <c r="T57" s="86">
+      <c r="X61" s="89">
+        <v>0.1</v>
+      </c>
+      <c r="Z61" s="90" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA61" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB61" s="91">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="91">
+        <v>1000</v>
+      </c>
+      <c r="AE61" s="91">
+        <v>1.5</v>
+      </c>
+      <c r="AH61" s="85"/>
+    </row>
+    <row r="62" spans="1:37" s="95" customFormat="1" ht="16.5">
+      <c r="A62" s="92">
+        <v>61</v>
+      </c>
+      <c r="B62" s="92">
+        <v>61</v>
+      </c>
+      <c r="C62" s="93" t="s">
+        <v>363</v>
+      </c>
+      <c r="D62" s="94" t="s">
+        <v>265</v>
+      </c>
+      <c r="E62" s="93" t="s">
+        <v>364</v>
+      </c>
+      <c r="F62" s="94" t="s">
+        <v>265</v>
+      </c>
+      <c r="G62" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="H62" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="I62" s="93">
+        <v>2.64</v>
+      </c>
+      <c r="J62" s="93">
+        <v>2.38</v>
+      </c>
+      <c r="K62" s="92">
+        <v>1</v>
+      </c>
+      <c r="L62" s="92">
+        <v>30</v>
+      </c>
+      <c r="M62" s="93">
+        <v>1</v>
+      </c>
+      <c r="N62" s="92">
+        <v>0</v>
+      </c>
+      <c r="O62" s="92"/>
+      <c r="P62" s="92">
+        <v>4</v>
+      </c>
+      <c r="R62" s="93">
+        <v>0.64</v>
+      </c>
+      <c r="S62" s="96">
+        <v>0.73</v>
+      </c>
+      <c r="T62" s="96">
         <v>0.74</v>
       </c>
-      <c r="U57" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="V57" s="86">
-        <v>0.7</v>
-      </c>
-      <c r="W57" s="86">
-        <v>1</v>
-      </c>
-      <c r="X57" s="86">
-        <v>0.35</v>
-      </c>
-      <c r="Y57" s="83"/>
-      <c r="Z57" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA57" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD57" s="88">
-        <v>7100</v>
-      </c>
-      <c r="AE57" s="88">
+      <c r="U62" s="93" t="s">
+        <v>261</v>
+      </c>
+      <c r="V62" s="96">
+        <v>1</v>
+      </c>
+      <c r="W62" s="96">
+        <v>0.8</v>
+      </c>
+      <c r="X62" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="Y62" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z62" s="97" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA62" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB62" s="92">
+        <v>1</v>
+      </c>
+      <c r="AD62" s="92">
+        <v>1000</v>
+      </c>
+      <c r="AE62" s="92">
         <v>1.5</v>
       </c>
-      <c r="AF57" s="88">
-        <v>2</v>
-      </c>
-      <c r="AH57" s="87" t="s">
-        <v>465</v>
-      </c>
-      <c r="AK57" s="87" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:37" s="88" customFormat="1">
-      <c r="A58" s="89">
-        <v>57</v>
-      </c>
-      <c r="B58" s="89">
-        <v>57</v>
-      </c>
-      <c r="C58" s="90" t="s">
-        <v>256</v>
-      </c>
-      <c r="D58" s="90" t="s">
-        <v>257</v>
-      </c>
-      <c r="E58" s="90" t="s">
-        <v>258</v>
-      </c>
-      <c r="F58" s="90" t="s">
-        <v>259</v>
-      </c>
-      <c r="G58" s="90" t="s">
-        <v>259</v>
-      </c>
-      <c r="H58" s="90" t="s">
-        <v>263</v>
-      </c>
-      <c r="I58" s="90">
-        <v>2.64</v>
-      </c>
-      <c r="J58" s="90">
-        <v>2.38</v>
-      </c>
-      <c r="K58" s="89">
-        <v>1</v>
-      </c>
-      <c r="L58" s="89">
-        <v>30</v>
-      </c>
-      <c r="M58" s="90">
-        <v>1</v>
-      </c>
-      <c r="N58" s="89">
-        <v>0</v>
-      </c>
-      <c r="O58" s="89"/>
-      <c r="P58" s="89">
-        <v>4</v>
-      </c>
-      <c r="R58" s="90">
-        <v>0.64</v>
-      </c>
-      <c r="S58" s="91">
-        <v>0.73</v>
-      </c>
-      <c r="T58" s="91">
-        <v>0.74</v>
-      </c>
-      <c r="U58" s="90" t="s">
-        <v>266</v>
-      </c>
-      <c r="V58" s="91">
-        <v>1</v>
-      </c>
-      <c r="W58" s="91">
-        <v>0.8</v>
-      </c>
-      <c r="X58" s="91">
-        <v>0.1</v>
-      </c>
-      <c r="Z58" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA58" s="93" t="s">
-        <v>298</v>
-      </c>
-      <c r="AB58" s="93">
-        <v>1</v>
-      </c>
-      <c r="AD58" s="93">
-        <v>1000</v>
-      </c>
-      <c r="AE58" s="93">
-        <v>1.5</v>
-      </c>
-      <c r="AH58" s="87"/>
-    </row>
-    <row r="59" spans="1:37" s="88" customFormat="1">
-      <c r="A59" s="89">
-        <v>58</v>
-      </c>
-      <c r="B59" s="89">
-        <v>58</v>
-      </c>
-      <c r="C59" s="90" t="s">
-        <v>368</v>
-      </c>
-      <c r="D59" s="90" t="s">
-        <v>261</v>
-      </c>
-      <c r="E59" s="90" t="s">
-        <v>369</v>
-      </c>
-      <c r="F59" s="90" t="s">
-        <v>262</v>
-      </c>
-      <c r="G59" s="90" t="s">
-        <v>262</v>
-      </c>
-      <c r="H59" s="90" t="s">
-        <v>247</v>
-      </c>
-      <c r="I59" s="90">
-        <v>2.64</v>
-      </c>
-      <c r="J59" s="90">
-        <v>2.38</v>
-      </c>
-      <c r="K59" s="89">
-        <v>1</v>
-      </c>
-      <c r="L59" s="89">
-        <v>30</v>
-      </c>
-      <c r="M59" s="90">
-        <v>1</v>
-      </c>
-      <c r="N59" s="89">
-        <v>0</v>
-      </c>
-      <c r="O59" s="89"/>
-      <c r="P59" s="89">
-        <v>4</v>
-      </c>
-      <c r="R59" s="90">
-        <v>0.64</v>
-      </c>
-      <c r="S59" s="91">
-        <v>0.73</v>
-      </c>
-      <c r="T59" s="91">
-        <v>0.74</v>
-      </c>
-      <c r="U59" s="90" t="s">
-        <v>266</v>
-      </c>
-      <c r="V59" s="91">
-        <v>1</v>
-      </c>
-      <c r="W59" s="91">
-        <v>0.8</v>
-      </c>
-      <c r="X59" s="91">
-        <v>0.1</v>
-      </c>
-      <c r="Z59" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA59" s="93" t="s">
-        <v>298</v>
-      </c>
-      <c r="AB59" s="93">
-        <v>1</v>
-      </c>
-      <c r="AD59" s="93">
-        <v>1000</v>
-      </c>
-      <c r="AE59" s="93">
-        <v>1.5</v>
-      </c>
-      <c r="AH59" s="87"/>
-    </row>
-    <row r="60" spans="1:37" s="88" customFormat="1">
-      <c r="A60" s="89">
-        <v>59</v>
-      </c>
-      <c r="B60" s="89">
-        <v>59</v>
-      </c>
-      <c r="C60" s="90" t="s">
-        <v>370</v>
-      </c>
-      <c r="D60" s="90" t="s">
-        <v>264</v>
-      </c>
-      <c r="E60" s="90" t="s">
-        <v>371</v>
-      </c>
-      <c r="F60" s="90" t="s">
-        <v>265</v>
-      </c>
-      <c r="G60" s="90" t="s">
-        <v>161</v>
-      </c>
-      <c r="H60" s="90" t="s">
-        <v>247</v>
-      </c>
-      <c r="I60" s="90">
-        <v>2.64</v>
-      </c>
-      <c r="J60" s="90">
-        <v>2.38</v>
-      </c>
-      <c r="K60" s="89">
-        <v>1</v>
-      </c>
-      <c r="L60" s="89">
-        <v>30</v>
-      </c>
-      <c r="M60" s="90">
-        <v>1</v>
-      </c>
-      <c r="N60" s="89">
-        <v>0</v>
-      </c>
-      <c r="O60" s="89"/>
-      <c r="P60" s="89">
-        <v>4</v>
-      </c>
-      <c r="R60" s="90">
-        <v>0.64</v>
-      </c>
-      <c r="S60" s="91">
-        <v>0.73</v>
-      </c>
-      <c r="T60" s="91">
-        <v>0.74</v>
-      </c>
-      <c r="U60" s="90" t="s">
-        <v>145</v>
-      </c>
-      <c r="V60" s="91">
-        <v>1</v>
-      </c>
-      <c r="W60" s="91">
-        <v>0.8</v>
-      </c>
-      <c r="X60" s="91">
-        <v>0.1</v>
-      </c>
-      <c r="Z60" s="92" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA60" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB60" s="93">
-        <v>1</v>
-      </c>
-      <c r="AD60" s="93">
-        <v>1000</v>
-      </c>
-      <c r="AE60" s="93">
-        <v>1.5</v>
-      </c>
-      <c r="AH60" s="87"/>
-    </row>
-    <row r="61" spans="1:37" s="88" customFormat="1">
-      <c r="A61" s="89">
-        <v>60</v>
-      </c>
-      <c r="B61" s="89">
-        <v>60</v>
-      </c>
-      <c r="C61" s="90" t="s">
-        <v>267</v>
-      </c>
-      <c r="D61" s="90" t="s">
-        <v>372</v>
-      </c>
-      <c r="E61" s="90" t="s">
-        <v>269</v>
-      </c>
-      <c r="F61" s="90" t="s">
-        <v>373</v>
-      </c>
-      <c r="G61" s="90" t="s">
-        <v>268</v>
-      </c>
-      <c r="H61" s="90" t="s">
-        <v>247</v>
-      </c>
-      <c r="I61" s="90">
-        <v>2.64</v>
-      </c>
-      <c r="J61" s="90">
-        <v>2.38</v>
-      </c>
-      <c r="K61" s="89">
-        <v>1</v>
-      </c>
-      <c r="L61" s="89">
-        <v>30</v>
-      </c>
-      <c r="M61" s="90">
-        <v>1</v>
-      </c>
-      <c r="N61" s="89">
-        <v>0</v>
-      </c>
-      <c r="O61" s="89"/>
-      <c r="P61" s="89">
-        <v>4</v>
-      </c>
-      <c r="R61" s="90">
-        <v>0.64</v>
-      </c>
-      <c r="S61" s="91">
-        <v>0.73</v>
-      </c>
-      <c r="T61" s="91">
-        <v>0.74</v>
-      </c>
-      <c r="U61" s="90" t="s">
-        <v>145</v>
-      </c>
-      <c r="V61" s="91">
-        <v>1</v>
-      </c>
-      <c r="W61" s="91">
-        <v>0.8</v>
-      </c>
-      <c r="X61" s="91">
-        <v>0.1</v>
-      </c>
-      <c r="Z61" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA61" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB61" s="93">
-        <v>1</v>
-      </c>
-      <c r="AD61" s="93">
-        <v>1000</v>
-      </c>
-      <c r="AE61" s="93">
-        <v>1.5</v>
-      </c>
-      <c r="AH61" s="87"/>
-    </row>
-    <row r="62" spans="1:37" s="97" customFormat="1" ht="16.5">
-      <c r="A62" s="94">
-        <v>61</v>
-      </c>
-      <c r="B62" s="94">
-        <v>61</v>
-      </c>
-      <c r="C62" s="95" t="s">
-        <v>374</v>
-      </c>
-      <c r="D62" s="96" t="s">
-        <v>270</v>
-      </c>
-      <c r="E62" s="95" t="s">
-        <v>375</v>
-      </c>
-      <c r="F62" s="96" t="s">
-        <v>270</v>
-      </c>
-      <c r="G62" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="H62" s="95" t="s">
-        <v>263</v>
-      </c>
-      <c r="I62" s="95">
-        <v>2.64</v>
-      </c>
-      <c r="J62" s="95">
-        <v>2.38</v>
-      </c>
-      <c r="K62" s="94">
-        <v>1</v>
-      </c>
-      <c r="L62" s="94">
-        <v>30</v>
-      </c>
-      <c r="M62" s="95">
-        <v>1</v>
-      </c>
-      <c r="N62" s="94">
-        <v>0</v>
-      </c>
-      <c r="O62" s="94"/>
-      <c r="P62" s="94">
-        <v>4</v>
-      </c>
-      <c r="R62" s="95">
-        <v>0.64</v>
-      </c>
-      <c r="S62" s="98">
-        <v>0.73</v>
-      </c>
-      <c r="T62" s="98">
-        <v>0.74</v>
-      </c>
-      <c r="U62" s="95" t="s">
-        <v>266</v>
-      </c>
-      <c r="V62" s="98">
-        <v>1</v>
-      </c>
-      <c r="W62" s="98">
-        <v>0.8</v>
-      </c>
-      <c r="X62" s="98">
-        <v>0.1</v>
-      </c>
-      <c r="Y62" s="97" t="s">
-        <v>271</v>
-      </c>
-      <c r="Z62" s="99" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA62" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB62" s="94">
-        <v>1</v>
-      </c>
-      <c r="AD62" s="94">
-        <v>1000</v>
-      </c>
-      <c r="AE62" s="94">
-        <v>1.5</v>
-      </c>
-      <c r="AH62" s="100"/>
+      <c r="AH62" s="98"/>
     </row>
     <row r="63" spans="1:37" s="19" customFormat="1">
       <c r="A63" s="22">

--- a/config_hlw/fish3d_config.xlsx
+++ b/config_hlw/fish3d_config.xlsx
@@ -2044,10 +2044,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_icon_yu22</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_imgf_hjdly</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2527,6 +2523,10 @@
   </si>
   <si>
     <t>fish3d/FishView/Adapt/DieAction/fish_jingyu_001/Bone024/fish_jingyu_001 1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu66</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4457,9 +4457,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB21" sqref="AB21"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4794,13 +4794,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>180</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>57</v>
@@ -4973,13 +4973,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>469</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="E6" s="28" t="s">
         <v>470</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>471</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>246</v>
@@ -5037,7 +5037,7 @@
         <v>0.4</v>
       </c>
       <c r="Y6" s="30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Z6" s="32" t="s">
         <v>30</v>
@@ -5063,7 +5063,7 @@
         <v>fish3dnode/fish3d/fish/Jianyu/Jianyu_Body</v>
       </c>
       <c r="AK6" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:37" s="9" customFormat="1">
@@ -5257,13 +5257,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>184</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>61</v>
@@ -5349,13 +5349,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>453</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="E10" s="28" t="s">
         <v>454</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>455</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>58</v>
@@ -5364,7 +5364,7 @@
         <v>58</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I10" s="28">
         <v>1.64</v>
@@ -5413,7 +5413,7 @@
         <v>0.45</v>
       </c>
       <c r="Y10" s="30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Z10" s="100" t="s">
         <v>31</v>
@@ -5434,10 +5434,10 @@
         <v>188</v>
       </c>
       <c r="AH10" s="32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AK10" s="32" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:37" s="33" customFormat="1">
@@ -5448,13 +5448,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="D11" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="E11" s="28" t="s">
         <v>460</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>461</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>58</v>
@@ -5463,7 +5463,7 @@
         <v>58</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I11" s="28">
         <v>1</v>
@@ -5512,7 +5512,7 @@
         <v>0.5</v>
       </c>
       <c r="Y11" s="30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Z11" s="32" t="s">
         <v>129</v>
@@ -5533,10 +5533,10 @@
         <v>188</v>
       </c>
       <c r="AH11" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="AK11" s="32" t="s">
         <v>463</v>
-      </c>
-      <c r="AK11" s="32" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:37" s="33" customFormat="1">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>465</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="E12" s="28" t="s">
         <v>466</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>467</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>58</v>
@@ -5562,7 +5562,7 @@
         <v>58</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I12" s="28">
         <v>2.36</v>
@@ -5611,7 +5611,7 @@
         <v>0.35</v>
       </c>
       <c r="Y12" s="30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Z12" s="32" t="s">
         <v>129</v>
@@ -5632,10 +5632,10 @@
         <v>188</v>
       </c>
       <c r="AH12" s="32" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AK12" s="32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:37" s="33" customFormat="1">
@@ -5646,22 +5646,22 @@
         <v>12</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D13" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>402</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="F13" s="28" t="s">
         <v>403</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>404</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>246</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I13" s="28">
         <v>0.96</v>
@@ -5710,7 +5710,7 @@
         <v>0.35</v>
       </c>
       <c r="Y13" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Z13" s="32" t="s">
         <v>35</v>
@@ -5731,10 +5731,10 @@
         <v>188</v>
       </c>
       <c r="AH13" s="32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AK13" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:37" s="33" customFormat="1">
@@ -5745,22 +5745,22 @@
         <v>13</v>
       </c>
       <c r="C14" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="E14" s="28" t="s">
         <v>378</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="F14" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="E14" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>408</v>
-      </c>
       <c r="G14" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="H14" s="28" t="s">
         <v>374</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>375</v>
       </c>
       <c r="I14" s="28">
         <v>0.96</v>
@@ -5809,7 +5809,7 @@
         <v>0.35</v>
       </c>
       <c r="Y14" s="30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Z14" s="32" t="s">
         <v>37</v>
@@ -5830,7 +5830,7 @@
         <v>188</v>
       </c>
       <c r="AH14" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AK14" s="32" t="s">
         <v>248</v>
@@ -5844,22 +5844,22 @@
         <v>14</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D15" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="F15" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="H15" s="28" t="s">
         <v>381</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>409</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>382</v>
       </c>
       <c r="I15" s="28">
         <v>0.74</v>
@@ -5908,7 +5908,7 @@
         <v>0.4</v>
       </c>
       <c r="Y15" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Z15" s="32" t="s">
         <v>30</v>
@@ -5929,10 +5929,10 @@
         <v>188</v>
       </c>
       <c r="AH15" s="32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AK15" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:37" s="33" customFormat="1">
@@ -5943,22 +5943,22 @@
         <v>15</v>
       </c>
       <c r="C16" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="E16" s="28" t="s">
         <v>384</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="F16" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="H16" s="28" t="s">
         <v>410</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>386</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>374</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>411</v>
       </c>
       <c r="I16" s="28">
         <v>1.53</v>
@@ -6007,7 +6007,7 @@
         <v>0.35</v>
       </c>
       <c r="Y16" s="30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Z16" s="32" t="s">
         <v>32</v>
@@ -6028,10 +6028,10 @@
         <v>188</v>
       </c>
       <c r="AH16" s="32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AK16" s="32" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:37" s="33" customFormat="1">
@@ -6042,22 +6042,22 @@
         <v>16</v>
       </c>
       <c r="C17" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="F17" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>389</v>
-      </c>
       <c r="G17" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I17" s="28">
         <v>0.8</v>
@@ -6106,7 +6106,7 @@
         <v>0.5</v>
       </c>
       <c r="Y17" s="30" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Z17" s="32" t="s">
         <v>32</v>
@@ -6127,7 +6127,7 @@
         <v>188</v>
       </c>
       <c r="AH17" s="32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AK17" s="32" t="s">
         <v>248</v>
@@ -6141,22 +6141,22 @@
         <v>17</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>102</v>
       </c>
       <c r="E18" s="99" t="s">
+        <v>390</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="G18" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="F18" s="28" t="s">
-        <v>374</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>392</v>
-      </c>
       <c r="H18" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I18" s="28">
         <v>1.53</v>
@@ -6205,7 +6205,7 @@
         <v>0.35</v>
       </c>
       <c r="Y18" s="30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Z18" s="32" t="s">
         <v>32</v>
@@ -6226,10 +6226,10 @@
         <v>188</v>
       </c>
       <c r="AH18" s="32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AK18" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:37" s="33" customFormat="1">
@@ -6240,22 +6240,22 @@
         <v>18</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>103</v>
       </c>
       <c r="E19" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="G19" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="F19" s="28" t="s">
-        <v>416</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>396</v>
-      </c>
       <c r="H19" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I19" s="28">
         <v>0.66</v>
@@ -6304,7 +6304,7 @@
         <v>0.35</v>
       </c>
       <c r="Y19" s="30" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Z19" s="32" t="s">
         <v>35</v>
@@ -6325,10 +6325,10 @@
         <v>188</v>
       </c>
       <c r="AH19" s="32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AK19" s="32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:37" s="33" customFormat="1">
@@ -6339,22 +6339,22 @@
         <v>19</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D20" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="E20" s="28" t="s">
         <v>417</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>418</v>
       </c>
       <c r="F20" s="28" t="s">
         <v>246</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I20" s="28">
         <v>2.2799999999999998</v>
@@ -6375,7 +6375,7 @@
         <v>60</v>
       </c>
       <c r="O20" s="30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P20" s="27">
         <v>4</v>
@@ -6403,7 +6403,7 @@
         <v>0.35</v>
       </c>
       <c r="Y20" s="30" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Z20" s="32" t="s">
         <v>37</v>
@@ -6424,10 +6424,10 @@
         <v>188</v>
       </c>
       <c r="AH20" s="32" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AK20" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:37" s="108" customFormat="1">
@@ -6438,22 +6438,22 @@
         <v>20</v>
       </c>
       <c r="C21" s="102" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D21" s="102" t="s">
+        <v>490</v>
+      </c>
+      <c r="E21" s="102" t="s">
+        <v>485</v>
+      </c>
+      <c r="F21" s="102" t="s">
         <v>369</v>
-      </c>
-      <c r="E21" s="102" t="s">
-        <v>486</v>
-      </c>
-      <c r="F21" s="102" t="s">
-        <v>370</v>
       </c>
       <c r="G21" s="102" t="s">
         <v>270</v>
       </c>
       <c r="H21" s="102" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I21" s="102">
         <v>2.72</v>
@@ -6498,7 +6498,7 @@
         <v>0.35</v>
       </c>
       <c r="Y21" s="106" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Z21" s="107" t="s">
         <v>40</v>
@@ -6517,7 +6517,7 @@
       </c>
       <c r="AG21" s="107"/>
       <c r="AH21" s="107" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AK21" s="107" t="s">
         <v>368</v>
@@ -6614,7 +6614,7 @@
         <v>188</v>
       </c>
       <c r="AH22" s="32" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AK22" s="32" t="s">
         <v>276</v>
@@ -6628,13 +6628,13 @@
         <v>22</v>
       </c>
       <c r="C23" s="102" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D23" s="102" t="s">
         <v>277</v>
       </c>
       <c r="E23" s="102" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F23" s="102" t="s">
         <v>136</v>
@@ -6708,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="AH23" s="107" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AK23" s="107" t="s">
         <v>191</v>
@@ -6722,7 +6722,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="102" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D24" s="102" t="s">
         <v>115</v>
@@ -6800,7 +6800,7 @@
       </c>
       <c r="AG24" s="33"/>
       <c r="AH24" s="32" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AK24" s="107" t="s">
         <v>193</v>
@@ -6891,7 +6891,7 @@
         <v>1.2</v>
       </c>
       <c r="AH25" s="107" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AK25" s="107" t="s">
         <v>281</v>
@@ -6998,13 +6998,13 @@
         <v>26</v>
       </c>
       <c r="C27" s="102" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D27" s="102" t="s">
         <v>267</v>
       </c>
       <c r="E27" s="102" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F27" s="102" t="s">
         <v>62</v>
@@ -7081,7 +7081,7 @@
         <v>1</v>
       </c>
       <c r="AH27" s="107" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AK27" s="107" t="s">
         <v>152</v>
@@ -7095,13 +7095,13 @@
         <v>27</v>
       </c>
       <c r="C28" s="102" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D28" s="102" t="s">
         <v>198</v>
       </c>
       <c r="E28" s="102" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F28" s="103" t="s">
         <v>62</v>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="AG28" s="33"/>
       <c r="AH28" s="32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AK28" s="107" t="s">
         <v>153</v>
@@ -7273,7 +7273,7 @@
         <v>1</v>
       </c>
       <c r="AH29" s="35" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AK29" s="42" t="s">
         <v>290</v>
@@ -7828,7 +7828,7 @@
         <v>1.2</v>
       </c>
       <c r="AH35" s="35" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AI35" s="46"/>
       <c r="AK35" s="8" t="s">
@@ -7921,7 +7921,7 @@
         <v>1.2</v>
       </c>
       <c r="AH36" s="35" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AI36" s="46"/>
       <c r="AK36" s="8" t="s">
@@ -8017,7 +8017,7 @@
         <v>311</v>
       </c>
       <c r="AH37" s="35" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AI37" s="46"/>
       <c r="AK37" s="8" t="s">
@@ -8113,7 +8113,7 @@
         <v>1</v>
       </c>
       <c r="AH38" s="35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AI38" s="52"/>
       <c r="AJ38" s="52"/>
@@ -8300,7 +8300,7 @@
         <v>188</v>
       </c>
       <c r="AH40" s="32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AJ40" s="64" t="s">
         <v>318</v>
@@ -8489,7 +8489,7 @@
       </c>
       <c r="AG42" s="33"/>
       <c r="AH42" s="32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AJ42" s="64" t="s">
         <v>142</v>
@@ -8587,7 +8587,7 @@
         <v>2</v>
       </c>
       <c r="AH43" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AJ43" s="69"/>
       <c r="AK43" s="69"/>
@@ -8683,7 +8683,7 @@
         <v>188</v>
       </c>
       <c r="AH44" s="32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AJ44" s="64" t="s">
         <v>228</v>
@@ -8781,7 +8781,7 @@
         <v>2</v>
       </c>
       <c r="AH45" s="35" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AJ45" s="69"/>
       <c r="AK45" s="69"/>
@@ -8872,7 +8872,7 @@
         <v>2</v>
       </c>
       <c r="AH46" s="35" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AJ46" s="69"/>
       <c r="AK46" s="69"/>
@@ -8966,7 +8966,7 @@
         <v>188</v>
       </c>
       <c r="AH47" s="32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AJ47" s="64" t="s">
         <v>232</v>
@@ -9061,7 +9061,7 @@
         <v>2</v>
       </c>
       <c r="AH48" s="35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AJ48" s="74" t="s">
         <v>143</v>
@@ -9159,7 +9159,7 @@
         <v>188</v>
       </c>
       <c r="AH49" s="32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AJ49" s="64" t="s">
         <v>237</v>
@@ -9257,7 +9257,7 @@
         <v>2</v>
       </c>
       <c r="AH50" s="35" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AJ50" s="74" t="s">
         <v>343</v>
@@ -9448,7 +9448,7 @@
         <v>188</v>
       </c>
       <c r="AH52" s="32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AJ52" s="64" t="s">
         <v>142</v>
@@ -9544,7 +9544,7 @@
         <v>188</v>
       </c>
       <c r="AH53" s="32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AJ53" s="64" t="s">
         <v>142</v>
@@ -9641,7 +9641,7 @@
         <v>188</v>
       </c>
       <c r="AH54" s="32" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AJ54" s="64" t="s">
         <v>142</v>
@@ -9741,7 +9741,7 @@
         <v>188</v>
       </c>
       <c r="AH55" s="32" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AJ55" s="64" t="s">
         <v>352</v>
@@ -9841,7 +9841,7 @@
         <v>188</v>
       </c>
       <c r="AH56" s="32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AJ56" s="64" t="s">
         <v>142</v>
@@ -9936,7 +9936,7 @@
         <v>2</v>
       </c>
       <c r="AH57" s="85" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AK57" s="85" t="s">
         <v>147</v>

--- a/config_hlw/fish3d_config.xlsx
+++ b/config_hlw/fish3d_config.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="config|鱼配置" sheetId="5" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -74,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="493">
   <si>
     <t>line|行号</t>
   </si>
@@ -1218,9 +1215,6 @@
     <t>3dby_icon_yu102</t>
   </si>
   <si>
-    <t>3dby_icon_yu103</t>
-  </si>
-  <si>
     <t>3dby_icon_yu104</t>
   </si>
   <si>
@@ -1308,10 +1302,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_icon_yu21</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_imgf_hjcts</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1578,10 +1568,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>by_iocn_hfy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_imgf_hfy</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1610,10 +1596,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_icon_yu24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Fish3D030</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1647,10 +1629,6 @@
   </si>
   <si>
     <t>"bgm_by_zhadanyu1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu23</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2161,9 +2139,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>FishNew024</t>
-  </si>
-  <si>
     <t>虎鲨</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2528,6 +2503,37 @@
   <si>
     <t>3dby_icon_yu66</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hfy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu68</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu67</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu69</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew024</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu70</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu110</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3dnode/fish3d/fish/Jianyu/Jianyu_Body</t>
   </si>
 </sst>
 </file>
@@ -3068,1132 +3074,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="config|鱼配置"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="D2" t="str">
-            <v>FishNew001</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>小牛角</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>fish3dnode/fish3d/fish/boat 1/body</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3" t="str">
-            <v>FishNew002</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>小气泡</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>fish3dnode/fish3d/fish/CSY/body002</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4" t="str">
-            <v>FishNew003</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>小丑鱼</v>
-          </cell>
-          <cell r="F4" t="str">
-            <v>fish3dnode/fish3d/fish/CT/body004</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5" t="str">
-            <v>FishNew004</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>小燕鱼</v>
-          </cell>
-          <cell r="F5" t="str">
-            <v>fish3dnode/fish3d/fish/Dabaisha/Dabaisha_Body</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>FishNew005</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>小黄鳍</v>
-          </cell>
-          <cell r="F6" t="str">
-            <v>fish3dnode/fish3d/fish/Dengluyu/Denglongyu_Body</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>FishNew006</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>河豚</v>
-          </cell>
-          <cell r="F7" t="str">
-            <v>fish3dnode/fish3d/fish/Dengluyu/Denglongyu_Body</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>FishNew007</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>小灯笼</v>
-          </cell>
-          <cell r="F8" t="str">
-            <v>fish3dnode/fish3d/fish/DHZ/body</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9" t="str">
-            <v>FishNew008</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v>小旗鱼</v>
-          </cell>
-          <cell r="F9" t="str">
-            <v>fish3dnode/fish3d/GameCY/FourFishs/1/dizuo/Camera/diwangxie/Pangxie_body</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10" t="str">
-            <v>FishNew009</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>小水母</v>
-          </cell>
-          <cell r="F10" t="str">
-            <v>fish3dnode/fish3d/fish/Douyunvwang/liyuwang_Body</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11" t="str">
-            <v>FishNew010</v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>小章鱼</v>
-          </cell>
-          <cell r="F11" t="str">
-            <v>fish3dnode/fish3d/fish/Eel/Box005</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12" t="str">
-            <v>FishNew011</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>小海龟</v>
-          </cell>
-          <cell r="F12" t="str">
-            <v>fish3dnode/fish3d/fish/Egg/Egg_Body</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13" t="str">
-            <v>FishNew012</v>
-          </cell>
-          <cell r="E13" t="str">
-            <v>狮子鱼</v>
-          </cell>
-          <cell r="F13" t="str">
-            <v>fish3dnode/fish3d/fish/Eyuwang/Eyuwang_Body</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14" t="str">
-            <v>FishNew013</v>
-          </cell>
-          <cell r="E14" t="str">
-            <v>蝴蝶鱼</v>
-          </cell>
-          <cell r="F14" t="str">
-            <v>fish3dnode/fish3d/fish/Gangkuiyu/Gangkuiyu 1</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15" t="str">
-            <v>FishNew014</v>
-          </cell>
-          <cell r="E15" t="str">
-            <v>巨大小丑鱼</v>
-          </cell>
-          <cell r="F15" t="str">
-            <v>fish3dnode/fish3d/fish/GL/body</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16" t="str">
-            <v>FishNew015</v>
-          </cell>
-          <cell r="E16" t="str">
-            <v>巨大灯笼鱼</v>
-          </cell>
-          <cell r="F16" t="str">
-            <v>fish3dnode/fish3d/fish/GL/body</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17" t="str">
-            <v>FishNew016</v>
-          </cell>
-          <cell r="E17" t="str">
-            <v>巨大燕鱼</v>
-          </cell>
-          <cell r="F17" t="str">
-            <v>fish3dnode/fish3d/fish/Haigui/Haigui_Body</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18" t="str">
-            <v>FishNew017</v>
-          </cell>
-          <cell r="E18" t="str">
-            <v>魔鬼鱼</v>
-          </cell>
-          <cell r="F18" t="str">
-            <v>fish3dnode/fish3d/fish/Haima/Haima_Body</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19" t="str">
-            <v>FishNew018</v>
-          </cell>
-          <cell r="E19" t="str">
-            <v>虎鲸</v>
-          </cell>
-          <cell r="F19" t="str">
-            <v>fish3dnode/fish3d/fish/Haitun/Haitun_Body</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20" t="str">
-            <v>FishNew019</v>
-          </cell>
-          <cell r="E20" t="str">
-            <v>炸弹鱼</v>
-          </cell>
-          <cell r="F20" t="str">
-            <v>fish3dnode/fish3d/fish/Haitun/Haitun_Body</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21" t="str">
-            <v>FishNew020</v>
-          </cell>
-          <cell r="E21" t="str">
-            <v>黄金灯笼鱼</v>
-          </cell>
-          <cell r="F21" t="str">
-            <v>fish3dnode/fish3d/fish/Haixiang/Haixiang_Body</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22" t="str">
-            <v>FishNew021</v>
-          </cell>
-          <cell r="E22" t="str">
-            <v>黄金炸弹鱼</v>
-          </cell>
-          <cell r="F22" t="str">
-            <v>fish3dnode/fish3d/fish/Hole/body001</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23" t="str">
-            <v>FishNew022</v>
-          </cell>
-          <cell r="E23" t="str">
-            <v>黄金狮子鱼</v>
-          </cell>
-          <cell r="F23" t="str">
-            <v>fish3dnode/fish3d/fish/Huabannian/Huabannian_Body</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24" t="str">
-            <v>FishNew023</v>
-          </cell>
-          <cell r="E24" t="str">
-            <v>黄金海龟</v>
-          </cell>
-          <cell r="F24" t="str">
-            <v>fish3dnode/fish3d/fish/Huabannian/Huabannian_Body</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25" t="str">
-            <v>FishNew024</v>
-          </cell>
-          <cell r="E25" t="str">
-            <v>黄金河豚</v>
-          </cell>
-          <cell r="F25" t="str">
-            <v>fish3dnode/fish3d/fish/Huandengyu/Huandengyu_Body</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26" t="str">
-            <v>FishNew025</v>
-          </cell>
-          <cell r="E26" t="str">
-            <v>金蟾</v>
-          </cell>
-          <cell r="F26" t="str">
-            <v>fish3dnode/fish3d/fish/Jianyu/Jianyu_Body</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27" t="str">
-            <v>FishNew026</v>
-          </cell>
-          <cell r="E27" t="str">
-            <v>大金鲨</v>
-          </cell>
-          <cell r="F27" t="str">
-            <v>fish3dnode/fish3d/fish/Jianyu/Jianyu_Body</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28" t="str">
-            <v>FishNew027</v>
-          </cell>
-          <cell r="E28" t="str">
-            <v>黄金锤头鲨</v>
-          </cell>
-          <cell r="F28" t="str">
-            <v>fish3dnode/fish3d/fish/Jijuxie 1/Bone00/Bone04/Bone27/Bone28/Bone048/Bone30/Jijuxie_Body</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29" t="str">
-            <v>FishNew028</v>
-          </cell>
-          <cell r="E29" t="str">
-            <v>闪电鱼</v>
-          </cell>
-          <cell r="F29" t="str">
-            <v>fish3dnode/fish3d/fish/Juchisha/Juchisha_Body</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30" t="str">
-            <v>FishNew029</v>
-          </cell>
-          <cell r="E30" t="str">
-            <v>穿云蟹</v>
-          </cell>
-          <cell r="F30" t="str">
-            <v>fish3dnode/fish3d/fish/Lanjing/Jingyu_Body</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31" t="str">
-            <v>FishNew030</v>
-          </cell>
-          <cell r="E31" t="str">
-            <v>电磁蟹</v>
-          </cell>
-          <cell r="F31" t="str">
-            <v>fish3dnode/fish3d/fish/Lanlongxia/longxia_Body</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="D32" t="str">
-            <v>FishNew031</v>
-          </cell>
-          <cell r="E32" t="str">
-            <v>强击蟹</v>
-          </cell>
-          <cell r="F32" t="str">
-            <v>fish3dnode/fish3d/fish/Leishenxie/Liehsenxie_Body</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="D33" t="str">
-            <v>FishNew032</v>
-          </cell>
-          <cell r="E33" t="str">
-            <v>宝藏章鱼</v>
-          </cell>
-          <cell r="F33" t="str">
-            <v>fish3dnode/fish3d/fish/Liujiaolongyu/Liujiaolongyu 1</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="D34" t="str">
-            <v>FishNew033</v>
-          </cell>
-          <cell r="E34" t="str">
-            <v>美人鱼</v>
-          </cell>
-          <cell r="F34" t="str">
-            <v>fish3dnode/fish3d/fish/Liujiaolongyu/Liujiaolongyu 1</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="D35" t="str">
-            <v>FishNew034</v>
-          </cell>
-          <cell r="E35" t="str">
-            <v>骰子龟</v>
-          </cell>
-          <cell r="F35" t="str">
-            <v>fish3dnode/fish3d/fish/longxia_pre/Longxia_Body</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="D36" t="str">
-            <v>FishNew035</v>
-          </cell>
-          <cell r="E36" t="str">
-            <v>金龙转盘</v>
-          </cell>
-          <cell r="F36" t="str">
-            <v>fish3dnode/fish3d/fish/MidAutumn/body</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="D37" t="str">
-            <v>FishNew036</v>
-          </cell>
-          <cell r="E37" t="str">
-            <v>炽火龙王</v>
-          </cell>
-          <cell r="F37" t="str">
-            <v>fish3dnode/fish3d/fish/Paoshenxie/pangxie</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="D38" t="str">
-            <v>FishNew037</v>
-          </cell>
-          <cell r="E38" t="str">
-            <v>财神</v>
-          </cell>
-          <cell r="F38" t="str">
-            <v>fish3dnode/fish3d/fish/Renzhegui/renzhegui 1</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="D39" t="str">
-            <v>FishNew038</v>
-          </cell>
-          <cell r="E39" t="str">
-            <v>黄金巨龙</v>
-          </cell>
-          <cell r="F39" t="str">
-            <v>fish3dnode/fish3d/fish/Shanbei/ShanBei_body</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="D40" t="str">
-            <v>FishNew039</v>
-          </cell>
-          <cell r="E40" t="str">
-            <v>霸王蟹</v>
-          </cell>
-          <cell r="F40" t="str">
-            <v>fish3dnode/fish3d/fish/Shenxianyu/Shenxianyu_Body</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="D41" t="str">
-            <v>FishNew040</v>
-          </cell>
-          <cell r="E41" t="str">
-            <v>深海巨鲸</v>
-          </cell>
-          <cell r="F41" t="str">
-            <v>fish3dnode/fish3d/fish/Shitousha/Shitousha_Body</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="D42" t="str">
-            <v>FishNew041</v>
-          </cell>
-          <cell r="E42" t="str">
-            <v>鲨鱼将军</v>
-          </cell>
-          <cell r="F42" t="str">
-            <v>fish3dnode/fish3d/fish/Shiziyu/Shiziyu_Body</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="D43" t="str">
-            <v>FishNew042</v>
-          </cell>
-          <cell r="E43" t="str">
-            <v>荧光女皇</v>
-          </cell>
-          <cell r="F43" t="str">
-            <v>fish3dnode/fish3d/fish/Shiziyu/Shiziyu_Body</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="D44" t="str">
-            <v>FishNew043</v>
-          </cell>
-          <cell r="E44" t="str">
-            <v>远古龙龟</v>
-          </cell>
-          <cell r="F44" t="str">
-            <v>fish3dnode/fish3d/fish/Shuangjisha/Shuangjisha_Body</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="D45" t="str">
-            <v>FishNew044</v>
-          </cell>
-          <cell r="E45" t="str">
-            <v>麒麟兽</v>
-          </cell>
-          <cell r="F45" t="str">
-            <v>fish3dnode/fish3d/fish/Shuangjisha/Shuangjisha_Body</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="D46" t="str">
-            <v>FishNew045</v>
-          </cell>
-          <cell r="E46" t="str">
-            <v>海盗船</v>
-          </cell>
-          <cell r="F46" t="str">
-            <v>fish3dnode/fish3d/fish/Xiaomoguiyu/Moguiyu_Body</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="D47" t="str">
-            <v>FishNew046</v>
-          </cell>
-          <cell r="E47" t="str">
-            <v>招财宝蟾</v>
-          </cell>
-          <cell r="F47" t="str">
-            <v>fish3dnode/fish3d/fish/XW/Xuanwu_Body</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="D48" t="str">
-            <v>FishNew047</v>
-          </cell>
-          <cell r="E48" t="str">
-            <v>深海狂鲨</v>
-          </cell>
-          <cell r="F48" t="str">
-            <v>fish3dnode/fish3d/fish/Yingwuluo/yingwuluo</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="D49" t="str">
-            <v>FishNew048</v>
-          </cell>
-          <cell r="E49" t="str">
-            <v>宝藏鳄鱼</v>
-          </cell>
-          <cell r="F49" t="str">
-            <v>fish3dnode/fish3d/fish/Yingwuluo/yingwuluo</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="D50" t="str">
-            <v>FishNew049</v>
-          </cell>
-          <cell r="E50" t="str">
-            <v>八爪海魔</v>
-          </cell>
-          <cell r="F50" t="str">
-            <v>fish3dnode/fish3d/fish/Zhadanfeiyu/Zhadanfeiyu_Body</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="D51" t="str">
-            <v>FishNew050</v>
-          </cell>
-          <cell r="E51" t="str">
-            <v>鳄鱼宝箱</v>
-          </cell>
-          <cell r="F51" t="str">
-            <v>fish3dnode/fish3d/fish/ZYW/zhangyuwang_Body</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="D52" t="str">
-            <v>FishNew050</v>
-          </cell>
-          <cell r="E52" t="str">
-            <v>龙虾BOSS</v>
-          </cell>
-          <cell r="F52" t="str">
-            <v>fish3dnode/fish3d/fish/ZYW/zhangyuwang_Body</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="D53" t="str">
-            <v>FishNew044</v>
-          </cell>
-          <cell r="E53" t="str">
-            <v>接吻鱼</v>
-          </cell>
-          <cell r="F53" t="str">
-            <v>fish3dnode/fish3d/fish/Shuangjisha/Shuangjisha_Body</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="D54" t="str">
-            <v>FishNew045</v>
-          </cell>
-          <cell r="E54" t="str">
-            <v>蝴蝶鱼</v>
-          </cell>
-          <cell r="F54" t="str">
-            <v>fish3dnode/fish3d/fish/Xiaomoguiyu/Moguiyu_Body</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="D55" t="str">
-            <v>FishNew046</v>
-          </cell>
-          <cell r="E55" t="str">
-            <v>巨大灯笼鱼</v>
-          </cell>
-          <cell r="F55" t="str">
-            <v>fish3dnode/fish3d/fish/XW/Xuanwu_Body</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="D56" t="str">
-            <v>FishNew047</v>
-          </cell>
-          <cell r="E56" t="str">
-            <v>魔鬼鱼</v>
-          </cell>
-          <cell r="F56" t="str">
-            <v>fish3dnode/fish3d/fish/Yingwuluo/yingwuluo</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="D57" t="str">
-            <v>FishNew048</v>
-          </cell>
-          <cell r="E57" t="str">
-            <v>虎鲸</v>
-          </cell>
-          <cell r="F57" t="str">
-            <v>fish3dnode/fish3d/fish/Yingwuluo/yingwuluo</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="D58" t="str">
-            <v>FishNew049</v>
-          </cell>
-          <cell r="E58" t="str">
-            <v>星星鱼</v>
-          </cell>
-          <cell r="F58" t="str">
-            <v>fish3dnode/fish3d/fish/Zhadanfeiyu/Zhadanfeiyu_Body</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="D59" t="str">
-            <v>FishNew050</v>
-          </cell>
-          <cell r="E59" t="str">
-            <v>火鸡鱼</v>
-          </cell>
-          <cell r="F59" t="str">
-            <v>fish3dnode/fish3d/fish/ZYW/zhangyuwang_Body</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="D60" t="str">
-            <v>FishNew050</v>
-          </cell>
-          <cell r="E60" t="str">
-            <v>话费鱼</v>
-          </cell>
-          <cell r="F60" t="str">
-            <v>fish3dnode/fish3d/fish/ZYW/zhangyuwang_Body</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="D61" t="str">
-            <v>FishNew051</v>
-          </cell>
-          <cell r="E61" t="str">
-            <v>话费鱼</v>
-          </cell>
-          <cell r="F61" t="str">
-            <v>fish3dnode/fish3d/fish/Baozhahetun/Baozhahetun_Body</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="D62" t="str">
-            <v>FishNew052</v>
-          </cell>
-          <cell r="F62" t="str">
-            <v>fish3dnode/fish3d/fish/Dabaisha/Dabaisha_Body</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="D63" t="str">
-            <v>FishNew054</v>
-          </cell>
-          <cell r="F63" t="str">
-            <v>fish3dnode/fish3d/fish/Jinchanwang/Jinchanwang_Body</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="D64" t="str">
-            <v>Fish3D061</v>
-          </cell>
-          <cell r="F64" t="str">
-            <v>fish3dnode/fish3d/x_0001 1/x_0001 2</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="D65" t="str">
-            <v>Fish3D062</v>
-          </cell>
-          <cell r="F65" t="str">
-            <v>fish3d/x_0002 1/x_0002 2</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="D66" t="str">
-            <v>Fish3D063</v>
-          </cell>
-          <cell r="F66" t="str">
-            <v>fish3dnode/fish3d/x_0003 1/x_0003 2</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="D67" t="str">
-            <v>Fish3D064</v>
-          </cell>
-          <cell r="F67" t="str">
-            <v>fish3d/x_0010 1/xiaoyu</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="D68" t="str">
-            <v>Fish3D065</v>
-          </cell>
-          <cell r="F68" t="str">
-            <v>fish3d/x_0005 1/x_0005 2</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="D69" t="str">
-            <v>Fish3D066</v>
-          </cell>
-          <cell r="F69" t="str">
-            <v>fish3d/x_0004 1/x_0004 2</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="D70" t="str">
-            <v>Fish3D080</v>
-          </cell>
-          <cell r="F70" t="str">
-            <v>fish3d/z_0004 1/z_0004 2</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="D71" t="str">
-            <v>Fish3D067</v>
-          </cell>
-          <cell r="F71" t="str">
-            <v>fish3d/x_0011 1/x_0011 2</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="D72" t="str">
-            <v>Fish3D055</v>
-          </cell>
-          <cell r="F72" t="str">
-            <v>fish3d/x_0008 1/x_0008 2</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="D73" t="str">
-            <v>Fish3D060</v>
-          </cell>
-          <cell r="F73" t="str">
-            <v>fish3d/x_0007 1/x_0007 2</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="D74" t="str">
-            <v>Fish3D068</v>
-          </cell>
-          <cell r="F74" t="str">
-            <v>fish3d/x_0009 1/x_0009 2</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="D75" t="str">
-            <v>Fish3D069</v>
-          </cell>
-          <cell r="F75" t="str">
-            <v>fish3d/z_0006 1/z_0006 2</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="D76" t="str">
-            <v>Fish3D070</v>
-          </cell>
-          <cell r="F76" t="str">
-            <v>fish3dnode/fish3d/z_0005 1/z_0005 2</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="D77" t="str">
-            <v>Fish3D071</v>
-          </cell>
-          <cell r="F77" t="str">
-            <v>fish3dnode/fish3d/x_0003 1/x_0003 2</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="D78" t="str">
-            <v>Fish3D045</v>
-          </cell>
-          <cell r="F78" t="str">
-            <v>fish3d/z_0004 1/z_0004 2</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="D79" t="str">
-            <v>Fish3D072</v>
-          </cell>
-          <cell r="F79" t="str">
-            <v>fish3d/x_0010 1/xiaoyu</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="D80" t="str">
-            <v>Fish3D073</v>
-          </cell>
-          <cell r="F80" t="str">
-            <v>fish3d/z_0002 1/z_0002 2</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="D81" t="str">
-            <v>Fish3D074</v>
-          </cell>
-          <cell r="F81" t="str">
-            <v>fish3d/z_0007 1/z_0007 2</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="D82" t="str">
-            <v>Fish3D020</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="D83" t="str">
-            <v>Fish3D081</v>
-          </cell>
-          <cell r="F83" t="str">
-            <v>fish3dnode/fish3d/j_0004 1/j_0004 2</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="D84" t="str">
-            <v>Fish3D021</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="D85" t="str">
-            <v>Fish3D079</v>
-          </cell>
-          <cell r="F85" t="str">
-            <v>fish3d/j_0006 1/z_0006</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="D86" t="str">
-            <v>Fish3D046</v>
-          </cell>
-          <cell r="F86" t="str">
-            <v>fish3dnode/fish3d/j_0015 1/j_0015 2</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="D87" t="str">
-            <v>Fish3D047</v>
-          </cell>
-          <cell r="F87" t="str">
-            <v>fish3d/j_0002 1/x_0004</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="D88" t="str">
-            <v>Fish3D027</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="D89" t="str">
-            <v>Fish3D049</v>
-          </cell>
-          <cell r="F89" t="str">
-            <v>fish3dnode/fish3d/j_0008 1/j_0008 2</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="D90" t="str">
-            <v>Fish3D048</v>
-          </cell>
-          <cell r="F90" t="str">
-            <v>fish3d/j_0003 1/j_0003 2</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="D91" t="str">
-            <v>Fish3D075</v>
-          </cell>
-          <cell r="F91" t="str">
-            <v>fish3d/gny_0008 1/gny_0008 2</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="D92" t="str">
-            <v>Fish3D030</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="D93" t="str">
-            <v>Fish3D034</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="D94" t="str">
-            <v>Fish3D041</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="D95" t="str">
-            <v>Fish3D031</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="D96" t="str">
-            <v>Fish3D029</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="D97" t="str">
-            <v>Fish3D050</v>
-          </cell>
-          <cell r="F97" t="str">
-            <v>fish3d/gny_0022/gny_0022 1</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="D98" t="str">
-            <v>Fish3D051</v>
-          </cell>
-          <cell r="F98" t="str">
-            <v>fish3d/gny_0026 1/gny_0026 2</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="D99" t="str">
-            <v>Fish3D052</v>
-          </cell>
-          <cell r="F99" t="str">
-            <v>fish3dnode/fish3d/bs_0005 1/bs_0005 2</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="D100" t="str">
-            <v>Fish3D076</v>
-          </cell>
-          <cell r="F100" t="str">
-            <v>fish3d/gny_0024 1/gny_0024 2</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="D101" t="str">
-            <v>Fish3D036</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="D102" t="str">
-            <v>Fish3D053</v>
-          </cell>
-          <cell r="F102" t="str">
-            <v>fish3dnode/fish3d/xb_0002 1/xb_0002 2</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="D103" t="str">
-            <v>Fish3D028</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="D104" t="str">
-            <v>Fish3D054</v>
-          </cell>
-          <cell r="F104" t="str">
-            <v>fish3d/xb_0004 /xb_0004 1</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="D105" t="str">
-            <v>Fish3D083</v>
-          </cell>
-          <cell r="F105" t="str">
-            <v>fish3d/bs_0003 1/bs_0003 2</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="D106" t="str">
-            <v>Fish3D056</v>
-          </cell>
-          <cell r="F106" t="str">
-            <v>fish3d/xb_0003 1/xb_0003 2</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="D107" t="str">
-            <v>Fish3D082</v>
-          </cell>
-          <cell r="F107" t="str">
-            <v>fish3d/bs_0009_stage 1/bs_0009</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="D108" t="str">
-            <v>Fish3D057</v>
-          </cell>
-          <cell r="F108" t="str">
-            <v>fish3d/bs_0004 1/bs_0004 2</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="D109" t="str">
-            <v>Fish3D058</v>
-          </cell>
-          <cell r="F109" t="str">
-            <v>fish3dnode/fish3d/bs_0008 1/bs_0008 2</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="D110" t="str">
-            <v>Fish3D077</v>
-          </cell>
-          <cell r="F110" t="str">
-            <v>fish3d/gny_0005 1/gny_0005 2</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="D111" t="str">
-            <v>Fish3D059</v>
-          </cell>
-          <cell r="F111" t="str">
-            <v>fish3d/xb_0001 1/xb_0001 2</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="D112" t="str">
-            <v>Fish3D084</v>
-          </cell>
-          <cell r="F112" t="str">
-            <v>fish3d/xb_0007_skill/xb_0007_skill 1</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="D113" t="str">
-            <v>Fish3DBOX</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="D114" t="str">
-            <v>Fish3D085</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="D115" t="str">
-            <v>Fish3D086</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="D116" t="str">
-            <v>Fish3D070_act</v>
-          </cell>
-          <cell r="F116" t="str">
-            <v>fish3dnode/fish3d/z_0005 1/z_0005 2</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="D117" t="str">
-            <v>Fish3D045_act</v>
-          </cell>
-          <cell r="F117" t="str">
-            <v>fish3d/z_0004 1/z_0004 2</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="D118" t="str">
-            <v>Fish3D073_act</v>
-          </cell>
-          <cell r="F118" t="str">
-            <v>fish3d/z_0002 1/z_0002 2</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="D119" t="str">
-            <v>Fish3D074_act</v>
-          </cell>
-          <cell r="F119" t="str">
-            <v>fish3d/z_0007 1/z_0007 2</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="D120" t="str">
-            <v>Fish3D087</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="D121" t="str">
-            <v>Fish3D088</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="D122" t="str">
-            <v>Fish3D089</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="D123" t="str">
-            <v>Fish3D090</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="D124" t="str">
-            <v>Fish3D091</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4457,9 +3337,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4538,7 +3418,7 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>12</v>
@@ -4615,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>178</v>
@@ -4794,13 +3674,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>180</v>
+        <v>491</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>57</v>
@@ -4884,10 +3764,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>170</v>
@@ -4973,22 +3853,22 @@
         <v>5</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I6" s="28">
         <v>1.76</v>
@@ -5009,7 +3889,7 @@
         <v>8</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P6" s="27">
         <v>1</v>
@@ -5037,7 +3917,7 @@
         <v>0.4</v>
       </c>
       <c r="Y6" s="30" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="Z6" s="32" t="s">
         <v>30</v>
@@ -5056,14 +3936,13 @@
         <v>2</v>
       </c>
       <c r="AG6" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH6" s="32" t="str">
-        <f>VLOOKUP(C6,[1]Sheet1!$D$2:$F$124,3,FALSE)</f>
-        <v>fish3dnode/fish3d/fish/Jianyu/Jianyu_Body</v>
+        <v>187</v>
+      </c>
+      <c r="AH6" s="32" t="s">
+        <v>492</v>
       </c>
       <c r="AK6" s="32" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:37" s="9" customFormat="1">
@@ -5077,7 +3956,7 @@
         <v>174</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>171</v>
@@ -5169,7 +4048,7 @@
         <v>175</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>172</v>
@@ -5257,13 +4136,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>61</v>
@@ -5349,13 +4228,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>58</v>
@@ -5364,7 +4243,7 @@
         <v>58</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="I10" s="28">
         <v>1.64</v>
@@ -5385,7 +4264,7 @@
         <v>10</v>
       </c>
       <c r="O10" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P10" s="27">
         <v>1</v>
@@ -5413,7 +4292,7 @@
         <v>0.45</v>
       </c>
       <c r="Y10" s="30" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="Z10" s="100" t="s">
         <v>31</v>
@@ -5431,13 +4310,13 @@
         <v>2</v>
       </c>
       <c r="AG10" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH10" s="32" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="AK10" s="32" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:37" s="33" customFormat="1">
@@ -5448,13 +4327,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>58</v>
@@ -5463,7 +4342,7 @@
         <v>58</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="I11" s="28">
         <v>1</v>
@@ -5484,7 +4363,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P11" s="27">
         <v>2</v>
@@ -5512,7 +4391,7 @@
         <v>0.5</v>
       </c>
       <c r="Y11" s="30" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="Z11" s="32" t="s">
         <v>129</v>
@@ -5530,13 +4409,13 @@
         <v>2</v>
       </c>
       <c r="AG11" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH11" s="32" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AK11" s="32" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:37" s="33" customFormat="1">
@@ -5547,13 +4426,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>58</v>
@@ -5562,7 +4441,7 @@
         <v>58</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="I12" s="28">
         <v>2.36</v>
@@ -5583,7 +4462,7 @@
         <v>15</v>
       </c>
       <c r="O12" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P12" s="27">
         <v>2</v>
@@ -5611,7 +4490,7 @@
         <v>0.35</v>
       </c>
       <c r="Y12" s="30" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="Z12" s="32" t="s">
         <v>129</v>
@@ -5629,13 +4508,13 @@
         <v>2</v>
       </c>
       <c r="AG12" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH12" s="32" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="AK12" s="32" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:37" s="33" customFormat="1">
@@ -5646,22 +4525,22 @@
         <v>12</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="I13" s="28">
         <v>0.96</v>
@@ -5682,7 +4561,7 @@
         <v>18</v>
       </c>
       <c r="O13" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P13" s="27">
         <v>3</v>
@@ -5710,7 +4589,7 @@
         <v>0.35</v>
       </c>
       <c r="Y13" s="30" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="Z13" s="32" t="s">
         <v>35</v>
@@ -5728,13 +4607,13 @@
         <v>2</v>
       </c>
       <c r="AG13" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH13" s="32" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="AK13" s="32" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:37" s="33" customFormat="1">
@@ -5745,22 +4624,22 @@
         <v>13</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="I14" s="28">
         <v>0.96</v>
@@ -5781,7 +4660,7 @@
         <v>20</v>
       </c>
       <c r="O14" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P14" s="27">
         <v>3</v>
@@ -5809,7 +4688,7 @@
         <v>0.35</v>
       </c>
       <c r="Y14" s="30" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="Z14" s="32" t="s">
         <v>37</v>
@@ -5827,13 +4706,13 @@
         <v>2</v>
       </c>
       <c r="AG14" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH14" s="32" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="AK14" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:37" s="33" customFormat="1">
@@ -5844,22 +4723,22 @@
         <v>14</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="I15" s="28">
         <v>0.74</v>
@@ -5880,7 +4759,7 @@
         <v>25</v>
       </c>
       <c r="O15" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P15" s="27">
         <v>2</v>
@@ -5908,7 +4787,7 @@
         <v>0.4</v>
       </c>
       <c r="Y15" s="30" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Z15" s="32" t="s">
         <v>30</v>
@@ -5926,13 +4805,13 @@
         <v>2</v>
       </c>
       <c r="AG15" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH15" s="32" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="AK15" s="32" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:37" s="33" customFormat="1">
@@ -5943,22 +4822,22 @@
         <v>15</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="I16" s="28">
         <v>1.53</v>
@@ -5979,7 +4858,7 @@
         <v>30</v>
       </c>
       <c r="O16" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P16" s="27">
         <v>4</v>
@@ -6007,7 +4886,7 @@
         <v>0.35</v>
       </c>
       <c r="Y16" s="30" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="Z16" s="32" t="s">
         <v>32</v>
@@ -6025,13 +4904,13 @@
         <v>2</v>
       </c>
       <c r="AG16" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH16" s="32" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="AK16" s="32" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:37" s="33" customFormat="1">
@@ -6042,22 +4921,22 @@
         <v>16</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="I17" s="28">
         <v>0.8</v>
@@ -6078,7 +4957,7 @@
         <v>35</v>
       </c>
       <c r="O17" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P17" s="27">
         <v>3</v>
@@ -6106,7 +4985,7 @@
         <v>0.5</v>
       </c>
       <c r="Y17" s="30" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="Z17" s="32" t="s">
         <v>32</v>
@@ -6124,13 +5003,13 @@
         <v>2</v>
       </c>
       <c r="AG17" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH17" s="32" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="AK17" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:37" s="33" customFormat="1">
@@ -6141,22 +5020,22 @@
         <v>17</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>102</v>
       </c>
       <c r="E18" s="99" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="I18" s="28">
         <v>1.53</v>
@@ -6177,7 +5056,7 @@
         <v>40</v>
       </c>
       <c r="O18" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P18" s="27">
         <v>4</v>
@@ -6205,7 +5084,7 @@
         <v>0.35</v>
       </c>
       <c r="Y18" s="30" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="Z18" s="32" t="s">
         <v>32</v>
@@ -6223,13 +5102,13 @@
         <v>2</v>
       </c>
       <c r="AG18" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH18" s="32" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AK18" s="32" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:37" s="33" customFormat="1">
@@ -6240,22 +5119,22 @@
         <v>18</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>393</v>
+        <v>489</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>103</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="I19" s="28">
         <v>0.66</v>
@@ -6276,7 +5155,7 @@
         <v>60</v>
       </c>
       <c r="O19" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P19" s="27">
         <v>4</v>
@@ -6304,7 +5183,7 @@
         <v>0.35</v>
       </c>
       <c r="Y19" s="30" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="Z19" s="32" t="s">
         <v>35</v>
@@ -6322,13 +5201,13 @@
         <v>2</v>
       </c>
       <c r="AG19" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH19" s="32" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AK19" s="32" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:37" s="33" customFormat="1">
@@ -6339,22 +5218,22 @@
         <v>19</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="I20" s="28">
         <v>2.2799999999999998</v>
@@ -6375,7 +5254,7 @@
         <v>60</v>
       </c>
       <c r="O20" s="30" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="P20" s="27">
         <v>4</v>
@@ -6403,7 +5282,7 @@
         <v>0.35</v>
       </c>
       <c r="Y20" s="30" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="Z20" s="32" t="s">
         <v>37</v>
@@ -6421,13 +5300,13 @@
         <v>1</v>
       </c>
       <c r="AG20" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH20" s="32" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="AK20" s="32" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:37" s="108" customFormat="1">
@@ -6438,22 +5317,22 @@
         <v>20</v>
       </c>
       <c r="C21" s="102" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D21" s="102" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E21" s="102" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F21" s="102" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G21" s="102" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H21" s="102" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="I21" s="102">
         <v>2.72</v>
@@ -6498,7 +5377,7 @@
         <v>0.35</v>
       </c>
       <c r="Y21" s="106" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Z21" s="107" t="s">
         <v>40</v>
@@ -6517,10 +5396,10 @@
       </c>
       <c r="AG21" s="107"/>
       <c r="AH21" s="107" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="AK21" s="107" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:37" s="33" customFormat="1">
@@ -6531,19 +5410,19 @@
         <v>21</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H22" s="34" t="s">
         <v>76</v>
@@ -6593,7 +5472,7 @@
         <v>0.35</v>
       </c>
       <c r="Y22" s="30" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Z22" s="32" t="s">
         <v>38</v>
@@ -6611,13 +5490,13 @@
         <v>1</v>
       </c>
       <c r="AG22" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH22" s="32" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AK22" s="32" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:37" s="108" customFormat="1">
@@ -6628,13 +5507,13 @@
         <v>22</v>
       </c>
       <c r="C23" s="102" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>277</v>
+        <v>486</v>
       </c>
       <c r="E23" s="102" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F23" s="102" t="s">
         <v>136</v>
@@ -6690,7 +5569,7 @@
         <v>0.35</v>
       </c>
       <c r="Y23" s="106" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Z23" s="107" t="s">
         <v>38</v>
@@ -6708,10 +5587,10 @@
         <v>1</v>
       </c>
       <c r="AH23" s="107" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="AK23" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:37" s="108" customFormat="1">
@@ -6722,22 +5601,22 @@
         <v>23</v>
       </c>
       <c r="C24" s="102" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>115</v>
+        <v>490</v>
       </c>
       <c r="E24" s="102" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F24" s="102" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G24" s="102" t="s">
         <v>138</v>
       </c>
       <c r="H24" s="103" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I24" s="102">
         <v>0.94</v>
@@ -6784,7 +5663,7 @@
         <v>0.8</v>
       </c>
       <c r="Y24" s="106" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Z24" s="107" t="s">
         <v>25</v>
@@ -6800,10 +5679,10 @@
       </c>
       <c r="AG24" s="33"/>
       <c r="AH24" s="32" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="AK24" s="107" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:37" s="108" customFormat="1">
@@ -6817,19 +5696,19 @@
         <v>78</v>
       </c>
       <c r="D25" s="102" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="F25" s="102" t="s">
         <v>194</v>
       </c>
-      <c r="E25" s="102" t="s">
-        <v>280</v>
-      </c>
-      <c r="F25" s="102" t="s">
-        <v>195</v>
-      </c>
       <c r="G25" s="102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H25" s="103" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I25" s="102">
         <v>1</v>
@@ -6876,7 +5755,7 @@
         <v>0.7</v>
       </c>
       <c r="Y25" s="106" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Z25" s="107" t="s">
         <v>25</v>
@@ -6891,10 +5770,10 @@
         <v>1.2</v>
       </c>
       <c r="AH25" s="107" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="AK25" s="107" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:37" s="108" customFormat="1">
@@ -6905,19 +5784,19 @@
         <v>25</v>
       </c>
       <c r="C26" s="102" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D26" s="102" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E26" s="102" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F26" s="102" t="s">
         <v>62</v>
       </c>
       <c r="G26" s="102" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H26" s="103" t="s">
         <v>76</v>
@@ -6967,7 +5846,7 @@
         <v>0.35</v>
       </c>
       <c r="Y26" s="106" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Z26" s="107" t="s">
         <v>44</v>
@@ -6998,19 +5877,19 @@
         <v>26</v>
       </c>
       <c r="C27" s="102" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D27" s="102" t="s">
-        <v>267</v>
+        <v>487</v>
       </c>
       <c r="E27" s="102" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F27" s="102" t="s">
         <v>62</v>
       </c>
       <c r="G27" s="102" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H27" s="103" t="s">
         <v>76</v>
@@ -7034,7 +5913,7 @@
         <v>180</v>
       </c>
       <c r="O27" s="101" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P27" s="101">
         <v>4</v>
@@ -7062,7 +5941,7 @@
         <v>0.35</v>
       </c>
       <c r="Y27" s="106" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Z27" s="107" t="s">
         <v>37</v>
@@ -7081,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="AH27" s="107" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="AK27" s="107" t="s">
         <v>152</v>
@@ -7095,19 +5974,19 @@
         <v>27</v>
       </c>
       <c r="C28" s="102" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D28" s="102" t="s">
-        <v>198</v>
+        <v>488</v>
       </c>
       <c r="E28" s="102" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F28" s="103" t="s">
         <v>62</v>
       </c>
       <c r="G28" s="103" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H28" s="103" t="s">
         <v>76</v>
@@ -7131,7 +6010,7 @@
         <v>200</v>
       </c>
       <c r="O28" s="101" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P28" s="101">
         <v>4</v>
@@ -7147,7 +6026,7 @@
         <v>0.74</v>
       </c>
       <c r="U28" s="102" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="V28" s="105">
         <v>1</v>
@@ -7159,13 +6038,13 @@
         <v>0.1</v>
       </c>
       <c r="Y28" s="106" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Z28" s="107" t="s">
         <v>52</v>
       </c>
       <c r="AA28" s="107" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AB28" s="107"/>
       <c r="AC28" s="107"/>
@@ -7180,7 +6059,7 @@
       </c>
       <c r="AG28" s="33"/>
       <c r="AH28" s="32" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="AK28" s="107" t="s">
         <v>153</v>
@@ -7194,19 +6073,19 @@
         <v>28</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F29" s="38" t="s">
         <v>126</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H29" s="37" t="s">
         <v>69</v>
@@ -7273,10 +6152,10 @@
         <v>1</v>
       </c>
       <c r="AH29" s="35" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="AK29" s="42" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:37" s="43" customFormat="1">
@@ -7287,10 +6166,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E30" s="37" t="s">
         <v>50</v>
@@ -7302,7 +6181,7 @@
         <v>110</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I30" s="37">
         <v>1.68</v>
@@ -7349,7 +6228,7 @@
         <v>0.35</v>
       </c>
       <c r="Y30" s="40" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Z30" s="42" t="s">
         <v>38</v>
@@ -7368,7 +6247,7 @@
       </c>
       <c r="AH30" s="35"/>
       <c r="AK30" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:37" s="43" customFormat="1">
@@ -7379,22 +6258,22 @@
         <v>30</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>111</v>
       </c>
       <c r="H31" s="37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I31" s="44">
         <v>1.48</v>
@@ -7440,7 +6319,7 @@
         <v>0.35</v>
       </c>
       <c r="Y31" s="40" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Z31" s="42" t="s">
         <v>37</v>
@@ -7460,7 +6339,7 @@
       </c>
       <c r="AH31" s="35"/>
       <c r="AK31" s="8" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:37" s="43" customFormat="1">
@@ -7471,22 +6350,22 @@
         <v>31</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D32" s="37" t="s">
         <v>124</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F32" s="38" t="s">
         <v>125</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I32" s="44">
         <v>1.48</v>
@@ -7533,7 +6412,7 @@
         <v>0.35</v>
       </c>
       <c r="Y32" s="40" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="Z32" s="42" t="s">
         <v>37</v>
@@ -7556,7 +6435,7 @@
       </c>
       <c r="AH32" s="35"/>
       <c r="AK32" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:37" s="43" customFormat="1">
@@ -7567,19 +6446,19 @@
         <v>32</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H33" s="37" t="s">
         <v>69</v>
@@ -7648,7 +6527,7 @@
       <c r="AH33" s="35"/>
       <c r="AI33" s="45"/>
       <c r="AK33" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:37" s="43" customFormat="1">
@@ -7659,22 +6538,22 @@
         <v>33</v>
       </c>
       <c r="C34" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="G34" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="D34" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F34" s="37" t="s">
+      <c r="H34" s="37" t="s">
         <v>211</v>
-      </c>
-      <c r="G34" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="H34" s="37" t="s">
-        <v>213</v>
       </c>
       <c r="I34" s="37">
         <v>4.9000000000000004</v>
@@ -7721,7 +6600,7 @@
         <v>0.35</v>
       </c>
       <c r="Y34" s="40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Z34" s="42" t="s">
         <v>37</v>
@@ -7742,7 +6621,7 @@
       <c r="AH34" s="35"/>
       <c r="AI34" s="46"/>
       <c r="AK34" s="8" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:37" s="43" customFormat="1">
@@ -7753,22 +6632,22 @@
         <v>34</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>119</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F35" s="37" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G35" s="37" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H35" s="37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I35" s="37">
         <v>1.1299999999999999</v>
@@ -7828,11 +6707,11 @@
         <v>1.2</v>
       </c>
       <c r="AH35" s="35" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="AI35" s="46"/>
       <c r="AK35" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:37" s="43" customFormat="1">
@@ -7849,16 +6728,16 @@
         <v>120</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>112</v>
       </c>
       <c r="H36" s="37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I36" s="37">
         <v>0.78</v>
@@ -7921,11 +6800,11 @@
         <v>1.2</v>
       </c>
       <c r="AH36" s="35" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AI36" s="46"/>
       <c r="AK36" s="8" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:37" s="43" customFormat="1">
@@ -7936,13 +6815,13 @@
         <v>36</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>118</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F37" s="37" t="s">
         <v>109</v>
@@ -7951,7 +6830,7 @@
         <v>109</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I37" s="37">
         <v>1.76</v>
@@ -8014,14 +6893,14 @@
         <v>2</v>
       </c>
       <c r="AG37" s="42" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AH37" s="35" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AI37" s="46"/>
       <c r="AK37" s="8" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:37" s="51" customFormat="1">
@@ -8032,22 +6911,22 @@
         <v>37</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E38" s="48" t="s">
         <v>71</v>
       </c>
       <c r="F38" s="49" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G38" s="49" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H38" s="48" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I38" s="48">
         <v>2.64</v>
@@ -8095,10 +6974,10 @@
       </c>
       <c r="Y38" s="47"/>
       <c r="Z38" s="51" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AA38" s="51" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AB38" s="51">
         <v>1</v>
@@ -8113,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="AH38" s="35" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AI38" s="52"/>
       <c r="AJ38" s="52"/>
@@ -8126,22 +7005,22 @@
         <v>38</v>
       </c>
       <c r="C39" s="54" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D39" s="54" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E39" s="54" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F39" s="55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G39" s="54" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H39" s="54" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I39" s="54">
         <v>10</v>
@@ -8176,7 +7055,7 @@
         <v>0.74</v>
       </c>
       <c r="U39" s="54" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="V39" s="56">
         <v>1</v>
@@ -8208,7 +7087,7 @@
         <v>140</v>
       </c>
       <c r="AK39" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:37" s="63" customFormat="1">
@@ -8219,19 +7098,19 @@
         <v>39</v>
       </c>
       <c r="C40" s="60" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D40" s="60" t="s">
         <v>121</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F40" s="60" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G40" s="60" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H40" s="60" t="s">
         <v>70</v>
@@ -8297,16 +7176,16 @@
         <v>1</v>
       </c>
       <c r="AG40" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH40" s="32" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AJ40" s="64" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AK40" s="32" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" spans="1:37" s="57" customFormat="1">
@@ -8317,19 +7196,19 @@
         <v>40</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D41" s="54" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E41" s="54" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F41" s="54" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G41" s="54" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H41" s="54" t="s">
         <v>70</v>
@@ -8410,22 +7289,22 @@
         <v>41</v>
       </c>
       <c r="C42" s="60" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D42" s="60" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E42" s="60" t="s">
         <v>100</v>
       </c>
       <c r="F42" s="60" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G42" s="60" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H42" s="60" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I42" s="60">
         <v>1</v>
@@ -8489,13 +7368,13 @@
       </c>
       <c r="AG42" s="33"/>
       <c r="AH42" s="32" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AJ42" s="64" t="s">
         <v>142</v>
       </c>
       <c r="AK42" s="32" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:37" s="68" customFormat="1">
@@ -8506,22 +7385,22 @@
         <v>42</v>
       </c>
       <c r="C43" s="66" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D43" s="66" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E43" s="66" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F43" s="66" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G43" s="66" t="s">
         <v>62</v>
       </c>
       <c r="H43" s="66" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I43" s="66">
         <v>1</v>
@@ -8587,7 +7466,7 @@
         <v>2</v>
       </c>
       <c r="AH43" s="35" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="AJ43" s="69"/>
       <c r="AK43" s="69"/>
@@ -8600,22 +7479,22 @@
         <v>43</v>
       </c>
       <c r="C44" s="60" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D44" s="60" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F44" s="60" t="s">
         <v>62</v>
       </c>
       <c r="G44" s="60" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H44" s="60" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I44" s="60">
         <v>0.96</v>
@@ -8636,7 +7515,7 @@
         <v>500</v>
       </c>
       <c r="O44" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P44" s="59">
         <v>3</v>
@@ -8680,16 +7559,16 @@
         <v>2</v>
       </c>
       <c r="AG44" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH44" s="32" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="AJ44" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AK44" s="32" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:37" s="68" customFormat="1">
@@ -8700,19 +7579,19 @@
         <v>44</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D45" s="66" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E45" s="66" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F45" s="66" t="s">
         <v>62</v>
       </c>
       <c r="G45" s="66" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H45" s="66" t="s">
         <v>70</v>
@@ -8781,7 +7660,7 @@
         <v>2</v>
       </c>
       <c r="AH45" s="35" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="AJ45" s="69"/>
       <c r="AK45" s="69"/>
@@ -8800,16 +7679,16 @@
         <v>122</v>
       </c>
       <c r="E46" s="66" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F46" s="66" t="s">
         <v>62</v>
       </c>
       <c r="G46" s="66" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H46" s="66" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I46" s="66">
         <v>0.96</v>
@@ -8872,7 +7751,7 @@
         <v>2</v>
       </c>
       <c r="AH46" s="35" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="AJ46" s="69"/>
       <c r="AK46" s="69"/>
@@ -8885,19 +7764,19 @@
         <v>46</v>
       </c>
       <c r="C47" s="60" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D47" s="60" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E47" s="60" t="s">
         <v>101</v>
       </c>
       <c r="F47" s="60" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G47" s="60" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H47" s="60" t="s">
         <v>70</v>
@@ -8963,16 +7842,16 @@
         <v>2</v>
       </c>
       <c r="AG47" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH47" s="32" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="AJ47" s="64" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AK47" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:37" s="73" customFormat="1">
@@ -8983,22 +7862,22 @@
         <v>47</v>
       </c>
       <c r="C48" s="71" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D48" s="71" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E48" s="71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F48" s="71" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G48" s="71" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H48" s="71" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I48" s="71">
         <v>1</v>
@@ -9061,13 +7940,13 @@
         <v>2</v>
       </c>
       <c r="AH48" s="35" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="AJ48" s="74" t="s">
         <v>143</v>
       </c>
       <c r="AK48" s="8" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:37" s="63" customFormat="1">
@@ -9078,22 +7957,22 @@
         <v>48</v>
       </c>
       <c r="C49" s="60" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D49" s="60" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E49" s="60" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F49" s="60" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G49" s="60" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H49" s="60" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I49" s="60">
         <v>2</v>
@@ -9156,16 +8035,16 @@
         <v>2</v>
       </c>
       <c r="AG49" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH49" s="32" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="AJ49" s="64" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AK49" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:37" s="73" customFormat="1">
@@ -9176,16 +8055,16 @@
         <v>49</v>
       </c>
       <c r="C50" s="71" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D50" s="71" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E50" s="71" t="s">
         <v>108</v>
       </c>
       <c r="F50" s="71" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G50" s="71" t="s">
         <v>137</v>
@@ -9257,13 +8136,13 @@
         <v>2</v>
       </c>
       <c r="AH50" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AJ50" s="74" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AK50" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:37" s="80" customFormat="1">
@@ -9274,22 +8153,22 @@
         <v>50</v>
       </c>
       <c r="C51" s="78" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D51" s="78" t="s">
         <v>104</v>
       </c>
       <c r="E51" s="78" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F51" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G51" s="71" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H51" s="71" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I51" s="71">
         <v>2</v>
@@ -9324,7 +8203,7 @@
         <v>0.22</v>
       </c>
       <c r="U51" s="71" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="V51" s="72">
         <v>0.8</v>
@@ -9366,22 +8245,22 @@
         <v>51</v>
       </c>
       <c r="C52" s="60" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D52" s="60" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F52" s="60" t="s">
         <v>177</v>
       </c>
       <c r="G52" s="60" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H52" s="60" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I52" s="60">
         <v>2.64</v>
@@ -9402,7 +8281,7 @@
         <v>200</v>
       </c>
       <c r="O52" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P52" s="59">
         <v>4</v>
@@ -9429,10 +8308,10 @@
         <v>0.1</v>
       </c>
       <c r="Z52" s="75" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AA52" s="63" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AB52" s="63"/>
       <c r="AD52" s="63">
@@ -9445,10 +8324,10 @@
         <v>1</v>
       </c>
       <c r="AG52" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH52" s="32" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="AJ52" s="64" t="s">
         <v>142</v>
@@ -9462,16 +8341,16 @@
         <v>52</v>
       </c>
       <c r="C53" s="60" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D53" s="60" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E53" s="60" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F53" s="60" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G53" s="60" t="s">
         <v>58</v>
@@ -9498,7 +8377,7 @@
         <v>200</v>
       </c>
       <c r="O53" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P53" s="59">
         <v>4</v>
@@ -9541,10 +8420,10 @@
         <v>1</v>
       </c>
       <c r="AG53" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH53" s="32" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="AJ53" s="64" t="s">
         <v>142</v>
@@ -9558,13 +8437,13 @@
         <v>53</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F54" s="60" t="s">
         <v>58</v>
@@ -9573,7 +8452,7 @@
         <v>62</v>
       </c>
       <c r="H54" s="60" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I54" s="28">
         <v>0.96</v>
@@ -9594,7 +8473,7 @@
         <v>200</v>
       </c>
       <c r="O54" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P54" s="27">
         <v>3</v>
@@ -9638,16 +8517,16 @@
         <v>2</v>
       </c>
       <c r="AG54" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH54" s="32" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="AJ54" s="64" t="s">
         <v>142</v>
       </c>
       <c r="AK54" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:37" s="33" customFormat="1">
@@ -9658,13 +8537,13 @@
         <v>54</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F55" s="60" t="s">
         <v>58</v>
@@ -9694,7 +8573,7 @@
         <v>200</v>
       </c>
       <c r="O55" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P55" s="27">
         <v>4</v>
@@ -9738,16 +8617,16 @@
         <v>2</v>
       </c>
       <c r="AG55" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH55" s="32" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AJ55" s="64" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AK55" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:37" s="33" customFormat="1">
@@ -9758,13 +8637,13 @@
         <v>55</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F56" s="60" t="s">
         <v>58</v>
@@ -9773,7 +8652,7 @@
         <v>58</v>
       </c>
       <c r="H56" s="60" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I56" s="28">
         <v>1.53</v>
@@ -9794,7 +8673,7 @@
         <v>200</v>
       </c>
       <c r="O56" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P56" s="27">
         <v>4</v>
@@ -9838,16 +8717,16 @@
         <v>2</v>
       </c>
       <c r="AG56" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH56" s="32" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="AJ56" s="64" t="s">
         <v>142</v>
       </c>
       <c r="AK56" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="1:37" s="86" customFormat="1">
@@ -9858,7 +8737,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="82" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D57" s="82" t="s">
         <v>103</v>
@@ -9867,13 +8746,13 @@
         <v>43</v>
       </c>
       <c r="F57" s="82" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G57" s="82" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H57" s="82" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I57" s="82">
         <v>0.66</v>
@@ -9936,7 +8815,7 @@
         <v>2</v>
       </c>
       <c r="AH57" s="85" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="AK57" s="85" t="s">
         <v>147</v>
@@ -9950,22 +8829,22 @@
         <v>57</v>
       </c>
       <c r="C58" s="88" t="s">
+        <v>249</v>
+      </c>
+      <c r="D58" s="88" t="s">
+        <v>250</v>
+      </c>
+      <c r="E58" s="88" t="s">
         <v>251</v>
       </c>
-      <c r="D58" s="88" t="s">
+      <c r="F58" s="88" t="s">
         <v>252</v>
       </c>
-      <c r="E58" s="88" t="s">
-        <v>253</v>
-      </c>
-      <c r="F58" s="88" t="s">
-        <v>254</v>
-      </c>
       <c r="G58" s="88" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H58" s="88" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I58" s="88">
         <v>2.64</v>
@@ -9999,7 +8878,7 @@
         <v>0.74</v>
       </c>
       <c r="U58" s="88" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="V58" s="89">
         <v>1</v>
@@ -10014,7 +8893,7 @@
         <v>146</v>
       </c>
       <c r="AA58" s="91" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AB58" s="91">
         <v>1</v>
@@ -10035,22 +8914,22 @@
         <v>58</v>
       </c>
       <c r="C59" s="88" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D59" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E59" s="88" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F59" s="88" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G59" s="88" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H59" s="88" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I59" s="88">
         <v>2.64</v>
@@ -10084,7 +8963,7 @@
         <v>0.74</v>
       </c>
       <c r="U59" s="88" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="V59" s="89">
         <v>1</v>
@@ -10099,7 +8978,7 @@
         <v>146</v>
       </c>
       <c r="AA59" s="91" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AB59" s="91">
         <v>1</v>
@@ -10120,22 +8999,22 @@
         <v>59</v>
       </c>
       <c r="C60" s="88" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D60" s="88" t="s">
-        <v>259</v>
+        <v>485</v>
       </c>
       <c r="E60" s="88" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F60" s="88" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G60" s="88" t="s">
         <v>161</v>
       </c>
       <c r="H60" s="88" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I60" s="88">
         <v>2.64</v>
@@ -10181,7 +9060,7 @@
         <v>0.1</v>
       </c>
       <c r="Z60" s="90" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AA60" s="91" t="s">
         <v>53</v>
@@ -10205,22 +9084,22 @@
         <v>60</v>
       </c>
       <c r="C61" s="88" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D61" s="88" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E61" s="88" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F61" s="88" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G61" s="88" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H61" s="88" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I61" s="88">
         <v>2.64</v>
@@ -10290,22 +9169,22 @@
         <v>61</v>
       </c>
       <c r="C62" s="93" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D62" s="94" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E62" s="93" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F62" s="94" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G62" s="94" t="s">
         <v>162</v>
       </c>
       <c r="H62" s="93" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I62" s="93">
         <v>2.64</v>
@@ -10339,7 +9218,7 @@
         <v>0.74</v>
       </c>
       <c r="U62" s="93" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="V62" s="96">
         <v>1</v>
@@ -10351,10 +9230,10 @@
         <v>0.1</v>
       </c>
       <c r="Y62" s="95" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Z62" s="97" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AA62" s="92" t="s">
         <v>53</v>

--- a/config_hlw/fish3d_config.xlsx
+++ b/config_hlw/fish3d_config.xlsx
@@ -1738,10 +1738,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Fish3D031</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>宝藏章鱼</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2080,9 +2076,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>FishNew021</t>
-  </si>
-  <si>
     <t>蝴蝶鱼</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2400,10 +2393,6 @@
     <t>fish3dnode/fish3d/fish/Haigui/Haigui_Body</t>
   </si>
   <si>
-    <t>FishNew026</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_icon_yu48</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2534,6 +2523,18 @@
   </si>
   <si>
     <t>fish3dnode/fish3d/fish/Jianyu/Jianyu_Body</t>
+  </si>
+  <si>
+    <t>FishNew026</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D031</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew021</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3337,9 +3338,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH6" sqref="AH6"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3674,13 +3675,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>57</v>
@@ -3853,13 +3854,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>244</v>
@@ -3877,7 +3878,7 @@
         <v>2.74</v>
       </c>
       <c r="K6" s="27">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L6" s="27">
         <v>30</v>
@@ -3917,7 +3918,7 @@
         <v>0.4</v>
       </c>
       <c r="Y6" s="30" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="Z6" s="32" t="s">
         <v>30</v>
@@ -3939,10 +3940,10 @@
         <v>187</v>
       </c>
       <c r="AH6" s="32" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AK6" s="32" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:37" s="9" customFormat="1">
@@ -4136,13 +4137,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>183</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>61</v>
@@ -4228,13 +4229,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>446</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>447</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>448</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>58</v>
@@ -4243,7 +4244,7 @@
         <v>58</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I10" s="28">
         <v>1.64</v>
@@ -4292,7 +4293,7 @@
         <v>0.45</v>
       </c>
       <c r="Y10" s="30" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="Z10" s="100" t="s">
         <v>31</v>
@@ -4313,10 +4314,10 @@
         <v>187</v>
       </c>
       <c r="AH10" s="32" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AK10" s="32" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:37" s="33" customFormat="1">
@@ -4327,13 +4328,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="E11" s="28" t="s">
         <v>452</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>453</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>454</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>58</v>
@@ -4342,7 +4343,7 @@
         <v>58</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I11" s="28">
         <v>1</v>
@@ -4391,7 +4392,7 @@
         <v>0.5</v>
       </c>
       <c r="Y11" s="30" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="Z11" s="32" t="s">
         <v>129</v>
@@ -4412,10 +4413,10 @@
         <v>187</v>
       </c>
       <c r="AH11" s="32" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AK11" s="32" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:37" s="33" customFormat="1">
@@ -4426,13 +4427,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>458</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>459</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>460</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>58</v>
@@ -4441,7 +4442,7 @@
         <v>58</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I12" s="28">
         <v>2.36</v>
@@ -4490,7 +4491,7 @@
         <v>0.35</v>
       </c>
       <c r="Y12" s="30" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="Z12" s="32" t="s">
         <v>129</v>
@@ -4511,10 +4512,10 @@
         <v>187</v>
       </c>
       <c r="AH12" s="32" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AK12" s="32" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:37" s="33" customFormat="1">
@@ -4525,22 +4526,22 @@
         <v>12</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D13" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="F13" s="28" t="s">
         <v>395</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>397</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>244</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I13" s="28">
         <v>0.96</v>
@@ -4589,7 +4590,7 @@
         <v>0.35</v>
       </c>
       <c r="Y13" s="30" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="Z13" s="32" t="s">
         <v>35</v>
@@ -4610,10 +4611,10 @@
         <v>187</v>
       </c>
       <c r="AH13" s="32" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AK13" s="32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:37" s="33" customFormat="1">
@@ -4624,22 +4625,22 @@
         <v>13</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>372</v>
+        <v>492</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G14" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="H14" s="28" t="s">
         <v>368</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>369</v>
       </c>
       <c r="I14" s="28">
         <v>0.96</v>
@@ -4688,7 +4689,7 @@
         <v>0.35</v>
       </c>
       <c r="Y14" s="30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Z14" s="32" t="s">
         <v>37</v>
@@ -4709,7 +4710,7 @@
         <v>187</v>
       </c>
       <c r="AH14" s="32" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AK14" s="32" t="s">
         <v>246</v>
@@ -4723,22 +4724,22 @@
         <v>14</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D15" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="H15" s="28" t="s">
         <v>374</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>376</v>
       </c>
       <c r="I15" s="28">
         <v>0.74</v>
@@ -4787,7 +4788,7 @@
         <v>0.4</v>
       </c>
       <c r="Y15" s="30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="Z15" s="32" t="s">
         <v>30</v>
@@ -4808,10 +4809,10 @@
         <v>187</v>
       </c>
       <c r="AH15" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AK15" s="32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:37" s="33" customFormat="1">
@@ -4822,22 +4823,22 @@
         <v>15</v>
       </c>
       <c r="C16" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>378</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>403</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>380</v>
-      </c>
       <c r="G16" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I16" s="28">
         <v>1.53</v>
@@ -4886,7 +4887,7 @@
         <v>0.35</v>
       </c>
       <c r="Y16" s="30" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="Z16" s="32" t="s">
         <v>32</v>
@@ -4907,10 +4908,10 @@
         <v>187</v>
       </c>
       <c r="AH16" s="32" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AK16" s="32" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:37" s="33" customFormat="1">
@@ -4921,22 +4922,22 @@
         <v>16</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I17" s="28">
         <v>0.8</v>
@@ -4985,7 +4986,7 @@
         <v>0.5</v>
       </c>
       <c r="Y17" s="30" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Z17" s="32" t="s">
         <v>32</v>
@@ -5006,7 +5007,7 @@
         <v>187</v>
       </c>
       <c r="AH17" s="32" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AK17" s="32" t="s">
         <v>246</v>
@@ -5020,22 +5021,22 @@
         <v>17</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>102</v>
       </c>
       <c r="E18" s="99" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I18" s="28">
         <v>1.53</v>
@@ -5084,7 +5085,7 @@
         <v>0.35</v>
       </c>
       <c r="Y18" s="30" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="Z18" s="32" t="s">
         <v>32</v>
@@ -5105,10 +5106,10 @@
         <v>187</v>
       </c>
       <c r="AH18" s="32" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AK18" s="32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:37" s="33" customFormat="1">
@@ -5119,22 +5120,22 @@
         <v>18</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>103</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I19" s="28">
         <v>0.66</v>
@@ -5183,7 +5184,7 @@
         <v>0.35</v>
       </c>
       <c r="Y19" s="30" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Z19" s="32" t="s">
         <v>35</v>
@@ -5204,10 +5205,10 @@
         <v>187</v>
       </c>
       <c r="AH19" s="32" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AK19" s="32" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:37" s="33" customFormat="1">
@@ -5218,22 +5219,22 @@
         <v>19</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F20" s="28" t="s">
         <v>244</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I20" s="28">
         <v>2.2799999999999998</v>
@@ -5254,7 +5255,7 @@
         <v>60</v>
       </c>
       <c r="O20" s="30" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P20" s="27">
         <v>4</v>
@@ -5282,7 +5283,7 @@
         <v>0.35</v>
       </c>
       <c r="Y20" s="30" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Z20" s="32" t="s">
         <v>37</v>
@@ -5303,10 +5304,10 @@
         <v>187</v>
       </c>
       <c r="AH20" s="32" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AK20" s="32" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:37" s="108" customFormat="1">
@@ -5317,22 +5318,22 @@
         <v>20</v>
       </c>
       <c r="C21" s="102" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D21" s="102" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E21" s="102" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F21" s="102" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G21" s="102" t="s">
         <v>266</v>
       </c>
       <c r="H21" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I21" s="102">
         <v>2.72</v>
@@ -5377,7 +5378,7 @@
         <v>0.35</v>
       </c>
       <c r="Y21" s="106" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Z21" s="107" t="s">
         <v>40</v>
@@ -5396,10 +5397,10 @@
       </c>
       <c r="AG21" s="107"/>
       <c r="AH21" s="107" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AK21" s="107" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:37" s="33" customFormat="1">
@@ -5493,7 +5494,7 @@
         <v>187</v>
       </c>
       <c r="AH22" s="32" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AK22" s="32" t="s">
         <v>272</v>
@@ -5507,13 +5508,13 @@
         <v>22</v>
       </c>
       <c r="C23" s="102" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E23" s="102" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F23" s="102" t="s">
         <v>136</v>
@@ -5587,7 +5588,7 @@
         <v>1</v>
       </c>
       <c r="AH23" s="107" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AK23" s="107" t="s">
         <v>190</v>
@@ -5601,10 +5602,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="102" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E24" s="102" t="s">
         <v>191</v>
@@ -5679,7 +5680,7 @@
       </c>
       <c r="AG24" s="33"/>
       <c r="AH24" s="32" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AK24" s="107" t="s">
         <v>192</v>
@@ -5770,7 +5771,7 @@
         <v>1.2</v>
       </c>
       <c r="AH25" s="107" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AK25" s="107" t="s">
         <v>276</v>
@@ -5877,13 +5878,13 @@
         <v>26</v>
       </c>
       <c r="C27" s="102" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D27" s="102" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E27" s="102" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F27" s="102" t="s">
         <v>62</v>
@@ -5960,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="AH27" s="107" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AK27" s="107" t="s">
         <v>152</v>
@@ -5974,13 +5975,13 @@
         <v>27</v>
       </c>
       <c r="C28" s="102" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D28" s="102" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E28" s="102" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F28" s="103" t="s">
         <v>62</v>
@@ -6059,7 +6060,7 @@
       </c>
       <c r="AG28" s="33"/>
       <c r="AH28" s="32" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AK28" s="107" t="s">
         <v>153</v>
@@ -6152,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="AH29" s="35" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AK29" s="42" t="s">
         <v>285</v>
@@ -6446,19 +6447,19 @@
         <v>32</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>293</v>
+        <v>491</v>
       </c>
       <c r="D33" s="37" t="s">
         <v>206</v>
       </c>
       <c r="E33" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F33" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="F33" s="38" t="s">
-        <v>295</v>
-      </c>
       <c r="G33" s="38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H33" s="37" t="s">
         <v>69</v>
@@ -6541,10 +6542,10 @@
         <v>208</v>
       </c>
       <c r="D34" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="E34" s="37" t="s">
         <v>296</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>297</v>
       </c>
       <c r="F34" s="37" t="s">
         <v>209</v>
@@ -6621,7 +6622,7 @@
       <c r="AH34" s="35"/>
       <c r="AI34" s="46"/>
       <c r="AK34" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:37" s="43" customFormat="1">
@@ -6632,19 +6633,19 @@
         <v>34</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>119</v>
       </c>
       <c r="E35" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F35" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="F35" s="37" t="s">
-        <v>301</v>
-      </c>
       <c r="G35" s="37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H35" s="37" t="s">
         <v>211</v>
@@ -6707,7 +6708,7 @@
         <v>1.2</v>
       </c>
       <c r="AH35" s="35" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AI35" s="46"/>
       <c r="AK35" s="8" t="s">
@@ -6731,7 +6732,7 @@
         <v>214</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>112</v>
@@ -6800,11 +6801,11 @@
         <v>1.2</v>
       </c>
       <c r="AH36" s="35" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AI36" s="46"/>
       <c r="AK36" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:37" s="43" customFormat="1">
@@ -6815,13 +6816,13 @@
         <v>36</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>118</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F37" s="37" t="s">
         <v>109</v>
@@ -6893,10 +6894,10 @@
         <v>2</v>
       </c>
       <c r="AG37" s="42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AH37" s="35" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AI37" s="46"/>
       <c r="AK37" s="8" t="s">
@@ -6911,10 +6912,10 @@
         <v>37</v>
       </c>
       <c r="C38" s="48" t="s">
+        <v>306</v>
+      </c>
+      <c r="D38" s="48" t="s">
         <v>307</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>308</v>
       </c>
       <c r="E38" s="48" t="s">
         <v>71</v>
@@ -6992,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="AH38" s="35" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AI38" s="52"/>
       <c r="AJ38" s="52"/>
@@ -7005,10 +7006,10 @@
         <v>38</v>
       </c>
       <c r="C39" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="D39" s="54" t="s">
         <v>309</v>
-      </c>
-      <c r="D39" s="54" t="s">
-        <v>310</v>
       </c>
       <c r="E39" s="54" t="s">
         <v>216</v>
@@ -7087,7 +7088,7 @@
         <v>140</v>
       </c>
       <c r="AK39" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:37" s="63" customFormat="1">
@@ -7107,10 +7108,10 @@
         <v>219</v>
       </c>
       <c r="F40" s="60" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G40" s="60" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H40" s="60" t="s">
         <v>70</v>
@@ -7179,13 +7180,13 @@
         <v>187</v>
       </c>
       <c r="AH40" s="32" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AJ40" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="AK40" s="32" t="s">
         <v>313</v>
-      </c>
-      <c r="AK40" s="32" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="41" spans="1:37" s="57" customFormat="1">
@@ -7196,10 +7197,10 @@
         <v>40</v>
       </c>
       <c r="C41" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="D41" s="54" t="s">
         <v>315</v>
-      </c>
-      <c r="D41" s="54" t="s">
-        <v>316</v>
       </c>
       <c r="E41" s="54" t="s">
         <v>221</v>
@@ -7208,7 +7209,7 @@
         <v>244</v>
       </c>
       <c r="G41" s="54" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H41" s="54" t="s">
         <v>70</v>
@@ -7292,7 +7293,7 @@
         <v>222</v>
       </c>
       <c r="D42" s="60" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E42" s="60" t="s">
         <v>100</v>
@@ -7301,7 +7302,7 @@
         <v>244</v>
       </c>
       <c r="G42" s="60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H42" s="60" t="s">
         <v>228</v>
@@ -7368,13 +7369,13 @@
       </c>
       <c r="AG42" s="33"/>
       <c r="AH42" s="32" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AJ42" s="64" t="s">
         <v>142</v>
       </c>
       <c r="AK42" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:37" s="68" customFormat="1">
@@ -7388,7 +7389,7 @@
         <v>223</v>
       </c>
       <c r="D43" s="66" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E43" s="66" t="s">
         <v>224</v>
@@ -7466,7 +7467,7 @@
         <v>2</v>
       </c>
       <c r="AH43" s="35" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AJ43" s="69"/>
       <c r="AK43" s="69"/>
@@ -7482,16 +7483,16 @@
         <v>225</v>
       </c>
       <c r="D44" s="60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F44" s="60" t="s">
         <v>62</v>
       </c>
       <c r="G44" s="60" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H44" s="60" t="s">
         <v>228</v>
@@ -7562,13 +7563,13 @@
         <v>187</v>
       </c>
       <c r="AH44" s="32" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AJ44" s="64" t="s">
         <v>226</v>
       </c>
       <c r="AK44" s="32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:37" s="68" customFormat="1">
@@ -7582,10 +7583,10 @@
         <v>227</v>
       </c>
       <c r="D45" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="E45" s="66" t="s">
         <v>325</v>
-      </c>
-      <c r="E45" s="66" t="s">
-        <v>326</v>
       </c>
       <c r="F45" s="66" t="s">
         <v>62</v>
@@ -7660,7 +7661,7 @@
         <v>2</v>
       </c>
       <c r="AH45" s="35" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AJ45" s="69"/>
       <c r="AK45" s="69"/>
@@ -7679,7 +7680,7 @@
         <v>122</v>
       </c>
       <c r="E46" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F46" s="66" t="s">
         <v>62</v>
@@ -7751,7 +7752,7 @@
         <v>2</v>
       </c>
       <c r="AH46" s="35" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AJ46" s="69"/>
       <c r="AK46" s="69"/>
@@ -7767,16 +7768,16 @@
         <v>229</v>
       </c>
       <c r="D47" s="60" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E47" s="60" t="s">
         <v>101</v>
       </c>
       <c r="F47" s="60" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G47" s="60" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H47" s="60" t="s">
         <v>70</v>
@@ -7845,7 +7846,7 @@
         <v>187</v>
       </c>
       <c r="AH47" s="32" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AJ47" s="64" t="s">
         <v>230</v>
@@ -7865,16 +7866,16 @@
         <v>232</v>
       </c>
       <c r="D48" s="71" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E48" s="71" t="s">
         <v>233</v>
       </c>
       <c r="F48" s="71" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G48" s="71" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H48" s="71" t="s">
         <v>228</v>
@@ -7940,13 +7941,13 @@
         <v>2</v>
       </c>
       <c r="AH48" s="35" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AJ48" s="74" t="s">
         <v>143</v>
       </c>
       <c r="AK48" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:37" s="63" customFormat="1">
@@ -7960,16 +7961,16 @@
         <v>234</v>
       </c>
       <c r="D49" s="60" t="s">
+        <v>332</v>
+      </c>
+      <c r="E49" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="E49" s="60" t="s">
+      <c r="F49" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="F49" s="60" t="s">
-        <v>335</v>
-      </c>
       <c r="G49" s="60" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H49" s="60" t="s">
         <v>228</v>
@@ -8038,7 +8039,7 @@
         <v>187</v>
       </c>
       <c r="AH49" s="32" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AJ49" s="64" t="s">
         <v>235</v>
@@ -8055,7 +8056,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="71" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D50" s="71" t="s">
         <v>237</v>
@@ -8064,7 +8065,7 @@
         <v>108</v>
       </c>
       <c r="F50" s="71" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G50" s="71" t="s">
         <v>137</v>
@@ -8136,10 +8137,10 @@
         <v>2</v>
       </c>
       <c r="AH50" s="35" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AJ50" s="74" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AK50" s="8" t="s">
         <v>238</v>
@@ -8159,7 +8160,7 @@
         <v>104</v>
       </c>
       <c r="E51" s="78" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F51" s="71" t="s">
         <v>62</v>
@@ -8248,10 +8249,10 @@
         <v>242</v>
       </c>
       <c r="D52" s="60" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F52" s="60" t="s">
         <v>177</v>
@@ -8327,7 +8328,7 @@
         <v>187</v>
       </c>
       <c r="AH52" s="32" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AJ52" s="64" t="s">
         <v>142</v>
@@ -8341,10 +8342,10 @@
         <v>52</v>
       </c>
       <c r="C53" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="D53" s="60" t="s">
         <v>341</v>
-      </c>
-      <c r="D53" s="60" t="s">
-        <v>342</v>
       </c>
       <c r="E53" s="60" t="s">
         <v>243</v>
@@ -8423,7 +8424,7 @@
         <v>187</v>
       </c>
       <c r="AH53" s="32" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AJ53" s="64" t="s">
         <v>142</v>
@@ -8437,13 +8438,13 @@
         <v>53</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D54" s="28" t="s">
         <v>220</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F54" s="60" t="s">
         <v>58</v>
@@ -8520,7 +8521,7 @@
         <v>187</v>
       </c>
       <c r="AH54" s="32" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AJ54" s="64" t="s">
         <v>142</v>
@@ -8537,10 +8538,10 @@
         <v>54</v>
       </c>
       <c r="C55" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="D55" s="28" t="s">
         <v>345</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>346</v>
       </c>
       <c r="E55" s="28" t="s">
         <v>245</v>
@@ -8620,10 +8621,10 @@
         <v>187</v>
       </c>
       <c r="AH55" s="32" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AJ55" s="64" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AK55" s="32" t="s">
         <v>246</v>
@@ -8637,13 +8638,13 @@
         <v>55</v>
       </c>
       <c r="C56" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="D56" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="E56" s="28" t="s">
         <v>349</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>350</v>
       </c>
       <c r="F56" s="60" t="s">
         <v>58</v>
@@ -8720,7 +8721,7 @@
         <v>187</v>
       </c>
       <c r="AH56" s="32" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AJ56" s="64" t="s">
         <v>142</v>
@@ -8737,7 +8738,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="82" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D57" s="82" t="s">
         <v>103</v>
@@ -8815,7 +8816,7 @@
         <v>2</v>
       </c>
       <c r="AH57" s="85" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AK57" s="85" t="s">
         <v>147</v>
@@ -8914,13 +8915,13 @@
         <v>58</v>
       </c>
       <c r="C59" s="88" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D59" s="88" t="s">
         <v>254</v>
       </c>
       <c r="E59" s="88" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F59" s="88" t="s">
         <v>255</v>
@@ -8999,13 +9000,13 @@
         <v>59</v>
       </c>
       <c r="C60" s="88" t="s">
+        <v>353</v>
+      </c>
+      <c r="D60" s="88" t="s">
+        <v>482</v>
+      </c>
+      <c r="E60" s="88" t="s">
         <v>354</v>
-      </c>
-      <c r="D60" s="88" t="s">
-        <v>485</v>
-      </c>
-      <c r="E60" s="88" t="s">
-        <v>355</v>
       </c>
       <c r="F60" s="88" t="s">
         <v>257</v>
@@ -9087,13 +9088,13 @@
         <v>259</v>
       </c>
       <c r="D61" s="88" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E61" s="88" t="s">
         <v>261</v>
       </c>
       <c r="F61" s="88" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G61" s="88" t="s">
         <v>260</v>
@@ -9169,13 +9170,13 @@
         <v>61</v>
       </c>
       <c r="C62" s="93" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D62" s="94" t="s">
         <v>262</v>
       </c>
       <c r="E62" s="93" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F62" s="94" t="s">
         <v>262</v>

--- a/config_hlw/fish3d_config.xlsx
+++ b/config_hlw/fish3d_config.xlsx
@@ -25,7 +25,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="AI1" authorId="0" shapeId="0">
+    <comment ref="AJ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="1" shapeId="0">
+    <comment ref="AK1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="494">
   <si>
     <t>line|行号</t>
   </si>
@@ -1738,6 +1738,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>Fish3D031</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>宝藏章鱼</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2111,16 +2115,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>FishNew052</t>
-  </si>
-  <si>
     <t>3dby_imgf_jdyy</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>FishNew045</t>
-  </si>
-  <si>
     <t>魔鬼鱼</t>
   </si>
   <si>
@@ -2153,10 +2151,6 @@
   </si>
   <si>
     <t>3dby_icon_yu61</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew002</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2345,9 +2339,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>FishNew044</t>
-  </si>
-  <si>
     <t>3dby_icon_yu34</t>
   </si>
   <si>
@@ -2361,9 +2352,6 @@
   </si>
   <si>
     <t>"bgm_by_siwang24",</t>
-  </si>
-  <si>
-    <t>FishNew028</t>
   </si>
   <si>
     <t>3dby_icon_yu33</t>
@@ -2434,106 +2422,126 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>fish3d/FishView/Adapt/DieAction/fish_hjdjj/Bone024/fish_dujiaojing_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金独角鲸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3d/FishView/Adapt/DieAction/fish_huangjihaigui_001/fish_huangjihaigui_001 1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鲸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金锤头鲨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D105</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金猪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D103</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3d/FishView/Adapt/DieAction/fish_huangjinshuangqisha_001/Bone001/fish_huangjinshuangqisha_001 1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3d/FishView/Adapt/DieAction/Bone/fish_jinzhu_skin/Bone001/fish_jinzhu_001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3d/FishView/Adapt/DieAction/fish_jingyu_001/Bone024/fish_jingyu_001 1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu66</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hfy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu68</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu67</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu69</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu70</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu110</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3dnode/fish3d/fish/Jianyu/Jianyu_Body</t>
+  </si>
+  <si>
+    <t>FishNew021</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew044</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew026</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew024</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>not_symmetry|不对称鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>Fish3D117</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>fish3d/FishView/Adapt/DieAction/fish_hjdjj/Bone024/fish_dujiaojing_002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金独角鲸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish3d/FishView/Adapt/DieAction/fish_huangjihaigui_001/fish_huangjihaigui_001 1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Fish3D112</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>黄金鲸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Fish3D113</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>黄金锤头鲨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D105</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金猪</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D103</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish3d/FishView/Adapt/DieAction/fish_huangjinshuangqisha_001/Bone001/fish_huangjinshuangqisha_001 1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish3d/FishView/Adapt/DieAction/Bone/fish_jinzhu_skin/Bone001/fish_jinzhu_001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish3d/FishView/Adapt/DieAction/fish_jingyu_001/Bone024/fish_jingyu_001 1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu66</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_iocn_hfy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu68</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu67</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu69</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew024</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu70</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu110</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish3dnode/fish3d/fish/Jianyu/Jianyu_Body</t>
-  </si>
-  <si>
-    <t>FishNew026</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D031</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew021</t>
+    <t>FishNew002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew045</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew028</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew052</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3336,11 +3344,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AK69"/>
+  <dimension ref="A1:AL69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3364,18 +3372,18 @@
     <col min="25" max="25" width="18.625" customWidth="1"/>
     <col min="26" max="26" width="12.75" customWidth="1"/>
     <col min="27" max="27" width="14.25" customWidth="1"/>
-    <col min="28" max="28" width="14.5" customWidth="1"/>
-    <col min="29" max="29" width="12.625" customWidth="1"/>
-    <col min="30" max="30" width="10.75" customWidth="1"/>
-    <col min="31" max="31" width="18.875" customWidth="1"/>
-    <col min="33" max="33" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="41.75" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="30.75" customWidth="1"/>
-    <col min="37" max="37" width="83.875" customWidth="1"/>
+    <col min="28" max="29" width="14.5" customWidth="1"/>
+    <col min="30" max="30" width="12.625" customWidth="1"/>
+    <col min="31" max="31" width="10.75" customWidth="1"/>
+    <col min="32" max="32" width="18.875" customWidth="1"/>
+    <col min="34" max="34" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="41.75" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="30.75" customWidth="1"/>
+    <col min="38" max="38" width="83.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="60.75" customHeight="1">
+    <row r="1" spans="1:38" ht="60.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3461,34 +3469,37 @@
         <v>176</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="9" customFormat="1">
+    <row r="2" spans="1:38" s="9" customFormat="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3566,19 +3577,19 @@
       <c r="AA2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AD2" s="9">
+      <c r="AE2" s="9">
         <v>9000</v>
       </c>
-      <c r="AE2" s="9">
+      <c r="AF2" s="9">
         <v>1.2</v>
       </c>
-      <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
-      <c r="AK2" s="8" t="s">
+      <c r="AI2" s="8"/>
+      <c r="AL2" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="9" customFormat="1">
+    <row r="3" spans="1:38" s="9" customFormat="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3656,18 +3667,18 @@
       <c r="AA3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AD3" s="9">
+      <c r="AE3" s="9">
         <v>8900</v>
       </c>
-      <c r="AE3" s="9">
+      <c r="AF3" s="9">
         <v>1.2</v>
       </c>
-      <c r="AH3" s="8"/>
-      <c r="AK3" s="8" t="s">
+      <c r="AI3" s="8"/>
+      <c r="AL3" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="9" customFormat="1">
+    <row r="4" spans="1:38" s="9" customFormat="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3675,13 +3686,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>57</v>
@@ -3745,19 +3756,19 @@
       <c r="AA4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AD4" s="9">
+      <c r="AE4" s="9">
         <v>8800</v>
       </c>
-      <c r="AE4" s="9">
+      <c r="AF4" s="9">
         <v>1.2</v>
       </c>
-      <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
-      <c r="AK4" s="8" t="s">
+      <c r="AI4" s="8"/>
+      <c r="AL4" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="9" customFormat="1">
+    <row r="5" spans="1:38" s="9" customFormat="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3835,18 +3846,18 @@
       <c r="AA5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AD5" s="9">
+      <c r="AE5" s="9">
         <v>8700</v>
       </c>
-      <c r="AE5" s="9">
+      <c r="AF5" s="9">
         <v>1.2</v>
       </c>
-      <c r="AH5" s="8"/>
-      <c r="AK5" s="8" t="s">
+      <c r="AI5" s="8"/>
+      <c r="AL5" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="33" customFormat="1">
+    <row r="6" spans="1:38" s="33" customFormat="1">
       <c r="A6" s="27">
         <v>5</v>
       </c>
@@ -3854,13 +3865,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>244</v>
@@ -3918,7 +3929,7 @@
         <v>0.4</v>
       </c>
       <c r="Y6" s="30" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="Z6" s="32" t="s">
         <v>30</v>
@@ -3926,27 +3937,27 @@
       <c r="AA6" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AD6" s="33">
-        <f t="shared" ref="AD6" si="0">AD5-100</f>
+      <c r="AE6" s="33">
+        <f t="shared" ref="AE6" si="0">AE5-100</f>
         <v>8600</v>
       </c>
-      <c r="AE6" s="33">
+      <c r="AF6" s="33">
         <v>1.5</v>
       </c>
-      <c r="AF6" s="33">
+      <c r="AG6" s="33">
         <v>2</v>
       </c>
-      <c r="AG6" s="33" t="s">
+      <c r="AH6" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AH6" s="32" t="s">
-        <v>489</v>
-      </c>
-      <c r="AK6" s="32" t="s">
-        <v>443</v>
+      <c r="AI6" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="AL6" s="32" t="s">
+        <v>441</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="9" customFormat="1">
+    <row r="7" spans="1:38" s="9" customFormat="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4024,21 +4035,21 @@
       <c r="AA7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AD7" s="9">
+      <c r="AE7" s="9">
         <v>8500</v>
       </c>
-      <c r="AE7" s="9">
+      <c r="AF7" s="9">
         <v>1.5</v>
       </c>
-      <c r="AF7" s="9">
+      <c r="AG7" s="9">
         <v>2</v>
       </c>
-      <c r="AH7" s="8"/>
-      <c r="AK7" s="8" t="s">
+      <c r="AI7" s="8"/>
+      <c r="AL7" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="9" customFormat="1">
+    <row r="8" spans="1:38" s="9" customFormat="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4119,17 +4130,17 @@
       <c r="AB8" s="9">
         <v>1</v>
       </c>
-      <c r="AD8" s="9">
+      <c r="AE8" s="9">
         <v>8400</v>
       </c>
-      <c r="AE8" s="9">
+      <c r="AF8" s="9">
         <v>1.2</v>
       </c>
-      <c r="AK8" s="8" t="s">
+      <c r="AL8" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="9" customFormat="1">
+    <row r="9" spans="1:38" s="9" customFormat="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4137,13 +4148,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>183</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>61</v>
@@ -4207,21 +4218,21 @@
       <c r="AA9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AD9" s="9">
+      <c r="AE9" s="9">
         <v>8300</v>
       </c>
-      <c r="AE9" s="9">
+      <c r="AF9" s="9">
         <v>1.5</v>
       </c>
-      <c r="AF9" s="9">
+      <c r="AG9" s="9">
         <v>2</v>
       </c>
-      <c r="AH9" s="8"/>
-      <c r="AK9" s="8" t="s">
+      <c r="AI9" s="8"/>
+      <c r="AL9" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="33" customFormat="1">
+    <row r="10" spans="1:38" s="33" customFormat="1">
       <c r="A10" s="27">
         <v>9</v>
       </c>
@@ -4229,13 +4240,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>444</v>
+        <v>483</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>58</v>
@@ -4244,7 +4255,7 @@
         <v>58</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I10" s="28">
         <v>1.64</v>
@@ -4293,7 +4304,7 @@
         <v>0.45</v>
       </c>
       <c r="Y10" s="30" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="Z10" s="100" t="s">
         <v>31</v>
@@ -4301,26 +4312,26 @@
       <c r="AA10" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AD10" s="33">
+      <c r="AE10" s="33">
         <v>8200</v>
       </c>
-      <c r="AE10" s="33">
+      <c r="AF10" s="33">
         <v>1.5</v>
       </c>
-      <c r="AF10" s="33">
+      <c r="AG10" s="33">
         <v>2</v>
       </c>
-      <c r="AG10" s="33" t="s">
+      <c r="AH10" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AH10" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="AK10" s="32" t="s">
-        <v>449</v>
+      <c r="AI10" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="AL10" s="32" t="s">
+        <v>446</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="33" customFormat="1">
+    <row r="11" spans="1:38" s="33" customFormat="1">
       <c r="A11" s="27">
         <v>10</v>
       </c>
@@ -4328,13 +4339,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>450</v>
+        <v>492</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>58</v>
@@ -4343,7 +4354,7 @@
         <v>58</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="I11" s="28">
         <v>1</v>
@@ -4392,7 +4403,7 @@
         <v>0.5</v>
       </c>
       <c r="Y11" s="30" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="Z11" s="32" t="s">
         <v>129</v>
@@ -4400,26 +4411,26 @@
       <c r="AA11" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="33">
+      <c r="AE11" s="33">
         <v>8100</v>
       </c>
-      <c r="AE11" s="33">
+      <c r="AF11" s="33">
         <v>1.5</v>
       </c>
-      <c r="AF11" s="33">
+      <c r="AG11" s="33">
         <v>2</v>
       </c>
-      <c r="AG11" s="33" t="s">
+      <c r="AH11" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AH11" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="AK11" s="32" t="s">
-        <v>455</v>
+      <c r="AI11" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="AL11" s="32" t="s">
+        <v>451</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="33" customFormat="1">
+    <row r="12" spans="1:38" s="33" customFormat="1">
       <c r="A12" s="27">
         <v>11</v>
       </c>
@@ -4427,13 +4438,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>58</v>
@@ -4442,7 +4453,7 @@
         <v>58</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="I12" s="28">
         <v>2.36</v>
@@ -4491,7 +4502,7 @@
         <v>0.35</v>
       </c>
       <c r="Y12" s="30" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="Z12" s="32" t="s">
         <v>129</v>
@@ -4499,26 +4510,26 @@
       <c r="AA12" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AD12" s="33">
+      <c r="AE12" s="33">
         <v>8000</v>
       </c>
-      <c r="AE12" s="33">
+      <c r="AF12" s="33">
         <v>1.5</v>
       </c>
-      <c r="AF12" s="33">
+      <c r="AG12" s="33">
         <v>2</v>
       </c>
-      <c r="AG12" s="33" t="s">
+      <c r="AH12" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AH12" s="32" t="s">
-        <v>459</v>
-      </c>
-      <c r="AK12" s="32" t="s">
+      <c r="AI12" s="32" t="s">
         <v>455</v>
       </c>
+      <c r="AL12" s="32" t="s">
+        <v>451</v>
+      </c>
     </row>
-    <row r="13" spans="1:37" s="33" customFormat="1">
+    <row r="13" spans="1:38" s="33" customFormat="1">
       <c r="A13" s="27">
         <v>12</v>
       </c>
@@ -4526,22 +4537,22 @@
         <v>12</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D13" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="F13" s="28" t="s">
         <v>393</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>394</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>395</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>244</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I13" s="28">
         <v>0.96</v>
@@ -4590,7 +4601,7 @@
         <v>0.35</v>
       </c>
       <c r="Y13" s="30" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Z13" s="32" t="s">
         <v>35</v>
@@ -4598,26 +4609,26 @@
       <c r="AA13" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="33">
+      <c r="AE13" s="33">
         <v>7900</v>
       </c>
-      <c r="AE13" s="33">
+      <c r="AF13" s="33">
         <v>1.5</v>
       </c>
-      <c r="AF13" s="33">
+      <c r="AG13" s="33">
         <v>2</v>
       </c>
-      <c r="AG13" s="33" t="s">
+      <c r="AH13" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AH13" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="AK13" s="32" t="s">
-        <v>370</v>
+      <c r="AI13" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="AL13" s="32" t="s">
+        <v>371</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="33" customFormat="1">
+    <row r="14" spans="1:38" s="33" customFormat="1">
       <c r="A14" s="27">
         <v>13</v>
       </c>
@@ -4625,22 +4636,22 @@
         <v>13</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I14" s="28">
         <v>0.96</v>
@@ -4689,7 +4700,7 @@
         <v>0.35</v>
       </c>
       <c r="Y14" s="30" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z14" s="32" t="s">
         <v>37</v>
@@ -4697,26 +4708,26 @@
       <c r="AA14" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AD14" s="33">
+      <c r="AE14" s="33">
         <v>7800</v>
       </c>
-      <c r="AE14" s="33">
+      <c r="AF14" s="33">
         <v>1.5</v>
       </c>
-      <c r="AF14" s="33">
+      <c r="AG14" s="33">
         <v>2</v>
       </c>
-      <c r="AG14" s="33" t="s">
+      <c r="AH14" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AH14" s="32" t="s">
-        <v>412</v>
-      </c>
-      <c r="AK14" s="32" t="s">
+      <c r="AI14" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="AL14" s="32" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="33" customFormat="1">
+    <row r="15" spans="1:38" s="33" customFormat="1">
       <c r="A15" s="27">
         <v>14</v>
       </c>
@@ -4724,22 +4735,22 @@
         <v>14</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I15" s="28">
         <v>0.74</v>
@@ -4788,7 +4799,7 @@
         <v>0.4</v>
       </c>
       <c r="Y15" s="30" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Z15" s="32" t="s">
         <v>30</v>
@@ -4796,26 +4807,26 @@
       <c r="AA15" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AD15" s="33">
+      <c r="AE15" s="33">
         <v>8800</v>
       </c>
-      <c r="AE15" s="33">
+      <c r="AF15" s="33">
         <v>1.5</v>
       </c>
-      <c r="AF15" s="33">
+      <c r="AG15" s="33">
         <v>2</v>
       </c>
-      <c r="AG15" s="33" t="s">
+      <c r="AH15" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AH15" s="32" t="s">
-        <v>413</v>
-      </c>
-      <c r="AK15" s="32" t="s">
-        <v>370</v>
+      <c r="AI15" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="AL15" s="32" t="s">
+        <v>371</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="33" customFormat="1">
+    <row r="16" spans="1:38" s="33" customFormat="1">
       <c r="A16" s="27">
         <v>15</v>
       </c>
@@ -4823,22 +4834,22 @@
         <v>15</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I16" s="28">
         <v>1.53</v>
@@ -4887,7 +4898,7 @@
         <v>0.35</v>
       </c>
       <c r="Y16" s="30" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z16" s="32" t="s">
         <v>32</v>
@@ -4895,26 +4906,26 @@
       <c r="AA16" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AD16" s="33">
+      <c r="AE16" s="33">
         <v>7400</v>
       </c>
-      <c r="AE16" s="33">
+      <c r="AF16" s="33">
         <v>1.5</v>
       </c>
-      <c r="AF16" s="33">
+      <c r="AG16" s="33">
         <v>2</v>
       </c>
-      <c r="AG16" s="33" t="s">
+      <c r="AH16" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AH16" s="32" t="s">
-        <v>414</v>
-      </c>
-      <c r="AK16" s="32" t="s">
-        <v>403</v>
+      <c r="AI16" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="AL16" s="32" t="s">
+        <v>401</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="33" customFormat="1">
+    <row r="17" spans="1:38" s="33" customFormat="1">
       <c r="A17" s="27">
         <v>16</v>
       </c>
@@ -4922,22 +4933,22 @@
         <v>16</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>380</v>
+        <v>493</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F17" s="28" t="s">
         <v>381</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I17" s="28">
         <v>0.8</v>
@@ -4986,7 +4997,7 @@
         <v>0.5</v>
       </c>
       <c r="Y17" s="30" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Z17" s="32" t="s">
         <v>32</v>
@@ -4994,26 +5005,26 @@
       <c r="AA17" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AD17" s="33">
+      <c r="AE17" s="33">
         <v>7300</v>
       </c>
-      <c r="AE17" s="33">
+      <c r="AF17" s="33">
         <v>1.5</v>
       </c>
-      <c r="AF17" s="33">
+      <c r="AG17" s="33">
         <v>2</v>
       </c>
-      <c r="AG17" s="33" t="s">
+      <c r="AH17" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AH17" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="AK17" s="32" t="s">
+      <c r="AI17" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="AL17" s="32" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="33" customFormat="1">
+    <row r="18" spans="1:38" s="33" customFormat="1">
       <c r="A18" s="27">
         <v>17</v>
       </c>
@@ -5021,22 +5032,22 @@
         <v>17</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>382</v>
+        <v>491</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>102</v>
       </c>
       <c r="E18" s="99" t="s">
+        <v>382</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="G18" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="F18" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>384</v>
-      </c>
       <c r="H18" s="28" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I18" s="28">
         <v>1.53</v>
@@ -5085,7 +5096,7 @@
         <v>0.35</v>
       </c>
       <c r="Y18" s="30" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z18" s="32" t="s">
         <v>32</v>
@@ -5093,26 +5104,26 @@
       <c r="AA18" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AD18" s="33">
+      <c r="AE18" s="33">
         <v>7200</v>
       </c>
-      <c r="AE18" s="33">
+      <c r="AF18" s="33">
         <v>1.5</v>
       </c>
-      <c r="AF18" s="33">
+      <c r="AG18" s="33">
         <v>2</v>
       </c>
-      <c r="AG18" s="33" t="s">
+      <c r="AH18" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AH18" s="32" t="s">
-        <v>416</v>
-      </c>
-      <c r="AK18" s="32" t="s">
-        <v>370</v>
+      <c r="AI18" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="AL18" s="32" t="s">
+        <v>371</v>
       </c>
     </row>
-    <row r="19" spans="1:37" s="33" customFormat="1">
+    <row r="19" spans="1:38" s="33" customFormat="1">
       <c r="A19" s="27">
         <v>18</v>
       </c>
@@ -5120,22 +5131,22 @@
         <v>18</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>103</v>
       </c>
       <c r="E19" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="G19" s="28" t="s">
         <v>386</v>
       </c>
-      <c r="F19" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>387</v>
-      </c>
       <c r="H19" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I19" s="28">
         <v>0.66</v>
@@ -5184,7 +5195,7 @@
         <v>0.35</v>
       </c>
       <c r="Y19" s="30" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Z19" s="32" t="s">
         <v>35</v>
@@ -5192,26 +5203,32 @@
       <c r="AA19" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AD19" s="33">
+      <c r="AB19" s="33">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="33">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="33">
         <v>7100</v>
       </c>
-      <c r="AE19" s="33">
+      <c r="AF19" s="33">
         <v>1.5</v>
       </c>
-      <c r="AF19" s="33">
+      <c r="AG19" s="33">
         <v>2</v>
       </c>
-      <c r="AG19" s="33" t="s">
+      <c r="AH19" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AH19" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="AK19" s="32" t="s">
-        <v>390</v>
+      <c r="AI19" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="AL19" s="32" t="s">
+        <v>389</v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="33" customFormat="1">
+    <row r="20" spans="1:38" s="33" customFormat="1">
       <c r="A20" s="27">
         <v>19</v>
       </c>
@@ -5219,22 +5236,22 @@
         <v>19</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>392</v>
+        <v>490</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F20" s="28" t="s">
         <v>244</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I20" s="28">
         <v>2.2799999999999998</v>
@@ -5255,7 +5272,7 @@
         <v>60</v>
       </c>
       <c r="O20" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P20" s="27">
         <v>4</v>
@@ -5283,7 +5300,7 @@
         <v>0.35</v>
       </c>
       <c r="Y20" s="30" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Z20" s="32" t="s">
         <v>37</v>
@@ -5291,26 +5308,26 @@
       <c r="AA20" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AD20" s="33">
+      <c r="AE20" s="33">
         <v>7000</v>
       </c>
-      <c r="AE20" s="33">
+      <c r="AF20" s="33">
         <v>2</v>
       </c>
-      <c r="AF20" s="33">
-        <v>1</v>
-      </c>
-      <c r="AG20" s="33" t="s">
+      <c r="AG20" s="33">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AH20" s="32" t="s">
-        <v>418</v>
-      </c>
-      <c r="AK20" s="32" t="s">
-        <v>410</v>
+      <c r="AI20" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="AL20" s="32" t="s">
+        <v>408</v>
       </c>
     </row>
-    <row r="21" spans="1:37" s="108" customFormat="1">
+    <row r="21" spans="1:38" s="108" customFormat="1">
       <c r="A21" s="101">
         <v>20</v>
       </c>
@@ -5318,22 +5335,22 @@
         <v>20</v>
       </c>
       <c r="C21" s="102" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="D21" s="102" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="E21" s="102" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F21" s="102" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G21" s="102" t="s">
         <v>266</v>
       </c>
       <c r="H21" s="102" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I21" s="102">
         <v>2.72</v>
@@ -5378,7 +5395,7 @@
         <v>0.35</v>
       </c>
       <c r="Y21" s="106" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Z21" s="107" t="s">
         <v>40</v>
@@ -5386,24 +5403,30 @@
       <c r="AA21" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="AD21" s="108">
+      <c r="AB21" s="108">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="108">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="108">
         <v>6500</v>
       </c>
-      <c r="AE21" s="108">
+      <c r="AF21" s="108">
         <v>2</v>
       </c>
-      <c r="AF21" s="108">
-        <v>1</v>
-      </c>
-      <c r="AG21" s="107"/>
-      <c r="AH21" s="107" t="s">
-        <v>479</v>
-      </c>
-      <c r="AK21" s="107" t="s">
-        <v>362</v>
+      <c r="AG21" s="108">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="107"/>
+      <c r="AI21" s="107" t="s">
+        <v>472</v>
+      </c>
+      <c r="AL21" s="107" t="s">
+        <v>363</v>
       </c>
     </row>
-    <row r="22" spans="1:37" s="33" customFormat="1">
+    <row r="22" spans="1:38" s="33" customFormat="1">
       <c r="A22" s="27">
         <v>21</v>
       </c>
@@ -5481,26 +5504,26 @@
       <c r="AA22" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AD22" s="33">
+      <c r="AE22" s="33">
         <v>6400</v>
       </c>
-      <c r="AE22" s="33">
+      <c r="AF22" s="33">
         <v>2</v>
       </c>
-      <c r="AF22" s="33">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="33" t="s">
+      <c r="AG22" s="33">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AH22" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="AK22" s="32" t="s">
+      <c r="AI22" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="AL22" s="32" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="108" customFormat="1">
+    <row r="23" spans="1:38" s="108" customFormat="1">
       <c r="A23" s="101">
         <v>22</v>
       </c>
@@ -5508,13 +5531,13 @@
         <v>22</v>
       </c>
       <c r="C23" s="102" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E23" s="102" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F23" s="102" t="s">
         <v>136</v>
@@ -5578,23 +5601,23 @@
       <c r="AA23" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="AD23" s="108">
+      <c r="AE23" s="108">
         <v>6300</v>
       </c>
-      <c r="AE23" s="108">
+      <c r="AF23" s="108">
         <v>2</v>
       </c>
-      <c r="AF23" s="108">
-        <v>1</v>
-      </c>
-      <c r="AH23" s="107" t="s">
-        <v>478</v>
-      </c>
-      <c r="AK23" s="107" t="s">
+      <c r="AG23" s="108">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="107" t="s">
+        <v>471</v>
+      </c>
+      <c r="AL23" s="107" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="108" customFormat="1">
+    <row r="24" spans="1:38" s="108" customFormat="1">
       <c r="A24" s="101">
         <v>23</v>
       </c>
@@ -5602,10 +5625,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="102" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="E24" s="102" t="s">
         <v>191</v>
@@ -5672,21 +5695,21 @@
       <c r="AA24" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="AD24" s="108">
+      <c r="AE24" s="108">
         <v>6200</v>
       </c>
-      <c r="AE24" s="108">
+      <c r="AF24" s="108">
         <v>1.2</v>
       </c>
-      <c r="AG24" s="33"/>
-      <c r="AH24" s="32" t="s">
-        <v>470</v>
-      </c>
-      <c r="AK24" s="107" t="s">
+      <c r="AH24" s="33"/>
+      <c r="AI24" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="AL24" s="107" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:37" s="108" customFormat="1">
+    <row r="25" spans="1:38" s="108" customFormat="1">
       <c r="A25" s="101">
         <v>24</v>
       </c>
@@ -5764,20 +5787,20 @@
       <c r="AA25" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="AD25" s="108">
+      <c r="AE25" s="108">
         <v>6100</v>
       </c>
-      <c r="AE25" s="108">
+      <c r="AF25" s="108">
         <v>1.2</v>
       </c>
-      <c r="AH25" s="107" t="s">
-        <v>420</v>
-      </c>
-      <c r="AK25" s="107" t="s">
+      <c r="AI25" s="107" t="s">
+        <v>418</v>
+      </c>
+      <c r="AL25" s="107" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="26" spans="1:37" s="108" customFormat="1">
+    <row r="26" spans="1:38" s="108" customFormat="1">
       <c r="A26" s="101">
         <v>25</v>
       </c>
@@ -5855,22 +5878,22 @@
       <c r="AA26" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="AC26" s="107"/>
-      <c r="AD26" s="108">
+      <c r="AD26" s="107"/>
+      <c r="AE26" s="108">
         <v>6000</v>
       </c>
-      <c r="AE26" s="108">
+      <c r="AF26" s="108">
         <v>2</v>
       </c>
-      <c r="AF26" s="108">
-        <v>1</v>
-      </c>
-      <c r="AH26" s="107"/>
-      <c r="AK26" s="107" t="s">
+      <c r="AG26" s="108">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="107"/>
+      <c r="AL26" s="107" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:37" s="108" customFormat="1">
+    <row r="27" spans="1:38" s="108" customFormat="1">
       <c r="A27" s="101">
         <v>26</v>
       </c>
@@ -5878,13 +5901,13 @@
         <v>26</v>
       </c>
       <c r="C27" s="102" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="D27" s="102" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="E27" s="102" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F27" s="102" t="s">
         <v>62</v>
@@ -5950,24 +5973,24 @@
       <c r="AA27" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="AC27" s="107"/>
-      <c r="AD27" s="108">
+      <c r="AD27" s="107"/>
+      <c r="AE27" s="108">
         <v>5900</v>
       </c>
-      <c r="AE27" s="108">
+      <c r="AF27" s="108">
         <v>2</v>
       </c>
-      <c r="AF27" s="108">
-        <v>1</v>
-      </c>
-      <c r="AH27" s="107" t="s">
-        <v>480</v>
-      </c>
-      <c r="AK27" s="107" t="s">
+      <c r="AG27" s="108">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="107" t="s">
+        <v>473</v>
+      </c>
+      <c r="AL27" s="107" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:37" s="108" customFormat="1">
+    <row r="28" spans="1:38" s="108" customFormat="1">
       <c r="A28" s="101">
         <v>27</v>
       </c>
@@ -5975,13 +5998,13 @@
         <v>27</v>
       </c>
       <c r="C28" s="102" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="D28" s="102" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="E28" s="102" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F28" s="103" t="s">
         <v>62</v>
@@ -6049,24 +6072,25 @@
       </c>
       <c r="AB28" s="107"/>
       <c r="AC28" s="107"/>
-      <c r="AD28" s="108">
+      <c r="AD28" s="107"/>
+      <c r="AE28" s="108">
         <v>5800</v>
       </c>
-      <c r="AE28" s="108">
+      <c r="AF28" s="108">
         <v>2</v>
       </c>
-      <c r="AF28" s="108">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="33"/>
-      <c r="AH28" s="32" t="s">
-        <v>468</v>
-      </c>
-      <c r="AK28" s="107" t="s">
+      <c r="AG28" s="108">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="33"/>
+      <c r="AI28" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="AL28" s="107" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:37" s="43" customFormat="1">
+    <row r="29" spans="1:38" s="43" customFormat="1">
       <c r="A29" s="36">
         <v>28</v>
       </c>
@@ -6142,24 +6166,24 @@
       <c r="AA29" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AC29" s="42"/>
-      <c r="AD29" s="43">
+      <c r="AD29" s="42"/>
+      <c r="AE29" s="43">
         <v>5000</v>
       </c>
-      <c r="AE29" s="43">
+      <c r="AF29" s="43">
         <v>2</v>
       </c>
-      <c r="AF29" s="43">
-        <v>1</v>
-      </c>
-      <c r="AH29" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="AK29" s="42" t="s">
+      <c r="AG29" s="43">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="AL29" s="42" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="43" customFormat="1">
+    <row r="30" spans="1:38" s="43" customFormat="1">
       <c r="A30" s="36">
         <v>29</v>
       </c>
@@ -6240,18 +6264,18 @@
       <c r="AB30" s="43">
         <v>1</v>
       </c>
-      <c r="AD30" s="43">
+      <c r="AE30" s="43">
         <v>9200</v>
       </c>
-      <c r="AE30" s="43">
+      <c r="AF30" s="43">
         <v>2</v>
       </c>
-      <c r="AH30" s="35"/>
-      <c r="AK30" s="8" t="s">
+      <c r="AI30" s="35"/>
+      <c r="AL30" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:37" s="43" customFormat="1">
+    <row r="31" spans="1:38" s="43" customFormat="1">
       <c r="A31" s="36">
         <v>30</v>
       </c>
@@ -6331,19 +6355,19 @@
       <c r="AB31" s="43">
         <v>1</v>
       </c>
-      <c r="AC31" s="42"/>
-      <c r="AD31" s="43">
+      <c r="AD31" s="42"/>
+      <c r="AE31" s="43">
         <v>9200</v>
       </c>
-      <c r="AE31" s="43">
+      <c r="AF31" s="43">
         <v>2</v>
       </c>
-      <c r="AH31" s="35"/>
-      <c r="AK31" s="8" t="s">
+      <c r="AI31" s="35"/>
+      <c r="AL31" s="8" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="1:37" s="43" customFormat="1">
+    <row r="32" spans="1:38" s="43" customFormat="1">
       <c r="A32" s="36">
         <v>31</v>
       </c>
@@ -6424,22 +6448,22 @@
       <c r="AB32" s="43">
         <v>1</v>
       </c>
-      <c r="AC32" s="42"/>
-      <c r="AD32" s="43">
+      <c r="AD32" s="42"/>
+      <c r="AE32" s="43">
         <v>9200</v>
       </c>
-      <c r="AE32" s="43">
+      <c r="AF32" s="43">
         <v>2</v>
       </c>
-      <c r="AF32" s="43">
-        <v>1</v>
-      </c>
-      <c r="AH32" s="35"/>
-      <c r="AK32" s="8" t="s">
+      <c r="AG32" s="43">
+        <v>1</v>
+      </c>
+      <c r="AI32" s="35"/>
+      <c r="AL32" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:37" s="43" customFormat="1">
+    <row r="33" spans="1:38" s="43" customFormat="1">
       <c r="A33" s="36">
         <v>32</v>
       </c>
@@ -6447,19 +6471,19 @@
         <v>32</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>491</v>
+        <v>293</v>
       </c>
       <c r="D33" s="37" t="s">
         <v>206</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H33" s="37" t="s">
         <v>69</v>
@@ -6515,23 +6539,23 @@
       <c r="AA33" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AC33" s="42"/>
-      <c r="AD33" s="43">
+      <c r="AD33" s="42"/>
+      <c r="AE33" s="43">
         <v>4600</v>
       </c>
-      <c r="AE33" s="43">
+      <c r="AF33" s="43">
         <v>2</v>
       </c>
-      <c r="AF33" s="43">
-        <v>1</v>
-      </c>
-      <c r="AH33" s="35"/>
-      <c r="AI33" s="45"/>
-      <c r="AK33" s="8" t="s">
+      <c r="AG33" s="43">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="35"/>
+      <c r="AJ33" s="45"/>
+      <c r="AL33" s="8" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="34" spans="1:37" s="43" customFormat="1">
+    <row r="34" spans="1:38" s="43" customFormat="1">
       <c r="A34" s="36">
         <v>33</v>
       </c>
@@ -6542,10 +6566,10 @@
         <v>208</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F34" s="37" t="s">
         <v>209</v>
@@ -6609,23 +6633,23 @@
       <c r="AA34" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AC34" s="42"/>
-      <c r="AD34" s="43">
+      <c r="AD34" s="42"/>
+      <c r="AE34" s="43">
         <v>4500</v>
       </c>
-      <c r="AE34" s="43">
+      <c r="AF34" s="43">
         <v>2</v>
       </c>
-      <c r="AF34" s="43">
-        <v>1</v>
-      </c>
-      <c r="AH34" s="35"/>
-      <c r="AI34" s="46"/>
-      <c r="AK34" s="8" t="s">
-        <v>297</v>
+      <c r="AG34" s="43">
+        <v>1</v>
+      </c>
+      <c r="AI34" s="35"/>
+      <c r="AJ34" s="46"/>
+      <c r="AL34" s="8" t="s">
+        <v>298</v>
       </c>
     </row>
-    <row r="35" spans="1:37" s="43" customFormat="1">
+    <row r="35" spans="1:38" s="43" customFormat="1">
       <c r="A35" s="36">
         <v>34</v>
       </c>
@@ -6633,19 +6657,19 @@
         <v>34</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>119</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F35" s="37" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G35" s="37" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H35" s="37" t="s">
         <v>211</v>
@@ -6701,21 +6725,21 @@
       <c r="AA35" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="AD35" s="43">
+      <c r="AE35" s="43">
         <v>4400</v>
       </c>
-      <c r="AE35" s="43">
+      <c r="AF35" s="43">
         <v>1.2</v>
       </c>
-      <c r="AH35" s="35" t="s">
-        <v>423</v>
-      </c>
-      <c r="AI35" s="46"/>
-      <c r="AK35" s="8" t="s">
+      <c r="AI35" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="AJ35" s="46"/>
+      <c r="AL35" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="1:37" s="43" customFormat="1">
+    <row r="36" spans="1:38" s="43" customFormat="1">
       <c r="A36" s="36">
         <v>35</v>
       </c>
@@ -6732,7 +6756,7 @@
         <v>214</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>112</v>
@@ -6794,21 +6818,21 @@
       <c r="AB36" s="43">
         <v>1</v>
       </c>
-      <c r="AD36" s="43">
+      <c r="AE36" s="43">
         <v>4300</v>
       </c>
-      <c r="AE36" s="43">
+      <c r="AF36" s="43">
         <v>1.2</v>
       </c>
-      <c r="AH36" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="AI36" s="46"/>
-      <c r="AK36" s="8" t="s">
-        <v>302</v>
+      <c r="AI36" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="AJ36" s="46"/>
+      <c r="AL36" s="8" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="37" spans="1:37" s="43" customFormat="1">
+    <row r="37" spans="1:38" s="43" customFormat="1">
       <c r="A37" s="36">
         <v>36</v>
       </c>
@@ -6816,13 +6840,13 @@
         <v>36</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>118</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F37" s="37" t="s">
         <v>109</v>
@@ -6884,27 +6908,27 @@
       <c r="AA37" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AD37" s="43">
+      <c r="AE37" s="43">
         <v>4200</v>
       </c>
-      <c r="AE37" s="43">
+      <c r="AF37" s="43">
         <v>1.5</v>
       </c>
-      <c r="AF37" s="43">
+      <c r="AG37" s="43">
         <v>2</v>
       </c>
-      <c r="AG37" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="AH37" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="AI37" s="46"/>
-      <c r="AK37" s="8" t="s">
+      <c r="AH37" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="AI37" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="AJ37" s="46"/>
+      <c r="AL37" s="8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="38" spans="1:37" s="51" customFormat="1">
+    <row r="38" spans="1:38" s="51" customFormat="1">
       <c r="A38" s="47">
         <v>37</v>
       </c>
@@ -6912,10 +6936,10 @@
         <v>37</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E38" s="48" t="s">
         <v>71</v>
@@ -6983,22 +7007,22 @@
       <c r="AB38" s="51">
         <v>1</v>
       </c>
-      <c r="AD38" s="51">
+      <c r="AE38" s="51">
         <v>4100</v>
       </c>
-      <c r="AE38" s="51">
+      <c r="AF38" s="51">
         <v>2</v>
       </c>
-      <c r="AF38" s="51">
-        <v>1</v>
-      </c>
-      <c r="AH38" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="AI38" s="52"/>
+      <c r="AG38" s="51">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="35" t="s">
+        <v>424</v>
+      </c>
       <c r="AJ38" s="52"/>
+      <c r="AK38" s="52"/>
     </row>
-    <row r="39" spans="1:37" s="57" customFormat="1">
+    <row r="39" spans="1:38" s="57" customFormat="1">
       <c r="A39" s="53">
         <v>38</v>
       </c>
@@ -7006,10 +7030,10 @@
         <v>38</v>
       </c>
       <c r="C39" s="54" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D39" s="54" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E39" s="54" t="s">
         <v>216</v>
@@ -7074,24 +7098,24 @@
       <c r="AA39" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="AD39" s="57">
+      <c r="AE39" s="57">
         <v>3500</v>
       </c>
-      <c r="AE39" s="57">
+      <c r="AF39" s="57">
         <v>2</v>
       </c>
-      <c r="AF39" s="57">
-        <v>1</v>
-      </c>
-      <c r="AH39" s="35"/>
-      <c r="AJ39" s="58" t="s">
+      <c r="AG39" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="35"/>
+      <c r="AK39" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="AK39" s="8" t="s">
-        <v>310</v>
+      <c r="AL39" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="40" spans="1:37" s="63" customFormat="1">
+    <row r="40" spans="1:38" s="63" customFormat="1">
       <c r="A40" s="59">
         <v>39</v>
       </c>
@@ -7108,10 +7132,10 @@
         <v>219</v>
       </c>
       <c r="F40" s="60" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G40" s="60" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H40" s="60" t="s">
         <v>70</v>
@@ -7167,29 +7191,29 @@
       <c r="AA40" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="AD40" s="63">
+      <c r="AE40" s="63">
         <v>9100</v>
       </c>
-      <c r="AE40" s="63">
+      <c r="AF40" s="63">
         <v>2</v>
       </c>
-      <c r="AF40" s="63">
-        <v>1</v>
-      </c>
-      <c r="AG40" s="33" t="s">
+      <c r="AG40" s="63">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AH40" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="AJ40" s="64" t="s">
-        <v>312</v>
-      </c>
-      <c r="AK40" s="32" t="s">
+      <c r="AI40" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="AK40" s="64" t="s">
         <v>313</v>
       </c>
+      <c r="AL40" s="32" t="s">
+        <v>314</v>
+      </c>
     </row>
-    <row r="41" spans="1:37" s="57" customFormat="1">
+    <row r="41" spans="1:38" s="57" customFormat="1">
       <c r="A41" s="53">
         <v>40</v>
       </c>
@@ -7197,10 +7221,10 @@
         <v>40</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D41" s="54" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E41" s="54" t="s">
         <v>221</v>
@@ -7209,7 +7233,7 @@
         <v>244</v>
       </c>
       <c r="G41" s="54" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H41" s="54" t="s">
         <v>70</v>
@@ -7265,24 +7289,24 @@
       <c r="AA41" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="AD41" s="57">
+      <c r="AE41" s="57">
         <v>9100</v>
       </c>
-      <c r="AE41" s="57">
+      <c r="AF41" s="57">
         <v>2</v>
       </c>
-      <c r="AF41" s="57">
-        <v>1</v>
-      </c>
-      <c r="AH41" s="35"/>
-      <c r="AJ41" s="58" t="s">
+      <c r="AG41" s="57">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="35"/>
+      <c r="AK41" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="AK41" s="8" t="s">
+      <c r="AL41" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:37" s="63" customFormat="1">
+    <row r="42" spans="1:38" s="63" customFormat="1">
       <c r="A42" s="59">
         <v>41</v>
       </c>
@@ -7293,7 +7317,7 @@
         <v>222</v>
       </c>
       <c r="D42" s="60" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E42" s="60" t="s">
         <v>100</v>
@@ -7302,7 +7326,7 @@
         <v>244</v>
       </c>
       <c r="G42" s="60" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H42" s="60" t="s">
         <v>228</v>
@@ -7358,27 +7382,27 @@
       <c r="AA42" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="AD42" s="63">
+      <c r="AE42" s="63">
         <v>3200</v>
       </c>
-      <c r="AE42" s="63">
+      <c r="AF42" s="63">
         <v>1.5</v>
       </c>
-      <c r="AF42" s="63">
+      <c r="AG42" s="63">
         <v>2</v>
       </c>
-      <c r="AG42" s="33"/>
-      <c r="AH42" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ42" s="64" t="s">
+      <c r="AH42" s="33"/>
+      <c r="AI42" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="AK42" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="AK42" s="32" t="s">
-        <v>319</v>
+      <c r="AL42" s="32" t="s">
+        <v>320</v>
       </c>
     </row>
-    <row r="43" spans="1:37" s="68" customFormat="1">
+    <row r="43" spans="1:38" s="68" customFormat="1">
       <c r="A43" s="65">
         <v>42</v>
       </c>
@@ -7389,7 +7413,7 @@
         <v>223</v>
       </c>
       <c r="D43" s="66" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E43" s="66" t="s">
         <v>224</v>
@@ -7457,22 +7481,22 @@
       <c r="AB43" s="68">
         <v>1</v>
       </c>
-      <c r="AD43" s="68">
+      <c r="AE43" s="68">
         <v>3100</v>
       </c>
-      <c r="AE43" s="68">
+      <c r="AF43" s="68">
         <v>1.5</v>
       </c>
-      <c r="AF43" s="68">
+      <c r="AG43" s="68">
         <v>2</v>
       </c>
-      <c r="AH43" s="35" t="s">
-        <v>429</v>
-      </c>
-      <c r="AJ43" s="69"/>
+      <c r="AI43" s="35" t="s">
+        <v>427</v>
+      </c>
       <c r="AK43" s="69"/>
+      <c r="AL43" s="69"/>
     </row>
-    <row r="44" spans="1:37" s="63" customFormat="1">
+    <row r="44" spans="1:38" s="63" customFormat="1">
       <c r="A44" s="59">
         <v>43</v>
       </c>
@@ -7483,16 +7507,16 @@
         <v>225</v>
       </c>
       <c r="D44" s="60" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F44" s="60" t="s">
         <v>62</v>
       </c>
       <c r="G44" s="60" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H44" s="60" t="s">
         <v>228</v>
@@ -7550,29 +7574,29 @@
       <c r="AA44" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AD44" s="63">
+      <c r="AE44" s="63">
         <v>9100</v>
       </c>
-      <c r="AE44" s="63">
+      <c r="AF44" s="63">
         <v>1.5</v>
       </c>
-      <c r="AF44" s="63">
+      <c r="AG44" s="63">
         <v>2</v>
       </c>
-      <c r="AG44" s="33" t="s">
+      <c r="AH44" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AH44" s="32" t="s">
-        <v>430</v>
-      </c>
-      <c r="AJ44" s="64" t="s">
+      <c r="AI44" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="AK44" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="AK44" s="32" t="s">
-        <v>323</v>
+      <c r="AL44" s="32" t="s">
+        <v>324</v>
       </c>
     </row>
-    <row r="45" spans="1:37" s="68" customFormat="1">
+    <row r="45" spans="1:38" s="68" customFormat="1">
       <c r="A45" s="65">
         <v>44</v>
       </c>
@@ -7583,10 +7607,10 @@
         <v>227</v>
       </c>
       <c r="D45" s="66" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E45" s="66" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F45" s="66" t="s">
         <v>62</v>
@@ -7651,22 +7675,22 @@
       <c r="AB45" s="68">
         <v>1</v>
       </c>
-      <c r="AD45" s="68">
+      <c r="AE45" s="68">
         <v>2900</v>
       </c>
-      <c r="AE45" s="68">
+      <c r="AF45" s="68">
         <v>1.5</v>
       </c>
-      <c r="AF45" s="68">
+      <c r="AG45" s="68">
         <v>2</v>
       </c>
-      <c r="AH45" s="35" t="s">
-        <v>431</v>
-      </c>
-      <c r="AJ45" s="69"/>
+      <c r="AI45" s="35" t="s">
+        <v>429</v>
+      </c>
       <c r="AK45" s="69"/>
+      <c r="AL45" s="69"/>
     </row>
-    <row r="46" spans="1:37" s="68" customFormat="1">
+    <row r="46" spans="1:38" s="68" customFormat="1">
       <c r="A46" s="65">
         <v>45</v>
       </c>
@@ -7680,7 +7704,7 @@
         <v>122</v>
       </c>
       <c r="E46" s="66" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F46" s="66" t="s">
         <v>62</v>
@@ -7742,22 +7766,22 @@
       <c r="AA46" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="AD46" s="68">
+      <c r="AE46" s="68">
         <v>2800</v>
       </c>
-      <c r="AE46" s="68">
+      <c r="AF46" s="68">
         <v>1.5</v>
       </c>
-      <c r="AF46" s="68">
+      <c r="AG46" s="68">
         <v>2</v>
       </c>
-      <c r="AH46" s="35" t="s">
-        <v>432</v>
-      </c>
-      <c r="AJ46" s="69"/>
+      <c r="AI46" s="35" t="s">
+        <v>430</v>
+      </c>
       <c r="AK46" s="69"/>
+      <c r="AL46" s="69"/>
     </row>
-    <row r="47" spans="1:37" s="63" customFormat="1">
+    <row r="47" spans="1:38" s="63" customFormat="1">
       <c r="A47" s="59">
         <v>46</v>
       </c>
@@ -7768,16 +7792,16 @@
         <v>229</v>
       </c>
       <c r="D47" s="60" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E47" s="60" t="s">
         <v>101</v>
       </c>
       <c r="F47" s="60" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G47" s="60" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H47" s="60" t="s">
         <v>70</v>
@@ -7833,29 +7857,29 @@
       <c r="AA47" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="AD47" s="63">
+      <c r="AE47" s="63">
         <v>9100</v>
       </c>
-      <c r="AE47" s="63">
+      <c r="AF47" s="63">
         <v>1.5</v>
       </c>
-      <c r="AF47" s="63">
+      <c r="AG47" s="63">
         <v>2</v>
       </c>
-      <c r="AG47" s="33" t="s">
+      <c r="AH47" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AH47" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="AJ47" s="64" t="s">
+      <c r="AI47" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="AK47" s="64" t="s">
         <v>230</v>
       </c>
-      <c r="AK47" s="32" t="s">
+      <c r="AL47" s="32" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:37" s="73" customFormat="1">
+    <row r="48" spans="1:38" s="73" customFormat="1">
       <c r="A48" s="70">
         <v>47</v>
       </c>
@@ -7866,16 +7890,16 @@
         <v>232</v>
       </c>
       <c r="D48" s="71" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E48" s="71" t="s">
         <v>233</v>
       </c>
       <c r="F48" s="71" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G48" s="71" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H48" s="71" t="s">
         <v>228</v>
@@ -7931,26 +7955,26 @@
       <c r="AA48" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="AD48" s="73">
+      <c r="AE48" s="73">
         <v>3300</v>
       </c>
-      <c r="AE48" s="73">
+      <c r="AF48" s="73">
         <v>1.5</v>
       </c>
-      <c r="AF48" s="73">
+      <c r="AG48" s="73">
         <v>2</v>
       </c>
-      <c r="AH48" s="35" t="s">
-        <v>434</v>
-      </c>
-      <c r="AJ48" s="74" t="s">
+      <c r="AI48" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="AK48" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="AK48" s="8" t="s">
-        <v>331</v>
+      <c r="AL48" s="8" t="s">
+        <v>332</v>
       </c>
     </row>
-    <row r="49" spans="1:37" s="63" customFormat="1">
+    <row r="49" spans="1:38" s="63" customFormat="1">
       <c r="A49" s="59">
         <v>48</v>
       </c>
@@ -7961,16 +7985,16 @@
         <v>234</v>
       </c>
       <c r="D49" s="60" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E49" s="60" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F49" s="60" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G49" s="60" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H49" s="60" t="s">
         <v>228</v>
@@ -8026,29 +8050,29 @@
       <c r="AA49" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="AD49" s="63">
+      <c r="AE49" s="63">
         <v>3000</v>
       </c>
-      <c r="AE49" s="63">
+      <c r="AF49" s="63">
         <v>1.5</v>
       </c>
-      <c r="AF49" s="63">
+      <c r="AG49" s="63">
         <v>2</v>
       </c>
-      <c r="AG49" s="33" t="s">
+      <c r="AH49" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AH49" s="32" t="s">
-        <v>435</v>
-      </c>
-      <c r="AJ49" s="64" t="s">
+      <c r="AI49" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="AK49" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="AK49" s="32" t="s">
+      <c r="AL49" s="32" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="1:37" s="73" customFormat="1">
+    <row r="50" spans="1:38" s="73" customFormat="1">
       <c r="A50" s="70">
         <v>49</v>
       </c>
@@ -8056,7 +8080,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="71" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D50" s="71" t="s">
         <v>237</v>
@@ -8065,7 +8089,7 @@
         <v>108</v>
       </c>
       <c r="F50" s="71" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G50" s="71" t="s">
         <v>137</v>
@@ -8127,26 +8151,26 @@
       <c r="AB50" s="73">
         <v>1</v>
       </c>
-      <c r="AD50" s="73">
+      <c r="AE50" s="73">
         <v>9400</v>
       </c>
-      <c r="AE50" s="73">
+      <c r="AF50" s="73">
         <v>1.5</v>
       </c>
-      <c r="AF50" s="73">
+      <c r="AG50" s="73">
         <v>2</v>
       </c>
-      <c r="AH50" s="35" t="s">
-        <v>436</v>
-      </c>
-      <c r="AJ50" s="74" t="s">
-        <v>337</v>
-      </c>
-      <c r="AK50" s="8" t="s">
+      <c r="AI50" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="AK50" s="74" t="s">
+        <v>338</v>
+      </c>
+      <c r="AL50" s="8" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="51" spans="1:37" s="80" customFormat="1">
+    <row r="51" spans="1:38" s="80" customFormat="1">
       <c r="A51" s="77">
         <v>50</v>
       </c>
@@ -8160,7 +8184,7 @@
         <v>104</v>
       </c>
       <c r="E51" s="78" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F51" s="71" t="s">
         <v>62</v>
@@ -8226,19 +8250,20 @@
         <v>1</v>
       </c>
       <c r="AC51" s="73"/>
-      <c r="AD51" s="73">
+      <c r="AD51" s="73"/>
+      <c r="AE51" s="73">
         <v>1000</v>
       </c>
-      <c r="AE51" s="73">
+      <c r="AF51" s="73">
         <v>1.5</v>
       </c>
-      <c r="AF51" s="73"/>
       <c r="AG51" s="73"/>
-      <c r="AH51" s="35"/>
-      <c r="AJ51" s="79"/>
+      <c r="AH51" s="73"/>
+      <c r="AI51" s="35"/>
       <c r="AK51" s="79"/>
+      <c r="AL51" s="79"/>
     </row>
-    <row r="52" spans="1:37" s="33" customFormat="1">
+    <row r="52" spans="1:38" s="33" customFormat="1">
       <c r="A52" s="59">
         <v>51</v>
       </c>
@@ -8249,10 +8274,10 @@
         <v>242</v>
       </c>
       <c r="D52" s="60" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F52" s="60" t="s">
         <v>177</v>
@@ -8315,26 +8340,27 @@
         <v>282</v>
       </c>
       <c r="AB52" s="63"/>
-      <c r="AD52" s="63">
+      <c r="AC52" s="63"/>
+      <c r="AE52" s="63">
         <v>3000</v>
       </c>
-      <c r="AE52" s="63">
+      <c r="AF52" s="63">
         <v>1.5</v>
       </c>
-      <c r="AF52" s="63">
-        <v>1</v>
-      </c>
-      <c r="AG52" s="33" t="s">
+      <c r="AG52" s="63">
+        <v>1</v>
+      </c>
+      <c r="AH52" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AH52" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="AJ52" s="64" t="s">
+      <c r="AI52" s="32" t="s">
+        <v>435</v>
+      </c>
+      <c r="AK52" s="64" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:37" s="33" customFormat="1">
+    <row r="53" spans="1:38" s="33" customFormat="1">
       <c r="A53" s="59">
         <v>52</v>
       </c>
@@ -8342,10 +8368,10 @@
         <v>52</v>
       </c>
       <c r="C53" s="60" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D53" s="60" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E53" s="60" t="s">
         <v>243</v>
@@ -8411,26 +8437,27 @@
         <v>53</v>
       </c>
       <c r="AB53" s="63"/>
-      <c r="AD53" s="63">
+      <c r="AC53" s="63"/>
+      <c r="AE53" s="63">
         <v>9200</v>
       </c>
-      <c r="AE53" s="63">
+      <c r="AF53" s="63">
         <v>1.5</v>
       </c>
-      <c r="AF53" s="33">
-        <v>1</v>
-      </c>
-      <c r="AG53" s="33" t="s">
+      <c r="AG53" s="33">
+        <v>1</v>
+      </c>
+      <c r="AH53" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AH53" s="32" t="s">
-        <v>438</v>
-      </c>
-      <c r="AJ53" s="64" t="s">
+      <c r="AI53" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="AK53" s="64" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:37" s="33" customFormat="1">
+    <row r="54" spans="1:38" s="33" customFormat="1">
       <c r="A54" s="27">
         <v>53</v>
       </c>
@@ -8438,13 +8465,13 @@
         <v>53</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D54" s="28" t="s">
         <v>220</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F54" s="60" t="s">
         <v>58</v>
@@ -8508,29 +8535,29 @@
       <c r="AA54" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AD54" s="33">
+      <c r="AE54" s="33">
         <v>3000</v>
       </c>
-      <c r="AE54" s="33">
+      <c r="AF54" s="33">
         <v>1.5</v>
       </c>
-      <c r="AF54" s="33">
+      <c r="AG54" s="33">
         <v>2</v>
       </c>
-      <c r="AG54" s="33" t="s">
+      <c r="AH54" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AH54" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="AJ54" s="64" t="s">
+      <c r="AI54" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="AK54" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="AK54" s="32" t="s">
+      <c r="AL54" s="32" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="55" spans="1:37" s="33" customFormat="1">
+    <row r="55" spans="1:38" s="33" customFormat="1">
       <c r="A55" s="27">
         <v>54</v>
       </c>
@@ -8538,10 +8565,10 @@
         <v>54</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E55" s="28" t="s">
         <v>245</v>
@@ -8608,29 +8635,29 @@
       <c r="AA55" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AD55" s="33">
+      <c r="AE55" s="33">
         <v>3000</v>
       </c>
-      <c r="AE55" s="33">
+      <c r="AF55" s="33">
         <v>1.5</v>
       </c>
-      <c r="AF55" s="33">
+      <c r="AG55" s="33">
         <v>2</v>
       </c>
-      <c r="AG55" s="33" t="s">
+      <c r="AH55" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AH55" s="32" t="s">
-        <v>440</v>
-      </c>
-      <c r="AJ55" s="64" t="s">
-        <v>346</v>
-      </c>
-      <c r="AK55" s="32" t="s">
+      <c r="AI55" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="AK55" s="64" t="s">
+        <v>347</v>
+      </c>
+      <c r="AL55" s="32" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="1:37" s="33" customFormat="1">
+    <row r="56" spans="1:38" s="33" customFormat="1">
       <c r="A56" s="27">
         <v>55</v>
       </c>
@@ -8638,13 +8665,13 @@
         <v>55</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F56" s="60" t="s">
         <v>58</v>
@@ -8708,29 +8735,29 @@
       <c r="AA56" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AD56" s="33">
+      <c r="AE56" s="33">
         <v>3000</v>
       </c>
-      <c r="AE56" s="33">
+      <c r="AF56" s="33">
         <v>1.5</v>
       </c>
-      <c r="AF56" s="33">
+      <c r="AG56" s="33">
         <v>2</v>
       </c>
-      <c r="AG56" s="33" t="s">
+      <c r="AH56" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AH56" s="32" t="s">
-        <v>441</v>
-      </c>
-      <c r="AJ56" s="64" t="s">
+      <c r="AI56" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="AK56" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="AK56" s="32" t="s">
+      <c r="AL56" s="32" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="57" spans="1:37" s="86" customFormat="1">
+    <row r="57" spans="1:38" s="86" customFormat="1">
       <c r="A57" s="81">
         <v>56</v>
       </c>
@@ -8738,7 +8765,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="82" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D57" s="82" t="s">
         <v>103</v>
@@ -8806,23 +8833,23 @@
       <c r="AA57" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="AD57" s="86">
+      <c r="AE57" s="86">
         <v>7100</v>
       </c>
-      <c r="AE57" s="86">
+      <c r="AF57" s="86">
         <v>1.5</v>
       </c>
-      <c r="AF57" s="86">
+      <c r="AG57" s="86">
         <v>2</v>
       </c>
-      <c r="AH57" s="85" t="s">
-        <v>442</v>
-      </c>
-      <c r="AK57" s="85" t="s">
+      <c r="AI57" s="85" t="s">
+        <v>440</v>
+      </c>
+      <c r="AL57" s="85" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:37" s="86" customFormat="1">
+    <row r="58" spans="1:38" s="86" customFormat="1">
       <c r="A58" s="87">
         <v>57</v>
       </c>
@@ -8899,15 +8926,16 @@
       <c r="AB58" s="91">
         <v>1</v>
       </c>
-      <c r="AD58" s="91">
+      <c r="AC58" s="91"/>
+      <c r="AE58" s="91">
         <v>1000</v>
       </c>
-      <c r="AE58" s="91">
+      <c r="AF58" s="91">
         <v>1.5</v>
       </c>
-      <c r="AH58" s="85"/>
+      <c r="AI58" s="85"/>
     </row>
-    <row r="59" spans="1:37" s="86" customFormat="1">
+    <row r="59" spans="1:38" s="86" customFormat="1">
       <c r="A59" s="87">
         <v>58</v>
       </c>
@@ -8915,13 +8943,13 @@
         <v>58</v>
       </c>
       <c r="C59" s="88" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D59" s="88" t="s">
         <v>254</v>
       </c>
       <c r="E59" s="88" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F59" s="88" t="s">
         <v>255</v>
@@ -8984,15 +9012,16 @@
       <c r="AB59" s="91">
         <v>1</v>
       </c>
-      <c r="AD59" s="91">
+      <c r="AC59" s="91"/>
+      <c r="AE59" s="91">
         <v>1000</v>
       </c>
-      <c r="AE59" s="91">
+      <c r="AF59" s="91">
         <v>1.5</v>
       </c>
-      <c r="AH59" s="85"/>
+      <c r="AI59" s="85"/>
     </row>
-    <row r="60" spans="1:37" s="86" customFormat="1">
+    <row r="60" spans="1:38" s="86" customFormat="1">
       <c r="A60" s="87">
         <v>59</v>
       </c>
@@ -9000,13 +9029,13 @@
         <v>59</v>
       </c>
       <c r="C60" s="88" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D60" s="88" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E60" s="88" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F60" s="88" t="s">
         <v>257</v>
@@ -9069,15 +9098,16 @@
       <c r="AB60" s="91">
         <v>1</v>
       </c>
-      <c r="AD60" s="91">
+      <c r="AC60" s="91"/>
+      <c r="AE60" s="91">
         <v>1000</v>
       </c>
-      <c r="AE60" s="91">
+      <c r="AF60" s="91">
         <v>1.5</v>
       </c>
-      <c r="AH60" s="85"/>
+      <c r="AI60" s="85"/>
     </row>
-    <row r="61" spans="1:37" s="86" customFormat="1">
+    <row r="61" spans="1:38" s="86" customFormat="1">
       <c r="A61" s="87">
         <v>60</v>
       </c>
@@ -9088,13 +9118,13 @@
         <v>259</v>
       </c>
       <c r="D61" s="88" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E61" s="88" t="s">
         <v>261</v>
       </c>
       <c r="F61" s="88" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G61" s="88" t="s">
         <v>260</v>
@@ -9154,15 +9184,16 @@
       <c r="AB61" s="91">
         <v>1</v>
       </c>
-      <c r="AD61" s="91">
+      <c r="AC61" s="91"/>
+      <c r="AE61" s="91">
         <v>1000</v>
       </c>
-      <c r="AE61" s="91">
+      <c r="AF61" s="91">
         <v>1.5</v>
       </c>
-      <c r="AH61" s="85"/>
+      <c r="AI61" s="85"/>
     </row>
-    <row r="62" spans="1:37" s="95" customFormat="1" ht="16.5">
+    <row r="62" spans="1:38" s="95" customFormat="1" ht="16.5">
       <c r="A62" s="92">
         <v>61</v>
       </c>
@@ -9170,13 +9201,13 @@
         <v>61</v>
       </c>
       <c r="C62" s="93" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D62" s="94" t="s">
         <v>262</v>
       </c>
       <c r="E62" s="93" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F62" s="94" t="s">
         <v>262</v>
@@ -9242,15 +9273,16 @@
       <c r="AB62" s="92">
         <v>1</v>
       </c>
-      <c r="AD62" s="92">
+      <c r="AC62" s="92"/>
+      <c r="AE62" s="92">
         <v>1000</v>
       </c>
-      <c r="AE62" s="92">
+      <c r="AF62" s="92">
         <v>1.5</v>
       </c>
-      <c r="AH62" s="98"/>
+      <c r="AI62" s="98"/>
     </row>
-    <row r="63" spans="1:37" s="19" customFormat="1">
+    <row r="63" spans="1:38" s="19" customFormat="1">
       <c r="A63" s="22">
         <v>62</v>
       </c>
@@ -9327,14 +9359,15 @@
       <c r="AB63" s="25">
         <v>1</v>
       </c>
-      <c r="AD63" s="25">
+      <c r="AC63" s="25"/>
+      <c r="AE63" s="25">
         <v>1000</v>
       </c>
-      <c r="AE63" s="25">
+      <c r="AF63" s="25">
         <v>1.5</v>
       </c>
     </row>
-    <row r="64" spans="1:37" s="19" customFormat="1">
+    <row r="64" spans="1:38" s="19" customFormat="1">
       <c r="A64" s="12">
         <v>63</v>
       </c>
@@ -9411,26 +9444,26 @@
       <c r="AA64" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AD64" s="19">
+      <c r="AE64" s="19">
         <v>6500</v>
       </c>
-      <c r="AE64" s="19">
+      <c r="AF64" s="19">
         <v>2</v>
       </c>
-      <c r="AF64" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG64" s="18" t="s">
+      <c r="AG64" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH64" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="AH64" s="18" t="s">
+      <c r="AI64" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="AK64" s="18" t="s">
+      <c r="AL64" s="18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="1:37" s="19" customFormat="1">
+    <row r="65" spans="1:38" s="19" customFormat="1">
       <c r="A65" s="12">
         <v>64</v>
       </c>
@@ -9508,23 +9541,23 @@
       <c r="AA65" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AD65" s="19">
+      <c r="AE65" s="19">
         <v>6300</v>
       </c>
-      <c r="AE65" s="19">
+      <c r="AF65" s="19">
         <v>2</v>
       </c>
-      <c r="AF65" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH65" s="18" t="s">
+      <c r="AG65" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI65" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AK65" s="18" t="s">
+      <c r="AL65" s="18" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="1:37" s="19" customFormat="1">
+    <row r="66" spans="1:38" s="19" customFormat="1">
       <c r="A66" s="12">
         <v>65</v>
       </c>
@@ -9602,23 +9635,23 @@
       <c r="AA66" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AD66" s="19">
+      <c r="AE66" s="19">
         <v>6200</v>
       </c>
-      <c r="AE66" s="19">
+      <c r="AF66" s="19">
         <v>1.2</v>
       </c>
-      <c r="AG66" s="18" t="s">
+      <c r="AH66" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="AH66" s="18" t="s">
+      <c r="AI66" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="AK66" s="18" t="s">
+      <c r="AL66" s="18" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:37" s="19" customFormat="1">
+    <row r="67" spans="1:38" s="19" customFormat="1">
       <c r="A67" s="12">
         <v>66</v>
       </c>
@@ -9696,21 +9729,21 @@
       <c r="AA67" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="AC67" s="18"/>
-      <c r="AD67" s="19">
+      <c r="AD67" s="18"/>
+      <c r="AE67" s="19">
         <v>6000</v>
       </c>
-      <c r="AE67" s="19">
+      <c r="AF67" s="19">
         <v>2</v>
       </c>
-      <c r="AF67" s="19">
-        <v>1</v>
-      </c>
-      <c r="AK67" s="18" t="s">
+      <c r="AG67" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL67" s="18" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="1:37" s="19" customFormat="1">
+    <row r="68" spans="1:38" s="19" customFormat="1">
       <c r="A68" s="12">
         <v>67</v>
       </c>
@@ -9788,27 +9821,27 @@
       <c r="AA68" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AC68" s="18"/>
-      <c r="AD68" s="19">
+      <c r="AD68" s="18"/>
+      <c r="AE68" s="19">
         <v>5900</v>
       </c>
-      <c r="AE68" s="19">
+      <c r="AF68" s="19">
         <v>2</v>
       </c>
-      <c r="AF68" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG68" s="18" t="s">
+      <c r="AG68" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH68" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="AH68" s="18" t="s">
+      <c r="AI68" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="AK68" s="18" t="s">
+      <c r="AL68" s="18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:37" s="19" customFormat="1">
+    <row r="69" spans="1:38" s="19" customFormat="1">
       <c r="A69" s="12">
         <v>68</v>
       </c>
@@ -9888,19 +9921,20 @@
       </c>
       <c r="AB69" s="18"/>
       <c r="AC69" s="18"/>
-      <c r="AD69" s="19">
+      <c r="AD69" s="18"/>
+      <c r="AE69" s="19">
         <v>5800</v>
       </c>
-      <c r="AE69" s="19">
+      <c r="AF69" s="19">
         <v>2</v>
       </c>
-      <c r="AF69" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH69" s="19" t="s">
+      <c r="AG69" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI69" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="AK69" s="18" t="s">
+      <c r="AL69" s="18" t="s">
         <v>153</v>
       </c>
     </row>

--- a/config_hlw/fish3d_config.xlsx
+++ b/config_hlw/fish3d_config.xlsx
@@ -2369,9 +2369,6 @@
     <t>"bgm_by_siwang1","bgm_by_siwang2","bgm_by_siwang3","bgm_by_siwang4","bgm_by_siwang5","bgm_by_siwang6","bgm_by_siwang7","bgm_by_siwang8","bgm_by_siwang9","bgm_by_siwang10","bgm_by_siwang11","bgm_by_siwang12","bgm_by_siwang13","bgm_by_siwang14",</t>
   </si>
   <si>
-    <t>FishNew016</t>
-  </si>
-  <si>
     <t>3dby_icon_yu35</t>
   </si>
   <si>
@@ -2542,6 +2539,10 @@
   </si>
   <si>
     <t>FishNew052</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew016</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3346,9 +3347,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AL69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3469,7 +3470,7 @@
         <v>176</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>23</v>
@@ -3686,13 +3687,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>459</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>460</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>57</v>
@@ -3865,13 +3866,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D6" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="E6" s="28" t="s">
         <v>456</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>457</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>244</v>
@@ -3929,7 +3930,7 @@
         <v>0.4</v>
       </c>
       <c r="Y6" s="30" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="Z6" s="32" t="s">
         <v>30</v>
@@ -3951,7 +3952,7 @@
         <v>187</v>
       </c>
       <c r="AI6" s="32" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL6" s="32" t="s">
         <v>441</v>
@@ -4148,13 +4149,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>183</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>61</v>
@@ -4240,7 +4241,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>442</v>
@@ -4339,7 +4340,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>447</v>
@@ -4438,13 +4439,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="E12" s="28" t="s">
         <v>453</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>454</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>58</v>
@@ -4523,7 +4524,7 @@
         <v>187</v>
       </c>
       <c r="AI12" s="32" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AL12" s="32" t="s">
         <v>451</v>
@@ -4636,7 +4637,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>396</v>
@@ -4933,7 +4934,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>390</v>
@@ -5032,7 +5033,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>102</v>
@@ -5131,7 +5132,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>103</v>
@@ -5149,10 +5150,10 @@
         <v>384</v>
       </c>
       <c r="I19" s="28">
-        <v>0.66</v>
+        <v>5</v>
       </c>
       <c r="J19" s="28">
-        <v>0.89</v>
+        <v>5</v>
       </c>
       <c r="K19" s="27">
         <v>1</v>
@@ -5236,7 +5237,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>406</v>
@@ -5335,13 +5336,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="102" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D21" s="102" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E21" s="102" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F21" s="102" t="s">
         <v>364</v>
@@ -5420,7 +5421,7 @@
       </c>
       <c r="AH21" s="107"/>
       <c r="AI21" s="107" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AL21" s="107" t="s">
         <v>363</v>
@@ -5531,13 +5532,13 @@
         <v>22</v>
       </c>
       <c r="C23" s="102" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E23" s="102" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F23" s="102" t="s">
         <v>136</v>
@@ -5611,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="AI23" s="107" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AL23" s="107" t="s">
         <v>190</v>
@@ -5625,10 +5626,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="102" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E24" s="102" t="s">
         <v>191</v>
@@ -5643,10 +5644,10 @@
         <v>274</v>
       </c>
       <c r="I24" s="102">
-        <v>0.94</v>
+        <v>5</v>
       </c>
       <c r="J24" s="102">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="K24" s="101">
         <v>1</v>
@@ -5703,7 +5704,7 @@
       </c>
       <c r="AH24" s="33"/>
       <c r="AI24" s="32" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AL24" s="107" t="s">
         <v>192</v>
@@ -5901,13 +5902,13 @@
         <v>26</v>
       </c>
       <c r="C27" s="102" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D27" s="102" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E27" s="102" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F27" s="102" t="s">
         <v>62</v>
@@ -5984,7 +5985,7 @@
         <v>1</v>
       </c>
       <c r="AI27" s="107" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AL27" s="107" t="s">
         <v>152</v>
@@ -5998,13 +5999,13 @@
         <v>27</v>
       </c>
       <c r="C28" s="102" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D28" s="102" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E28" s="102" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F28" s="103" t="s">
         <v>62</v>
@@ -6084,7 +6085,7 @@
       </c>
       <c r="AH28" s="33"/>
       <c r="AI28" s="32" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AL28" s="107" t="s">
         <v>153</v>
@@ -9032,7 +9033,7 @@
         <v>354</v>
       </c>
       <c r="D60" s="88" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E60" s="88" t="s">
         <v>355</v>

--- a/config_hlw/fish3d_config.xlsx
+++ b/config_hlw/fish3d_config.xlsx
@@ -3347,9 +3347,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AL69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4952,7 +4952,7 @@
         <v>375</v>
       </c>
       <c r="I17" s="28">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="J17" s="28">
         <v>1.3</v>
@@ -5150,10 +5150,10 @@
         <v>384</v>
       </c>
       <c r="I19" s="28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J19" s="28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K19" s="27">
         <v>1</v>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="Q19" s="27"/>
       <c r="R19" s="28">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S19" s="31">
         <v>1</v>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="Q20" s="27"/>
       <c r="R20" s="28">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="S20" s="31">
         <v>1</v>
@@ -5550,10 +5550,10 @@
         <v>76</v>
       </c>
       <c r="I23" s="102">
-        <v>1.29</v>
+        <v>3</v>
       </c>
       <c r="J23" s="102">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K23" s="101">
         <v>0.8</v>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="Q23" s="101"/>
       <c r="R23" s="102">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="S23" s="105">
         <v>1</v>
@@ -5644,10 +5644,10 @@
         <v>274</v>
       </c>
       <c r="I24" s="102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J24" s="102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K24" s="101">
         <v>1</v>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="Q24" s="101"/>
       <c r="R24" s="102">
-        <v>0.60000000000000009</v>
+        <v>1</v>
       </c>
       <c r="S24" s="105">
         <v>1</v>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="Q25" s="101"/>
       <c r="R25" s="102">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S25" s="105">
         <v>1</v>
@@ -5945,7 +5945,7 @@
       </c>
       <c r="Q27" s="106"/>
       <c r="R27" s="102">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="S27" s="105">
         <v>1</v>
@@ -6042,7 +6042,7 @@
       </c>
       <c r="Q28" s="106"/>
       <c r="R28" s="102">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="S28" s="105">
         <v>0.73333333333333328</v>

--- a/config_hlw/fish3d_config.xlsx
+++ b/config_hlw/fish3d_config.xlsx
@@ -1224,9 +1224,6 @@
     <t>3dby_icon_yu107</t>
   </si>
   <si>
-    <t>3dby_icon_yu108</t>
-  </si>
-  <si>
     <t>Fish3D101</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2411,138 +2408,142 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>孔雀鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3d/FishView/Adapt/DieAction/fish_hjdjj/Bone024/fish_dujiaojing_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金独角鲸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3d/FishView/Adapt/DieAction/fish_huangjihaigui_001/fish_huangjihaigui_001 1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鲸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金锤头鲨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D105</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金猪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D103</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3d/FishView/Adapt/DieAction/fish_huangjinshuangqisha_001/Bone001/fish_huangjinshuangqisha_001 1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3d/FishView/Adapt/DieAction/Bone/fish_jinzhu_skin/Bone001/fish_jinzhu_001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3d/FishView/Adapt/DieAction/fish_jingyu_001/Bone024/fish_jingyu_001 1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu66</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hfy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu68</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu67</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu69</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu70</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu110</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3dnode/fish3d/fish/Jianyu/Jianyu_Body</t>
+  </si>
+  <si>
+    <t>FishNew021</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew044</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew026</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew024</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>not_symmetry|不对称鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D117</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D112</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D113</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew045</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew028</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew052</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew016</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>Fish3D111</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>孔雀鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish3d/FishView/Adapt/DieAction/fish_hjdjj/Bone024/fish_dujiaojing_002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金独角鲸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish3d/FishView/Adapt/DieAction/fish_huangjihaigui_001/fish_huangjihaigui_001 1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鲸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金锤头鲨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D105</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金猪</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D103</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish3d/FishView/Adapt/DieAction/fish_huangjinshuangqisha_001/Bone001/fish_huangjinshuangqisha_001 1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish3d/FishView/Adapt/DieAction/Bone/fish_jinzhu_skin/Bone001/fish_jinzhu_001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish3d/FishView/Adapt/DieAction/fish_jingyu_001/Bone024/fish_jingyu_001 1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu66</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_iocn_hfy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu68</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu67</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu69</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu70</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu110</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish3dnode/fish3d/fish/Jianyu/Jianyu_Body</t>
-  </si>
-  <si>
-    <t>FishNew021</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew044</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew026</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew024</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>not_symmetry|不对称鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D117</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D112</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D113</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew045</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew028</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew052</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNew016</t>
+    <t>3dby_icon_yu111</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3349,7 +3350,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3428,7 +3429,7 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>12</v>
@@ -3470,7 +3471,7 @@
         <v>176</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>23</v>
@@ -3508,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>178</v>
@@ -3687,13 +3688,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>458</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>459</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>57</v>
@@ -3777,7 +3778,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>180</v>
@@ -3866,22 +3867,22 @@
         <v>5</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D6" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="E6" s="28" t="s">
         <v>455</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>456</v>
-      </c>
       <c r="F6" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I6" s="28">
         <v>1.76</v>
@@ -3902,7 +3903,7 @@
         <v>8</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P6" s="27">
         <v>1</v>
@@ -3930,7 +3931,7 @@
         <v>0.4</v>
       </c>
       <c r="Y6" s="30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Z6" s="32" t="s">
         <v>30</v>
@@ -3949,13 +3950,13 @@
         <v>2</v>
       </c>
       <c r="AH6" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI6" s="32" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AL6" s="32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:38" s="9" customFormat="1">
@@ -4149,13 +4150,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>183</v>
+        <v>493</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>61</v>
@@ -4241,13 +4242,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D10" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>442</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>443</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>58</v>
@@ -4256,7 +4257,7 @@
         <v>58</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I10" s="28">
         <v>1.64</v>
@@ -4277,7 +4278,7 @@
         <v>10</v>
       </c>
       <c r="O10" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P10" s="27">
         <v>1</v>
@@ -4305,7 +4306,7 @@
         <v>0.45</v>
       </c>
       <c r="Y10" s="30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Z10" s="100" t="s">
         <v>31</v>
@@ -4323,13 +4324,13 @@
         <v>2</v>
       </c>
       <c r="AH10" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI10" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL10" s="32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:38" s="33" customFormat="1">
@@ -4340,13 +4341,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D11" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="E11" s="28" t="s">
         <v>447</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>448</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>58</v>
@@ -4355,7 +4356,7 @@
         <v>58</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I11" s="28">
         <v>1</v>
@@ -4376,7 +4377,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P11" s="27">
         <v>2</v>
@@ -4404,7 +4405,7 @@
         <v>0.5</v>
       </c>
       <c r="Y11" s="30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Z11" s="32" t="s">
         <v>129</v>
@@ -4422,13 +4423,13 @@
         <v>2</v>
       </c>
       <c r="AH11" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI11" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL11" s="32" t="s">
         <v>450</v>
-      </c>
-      <c r="AL11" s="32" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:38" s="33" customFormat="1">
@@ -4439,13 +4440,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D12" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>452</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>453</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>58</v>
@@ -4454,7 +4455,7 @@
         <v>58</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I12" s="28">
         <v>2.36</v>
@@ -4475,7 +4476,7 @@
         <v>15</v>
       </c>
       <c r="O12" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P12" s="27">
         <v>2</v>
@@ -4503,7 +4504,7 @@
         <v>0.35</v>
       </c>
       <c r="Y12" s="30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Z12" s="32" t="s">
         <v>129</v>
@@ -4521,13 +4522,13 @@
         <v>2</v>
       </c>
       <c r="AH12" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI12" s="32" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AL12" s="32" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:38" s="33" customFormat="1">
@@ -4538,22 +4539,22 @@
         <v>12</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D13" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="F13" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="G13" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="H13" s="28" t="s">
         <v>393</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>394</v>
       </c>
       <c r="I13" s="28">
         <v>0.96</v>
@@ -4574,7 +4575,7 @@
         <v>18</v>
       </c>
       <c r="O13" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P13" s="27">
         <v>3</v>
@@ -4602,7 +4603,7 @@
         <v>0.35</v>
       </c>
       <c r="Y13" s="30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Z13" s="32" t="s">
         <v>35</v>
@@ -4620,13 +4621,13 @@
         <v>2</v>
       </c>
       <c r="AH13" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI13" s="32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AL13" s="32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:38" s="33" customFormat="1">
@@ -4637,22 +4638,22 @@
         <v>13</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D14" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="F14" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="E14" s="28" t="s">
-        <v>372</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>397</v>
-      </c>
       <c r="G14" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="H14" s="28" t="s">
         <v>368</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>369</v>
       </c>
       <c r="I14" s="28">
         <v>0.96</v>
@@ -4673,7 +4674,7 @@
         <v>20</v>
       </c>
       <c r="O14" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P14" s="27">
         <v>3</v>
@@ -4701,7 +4702,7 @@
         <v>0.35</v>
       </c>
       <c r="Y14" s="30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Z14" s="32" t="s">
         <v>37</v>
@@ -4719,13 +4720,13 @@
         <v>2</v>
       </c>
       <c r="AH14" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI14" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AL14" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:38" s="33" customFormat="1">
@@ -4736,22 +4737,22 @@
         <v>14</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D15" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="F15" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="H15" s="28" t="s">
         <v>374</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>398</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>397</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>375</v>
       </c>
       <c r="I15" s="28">
         <v>0.74</v>
@@ -4772,7 +4773,7 @@
         <v>25</v>
       </c>
       <c r="O15" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P15" s="27">
         <v>2</v>
@@ -4800,7 +4801,7 @@
         <v>0.4</v>
       </c>
       <c r="Y15" s="30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Z15" s="32" t="s">
         <v>30</v>
@@ -4818,13 +4819,13 @@
         <v>2</v>
       </c>
       <c r="AH15" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI15" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AL15" s="32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:38" s="33" customFormat="1">
@@ -4835,22 +4836,22 @@
         <v>15</v>
       </c>
       <c r="C16" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="E16" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="F16" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="H16" s="28" t="s">
         <v>399</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>400</v>
       </c>
       <c r="I16" s="28">
         <v>1.53</v>
@@ -4871,7 +4872,7 @@
         <v>30</v>
       </c>
       <c r="O16" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P16" s="27">
         <v>4</v>
@@ -4899,7 +4900,7 @@
         <v>0.35</v>
       </c>
       <c r="Y16" s="30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Z16" s="32" t="s">
         <v>32</v>
@@ -4917,13 +4918,13 @@
         <v>2</v>
       </c>
       <c r="AH16" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI16" s="32" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AL16" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:38" s="33" customFormat="1">
@@ -4934,22 +4935,22 @@
         <v>16</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I17" s="28">
         <v>1.5</v>
@@ -4970,7 +4971,7 @@
         <v>35</v>
       </c>
       <c r="O17" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P17" s="27">
         <v>3</v>
@@ -4998,7 +4999,7 @@
         <v>0.5</v>
       </c>
       <c r="Y17" s="30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Z17" s="32" t="s">
         <v>32</v>
@@ -5016,13 +5017,13 @@
         <v>2</v>
       </c>
       <c r="AH17" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI17" s="32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AL17" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:38" s="33" customFormat="1">
@@ -5033,25 +5034,25 @@
         <v>17</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>102</v>
       </c>
       <c r="E18" s="99" t="s">
+        <v>381</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="G18" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="F18" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>383</v>
-      </c>
       <c r="H18" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I18" s="28">
-        <v>1.53</v>
+        <v>2.5</v>
       </c>
       <c r="J18" s="28">
         <v>1.48</v>
@@ -5069,14 +5070,14 @@
         <v>40</v>
       </c>
       <c r="O18" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P18" s="27">
         <v>4</v>
       </c>
       <c r="Q18" s="27"/>
       <c r="R18" s="28">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="S18" s="31">
         <v>1</v>
@@ -5097,7 +5098,7 @@
         <v>0.35</v>
       </c>
       <c r="Y18" s="30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Z18" s="32" t="s">
         <v>32</v>
@@ -5115,13 +5116,13 @@
         <v>2</v>
       </c>
       <c r="AH18" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI18" s="32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AL18" s="32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:38" s="33" customFormat="1">
@@ -5132,22 +5133,22 @@
         <v>18</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>103</v>
       </c>
       <c r="E19" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="G19" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="F19" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>386</v>
-      </c>
       <c r="H19" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I19" s="28">
         <v>2</v>
@@ -5168,7 +5169,7 @@
         <v>60</v>
       </c>
       <c r="O19" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P19" s="27">
         <v>4</v>
@@ -5196,7 +5197,7 @@
         <v>0.35</v>
       </c>
       <c r="Y19" s="30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Z19" s="32" t="s">
         <v>35</v>
@@ -5220,13 +5221,13 @@
         <v>2</v>
       </c>
       <c r="AH19" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI19" s="32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AL19" s="32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:38" s="33" customFormat="1">
@@ -5237,22 +5238,22 @@
         <v>19</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D20" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="E20" s="28" t="s">
         <v>406</v>
       </c>
-      <c r="E20" s="28" t="s">
-        <v>407</v>
-      </c>
       <c r="F20" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I20" s="28">
         <v>2.2799999999999998</v>
@@ -5273,7 +5274,7 @@
         <v>60</v>
       </c>
       <c r="O20" s="30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P20" s="27">
         <v>4</v>
@@ -5301,7 +5302,7 @@
         <v>0.35</v>
       </c>
       <c r="Y20" s="30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Z20" s="32" t="s">
         <v>37</v>
@@ -5319,13 +5320,13 @@
         <v>1</v>
       </c>
       <c r="AH20" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI20" s="32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AL20" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:38" s="108" customFormat="1">
@@ -5336,22 +5337,22 @@
         <v>20</v>
       </c>
       <c r="C21" s="102" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D21" s="102" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E21" s="102" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F21" s="102" t="s">
+        <v>363</v>
+      </c>
+      <c r="G21" s="102" t="s">
+        <v>265</v>
+      </c>
+      <c r="H21" s="102" t="s">
         <v>364</v>
-      </c>
-      <c r="G21" s="102" t="s">
-        <v>266</v>
-      </c>
-      <c r="H21" s="102" t="s">
-        <v>365</v>
       </c>
       <c r="I21" s="102">
         <v>2.72</v>
@@ -5396,7 +5397,7 @@
         <v>0.35</v>
       </c>
       <c r="Y21" s="106" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Z21" s="107" t="s">
         <v>40</v>
@@ -5421,10 +5422,10 @@
       </c>
       <c r="AH21" s="107"/>
       <c r="AI21" s="107" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AL21" s="107" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:38" s="33" customFormat="1">
@@ -5435,19 +5436,19 @@
         <v>21</v>
       </c>
       <c r="C22" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="D22" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="E22" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="F22" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="F22" s="28" t="s">
-        <v>270</v>
-      </c>
       <c r="G22" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H22" s="34" t="s">
         <v>76</v>
@@ -5497,7 +5498,7 @@
         <v>0.35</v>
       </c>
       <c r="Y22" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Z22" s="32" t="s">
         <v>38</v>
@@ -5515,13 +5516,13 @@
         <v>1</v>
       </c>
       <c r="AH22" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI22" s="32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AL22" s="32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:38" s="108" customFormat="1">
@@ -5532,13 +5533,13 @@
         <v>22</v>
       </c>
       <c r="C23" s="102" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E23" s="102" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F23" s="102" t="s">
         <v>136</v>
@@ -5594,7 +5595,7 @@
         <v>0.35</v>
       </c>
       <c r="Y23" s="106" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Z23" s="107" t="s">
         <v>38</v>
@@ -5612,10 +5613,10 @@
         <v>1</v>
       </c>
       <c r="AI23" s="107" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AL23" s="107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:38" s="108" customFormat="1">
@@ -5626,22 +5627,22 @@
         <v>23</v>
       </c>
       <c r="C24" s="102" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E24" s="102" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F24" s="102" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G24" s="102" t="s">
         <v>138</v>
       </c>
       <c r="H24" s="103" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I24" s="102">
         <v>2</v>
@@ -5688,7 +5689,7 @@
         <v>0.8</v>
       </c>
       <c r="Y24" s="106" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Z24" s="107" t="s">
         <v>25</v>
@@ -5704,10 +5705,10 @@
       </c>
       <c r="AH24" s="33"/>
       <c r="AI24" s="32" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AL24" s="107" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:38" s="108" customFormat="1">
@@ -5721,19 +5722,19 @@
         <v>78</v>
       </c>
       <c r="D25" s="102" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" s="102" t="s">
+        <v>274</v>
+      </c>
+      <c r="F25" s="102" t="s">
         <v>193</v>
       </c>
-      <c r="E25" s="102" t="s">
-        <v>275</v>
-      </c>
-      <c r="F25" s="102" t="s">
-        <v>194</v>
-      </c>
       <c r="G25" s="102" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H25" s="103" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I25" s="102">
         <v>1</v>
@@ -5780,7 +5781,7 @@
         <v>0.7</v>
       </c>
       <c r="Y25" s="106" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Z25" s="107" t="s">
         <v>25</v>
@@ -5795,10 +5796,10 @@
         <v>1.2</v>
       </c>
       <c r="AI25" s="107" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL25" s="107" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:38" s="108" customFormat="1">
@@ -5809,19 +5810,19 @@
         <v>25</v>
       </c>
       <c r="C26" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="D26" s="102" t="s">
         <v>277</v>
       </c>
-      <c r="D26" s="102" t="s">
+      <c r="E26" s="102" t="s">
         <v>278</v>
-      </c>
-      <c r="E26" s="102" t="s">
-        <v>279</v>
       </c>
       <c r="F26" s="102" t="s">
         <v>62</v>
       </c>
       <c r="G26" s="102" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H26" s="103" t="s">
         <v>76</v>
@@ -5871,7 +5872,7 @@
         <v>0.35</v>
       </c>
       <c r="Y26" s="106" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Z26" s="107" t="s">
         <v>44</v>
@@ -5902,19 +5903,19 @@
         <v>26</v>
       </c>
       <c r="C27" s="102" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D27" s="102" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E27" s="102" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F27" s="102" t="s">
         <v>62</v>
       </c>
       <c r="G27" s="102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H27" s="103" t="s">
         <v>76</v>
@@ -5938,7 +5939,7 @@
         <v>180</v>
       </c>
       <c r="O27" s="101" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P27" s="101">
         <v>4</v>
@@ -5966,7 +5967,7 @@
         <v>0.35</v>
       </c>
       <c r="Y27" s="106" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Z27" s="107" t="s">
         <v>37</v>
@@ -5985,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="AI27" s="107" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AL27" s="107" t="s">
         <v>152</v>
@@ -5999,19 +6000,19 @@
         <v>27</v>
       </c>
       <c r="C28" s="102" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D28" s="102" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E28" s="102" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F28" s="103" t="s">
         <v>62</v>
       </c>
       <c r="G28" s="103" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H28" s="103" t="s">
         <v>76</v>
@@ -6035,7 +6036,7 @@
         <v>200</v>
       </c>
       <c r="O28" s="101" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P28" s="101">
         <v>4</v>
@@ -6051,7 +6052,7 @@
         <v>0.74</v>
       </c>
       <c r="U28" s="102" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="V28" s="105">
         <v>1</v>
@@ -6063,13 +6064,13 @@
         <v>0.1</v>
       </c>
       <c r="Y28" s="106" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Z28" s="107" t="s">
         <v>52</v>
       </c>
       <c r="AA28" s="107" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AB28" s="107"/>
       <c r="AC28" s="107"/>
@@ -6085,7 +6086,7 @@
       </c>
       <c r="AH28" s="33"/>
       <c r="AI28" s="32" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AL28" s="107" t="s">
         <v>153</v>
@@ -6099,19 +6100,19 @@
         <v>28</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D29" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" s="40" t="s">
         <v>198</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>199</v>
       </c>
       <c r="F29" s="38" t="s">
         <v>126</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H29" s="37" t="s">
         <v>69</v>
@@ -6178,10 +6179,10 @@
         <v>1</v>
       </c>
       <c r="AI29" s="35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AL29" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:38" s="43" customFormat="1">
@@ -6192,10 +6193,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E30" s="37" t="s">
         <v>50</v>
@@ -6207,7 +6208,7 @@
         <v>110</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I30" s="37">
         <v>1.68</v>
@@ -6254,7 +6255,7 @@
         <v>0.35</v>
       </c>
       <c r="Y30" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Z30" s="42" t="s">
         <v>38</v>
@@ -6273,7 +6274,7 @@
       </c>
       <c r="AI30" s="35"/>
       <c r="AL30" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:38" s="43" customFormat="1">
@@ -6284,22 +6285,22 @@
         <v>30</v>
       </c>
       <c r="C31" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="E31" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="D31" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="E31" s="37" t="s">
+      <c r="F31" s="38" t="s">
         <v>288</v>
-      </c>
-      <c r="F31" s="38" t="s">
-        <v>289</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>111</v>
       </c>
       <c r="H31" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I31" s="44">
         <v>1.48</v>
@@ -6345,7 +6346,7 @@
         <v>0.35</v>
       </c>
       <c r="Y31" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Z31" s="42" t="s">
         <v>37</v>
@@ -6365,7 +6366,7 @@
       </c>
       <c r="AI31" s="35"/>
       <c r="AL31" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:38" s="43" customFormat="1">
@@ -6376,22 +6377,22 @@
         <v>31</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D32" s="37" t="s">
         <v>124</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F32" s="38" t="s">
         <v>125</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I32" s="44">
         <v>1.48</v>
@@ -6438,7 +6439,7 @@
         <v>0.35</v>
       </c>
       <c r="Y32" s="40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Z32" s="42" t="s">
         <v>37</v>
@@ -6461,7 +6462,7 @@
       </c>
       <c r="AI32" s="35"/>
       <c r="AL32" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:38" s="43" customFormat="1">
@@ -6472,19 +6473,19 @@
         <v>32</v>
       </c>
       <c r="C33" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E33" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="D33" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="E33" s="37" t="s">
+      <c r="F33" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="F33" s="38" t="s">
-        <v>295</v>
-      </c>
       <c r="G33" s="38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H33" s="37" t="s">
         <v>69</v>
@@ -6553,7 +6554,7 @@
       <c r="AI33" s="35"/>
       <c r="AJ33" s="45"/>
       <c r="AL33" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:38" s="43" customFormat="1">
@@ -6564,22 +6565,22 @@
         <v>33</v>
       </c>
       <c r="C34" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="F34" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="D34" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="F34" s="37" t="s">
+      <c r="G34" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="G34" s="37" t="s">
+      <c r="H34" s="37" t="s">
         <v>210</v>
-      </c>
-      <c r="H34" s="37" t="s">
-        <v>211</v>
       </c>
       <c r="I34" s="37">
         <v>4.9000000000000004</v>
@@ -6626,7 +6627,7 @@
         <v>0.35</v>
       </c>
       <c r="Y34" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z34" s="42" t="s">
         <v>37</v>
@@ -6647,7 +6648,7 @@
       <c r="AI34" s="35"/>
       <c r="AJ34" s="46"/>
       <c r="AL34" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:38" s="43" customFormat="1">
@@ -6658,22 +6659,22 @@
         <v>34</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>119</v>
       </c>
       <c r="E35" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F35" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="F35" s="37" t="s">
-        <v>301</v>
-      </c>
       <c r="G35" s="37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H35" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I35" s="37">
         <v>1.1299999999999999</v>
@@ -6733,11 +6734,11 @@
         <v>1.2</v>
       </c>
       <c r="AI35" s="35" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AJ35" s="46"/>
       <c r="AL35" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:38" s="43" customFormat="1">
@@ -6754,16 +6755,16 @@
         <v>120</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>112</v>
       </c>
       <c r="H36" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I36" s="37">
         <v>0.78</v>
@@ -6826,11 +6827,11 @@
         <v>1.2</v>
       </c>
       <c r="AI36" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AJ36" s="46"/>
       <c r="AL36" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:38" s="43" customFormat="1">
@@ -6841,13 +6842,13 @@
         <v>36</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>118</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F37" s="37" t="s">
         <v>109</v>
@@ -6856,7 +6857,7 @@
         <v>109</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I37" s="37">
         <v>1.76</v>
@@ -6919,14 +6920,14 @@
         <v>2</v>
       </c>
       <c r="AH37" s="42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AI37" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AJ37" s="46"/>
       <c r="AL37" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:38" s="51" customFormat="1">
@@ -6937,22 +6938,22 @@
         <v>37</v>
       </c>
       <c r="C38" s="48" t="s">
+        <v>306</v>
+      </c>
+      <c r="D38" s="48" t="s">
         <v>307</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>308</v>
       </c>
       <c r="E38" s="48" t="s">
         <v>71</v>
       </c>
       <c r="F38" s="49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G38" s="49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H38" s="48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I38" s="48">
         <v>2.64</v>
@@ -7000,10 +7001,10 @@
       </c>
       <c r="Y38" s="47"/>
       <c r="Z38" s="51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AA38" s="51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AB38" s="51">
         <v>1</v>
@@ -7018,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="AI38" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AJ38" s="52"/>
       <c r="AK38" s="52"/>
@@ -7031,22 +7032,22 @@
         <v>38</v>
       </c>
       <c r="C39" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="D39" s="54" t="s">
         <v>309</v>
       </c>
-      <c r="D39" s="54" t="s">
-        <v>310</v>
-      </c>
       <c r="E39" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="F39" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="G39" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="F39" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="G39" s="54" t="s">
-        <v>217</v>
-      </c>
       <c r="H39" s="54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I39" s="54">
         <v>10</v>
@@ -7081,7 +7082,7 @@
         <v>0.74</v>
       </c>
       <c r="U39" s="54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="V39" s="56">
         <v>1</v>
@@ -7113,7 +7114,7 @@
         <v>140</v>
       </c>
       <c r="AL39" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:38" s="63" customFormat="1">
@@ -7124,19 +7125,19 @@
         <v>39</v>
       </c>
       <c r="C40" s="60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D40" s="60" t="s">
         <v>121</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F40" s="60" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G40" s="60" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H40" s="60" t="s">
         <v>70</v>
@@ -7202,16 +7203,16 @@
         <v>1</v>
       </c>
       <c r="AH40" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI40" s="32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AK40" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="AL40" s="32" t="s">
         <v>313</v>
-      </c>
-      <c r="AL40" s="32" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="41" spans="1:38" s="57" customFormat="1">
@@ -7222,19 +7223,19 @@
         <v>40</v>
       </c>
       <c r="C41" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="D41" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="D41" s="54" t="s">
+      <c r="E41" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="G41" s="54" t="s">
         <v>316</v>
-      </c>
-      <c r="E41" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="F41" s="54" t="s">
-        <v>244</v>
-      </c>
-      <c r="G41" s="54" t="s">
-        <v>317</v>
       </c>
       <c r="H41" s="54" t="s">
         <v>70</v>
@@ -7315,22 +7316,22 @@
         <v>41</v>
       </c>
       <c r="C42" s="60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D42" s="60" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E42" s="60" t="s">
         <v>100</v>
       </c>
       <c r="F42" s="60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G42" s="60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H42" s="60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I42" s="60">
         <v>1</v>
@@ -7394,13 +7395,13 @@
       </c>
       <c r="AH42" s="33"/>
       <c r="AI42" s="32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AK42" s="64" t="s">
         <v>142</v>
       </c>
       <c r="AL42" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:38" s="68" customFormat="1">
@@ -7411,22 +7412,22 @@
         <v>42</v>
       </c>
       <c r="C43" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="D43" s="66" t="s">
+        <v>320</v>
+      </c>
+      <c r="E43" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="D43" s="66" t="s">
-        <v>321</v>
-      </c>
-      <c r="E43" s="66" t="s">
-        <v>224</v>
-      </c>
       <c r="F43" s="66" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G43" s="66" t="s">
         <v>62</v>
       </c>
       <c r="H43" s="66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I43" s="66">
         <v>1</v>
@@ -7492,7 +7493,7 @@
         <v>2</v>
       </c>
       <c r="AI43" s="35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AK43" s="69"/>
       <c r="AL43" s="69"/>
@@ -7505,22 +7506,22 @@
         <v>43</v>
       </c>
       <c r="C44" s="60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D44" s="60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F44" s="60" t="s">
         <v>62</v>
       </c>
       <c r="G44" s="60" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H44" s="60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I44" s="60">
         <v>0.96</v>
@@ -7541,7 +7542,7 @@
         <v>500</v>
       </c>
       <c r="O44" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P44" s="59">
         <v>3</v>
@@ -7585,16 +7586,16 @@
         <v>2</v>
       </c>
       <c r="AH44" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI44" s="32" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AK44" s="64" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AL44" s="32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:38" s="68" customFormat="1">
@@ -7605,19 +7606,19 @@
         <v>44</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D45" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="E45" s="66" t="s">
         <v>325</v>
-      </c>
-      <c r="E45" s="66" t="s">
-        <v>326</v>
       </c>
       <c r="F45" s="66" t="s">
         <v>62</v>
       </c>
       <c r="G45" s="66" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H45" s="66" t="s">
         <v>70</v>
@@ -7686,7 +7687,7 @@
         <v>2</v>
       </c>
       <c r="AI45" s="35" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AK45" s="69"/>
       <c r="AL45" s="69"/>
@@ -7705,16 +7706,16 @@
         <v>122</v>
       </c>
       <c r="E46" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F46" s="66" t="s">
         <v>62</v>
       </c>
       <c r="G46" s="66" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H46" s="66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I46" s="66">
         <v>0.96</v>
@@ -7777,7 +7778,7 @@
         <v>2</v>
       </c>
       <c r="AI46" s="35" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AK46" s="69"/>
       <c r="AL46" s="69"/>
@@ -7790,19 +7791,19 @@
         <v>46</v>
       </c>
       <c r="C47" s="60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D47" s="60" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E47" s="60" t="s">
         <v>101</v>
       </c>
       <c r="F47" s="60" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G47" s="60" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H47" s="60" t="s">
         <v>70</v>
@@ -7868,16 +7869,16 @@
         <v>2</v>
       </c>
       <c r="AH47" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI47" s="32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AK47" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL47" s="32" t="s">
         <v>230</v>
-      </c>
-      <c r="AL47" s="32" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:38" s="73" customFormat="1">
@@ -7888,22 +7889,22 @@
         <v>47</v>
       </c>
       <c r="C48" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="D48" s="71" t="s">
+        <v>329</v>
+      </c>
+      <c r="E48" s="71" t="s">
         <v>232</v>
       </c>
-      <c r="D48" s="71" t="s">
+      <c r="F48" s="71" t="s">
         <v>330</v>
       </c>
-      <c r="E48" s="71" t="s">
-        <v>233</v>
-      </c>
-      <c r="F48" s="71" t="s">
-        <v>331</v>
-      </c>
       <c r="G48" s="71" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H48" s="71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I48" s="71">
         <v>1</v>
@@ -7966,13 +7967,13 @@
         <v>2</v>
       </c>
       <c r="AI48" s="35" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AK48" s="74" t="s">
         <v>143</v>
       </c>
       <c r="AL48" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:38" s="63" customFormat="1">
@@ -7983,22 +7984,22 @@
         <v>48</v>
       </c>
       <c r="C49" s="60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D49" s="60" t="s">
+        <v>332</v>
+      </c>
+      <c r="E49" s="60" t="s">
         <v>333</v>
       </c>
-      <c r="E49" s="60" t="s">
+      <c r="F49" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="F49" s="60" t="s">
-        <v>335</v>
-      </c>
       <c r="G49" s="60" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H49" s="60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I49" s="60">
         <v>2</v>
@@ -8061,16 +8062,16 @@
         <v>2</v>
       </c>
       <c r="AH49" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI49" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AK49" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL49" s="32" t="s">
         <v>235</v>
-      </c>
-      <c r="AL49" s="32" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:38" s="73" customFormat="1">
@@ -8081,16 +8082,16 @@
         <v>49</v>
       </c>
       <c r="C50" s="71" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D50" s="71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E50" s="71" t="s">
         <v>108</v>
       </c>
       <c r="F50" s="71" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G50" s="71" t="s">
         <v>137</v>
@@ -8162,13 +8163,13 @@
         <v>2</v>
       </c>
       <c r="AI50" s="35" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AK50" s="74" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AL50" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="1:38" s="80" customFormat="1">
@@ -8179,22 +8180,22 @@
         <v>50</v>
       </c>
       <c r="C51" s="78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D51" s="78" t="s">
         <v>104</v>
       </c>
       <c r="E51" s="78" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F51" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G51" s="71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H51" s="71" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I51" s="71">
         <v>2</v>
@@ -8229,7 +8230,7 @@
         <v>0.22</v>
       </c>
       <c r="U51" s="71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="V51" s="72">
         <v>0.8</v>
@@ -8272,22 +8273,22 @@
         <v>51</v>
       </c>
       <c r="C52" s="60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D52" s="60" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F52" s="60" t="s">
         <v>177</v>
       </c>
       <c r="G52" s="60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H52" s="60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I52" s="60">
         <v>2.64</v>
@@ -8308,7 +8309,7 @@
         <v>200</v>
       </c>
       <c r="O52" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P52" s="59">
         <v>4</v>
@@ -8335,10 +8336,10 @@
         <v>0.1</v>
       </c>
       <c r="Z52" s="75" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AA52" s="63" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AB52" s="63"/>
       <c r="AC52" s="63"/>
@@ -8352,10 +8353,10 @@
         <v>1</v>
       </c>
       <c r="AH52" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI52" s="32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AK52" s="64" t="s">
         <v>142</v>
@@ -8369,16 +8370,16 @@
         <v>52</v>
       </c>
       <c r="C53" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="D53" s="60" t="s">
         <v>341</v>
       </c>
-      <c r="D53" s="60" t="s">
-        <v>342</v>
-      </c>
       <c r="E53" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="F53" s="60" t="s">
         <v>243</v>
-      </c>
-      <c r="F53" s="60" t="s">
-        <v>244</v>
       </c>
       <c r="G53" s="60" t="s">
         <v>58</v>
@@ -8405,7 +8406,7 @@
         <v>200</v>
       </c>
       <c r="O53" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P53" s="59">
         <v>4</v>
@@ -8449,10 +8450,10 @@
         <v>1</v>
       </c>
       <c r="AH53" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI53" s="32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AK53" s="64" t="s">
         <v>142</v>
@@ -8466,13 +8467,13 @@
         <v>53</v>
       </c>
       <c r="C54" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="E54" s="60" t="s">
         <v>343</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="E54" s="60" t="s">
-        <v>344</v>
       </c>
       <c r="F54" s="60" t="s">
         <v>58</v>
@@ -8481,7 +8482,7 @@
         <v>62</v>
       </c>
       <c r="H54" s="60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I54" s="28">
         <v>0.96</v>
@@ -8502,7 +8503,7 @@
         <v>200</v>
       </c>
       <c r="O54" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P54" s="27">
         <v>3</v>
@@ -8546,16 +8547,16 @@
         <v>2</v>
       </c>
       <c r="AH54" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI54" s="32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AK54" s="64" t="s">
         <v>142</v>
       </c>
       <c r="AL54" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:38" s="33" customFormat="1">
@@ -8566,13 +8567,13 @@
         <v>54</v>
       </c>
       <c r="C55" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="D55" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="D55" s="28" t="s">
-        <v>346</v>
-      </c>
       <c r="E55" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F55" s="60" t="s">
         <v>58</v>
@@ -8602,7 +8603,7 @@
         <v>200</v>
       </c>
       <c r="O55" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P55" s="27">
         <v>4</v>
@@ -8646,16 +8647,16 @@
         <v>2</v>
       </c>
       <c r="AH55" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI55" s="32" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AK55" s="64" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AL55" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:38" s="33" customFormat="1">
@@ -8666,13 +8667,13 @@
         <v>55</v>
       </c>
       <c r="C56" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="D56" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="E56" s="28" t="s">
         <v>349</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>350</v>
       </c>
       <c r="F56" s="60" t="s">
         <v>58</v>
@@ -8681,7 +8682,7 @@
         <v>58</v>
       </c>
       <c r="H56" s="60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I56" s="28">
         <v>1.53</v>
@@ -8702,7 +8703,7 @@
         <v>200</v>
       </c>
       <c r="O56" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P56" s="27">
         <v>4</v>
@@ -8746,16 +8747,16 @@
         <v>2</v>
       </c>
       <c r="AH56" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI56" s="32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AK56" s="64" t="s">
         <v>142</v>
       </c>
       <c r="AL56" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="1:38" s="86" customFormat="1">
@@ -8766,7 +8767,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="82" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D57" s="82" t="s">
         <v>103</v>
@@ -8775,13 +8776,13 @@
         <v>43</v>
       </c>
       <c r="F57" s="82" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G57" s="82" t="s">
+        <v>246</v>
+      </c>
+      <c r="H57" s="82" t="s">
         <v>247</v>
-      </c>
-      <c r="H57" s="82" t="s">
-        <v>248</v>
       </c>
       <c r="I57" s="82">
         <v>0.66</v>
@@ -8844,7 +8845,7 @@
         <v>2</v>
       </c>
       <c r="AI57" s="85" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AL57" s="85" t="s">
         <v>147</v>
@@ -8858,22 +8859,22 @@
         <v>57</v>
       </c>
       <c r="C58" s="88" t="s">
+        <v>248</v>
+      </c>
+      <c r="D58" s="88" t="s">
         <v>249</v>
       </c>
-      <c r="D58" s="88" t="s">
+      <c r="E58" s="88" t="s">
         <v>250</v>
       </c>
-      <c r="E58" s="88" t="s">
+      <c r="F58" s="88" t="s">
         <v>251</v>
       </c>
-      <c r="F58" s="88" t="s">
-        <v>252</v>
-      </c>
       <c r="G58" s="88" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H58" s="88" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I58" s="88">
         <v>2.64</v>
@@ -8907,7 +8908,7 @@
         <v>0.74</v>
       </c>
       <c r="U58" s="88" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="V58" s="89">
         <v>1</v>
@@ -8922,7 +8923,7 @@
         <v>146</v>
       </c>
       <c r="AA58" s="91" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AB58" s="91">
         <v>1</v>
@@ -8944,22 +8945,22 @@
         <v>58</v>
       </c>
       <c r="C59" s="88" t="s">
+        <v>351</v>
+      </c>
+      <c r="D59" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="E59" s="88" t="s">
         <v>352</v>
       </c>
-      <c r="D59" s="88" t="s">
+      <c r="F59" s="88" t="s">
         <v>254</v>
       </c>
-      <c r="E59" s="88" t="s">
-        <v>353</v>
-      </c>
-      <c r="F59" s="88" t="s">
-        <v>255</v>
-      </c>
       <c r="G59" s="88" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H59" s="88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I59" s="88">
         <v>2.64</v>
@@ -8993,7 +8994,7 @@
         <v>0.74</v>
       </c>
       <c r="U59" s="88" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="V59" s="89">
         <v>1</v>
@@ -9008,7 +9009,7 @@
         <v>146</v>
       </c>
       <c r="AA59" s="91" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AB59" s="91">
         <v>1</v>
@@ -9030,22 +9031,22 @@
         <v>59</v>
       </c>
       <c r="C60" s="88" t="s">
+        <v>353</v>
+      </c>
+      <c r="D60" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="E60" s="88" t="s">
         <v>354</v>
       </c>
-      <c r="D60" s="88" t="s">
-        <v>474</v>
-      </c>
-      <c r="E60" s="88" t="s">
-        <v>355</v>
-      </c>
       <c r="F60" s="88" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G60" s="88" t="s">
         <v>161</v>
       </c>
       <c r="H60" s="88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I60" s="88">
         <v>2.64</v>
@@ -9091,7 +9092,7 @@
         <v>0.1</v>
       </c>
       <c r="Z60" s="90" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AA60" s="91" t="s">
         <v>53</v>
@@ -9116,22 +9117,22 @@
         <v>60</v>
       </c>
       <c r="C61" s="88" t="s">
+        <v>258</v>
+      </c>
+      <c r="D61" s="88" t="s">
+        <v>355</v>
+      </c>
+      <c r="E61" s="88" t="s">
+        <v>260</v>
+      </c>
+      <c r="F61" s="88" t="s">
+        <v>356</v>
+      </c>
+      <c r="G61" s="88" t="s">
         <v>259</v>
       </c>
-      <c r="D61" s="88" t="s">
-        <v>356</v>
-      </c>
-      <c r="E61" s="88" t="s">
-        <v>261</v>
-      </c>
-      <c r="F61" s="88" t="s">
-        <v>357</v>
-      </c>
-      <c r="G61" s="88" t="s">
-        <v>260</v>
-      </c>
       <c r="H61" s="88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I61" s="88">
         <v>2.64</v>
@@ -9202,22 +9203,22 @@
         <v>61</v>
       </c>
       <c r="C62" s="93" t="s">
+        <v>357</v>
+      </c>
+      <c r="D62" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="E62" s="93" t="s">
         <v>358</v>
       </c>
-      <c r="D62" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="E62" s="93" t="s">
-        <v>359</v>
-      </c>
       <c r="F62" s="94" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G62" s="94" t="s">
         <v>162</v>
       </c>
       <c r="H62" s="93" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I62" s="93">
         <v>2.64</v>
@@ -9251,7 +9252,7 @@
         <v>0.74</v>
       </c>
       <c r="U62" s="93" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="V62" s="96">
         <v>1</v>
@@ -9263,10 +9264,10 @@
         <v>0.1</v>
       </c>
       <c r="Y62" s="95" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Z62" s="97" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AA62" s="92" t="s">
         <v>53</v>

--- a/config_hlw/fish3d_config.xlsx
+++ b/config_hlw/fish3d_config.xlsx
@@ -3348,9 +3348,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AL69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4458,10 +4458,10 @@
         <v>448</v>
       </c>
       <c r="I12" s="28">
-        <v>2.36</v>
+        <v>1.8</v>
       </c>
       <c r="J12" s="28">
-        <v>2.58</v>
+        <v>1.8</v>
       </c>
       <c r="K12" s="27">
         <v>1</v>
@@ -4557,10 +4557,10 @@
         <v>393</v>
       </c>
       <c r="I13" s="28">
-        <v>0.96</v>
+        <v>1.5</v>
       </c>
       <c r="J13" s="28">
-        <v>0.83</v>
+        <v>1.5</v>
       </c>
       <c r="K13" s="27">
         <v>1</v>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="Q18" s="27"/>
       <c r="R18" s="28">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="S18" s="31">
         <v>1</v>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="Q20" s="27"/>
       <c r="R20" s="28">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="S20" s="31">
         <v>1</v>
@@ -5574,7 +5574,7 @@
       </c>
       <c r="Q23" s="101"/>
       <c r="R23" s="102">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="S23" s="105">
         <v>1</v>

--- a/config_hlw/fish3d_config.xlsx
+++ b/config_hlw/fish3d_config.xlsx
@@ -3348,9 +3348,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AL69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R16" sqref="R16"/>
+      <selection pane="bottomLeft" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="Q18" s="27"/>
       <c r="R18" s="28">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="S18" s="31">
         <v>1</v>

--- a/config_hlw/fish3d_config.xlsx
+++ b/config_hlw/fish3d_config.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="492">
   <si>
     <t>line|行号</t>
   </si>
@@ -1601,10 +1601,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_imgf_hjdly</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>FishNew051</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1654,10 +1650,6 @@
   </si>
   <si>
     <t>金蟾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_jc</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2019,10 +2011,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3dby_imgf_hjdly</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3,20</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2266,9 +2254,6 @@
     <t>fish3d/j_0002 1/x_0004</t>
   </si>
   <si>
-    <t>fish3dnode/fish3d/fish/Shuangjisha/Shuangjisha_Body</t>
-  </si>
-  <si>
     <t>fish3d/gny_0008 1/gny_0008 2</t>
   </si>
   <si>
@@ -2491,10 +2476,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>FishNew044</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>FishNew026</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2544,6 +2525,18 @@
   </si>
   <si>
     <t>3dby_icon_yu111</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D118</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3d/FishView/Adapt/DieAction/fish_shuangqisha_001/bone_00001/Bone025/fish_shuangqisha_001 1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_fdcl</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3348,9 +3341,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AL69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3471,7 +3464,7 @@
         <v>176</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>23</v>
@@ -3688,13 +3681,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>57</v>
@@ -3867,13 +3860,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>243</v>
@@ -3931,7 +3924,7 @@
         <v>0.4</v>
       </c>
       <c r="Y6" s="30" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="Z6" s="32" t="s">
         <v>30</v>
@@ -3953,10 +3946,10 @@
         <v>186</v>
       </c>
       <c r="AI6" s="32" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AL6" s="32" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:38" s="9" customFormat="1">
@@ -4150,13 +4143,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>61</v>
@@ -4242,13 +4235,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>58</v>
@@ -4257,7 +4250,7 @@
         <v>58</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I10" s="28">
         <v>1.64</v>
@@ -4306,7 +4299,7 @@
         <v>0.45</v>
       </c>
       <c r="Y10" s="30" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="Z10" s="100" t="s">
         <v>31</v>
@@ -4323,14 +4316,11 @@
       <c r="AG10" s="33">
         <v>2</v>
       </c>
-      <c r="AH10" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="AI10" s="32" t="s">
-        <v>418</v>
+      <c r="AI10" s="107" t="s">
+        <v>490</v>
       </c>
       <c r="AL10" s="32" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:38" s="33" customFormat="1">
@@ -4341,13 +4331,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>58</v>
@@ -4356,7 +4346,7 @@
         <v>58</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I11" s="28">
         <v>1</v>
@@ -4405,7 +4395,7 @@
         <v>0.5</v>
       </c>
       <c r="Y11" s="30" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="Z11" s="32" t="s">
         <v>129</v>
@@ -4426,10 +4416,10 @@
         <v>186</v>
       </c>
       <c r="AI11" s="32" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AL11" s="32" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:38" s="33" customFormat="1">
@@ -4440,13 +4430,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>58</v>
@@ -4455,7 +4445,7 @@
         <v>58</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I12" s="28">
         <v>1.8</v>
@@ -4504,7 +4494,7 @@
         <v>0.35</v>
       </c>
       <c r="Y12" s="30" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="Z12" s="32" t="s">
         <v>129</v>
@@ -4525,10 +4515,10 @@
         <v>186</v>
       </c>
       <c r="AI12" s="32" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AL12" s="32" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:38" s="33" customFormat="1">
@@ -4539,22 +4529,22 @@
         <v>12</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>243</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="I13" s="28">
         <v>1.5</v>
@@ -4603,7 +4593,7 @@
         <v>0.35</v>
       </c>
       <c r="Y13" s="30" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="Z13" s="32" t="s">
         <v>35</v>
@@ -4624,10 +4614,10 @@
         <v>186</v>
       </c>
       <c r="AI13" s="32" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AL13" s="32" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:38" s="33" customFormat="1">
@@ -4638,22 +4628,22 @@
         <v>13</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I14" s="28">
         <v>0.96</v>
@@ -4702,7 +4692,7 @@
         <v>0.35</v>
       </c>
       <c r="Y14" s="30" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Z14" s="32" t="s">
         <v>37</v>
@@ -4723,7 +4713,7 @@
         <v>186</v>
       </c>
       <c r="AI14" s="32" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AL14" s="32" t="s">
         <v>245</v>
@@ -4737,22 +4727,22 @@
         <v>14</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I15" s="28">
         <v>0.74</v>
@@ -4801,7 +4791,7 @@
         <v>0.4</v>
       </c>
       <c r="Y15" s="30" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Z15" s="32" t="s">
         <v>30</v>
@@ -4822,10 +4812,10 @@
         <v>186</v>
       </c>
       <c r="AI15" s="32" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AL15" s="32" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:38" s="33" customFormat="1">
@@ -4836,22 +4826,22 @@
         <v>15</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I16" s="28">
         <v>1.53</v>
@@ -4900,7 +4890,7 @@
         <v>0.35</v>
       </c>
       <c r="Y16" s="30" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Z16" s="32" t="s">
         <v>32</v>
@@ -4921,10 +4911,10 @@
         <v>186</v>
       </c>
       <c r="AI16" s="32" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AL16" s="32" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:38" s="33" customFormat="1">
@@ -4935,22 +4925,22 @@
         <v>16</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I17" s="28">
         <v>1.5</v>
@@ -4999,7 +4989,7 @@
         <v>0.5</v>
       </c>
       <c r="Y17" s="30" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Z17" s="32" t="s">
         <v>32</v>
@@ -5020,7 +5010,7 @@
         <v>186</v>
       </c>
       <c r="AI17" s="32" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AL17" s="32" t="s">
         <v>245</v>
@@ -5034,22 +5024,22 @@
         <v>17</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>102</v>
       </c>
       <c r="E18" s="99" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I18" s="28">
         <v>2.5</v>
@@ -5098,7 +5088,7 @@
         <v>0.35</v>
       </c>
       <c r="Y18" s="30" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Z18" s="32" t="s">
         <v>32</v>
@@ -5119,10 +5109,10 @@
         <v>186</v>
       </c>
       <c r="AI18" s="32" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AL18" s="32" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:38" s="33" customFormat="1">
@@ -5133,22 +5123,22 @@
         <v>18</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>103</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I19" s="28">
         <v>2</v>
@@ -5197,7 +5187,7 @@
         <v>0.35</v>
       </c>
       <c r="Y19" s="30" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Z19" s="32" t="s">
         <v>35</v>
@@ -5224,10 +5214,10 @@
         <v>186</v>
       </c>
       <c r="AI19" s="32" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AL19" s="32" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:38" s="33" customFormat="1">
@@ -5238,22 +5228,22 @@
         <v>19</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F20" s="28" t="s">
         <v>243</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I20" s="28">
         <v>2.2799999999999998</v>
@@ -5274,7 +5264,7 @@
         <v>60</v>
       </c>
       <c r="O20" s="30" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="P20" s="27">
         <v>4</v>
@@ -5302,7 +5292,7 @@
         <v>0.35</v>
       </c>
       <c r="Y20" s="30" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Z20" s="32" t="s">
         <v>37</v>
@@ -5323,10 +5313,10 @@
         <v>186</v>
       </c>
       <c r="AI20" s="32" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AL20" s="32" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:38" s="108" customFormat="1">
@@ -5337,22 +5327,22 @@
         <v>20</v>
       </c>
       <c r="C21" s="102" t="s">
+        <v>463</v>
+      </c>
+      <c r="D21" s="102" t="s">
         <v>467</v>
       </c>
-      <c r="D21" s="102" t="s">
-        <v>471</v>
-      </c>
       <c r="E21" s="102" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F21" s="102" t="s">
-        <v>363</v>
+        <v>62</v>
       </c>
       <c r="G21" s="102" t="s">
-        <v>265</v>
+        <v>491</v>
       </c>
       <c r="H21" s="102" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="I21" s="102">
         <v>2.72</v>
@@ -5397,7 +5387,7 @@
         <v>0.35</v>
       </c>
       <c r="Y21" s="106" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Z21" s="107" t="s">
         <v>40</v>
@@ -5422,10 +5412,10 @@
       </c>
       <c r="AH21" s="107"/>
       <c r="AI21" s="107" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AL21" s="107" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:38" s="33" customFormat="1">
@@ -5436,19 +5426,19 @@
         <v>21</v>
       </c>
       <c r="C22" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="E22" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="F22" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="F22" s="28" t="s">
-        <v>269</v>
-      </c>
       <c r="G22" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H22" s="34" t="s">
         <v>76</v>
@@ -5498,7 +5488,7 @@
         <v>0.35</v>
       </c>
       <c r="Y22" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Z22" s="32" t="s">
         <v>38</v>
@@ -5519,10 +5509,10 @@
         <v>186</v>
       </c>
       <c r="AI22" s="32" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AL22" s="32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:38" s="108" customFormat="1">
@@ -5533,13 +5523,13 @@
         <v>22</v>
       </c>
       <c r="C23" s="102" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E23" s="102" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F23" s="102" t="s">
         <v>136</v>
@@ -5613,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="AI23" s="107" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AL23" s="107" t="s">
         <v>189</v>
@@ -5627,22 +5617,22 @@
         <v>23</v>
       </c>
       <c r="C24" s="102" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E24" s="102" t="s">
         <v>190</v>
       </c>
       <c r="F24" s="102" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G24" s="102" t="s">
         <v>138</v>
       </c>
       <c r="H24" s="103" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I24" s="102">
         <v>2</v>
@@ -5705,7 +5695,7 @@
       </c>
       <c r="AH24" s="33"/>
       <c r="AI24" s="32" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AL24" s="107" t="s">
         <v>191</v>
@@ -5725,7 +5715,7 @@
         <v>192</v>
       </c>
       <c r="E25" s="102" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F25" s="102" t="s">
         <v>193</v>
@@ -5734,7 +5724,7 @@
         <v>193</v>
       </c>
       <c r="H25" s="103" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I25" s="102">
         <v>1</v>
@@ -5796,10 +5786,10 @@
         <v>1.2</v>
       </c>
       <c r="AI25" s="107" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AL25" s="107" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:38" s="108" customFormat="1">
@@ -5810,19 +5800,19 @@
         <v>25</v>
       </c>
       <c r="C26" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26" s="102" t="s">
         <v>276</v>
       </c>
-      <c r="D26" s="102" t="s">
+      <c r="E26" s="102" t="s">
         <v>277</v>
       </c>
-      <c r="E26" s="102" t="s">
-        <v>278</v>
-      </c>
       <c r="F26" s="102" t="s">
-        <v>62</v>
+        <v>491</v>
       </c>
       <c r="G26" s="102" t="s">
-        <v>279</v>
+        <v>134</v>
       </c>
       <c r="H26" s="103" t="s">
         <v>76</v>
@@ -5903,13 +5893,13 @@
         <v>26</v>
       </c>
       <c r="C27" s="102" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D27" s="102" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E27" s="102" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F27" s="102" t="s">
         <v>62</v>
@@ -5986,7 +5976,7 @@
         <v>1</v>
       </c>
       <c r="AI27" s="107" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AL27" s="107" t="s">
         <v>152</v>
@@ -6000,13 +5990,13 @@
         <v>27</v>
       </c>
       <c r="C28" s="102" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D28" s="102" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E28" s="102" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F28" s="103" t="s">
         <v>62</v>
@@ -6052,7 +6042,7 @@
         <v>0.74</v>
       </c>
       <c r="U28" s="102" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="V28" s="105">
         <v>1</v>
@@ -6070,7 +6060,7 @@
         <v>52</v>
       </c>
       <c r="AA28" s="107" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AB28" s="107"/>
       <c r="AC28" s="107"/>
@@ -6086,7 +6076,7 @@
       </c>
       <c r="AH28" s="33"/>
       <c r="AI28" s="32" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AL28" s="107" t="s">
         <v>153</v>
@@ -6100,7 +6090,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D29" s="37" t="s">
         <v>197</v>
@@ -6112,7 +6102,7 @@
         <v>126</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H29" s="37" t="s">
         <v>69</v>
@@ -6179,10 +6169,10 @@
         <v>1</v>
       </c>
       <c r="AI29" s="35" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AL29" s="42" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:38" s="43" customFormat="1">
@@ -6196,7 +6186,7 @@
         <v>263</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E30" s="37" t="s">
         <v>50</v>
@@ -6285,16 +6275,16 @@
         <v>30</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D31" s="37" t="s">
         <v>201</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>111</v>
@@ -6366,7 +6356,7 @@
       </c>
       <c r="AI31" s="35"/>
       <c r="AL31" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:38" s="43" customFormat="1">
@@ -6389,7 +6379,7 @@
         <v>125</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H32" s="37" t="s">
         <v>210</v>
@@ -6439,7 +6429,7 @@
         <v>0.35</v>
       </c>
       <c r="Y32" s="40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Z32" s="42" t="s">
         <v>37</v>
@@ -6473,19 +6463,19 @@
         <v>32</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D33" s="37" t="s">
         <v>205</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H33" s="37" t="s">
         <v>69</v>
@@ -6568,10 +6558,10 @@
         <v>207</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F34" s="37" t="s">
         <v>208</v>
@@ -6648,7 +6638,7 @@
       <c r="AI34" s="35"/>
       <c r="AJ34" s="46"/>
       <c r="AL34" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:38" s="43" customFormat="1">
@@ -6659,19 +6649,19 @@
         <v>34</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>119</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F35" s="37" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G35" s="37" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H35" s="37" t="s">
         <v>210</v>
@@ -6734,7 +6724,7 @@
         <v>1.2</v>
       </c>
       <c r="AI35" s="35" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AJ35" s="46"/>
       <c r="AL35" s="8" t="s">
@@ -6758,7 +6748,7 @@
         <v>213</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>112</v>
@@ -6827,11 +6817,11 @@
         <v>1.2</v>
       </c>
       <c r="AI36" s="35" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AJ36" s="46"/>
       <c r="AL36" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:38" s="43" customFormat="1">
@@ -6842,13 +6832,13 @@
         <v>36</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>118</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F37" s="37" t="s">
         <v>109</v>
@@ -6920,10 +6910,10 @@
         <v>2</v>
       </c>
       <c r="AH37" s="42" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AI37" s="35" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AJ37" s="46"/>
       <c r="AL37" s="8" t="s">
@@ -6938,10 +6928,10 @@
         <v>37</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E38" s="48" t="s">
         <v>71</v>
@@ -7004,7 +6994,7 @@
         <v>252</v>
       </c>
       <c r="AA38" s="51" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AB38" s="51">
         <v>1</v>
@@ -7019,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="AI38" s="35" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AJ38" s="52"/>
       <c r="AK38" s="52"/>
@@ -7032,10 +7022,10 @@
         <v>38</v>
       </c>
       <c r="C39" s="54" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D39" s="54" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E39" s="54" t="s">
         <v>215</v>
@@ -7114,7 +7104,7 @@
         <v>140</v>
       </c>
       <c r="AL39" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:38" s="63" customFormat="1">
@@ -7134,10 +7124,10 @@
         <v>218</v>
       </c>
       <c r="F40" s="60" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G40" s="60" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H40" s="60" t="s">
         <v>70</v>
@@ -7206,13 +7196,13 @@
         <v>186</v>
       </c>
       <c r="AI40" s="32" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AK40" s="64" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AL40" s="32" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:38" s="57" customFormat="1">
@@ -7223,10 +7213,10 @@
         <v>40</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D41" s="54" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E41" s="54" t="s">
         <v>220</v>
@@ -7235,7 +7225,7 @@
         <v>243</v>
       </c>
       <c r="G41" s="54" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H41" s="54" t="s">
         <v>70</v>
@@ -7319,7 +7309,7 @@
         <v>221</v>
       </c>
       <c r="D42" s="60" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E42" s="60" t="s">
         <v>100</v>
@@ -7328,7 +7318,7 @@
         <v>243</v>
       </c>
       <c r="G42" s="60" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H42" s="60" t="s">
         <v>227</v>
@@ -7395,13 +7385,13 @@
       </c>
       <c r="AH42" s="33"/>
       <c r="AI42" s="32" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AK42" s="64" t="s">
         <v>142</v>
       </c>
       <c r="AL42" s="32" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:38" s="68" customFormat="1">
@@ -7415,7 +7405,7 @@
         <v>222</v>
       </c>
       <c r="D43" s="66" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E43" s="66" t="s">
         <v>223</v>
@@ -7493,7 +7483,7 @@
         <v>2</v>
       </c>
       <c r="AI43" s="35" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AK43" s="69"/>
       <c r="AL43" s="69"/>
@@ -7509,16 +7499,16 @@
         <v>224</v>
       </c>
       <c r="D44" s="60" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F44" s="60" t="s">
         <v>62</v>
       </c>
       <c r="G44" s="60" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H44" s="60" t="s">
         <v>227</v>
@@ -7589,13 +7579,13 @@
         <v>186</v>
       </c>
       <c r="AI44" s="32" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AK44" s="64" t="s">
         <v>225</v>
       </c>
       <c r="AL44" s="32" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:38" s="68" customFormat="1">
@@ -7609,10 +7599,10 @@
         <v>226</v>
       </c>
       <c r="D45" s="66" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E45" s="66" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F45" s="66" t="s">
         <v>62</v>
@@ -7687,7 +7677,7 @@
         <v>2</v>
       </c>
       <c r="AI45" s="35" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AK45" s="69"/>
       <c r="AL45" s="69"/>
@@ -7706,7 +7696,7 @@
         <v>122</v>
       </c>
       <c r="E46" s="66" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F46" s="66" t="s">
         <v>62</v>
@@ -7778,7 +7768,7 @@
         <v>2</v>
       </c>
       <c r="AI46" s="35" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AK46" s="69"/>
       <c r="AL46" s="69"/>
@@ -7794,16 +7784,16 @@
         <v>228</v>
       </c>
       <c r="D47" s="60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E47" s="60" t="s">
         <v>101</v>
       </c>
       <c r="F47" s="60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G47" s="60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H47" s="60" t="s">
         <v>70</v>
@@ -7872,7 +7862,7 @@
         <v>186</v>
       </c>
       <c r="AI47" s="32" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AK47" s="64" t="s">
         <v>229</v>
@@ -7892,16 +7882,16 @@
         <v>231</v>
       </c>
       <c r="D48" s="71" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E48" s="71" t="s">
         <v>232</v>
       </c>
       <c r="F48" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G48" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H48" s="71" t="s">
         <v>227</v>
@@ -7967,13 +7957,13 @@
         <v>2</v>
       </c>
       <c r="AI48" s="35" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AK48" s="74" t="s">
         <v>143</v>
       </c>
       <c r="AL48" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:38" s="63" customFormat="1">
@@ -7987,16 +7977,16 @@
         <v>233</v>
       </c>
       <c r="D49" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="E49" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="F49" s="60" t="s">
         <v>332</v>
       </c>
-      <c r="E49" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="F49" s="60" t="s">
-        <v>334</v>
-      </c>
       <c r="G49" s="60" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H49" s="60" t="s">
         <v>227</v>
@@ -8065,7 +8055,7 @@
         <v>186</v>
       </c>
       <c r="AI49" s="32" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AK49" s="64" t="s">
         <v>234</v>
@@ -8082,7 +8072,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="71" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D50" s="71" t="s">
         <v>236</v>
@@ -8091,7 +8081,7 @@
         <v>108</v>
       </c>
       <c r="F50" s="71" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G50" s="71" t="s">
         <v>137</v>
@@ -8163,10 +8153,10 @@
         <v>2</v>
       </c>
       <c r="AI50" s="35" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AK50" s="74" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AL50" s="8" t="s">
         <v>237</v>
@@ -8186,7 +8176,7 @@
         <v>104</v>
       </c>
       <c r="E51" s="78" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F51" s="71" t="s">
         <v>62</v>
@@ -8276,10 +8266,10 @@
         <v>241</v>
       </c>
       <c r="D52" s="60" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F52" s="60" t="s">
         <v>177</v>
@@ -8339,7 +8329,7 @@
         <v>252</v>
       </c>
       <c r="AA52" s="63" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AB52" s="63"/>
       <c r="AC52" s="63"/>
@@ -8356,7 +8346,7 @@
         <v>186</v>
       </c>
       <c r="AI52" s="32" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AK52" s="64" t="s">
         <v>142</v>
@@ -8370,10 +8360,10 @@
         <v>52</v>
       </c>
       <c r="C53" s="60" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D53" s="60" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E53" s="60" t="s">
         <v>242</v>
@@ -8453,7 +8443,7 @@
         <v>186</v>
       </c>
       <c r="AI53" s="32" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AK53" s="64" t="s">
         <v>142</v>
@@ -8467,13 +8457,13 @@
         <v>53</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D54" s="28" t="s">
         <v>219</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F54" s="60" t="s">
         <v>58</v>
@@ -8550,7 +8540,7 @@
         <v>186</v>
       </c>
       <c r="AI54" s="32" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AK54" s="64" t="s">
         <v>142</v>
@@ -8567,10 +8557,10 @@
         <v>54</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E55" s="28" t="s">
         <v>244</v>
@@ -8650,10 +8640,10 @@
         <v>186</v>
       </c>
       <c r="AI55" s="32" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AK55" s="64" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AL55" s="32" t="s">
         <v>245</v>
@@ -8667,13 +8657,13 @@
         <v>55</v>
       </c>
       <c r="C56" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="E56" s="28" t="s">
         <v>347</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>349</v>
       </c>
       <c r="F56" s="60" t="s">
         <v>58</v>
@@ -8750,7 +8740,7 @@
         <v>186</v>
       </c>
       <c r="AI56" s="32" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AK56" s="64" t="s">
         <v>142</v>
@@ -8767,7 +8757,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="82" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D57" s="82" t="s">
         <v>103</v>
@@ -8845,7 +8835,7 @@
         <v>2</v>
       </c>
       <c r="AI57" s="85" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AL57" s="85" t="s">
         <v>147</v>
@@ -8923,7 +8913,7 @@
         <v>146</v>
       </c>
       <c r="AA58" s="91" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AB58" s="91">
         <v>1</v>
@@ -8945,13 +8935,13 @@
         <v>58</v>
       </c>
       <c r="C59" s="88" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D59" s="88" t="s">
         <v>253</v>
       </c>
       <c r="E59" s="88" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F59" s="88" t="s">
         <v>254</v>
@@ -9009,7 +8999,7 @@
         <v>146</v>
       </c>
       <c r="AA59" s="91" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AB59" s="91">
         <v>1</v>
@@ -9031,13 +9021,13 @@
         <v>59</v>
       </c>
       <c r="C60" s="88" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D60" s="88" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E60" s="88" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F60" s="88" t="s">
         <v>256</v>
@@ -9120,13 +9110,13 @@
         <v>258</v>
       </c>
       <c r="D61" s="88" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E61" s="88" t="s">
         <v>260</v>
       </c>
       <c r="F61" s="88" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G61" s="88" t="s">
         <v>259</v>
@@ -9203,13 +9193,13 @@
         <v>61</v>
       </c>
       <c r="C62" s="93" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D62" s="94" t="s">
         <v>261</v>
       </c>
       <c r="E62" s="93" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F62" s="94" t="s">
         <v>261</v>

--- a/config_hlw/fish3d_config.xlsx
+++ b/config_hlw/fish3d_config.xlsx
@@ -3342,8 +3342,8 @@
   <dimension ref="A1:AL69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7850,7 +7850,7 @@
         <v>28</v>
       </c>
       <c r="AE47" s="63">
-        <v>9100</v>
+        <v>3000</v>
       </c>
       <c r="AF47" s="63">
         <v>1.5</v>
@@ -8431,7 +8431,7 @@
       <c r="AB53" s="63"/>
       <c r="AC53" s="63"/>
       <c r="AE53" s="63">
-        <v>9200</v>
+        <v>3000</v>
       </c>
       <c r="AF53" s="63">
         <v>1.5</v>

--- a/config_hlw/fish3d_config.xlsx
+++ b/config_hlw/fish3d_config.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="494">
   <si>
     <t>line|行号</t>
   </si>
@@ -1409,10 +1409,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>FishNew008</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>霸王蟹</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2537,6 +2533,53 @@
   </si>
   <si>
     <t>3dby_imgf_fdcl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>path_id|fish3d_path_config里面的ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>105</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>106</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNew008</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2727,7 +2770,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3060,6 +3103,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3339,11 +3385,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AL69"/>
+  <dimension ref="A1:AM69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE30" sqref="AE30:AE32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3376,9 +3422,10 @@
     <col min="36" max="36" width="21" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="30.75" customWidth="1"/>
     <col min="38" max="38" width="83.875" customWidth="1"/>
+    <col min="39" max="39" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="60.75" customHeight="1">
+    <row r="1" spans="1:39" ht="60.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3464,7 +3511,7 @@
         <v>176</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>23</v>
@@ -3493,8 +3540,11 @@
       <c r="AL1" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="AM1" s="2" t="s">
+        <v>491</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" s="9" customFormat="1">
+    <row r="2" spans="1:39" s="9" customFormat="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3584,7 +3634,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="9" customFormat="1">
+    <row r="3" spans="1:39" s="9" customFormat="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3673,7 +3723,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:38" s="9" customFormat="1">
+    <row r="4" spans="1:39" s="9" customFormat="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3681,13 +3731,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>453</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>454</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>57</v>
@@ -3763,7 +3813,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="9" customFormat="1">
+    <row r="5" spans="1:39" s="9" customFormat="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3852,7 +3902,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:38" s="33" customFormat="1">
+    <row r="6" spans="1:39" s="33" customFormat="1">
       <c r="A6" s="27">
         <v>5</v>
       </c>
@@ -3860,19 +3910,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D6" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="E6" s="28" t="s">
         <v>450</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>451</v>
-      </c>
       <c r="F6" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H6" s="28" t="s">
         <v>210</v>
@@ -3924,7 +3974,7 @@
         <v>0.4</v>
       </c>
       <c r="Y6" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Z6" s="32" t="s">
         <v>30</v>
@@ -3946,13 +3996,13 @@
         <v>186</v>
       </c>
       <c r="AI6" s="32" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AL6" s="32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:38" s="9" customFormat="1">
+    <row r="7" spans="1:39" s="9" customFormat="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4044,7 +4094,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="9" customFormat="1">
+    <row r="8" spans="1:39" s="9" customFormat="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4135,7 +4185,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="9" customFormat="1">
+    <row r="9" spans="1:39" s="9" customFormat="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4143,13 +4193,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>488</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>61</v>
@@ -4227,7 +4277,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="33" customFormat="1">
+    <row r="10" spans="1:39" s="33" customFormat="1">
       <c r="A10" s="27">
         <v>9</v>
       </c>
@@ -4235,13 +4285,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D10" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>437</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>438</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>58</v>
@@ -4250,7 +4300,7 @@
         <v>58</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I10" s="28">
         <v>1.64</v>
@@ -4299,7 +4349,7 @@
         <v>0.45</v>
       </c>
       <c r="Y10" s="30" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Z10" s="100" t="s">
         <v>31</v>
@@ -4317,13 +4367,13 @@
         <v>2</v>
       </c>
       <c r="AI10" s="107" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AL10" s="32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
-    <row r="11" spans="1:38" s="33" customFormat="1">
+    <row r="11" spans="1:39" s="33" customFormat="1">
       <c r="A11" s="27">
         <v>10</v>
       </c>
@@ -4331,13 +4381,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D11" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="E11" s="28" t="s">
         <v>442</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>443</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>58</v>
@@ -4346,7 +4396,7 @@
         <v>58</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I11" s="28">
         <v>1</v>
@@ -4395,7 +4445,7 @@
         <v>0.5</v>
       </c>
       <c r="Y11" s="30" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Z11" s="32" t="s">
         <v>129</v>
@@ -4416,13 +4466,13 @@
         <v>186</v>
       </c>
       <c r="AI11" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="AL11" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="AL11" s="32" t="s">
-        <v>446</v>
-      </c>
     </row>
-    <row r="12" spans="1:38" s="33" customFormat="1">
+    <row r="12" spans="1:39" s="33" customFormat="1">
       <c r="A12" s="27">
         <v>11</v>
       </c>
@@ -4430,13 +4480,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D12" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>447</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>448</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>58</v>
@@ -4445,7 +4495,7 @@
         <v>58</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I12" s="28">
         <v>1.8</v>
@@ -4494,7 +4544,7 @@
         <v>0.35</v>
       </c>
       <c r="Y12" s="30" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Z12" s="32" t="s">
         <v>129</v>
@@ -4515,13 +4565,13 @@
         <v>186</v>
       </c>
       <c r="AI12" s="32" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL12" s="32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="33" customFormat="1">
+    <row r="13" spans="1:39" s="33" customFormat="1">
       <c r="A13" s="27">
         <v>12</v>
       </c>
@@ -4529,22 +4579,22 @@
         <v>12</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D13" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>387</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="F13" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="G13" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="H13" s="28" t="s">
         <v>389</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>390</v>
       </c>
       <c r="I13" s="28">
         <v>1.5</v>
@@ -4593,7 +4643,7 @@
         <v>0.35</v>
       </c>
       <c r="Y13" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Z13" s="32" t="s">
         <v>35</v>
@@ -4614,13 +4664,13 @@
         <v>186</v>
       </c>
       <c r="AI13" s="32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AL13" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="14" spans="1:38" s="33" customFormat="1">
+    <row r="14" spans="1:39" s="33" customFormat="1">
       <c r="A14" s="27">
         <v>13</v>
       </c>
@@ -4628,22 +4678,22 @@
         <v>13</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D14" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="F14" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="E14" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>393</v>
-      </c>
       <c r="G14" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="H14" s="28" t="s">
         <v>364</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>365</v>
       </c>
       <c r="I14" s="28">
         <v>0.96</v>
@@ -4692,7 +4742,7 @@
         <v>0.35</v>
       </c>
       <c r="Y14" s="30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Z14" s="32" t="s">
         <v>37</v>
@@ -4713,13 +4763,13 @@
         <v>186</v>
       </c>
       <c r="AI14" s="32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AL14" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="15" spans="1:38" s="33" customFormat="1">
+    <row r="15" spans="1:39" s="33" customFormat="1">
       <c r="A15" s="27">
         <v>14</v>
       </c>
@@ -4727,22 +4777,22 @@
         <v>14</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D15" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="F15" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="H15" s="28" t="s">
         <v>370</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>394</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>393</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>371</v>
       </c>
       <c r="I15" s="28">
         <v>0.74</v>
@@ -4791,7 +4841,7 @@
         <v>0.4</v>
       </c>
       <c r="Y15" s="30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Z15" s="32" t="s">
         <v>30</v>
@@ -4812,13 +4862,13 @@
         <v>186</v>
       </c>
       <c r="AI15" s="32" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AL15" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="16" spans="1:38" s="33" customFormat="1">
+    <row r="16" spans="1:39" s="33" customFormat="1">
       <c r="A16" s="27">
         <v>15</v>
       </c>
@@ -4826,22 +4876,22 @@
         <v>15</v>
       </c>
       <c r="C16" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="E16" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="F16" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="H16" s="28" t="s">
         <v>395</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>374</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>364</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>396</v>
       </c>
       <c r="I16" s="28">
         <v>1.53</v>
@@ -4890,7 +4940,7 @@
         <v>0.35</v>
       </c>
       <c r="Y16" s="30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Z16" s="32" t="s">
         <v>32</v>
@@ -4911,13 +4961,13 @@
         <v>186</v>
       </c>
       <c r="AI16" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AL16" s="32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
-    <row r="17" spans="1:38" s="33" customFormat="1">
+    <row r="17" spans="1:39" s="33" customFormat="1">
       <c r="A17" s="27">
         <v>16</v>
       </c>
@@ -4925,22 +4975,22 @@
         <v>16</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I17" s="28">
         <v>1.5</v>
@@ -4989,7 +5039,7 @@
         <v>0.5</v>
       </c>
       <c r="Y17" s="30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z17" s="32" t="s">
         <v>32</v>
@@ -5010,13 +5060,13 @@
         <v>186</v>
       </c>
       <c r="AI17" s="32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AL17" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="18" spans="1:38" s="33" customFormat="1">
+    <row r="18" spans="1:39" s="33" customFormat="1">
       <c r="A18" s="27">
         <v>17</v>
       </c>
@@ -5024,22 +5074,22 @@
         <v>17</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>102</v>
       </c>
       <c r="E18" s="99" t="s">
+        <v>377</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="G18" s="28" t="s">
         <v>378</v>
       </c>
-      <c r="F18" s="28" t="s">
-        <v>364</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>379</v>
-      </c>
       <c r="H18" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I18" s="28">
         <v>2.5</v>
@@ -5088,7 +5138,7 @@
         <v>0.35</v>
       </c>
       <c r="Y18" s="30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Z18" s="32" t="s">
         <v>32</v>
@@ -5109,13 +5159,13 @@
         <v>186</v>
       </c>
       <c r="AI18" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AL18" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="19" spans="1:38" s="33" customFormat="1">
+    <row r="19" spans="1:39" s="33" customFormat="1">
       <c r="A19" s="27">
         <v>18</v>
       </c>
@@ -5123,22 +5173,22 @@
         <v>18</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>103</v>
       </c>
       <c r="E19" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="G19" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="F19" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>382</v>
-      </c>
       <c r="H19" s="28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I19" s="28">
         <v>2</v>
@@ -5187,7 +5237,7 @@
         <v>0.35</v>
       </c>
       <c r="Y19" s="30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z19" s="32" t="s">
         <v>35</v>
@@ -5214,13 +5264,13 @@
         <v>186</v>
       </c>
       <c r="AI19" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AL19" s="32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
-    <row r="20" spans="1:38" s="33" customFormat="1">
+    <row r="20" spans="1:39" s="33" customFormat="1">
       <c r="A20" s="27">
         <v>19</v>
       </c>
@@ -5228,22 +5278,22 @@
         <v>19</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D20" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="E20" s="28" t="s">
         <v>402</v>
       </c>
-      <c r="E20" s="28" t="s">
-        <v>403</v>
-      </c>
       <c r="F20" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I20" s="28">
         <v>2.2799999999999998</v>
@@ -5264,7 +5314,7 @@
         <v>60</v>
       </c>
       <c r="O20" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P20" s="27">
         <v>4</v>
@@ -5292,7 +5342,7 @@
         <v>0.35</v>
       </c>
       <c r="Y20" s="30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Z20" s="32" t="s">
         <v>37</v>
@@ -5313,13 +5363,13 @@
         <v>186</v>
       </c>
       <c r="AI20" s="32" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AL20" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
-    <row r="21" spans="1:38" s="108" customFormat="1">
+    <row r="21" spans="1:39" s="108" customFormat="1">
       <c r="A21" s="101">
         <v>20</v>
       </c>
@@ -5327,22 +5377,22 @@
         <v>20</v>
       </c>
       <c r="C21" s="102" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D21" s="102" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E21" s="102" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F21" s="102" t="s">
         <v>62</v>
       </c>
       <c r="G21" s="102" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H21" s="102" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I21" s="102">
         <v>2.72</v>
@@ -5387,7 +5437,7 @@
         <v>0.35</v>
       </c>
       <c r="Y21" s="106" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Z21" s="107" t="s">
         <v>40</v>
@@ -5412,13 +5462,13 @@
       </c>
       <c r="AH21" s="107"/>
       <c r="AI21" s="107" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AL21" s="107" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="22" spans="1:38" s="33" customFormat="1">
+    <row r="22" spans="1:39" s="33" customFormat="1">
       <c r="A22" s="27">
         <v>21</v>
       </c>
@@ -5426,19 +5476,19 @@
         <v>21</v>
       </c>
       <c r="C22" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D22" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="E22" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="F22" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="F22" s="28" t="s">
-        <v>268</v>
-      </c>
       <c r="G22" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H22" s="34" t="s">
         <v>76</v>
@@ -5488,7 +5538,7 @@
         <v>0.35</v>
       </c>
       <c r="Y22" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Z22" s="32" t="s">
         <v>38</v>
@@ -5509,13 +5559,13 @@
         <v>186</v>
       </c>
       <c r="AI22" s="32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AL22" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:38" s="108" customFormat="1">
+    <row r="23" spans="1:39" s="108" customFormat="1">
       <c r="A23" s="101">
         <v>22</v>
       </c>
@@ -5523,13 +5573,13 @@
         <v>22</v>
       </c>
       <c r="C23" s="102" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E23" s="102" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F23" s="102" t="s">
         <v>136</v>
@@ -5603,13 +5653,13 @@
         <v>1</v>
       </c>
       <c r="AI23" s="107" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AL23" s="107" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="24" spans="1:38" s="108" customFormat="1">
+    <row r="24" spans="1:39" s="108" customFormat="1">
       <c r="A24" s="101">
         <v>23</v>
       </c>
@@ -5617,22 +5667,22 @@
         <v>23</v>
       </c>
       <c r="C24" s="102" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E24" s="102" t="s">
         <v>190</v>
       </c>
       <c r="F24" s="102" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G24" s="102" t="s">
         <v>138</v>
       </c>
       <c r="H24" s="103" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I24" s="102">
         <v>2</v>
@@ -5695,13 +5745,13 @@
       </c>
       <c r="AH24" s="33"/>
       <c r="AI24" s="32" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AL24" s="107" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:38" s="108" customFormat="1">
+    <row r="25" spans="1:39" s="108" customFormat="1">
       <c r="A25" s="101">
         <v>24</v>
       </c>
@@ -5715,7 +5765,7 @@
         <v>192</v>
       </c>
       <c r="E25" s="102" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F25" s="102" t="s">
         <v>193</v>
@@ -5724,7 +5774,7 @@
         <v>193</v>
       </c>
       <c r="H25" s="103" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I25" s="102">
         <v>1</v>
@@ -5786,13 +5836,13 @@
         <v>1.2</v>
       </c>
       <c r="AI25" s="107" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AL25" s="107" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="26" spans="1:38" s="108" customFormat="1">
+    <row r="26" spans="1:39" s="108" customFormat="1">
       <c r="A26" s="101">
         <v>25</v>
       </c>
@@ -5800,16 +5850,16 @@
         <v>25</v>
       </c>
       <c r="C26" s="102" t="s">
+        <v>274</v>
+      </c>
+      <c r="D26" s="102" t="s">
         <v>275</v>
       </c>
-      <c r="D26" s="102" t="s">
+      <c r="E26" s="102" t="s">
         <v>276</v>
       </c>
-      <c r="E26" s="102" t="s">
-        <v>277</v>
-      </c>
       <c r="F26" s="102" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G26" s="102" t="s">
         <v>134</v>
@@ -5885,7 +5935,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:38" s="108" customFormat="1">
+    <row r="27" spans="1:39" s="108" customFormat="1">
       <c r="A27" s="101">
         <v>26</v>
       </c>
@@ -5893,13 +5943,13 @@
         <v>26</v>
       </c>
       <c r="C27" s="102" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D27" s="102" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E27" s="102" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F27" s="102" t="s">
         <v>62</v>
@@ -5976,13 +6026,13 @@
         <v>1</v>
       </c>
       <c r="AI27" s="107" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AL27" s="107" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:38" s="108" customFormat="1">
+    <row r="28" spans="1:39" s="108" customFormat="1">
       <c r="A28" s="101">
         <v>27</v>
       </c>
@@ -5990,13 +6040,13 @@
         <v>27</v>
       </c>
       <c r="C28" s="102" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D28" s="102" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E28" s="102" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F28" s="103" t="s">
         <v>62</v>
@@ -6042,7 +6092,7 @@
         <v>0.74</v>
       </c>
       <c r="U28" s="102" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V28" s="105">
         <v>1</v>
@@ -6060,7 +6110,7 @@
         <v>52</v>
       </c>
       <c r="AA28" s="107" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AB28" s="107"/>
       <c r="AC28" s="107"/>
@@ -6076,13 +6126,13 @@
       </c>
       <c r="AH28" s="33"/>
       <c r="AI28" s="32" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AL28" s="107" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:38" s="43" customFormat="1">
+    <row r="29" spans="1:39" s="43" customFormat="1">
       <c r="A29" s="36">
         <v>28</v>
       </c>
@@ -6090,7 +6140,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D29" s="37" t="s">
         <v>197</v>
@@ -6102,7 +6152,7 @@
         <v>126</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H29" s="37" t="s">
         <v>69</v>
@@ -6169,13 +6219,16 @@
         <v>1</v>
       </c>
       <c r="AI29" s="35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AL29" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
+      </c>
+      <c r="AM29" s="111" t="s">
+        <v>492</v>
       </c>
     </row>
-    <row r="30" spans="1:38" s="43" customFormat="1">
+    <row r="30" spans="1:39" s="43" customFormat="1">
       <c r="A30" s="36">
         <v>29</v>
       </c>
@@ -6183,10 +6236,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E30" s="37" t="s">
         <v>50</v>
@@ -6257,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="AE30" s="43">
-        <v>9200</v>
+        <v>4000</v>
       </c>
       <c r="AF30" s="43">
         <v>2</v>
@@ -6266,8 +6319,11 @@
       <c r="AL30" s="8" t="s">
         <v>200</v>
       </c>
+      <c r="AM30" s="111" t="s">
+        <v>492</v>
+      </c>
     </row>
-    <row r="31" spans="1:38" s="43" customFormat="1">
+    <row r="31" spans="1:39" s="43" customFormat="1">
       <c r="A31" s="36">
         <v>30</v>
       </c>
@@ -6275,16 +6331,16 @@
         <v>30</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D31" s="37" t="s">
         <v>201</v>
       </c>
       <c r="E31" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="F31" s="38" t="s">
         <v>285</v>
-      </c>
-      <c r="F31" s="38" t="s">
-        <v>286</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>111</v>
@@ -6349,17 +6405,20 @@
       </c>
       <c r="AD31" s="42"/>
       <c r="AE31" s="43">
-        <v>9200</v>
+        <v>4000</v>
       </c>
       <c r="AF31" s="43">
         <v>2</v>
       </c>
       <c r="AI31" s="35"/>
       <c r="AL31" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
+      </c>
+      <c r="AM31" s="111" t="s">
+        <v>492</v>
       </c>
     </row>
-    <row r="32" spans="1:38" s="43" customFormat="1">
+    <row r="32" spans="1:39" s="43" customFormat="1">
       <c r="A32" s="36">
         <v>31</v>
       </c>
@@ -6379,7 +6438,7 @@
         <v>125</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H32" s="37" t="s">
         <v>210</v>
@@ -6429,7 +6488,7 @@
         <v>0.35</v>
       </c>
       <c r="Y32" s="40" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Z32" s="42" t="s">
         <v>37</v>
@@ -6442,7 +6501,7 @@
       </c>
       <c r="AD32" s="42"/>
       <c r="AE32" s="43">
-        <v>9200</v>
+        <v>4000</v>
       </c>
       <c r="AF32" s="43">
         <v>2</v>
@@ -6453,6 +6512,9 @@
       <c r="AI32" s="35"/>
       <c r="AL32" s="8" t="s">
         <v>200</v>
+      </c>
+      <c r="AM32" s="111" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="33" spans="1:38" s="43" customFormat="1">
@@ -6463,19 +6525,19 @@
         <v>32</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D33" s="37" t="s">
         <v>205</v>
       </c>
       <c r="E33" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="F33" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="F33" s="38" t="s">
-        <v>292</v>
-      </c>
       <c r="G33" s="38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H33" s="37" t="s">
         <v>69</v>
@@ -6558,10 +6620,10 @@
         <v>207</v>
       </c>
       <c r="D34" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="E34" s="37" t="s">
         <v>293</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>294</v>
       </c>
       <c r="F34" s="37" t="s">
         <v>208</v>
@@ -6638,7 +6700,7 @@
       <c r="AI34" s="35"/>
       <c r="AJ34" s="46"/>
       <c r="AL34" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:38" s="43" customFormat="1">
@@ -6649,19 +6711,19 @@
         <v>34</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>119</v>
       </c>
       <c r="E35" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="F35" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="F35" s="37" t="s">
-        <v>298</v>
-      </c>
       <c r="G35" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H35" s="37" t="s">
         <v>210</v>
@@ -6724,7 +6786,7 @@
         <v>1.2</v>
       </c>
       <c r="AI35" s="35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AJ35" s="46"/>
       <c r="AL35" s="8" t="s">
@@ -6748,7 +6810,7 @@
         <v>213</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>112</v>
@@ -6817,11 +6879,11 @@
         <v>1.2</v>
       </c>
       <c r="AI36" s="35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AJ36" s="46"/>
       <c r="AL36" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:38" s="43" customFormat="1">
@@ -6832,13 +6894,13 @@
         <v>36</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>118</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F37" s="37" t="s">
         <v>109</v>
@@ -6910,14 +6972,14 @@
         <v>2</v>
       </c>
       <c r="AH37" s="42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AI37" s="35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AJ37" s="46"/>
       <c r="AL37" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:38" s="51" customFormat="1">
@@ -6928,10 +6990,10 @@
         <v>37</v>
       </c>
       <c r="C38" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="D38" s="48" t="s">
         <v>304</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>305</v>
       </c>
       <c r="E38" s="48" t="s">
         <v>71</v>
@@ -6991,10 +7053,10 @@
       </c>
       <c r="Y38" s="47"/>
       <c r="Z38" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AA38" s="51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AB38" s="51">
         <v>1</v>
@@ -7009,7 +7071,7 @@
         <v>1</v>
       </c>
       <c r="AI38" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AJ38" s="52"/>
       <c r="AK38" s="52"/>
@@ -7022,22 +7084,22 @@
         <v>38</v>
       </c>
       <c r="C39" s="54" t="s">
+        <v>305</v>
+      </c>
+      <c r="D39" s="54" t="s">
         <v>306</v>
-      </c>
-      <c r="D39" s="54" t="s">
-        <v>307</v>
       </c>
       <c r="E39" s="54" t="s">
         <v>215</v>
       </c>
       <c r="F39" s="55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G39" s="54" t="s">
         <v>216</v>
       </c>
       <c r="H39" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I39" s="54">
         <v>10</v>
@@ -7072,7 +7134,7 @@
         <v>0.74</v>
       </c>
       <c r="U39" s="54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V39" s="56">
         <v>1</v>
@@ -7104,7 +7166,7 @@
         <v>140</v>
       </c>
       <c r="AL39" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:38" s="63" customFormat="1">
@@ -7115,19 +7177,19 @@
         <v>39</v>
       </c>
       <c r="C40" s="60" t="s">
-        <v>217</v>
+        <v>493</v>
       </c>
       <c r="D40" s="60" t="s">
         <v>121</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F40" s="60" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G40" s="60" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H40" s="60" t="s">
         <v>70</v>
@@ -7184,7 +7246,7 @@
         <v>39</v>
       </c>
       <c r="AE40" s="63">
-        <v>9100</v>
+        <v>3000</v>
       </c>
       <c r="AF40" s="63">
         <v>2</v>
@@ -7196,13 +7258,13 @@
         <v>186</v>
       </c>
       <c r="AI40" s="32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AK40" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL40" s="32" t="s">
         <v>310</v>
-      </c>
-      <c r="AL40" s="32" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:38" s="57" customFormat="1">
@@ -7213,19 +7275,19 @@
         <v>40</v>
       </c>
       <c r="C41" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="D41" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="D41" s="54" t="s">
+      <c r="E41" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="G41" s="54" t="s">
         <v>313</v>
-      </c>
-      <c r="E41" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="F41" s="54" t="s">
-        <v>243</v>
-      </c>
-      <c r="G41" s="54" t="s">
-        <v>314</v>
       </c>
       <c r="H41" s="54" t="s">
         <v>70</v>
@@ -7306,22 +7368,22 @@
         <v>41</v>
       </c>
       <c r="C42" s="60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D42" s="60" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E42" s="60" t="s">
         <v>100</v>
       </c>
       <c r="F42" s="60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G42" s="60" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H42" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I42" s="60">
         <v>1</v>
@@ -7385,13 +7447,13 @@
       </c>
       <c r="AH42" s="33"/>
       <c r="AI42" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AK42" s="64" t="s">
         <v>142</v>
       </c>
       <c r="AL42" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:38" s="68" customFormat="1">
@@ -7402,22 +7464,22 @@
         <v>42</v>
       </c>
       <c r="C43" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" s="66" t="s">
+        <v>317</v>
+      </c>
+      <c r="E43" s="66" t="s">
         <v>222</v>
       </c>
-      <c r="D43" s="66" t="s">
-        <v>318</v>
-      </c>
-      <c r="E43" s="66" t="s">
-        <v>223</v>
-      </c>
       <c r="F43" s="66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G43" s="66" t="s">
         <v>62</v>
       </c>
       <c r="H43" s="66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I43" s="66">
         <v>1</v>
@@ -7483,7 +7545,7 @@
         <v>2</v>
       </c>
       <c r="AI43" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AK43" s="69"/>
       <c r="AL43" s="69"/>
@@ -7496,22 +7558,22 @@
         <v>43</v>
       </c>
       <c r="C44" s="60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D44" s="60" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F44" s="60" t="s">
         <v>62</v>
       </c>
       <c r="G44" s="60" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H44" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I44" s="60">
         <v>0.96</v>
@@ -7579,13 +7641,13 @@
         <v>186</v>
       </c>
       <c r="AI44" s="32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AK44" s="64" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AL44" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:38" s="68" customFormat="1">
@@ -7596,19 +7658,19 @@
         <v>44</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D45" s="66" t="s">
+        <v>321</v>
+      </c>
+      <c r="E45" s="66" t="s">
         <v>322</v>
-      </c>
-      <c r="E45" s="66" t="s">
-        <v>323</v>
       </c>
       <c r="F45" s="66" t="s">
         <v>62</v>
       </c>
       <c r="G45" s="66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H45" s="66" t="s">
         <v>70</v>
@@ -7677,7 +7739,7 @@
         <v>2</v>
       </c>
       <c r="AI45" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AK45" s="69"/>
       <c r="AL45" s="69"/>
@@ -7696,16 +7758,16 @@
         <v>122</v>
       </c>
       <c r="E46" s="66" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F46" s="66" t="s">
         <v>62</v>
       </c>
       <c r="G46" s="66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H46" s="66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I46" s="66">
         <v>0.96</v>
@@ -7768,7 +7830,7 @@
         <v>2</v>
       </c>
       <c r="AI46" s="35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AK46" s="69"/>
       <c r="AL46" s="69"/>
@@ -7781,19 +7843,19 @@
         <v>46</v>
       </c>
       <c r="C47" s="60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D47" s="60" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E47" s="60" t="s">
         <v>101</v>
       </c>
       <c r="F47" s="60" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G47" s="60" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H47" s="60" t="s">
         <v>70</v>
@@ -7862,13 +7924,13 @@
         <v>186</v>
       </c>
       <c r="AI47" s="32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AK47" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL47" s="32" t="s">
         <v>229</v>
-      </c>
-      <c r="AL47" s="32" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:38" s="73" customFormat="1">
@@ -7879,22 +7941,22 @@
         <v>47</v>
       </c>
       <c r="C48" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="D48" s="71" t="s">
+        <v>326</v>
+      </c>
+      <c r="E48" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="D48" s="71" t="s">
+      <c r="F48" s="71" t="s">
         <v>327</v>
       </c>
-      <c r="E48" s="71" t="s">
-        <v>232</v>
-      </c>
-      <c r="F48" s="71" t="s">
-        <v>328</v>
-      </c>
       <c r="G48" s="71" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H48" s="71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I48" s="71">
         <v>1</v>
@@ -7957,13 +8019,13 @@
         <v>2</v>
       </c>
       <c r="AI48" s="35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AK48" s="74" t="s">
         <v>143</v>
       </c>
       <c r="AL48" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="1:38" s="63" customFormat="1">
@@ -7974,22 +8036,22 @@
         <v>48</v>
       </c>
       <c r="C49" s="60" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D49" s="60" t="s">
+        <v>329</v>
+      </c>
+      <c r="E49" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="E49" s="60" t="s">
+      <c r="F49" s="60" t="s">
         <v>331</v>
       </c>
-      <c r="F49" s="60" t="s">
-        <v>332</v>
-      </c>
       <c r="G49" s="60" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H49" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I49" s="60">
         <v>2</v>
@@ -8055,13 +8117,13 @@
         <v>186</v>
       </c>
       <c r="AI49" s="32" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AK49" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="AL49" s="32" t="s">
         <v>234</v>
-      </c>
-      <c r="AL49" s="32" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:38" s="73" customFormat="1">
@@ -8072,16 +8134,16 @@
         <v>49</v>
       </c>
       <c r="C50" s="71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D50" s="71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E50" s="71" t="s">
         <v>108</v>
       </c>
       <c r="F50" s="71" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G50" s="71" t="s">
         <v>137</v>
@@ -8153,13 +8215,13 @@
         <v>2</v>
       </c>
       <c r="AI50" s="35" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AK50" s="74" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AL50" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:38" s="80" customFormat="1">
@@ -8170,22 +8232,22 @@
         <v>50</v>
       </c>
       <c r="C51" s="78" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D51" s="78" t="s">
         <v>104</v>
       </c>
       <c r="E51" s="78" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F51" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G51" s="71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H51" s="71" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I51" s="71">
         <v>2</v>
@@ -8220,7 +8282,7 @@
         <v>0.22</v>
       </c>
       <c r="U51" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V51" s="72">
         <v>0.8</v>
@@ -8263,22 +8325,22 @@
         <v>51</v>
       </c>
       <c r="C52" s="60" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D52" s="60" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F52" s="60" t="s">
         <v>177</v>
       </c>
       <c r="G52" s="60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H52" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I52" s="60">
         <v>2.64</v>
@@ -8326,10 +8388,10 @@
         <v>0.1</v>
       </c>
       <c r="Z52" s="75" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AA52" s="63" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AB52" s="63"/>
       <c r="AC52" s="63"/>
@@ -8346,7 +8408,7 @@
         <v>186</v>
       </c>
       <c r="AI52" s="32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AK52" s="64" t="s">
         <v>142</v>
@@ -8360,16 +8422,16 @@
         <v>52</v>
       </c>
       <c r="C53" s="60" t="s">
+        <v>337</v>
+      </c>
+      <c r="D53" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="D53" s="60" t="s">
-        <v>339</v>
-      </c>
       <c r="E53" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="F53" s="60" t="s">
         <v>242</v>
-      </c>
-      <c r="F53" s="60" t="s">
-        <v>243</v>
       </c>
       <c r="G53" s="60" t="s">
         <v>58</v>
@@ -8443,7 +8505,7 @@
         <v>186</v>
       </c>
       <c r="AI53" s="32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AK53" s="64" t="s">
         <v>142</v>
@@ -8457,13 +8519,13 @@
         <v>53</v>
       </c>
       <c r="C54" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" s="60" t="s">
         <v>340</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="E54" s="60" t="s">
-        <v>341</v>
       </c>
       <c r="F54" s="60" t="s">
         <v>58</v>
@@ -8472,7 +8534,7 @@
         <v>62</v>
       </c>
       <c r="H54" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I54" s="28">
         <v>0.96</v>
@@ -8540,13 +8602,13 @@
         <v>186</v>
       </c>
       <c r="AI54" s="32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AK54" s="64" t="s">
         <v>142</v>
       </c>
       <c r="AL54" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:38" s="33" customFormat="1">
@@ -8557,13 +8619,13 @@
         <v>54</v>
       </c>
       <c r="C55" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="D55" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="D55" s="28" t="s">
-        <v>343</v>
-      </c>
       <c r="E55" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F55" s="60" t="s">
         <v>58</v>
@@ -8640,13 +8702,13 @@
         <v>186</v>
       </c>
       <c r="AI55" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AK55" s="64" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AL55" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:38" s="33" customFormat="1">
@@ -8657,13 +8719,13 @@
         <v>55</v>
       </c>
       <c r="C56" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="D56" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="E56" s="28" t="s">
         <v>346</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>347</v>
       </c>
       <c r="F56" s="60" t="s">
         <v>58</v>
@@ -8672,7 +8734,7 @@
         <v>58</v>
       </c>
       <c r="H56" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I56" s="28">
         <v>1.53</v>
@@ -8740,13 +8802,13 @@
         <v>186</v>
       </c>
       <c r="AI56" s="32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AK56" s="64" t="s">
         <v>142</v>
       </c>
       <c r="AL56" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:38" s="86" customFormat="1">
@@ -8757,7 +8819,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="82" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D57" s="82" t="s">
         <v>103</v>
@@ -8766,13 +8828,13 @@
         <v>43</v>
       </c>
       <c r="F57" s="82" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G57" s="82" t="s">
+        <v>245</v>
+      </c>
+      <c r="H57" s="82" t="s">
         <v>246</v>
-      </c>
-      <c r="H57" s="82" t="s">
-        <v>247</v>
       </c>
       <c r="I57" s="82">
         <v>0.66</v>
@@ -8835,7 +8897,7 @@
         <v>2</v>
       </c>
       <c r="AI57" s="85" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AL57" s="85" t="s">
         <v>147</v>
@@ -8849,22 +8911,22 @@
         <v>57</v>
       </c>
       <c r="C58" s="88" t="s">
+        <v>247</v>
+      </c>
+      <c r="D58" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="D58" s="88" t="s">
+      <c r="E58" s="88" t="s">
         <v>249</v>
       </c>
-      <c r="E58" s="88" t="s">
+      <c r="F58" s="88" t="s">
         <v>250</v>
       </c>
-      <c r="F58" s="88" t="s">
-        <v>251</v>
-      </c>
       <c r="G58" s="88" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H58" s="88" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I58" s="88">
         <v>2.64</v>
@@ -8898,7 +8960,7 @@
         <v>0.74</v>
       </c>
       <c r="U58" s="88" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V58" s="89">
         <v>1</v>
@@ -8913,7 +8975,7 @@
         <v>146</v>
       </c>
       <c r="AA58" s="91" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AB58" s="91">
         <v>1</v>
@@ -8935,22 +8997,22 @@
         <v>58</v>
       </c>
       <c r="C59" s="88" t="s">
+        <v>348</v>
+      </c>
+      <c r="D59" s="88" t="s">
+        <v>252</v>
+      </c>
+      <c r="E59" s="88" t="s">
         <v>349</v>
       </c>
-      <c r="D59" s="88" t="s">
+      <c r="F59" s="88" t="s">
         <v>253</v>
       </c>
-      <c r="E59" s="88" t="s">
-        <v>350</v>
-      </c>
-      <c r="F59" s="88" t="s">
-        <v>254</v>
-      </c>
       <c r="G59" s="88" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H59" s="88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I59" s="88">
         <v>2.64</v>
@@ -8984,7 +9046,7 @@
         <v>0.74</v>
       </c>
       <c r="U59" s="88" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V59" s="89">
         <v>1</v>
@@ -8999,7 +9061,7 @@
         <v>146</v>
       </c>
       <c r="AA59" s="91" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AB59" s="91">
         <v>1</v>
@@ -9021,22 +9083,22 @@
         <v>59</v>
       </c>
       <c r="C60" s="88" t="s">
+        <v>350</v>
+      </c>
+      <c r="D60" s="88" t="s">
+        <v>467</v>
+      </c>
+      <c r="E60" s="88" t="s">
         <v>351</v>
       </c>
-      <c r="D60" s="88" t="s">
-        <v>468</v>
-      </c>
-      <c r="E60" s="88" t="s">
-        <v>352</v>
-      </c>
       <c r="F60" s="88" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G60" s="88" t="s">
         <v>161</v>
       </c>
       <c r="H60" s="88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I60" s="88">
         <v>2.64</v>
@@ -9082,7 +9144,7 @@
         <v>0.1</v>
       </c>
       <c r="Z60" s="90" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AA60" s="91" t="s">
         <v>53</v>
@@ -9107,22 +9169,22 @@
         <v>60</v>
       </c>
       <c r="C61" s="88" t="s">
+        <v>257</v>
+      </c>
+      <c r="D61" s="88" t="s">
+        <v>352</v>
+      </c>
+      <c r="E61" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="F61" s="88" t="s">
+        <v>353</v>
+      </c>
+      <c r="G61" s="88" t="s">
         <v>258</v>
       </c>
-      <c r="D61" s="88" t="s">
-        <v>353</v>
-      </c>
-      <c r="E61" s="88" t="s">
-        <v>260</v>
-      </c>
-      <c r="F61" s="88" t="s">
-        <v>354</v>
-      </c>
-      <c r="G61" s="88" t="s">
-        <v>259</v>
-      </c>
       <c r="H61" s="88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I61" s="88">
         <v>2.64</v>
@@ -9193,22 +9255,22 @@
         <v>61</v>
       </c>
       <c r="C62" s="93" t="s">
+        <v>354</v>
+      </c>
+      <c r="D62" s="94" t="s">
+        <v>260</v>
+      </c>
+      <c r="E62" s="93" t="s">
         <v>355</v>
       </c>
-      <c r="D62" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="E62" s="93" t="s">
-        <v>356</v>
-      </c>
       <c r="F62" s="94" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G62" s="94" t="s">
         <v>162</v>
       </c>
       <c r="H62" s="93" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I62" s="93">
         <v>2.64</v>
@@ -9242,7 +9304,7 @@
         <v>0.74</v>
       </c>
       <c r="U62" s="93" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V62" s="96">
         <v>1</v>
@@ -9254,10 +9316,10 @@
         <v>0.1</v>
       </c>
       <c r="Y62" s="95" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Z62" s="97" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AA62" s="92" t="s">
         <v>53</v>

--- a/config_hlw/fish3d_config.xlsx
+++ b/config_hlw/fish3d_config.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="495">
   <si>
     <t>line|行号</t>
   </si>
@@ -2580,6 +2580,10 @@
   </si>
   <si>
     <t>FishNew008</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>107,108,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3387,9 +3391,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AM69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE30" sqref="AE30:AE32"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AM32" sqref="AM32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6260,7 +6264,7 @@
         <v>2.84</v>
       </c>
       <c r="K30" s="36">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="L30" s="36">
         <v>30</v>
@@ -6355,7 +6359,7 @@
         <v>2.77</v>
       </c>
       <c r="K31" s="36">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="L31" s="36">
         <v>30</v>
@@ -6450,7 +6454,7 @@
         <v>1.96</v>
       </c>
       <c r="K32" s="36">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="L32" s="36">
         <v>30</v>
@@ -6517,7 +6521,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="33" spans="1:38" s="43" customFormat="1">
+    <row r="33" spans="1:39" s="43" customFormat="1">
       <c r="A33" s="36">
         <v>32</v>
       </c>
@@ -6608,8 +6612,11 @@
       <c r="AL33" s="8" t="s">
         <v>206</v>
       </c>
+      <c r="AM33" s="42" t="s">
+        <v>494</v>
+      </c>
     </row>
-    <row r="34" spans="1:38" s="43" customFormat="1">
+    <row r="34" spans="1:39" s="43" customFormat="1">
       <c r="A34" s="36">
         <v>33</v>
       </c>
@@ -6702,8 +6709,11 @@
       <c r="AL34" s="8" t="s">
         <v>294</v>
       </c>
+      <c r="AM34" s="42" t="s">
+        <v>494</v>
+      </c>
     </row>
-    <row r="35" spans="1:38" s="43" customFormat="1">
+    <row r="35" spans="1:39" s="43" customFormat="1">
       <c r="A35" s="36">
         <v>34</v>
       </c>
@@ -6792,8 +6802,11 @@
       <c r="AL35" s="8" t="s">
         <v>212</v>
       </c>
+      <c r="AM35" s="42" t="s">
+        <v>494</v>
+      </c>
     </row>
-    <row r="36" spans="1:38" s="43" customFormat="1">
+    <row r="36" spans="1:39" s="43" customFormat="1">
       <c r="A36" s="36">
         <v>35</v>
       </c>
@@ -6885,8 +6898,11 @@
       <c r="AL36" s="8" t="s">
         <v>299</v>
       </c>
+      <c r="AM36" s="42" t="s">
+        <v>494</v>
+      </c>
     </row>
-    <row r="37" spans="1:38" s="43" customFormat="1">
+    <row r="37" spans="1:39" s="43" customFormat="1">
       <c r="A37" s="36">
         <v>36</v>
       </c>
@@ -6982,7 +6998,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="38" spans="1:38" s="51" customFormat="1">
+    <row r="38" spans="1:39" s="51" customFormat="1">
       <c r="A38" s="47">
         <v>37</v>
       </c>
@@ -7076,7 +7092,7 @@
       <c r="AJ38" s="52"/>
       <c r="AK38" s="52"/>
     </row>
-    <row r="39" spans="1:38" s="57" customFormat="1">
+    <row r="39" spans="1:39" s="57" customFormat="1">
       <c r="A39" s="53">
         <v>38</v>
       </c>
@@ -7169,7 +7185,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="40" spans="1:38" s="63" customFormat="1">
+    <row r="40" spans="1:39" s="63" customFormat="1">
       <c r="A40" s="59">
         <v>39</v>
       </c>
@@ -7267,7 +7283,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:38" s="57" customFormat="1">
+    <row r="41" spans="1:39" s="57" customFormat="1">
       <c r="A41" s="53">
         <v>40</v>
       </c>
@@ -7360,7 +7376,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:38" s="63" customFormat="1">
+    <row r="42" spans="1:39" s="63" customFormat="1">
       <c r="A42" s="59">
         <v>41</v>
       </c>
@@ -7456,7 +7472,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="43" spans="1:38" s="68" customFormat="1">
+    <row r="43" spans="1:39" s="68" customFormat="1">
       <c r="A43" s="65">
         <v>42</v>
       </c>
@@ -7550,7 +7566,7 @@
       <c r="AK43" s="69"/>
       <c r="AL43" s="69"/>
     </row>
-    <row r="44" spans="1:38" s="63" customFormat="1">
+    <row r="44" spans="1:39" s="63" customFormat="1">
       <c r="A44" s="59">
         <v>43</v>
       </c>
@@ -7650,7 +7666,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="45" spans="1:38" s="68" customFormat="1">
+    <row r="45" spans="1:39" s="68" customFormat="1">
       <c r="A45" s="65">
         <v>44</v>
       </c>
@@ -7744,7 +7760,7 @@
       <c r="AK45" s="69"/>
       <c r="AL45" s="69"/>
     </row>
-    <row r="46" spans="1:38" s="68" customFormat="1">
+    <row r="46" spans="1:39" s="68" customFormat="1">
       <c r="A46" s="65">
         <v>45</v>
       </c>
@@ -7835,7 +7851,7 @@
       <c r="AK46" s="69"/>
       <c r="AL46" s="69"/>
     </row>
-    <row r="47" spans="1:38" s="63" customFormat="1">
+    <row r="47" spans="1:39" s="63" customFormat="1">
       <c r="A47" s="59">
         <v>46</v>
       </c>
@@ -7933,7 +7949,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="48" spans="1:38" s="73" customFormat="1">
+    <row r="48" spans="1:39" s="73" customFormat="1">
       <c r="A48" s="70">
         <v>47</v>
       </c>

--- a/config_hlw/fish3d_config.xlsx
+++ b/config_hlw/fish3d_config.xlsx
@@ -3391,9 +3391,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AM69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM32" sqref="AM32"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7133,7 +7133,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="53">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="O39" s="53"/>
       <c r="P39" s="53">
@@ -7892,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="N47" s="59">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="O47" s="59"/>
       <c r="P47" s="59">
@@ -7990,7 +7990,7 @@
         <v>1</v>
       </c>
       <c r="N48" s="70">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="O48" s="70"/>
       <c r="P48" s="70">
@@ -8374,7 +8374,7 @@
         <v>1</v>
       </c>
       <c r="N52" s="59">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O52" s="27" t="s">
         <v>187</v>
@@ -8471,7 +8471,7 @@
         <v>1</v>
       </c>
       <c r="N53" s="59">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O53" s="27" t="s">
         <v>187</v>
@@ -8568,7 +8568,7 @@
         <v>1</v>
       </c>
       <c r="N54" s="27">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="O54" s="27" t="s">
         <v>187</v>
@@ -8668,7 +8668,7 @@
         <v>1</v>
       </c>
       <c r="N55" s="27">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="O55" s="27" t="s">
         <v>187</v>
@@ -8768,7 +8768,7 @@
         <v>1</v>
       </c>
       <c r="N56" s="27">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="O56" s="27" t="s">
         <v>187</v>

--- a/config_hlw/fish3d_config.xlsx
+++ b/config_hlw/fish3d_config.xlsx
@@ -3391,9 +3391,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AM69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N55" sqref="N55"/>
+      <selection pane="bottomLeft" activeCell="AE45" sqref="AE45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7645,7 +7645,7 @@
         <v>36</v>
       </c>
       <c r="AE44" s="63">
-        <v>9100</v>
+        <v>3000</v>
       </c>
       <c r="AF44" s="63">
         <v>1.5</v>

--- a/config_hlw/fish3d_config.xlsx
+++ b/config_hlw/fish3d_config.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="502">
   <si>
     <t>line|行号</t>
   </si>
@@ -662,10 +662,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>reward_image|鱼的名称图片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>reward_level|奖励等级</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1202,10 +1198,6 @@
   </si>
   <si>
     <t>close_rota|关闭旋转，鱼不同路径转动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_fdcl</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2584,6 +2576,42 @@
   </si>
   <si>
     <t>107,108,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward_image|鱼的名称图片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossll_imgf_cjlj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossll_imgf_hjjl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossll_imgf_jchx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossll_imgf_jjdx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossll_imgf_lynw</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossll_imgf_ryjs</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossll_imgf_syjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossll_imgf_yglg</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3391,9 +3419,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AM69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE45" sqref="AE45"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3449,10 +3477,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -3473,7 +3501,7 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>12</v>
@@ -3512,40 +3540,40 @@
         <v>22</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AG1" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="AH1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="AK1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:39" s="9" customFormat="1">
@@ -3556,22 +3584,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" s="5">
         <v>0.64</v>
@@ -3618,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z2" s="8" t="s">
         <v>25</v>
@@ -3635,7 +3663,7 @@
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
       <c r="AL2" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:39" s="9" customFormat="1">
@@ -3646,13 +3674,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>55</v>
@@ -3661,7 +3689,7 @@
         <v>54</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I3" s="5">
         <v>0.94</v>
@@ -3708,7 +3736,7 @@
         <v>0.8</v>
       </c>
       <c r="Y3" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z3" s="8" t="s">
         <v>25</v>
@@ -3724,7 +3752,7 @@
       </c>
       <c r="AI3" s="8"/>
       <c r="AL3" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:39" s="9" customFormat="1">
@@ -3735,13 +3763,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>57</v>
@@ -3750,7 +3778,7 @@
         <v>54</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I4" s="5">
         <v>0.78</v>
@@ -3797,7 +3825,7 @@
         <v>0.35</v>
       </c>
       <c r="Y4" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z4" s="8" t="s">
         <v>27</v>
@@ -3814,7 +3842,7 @@
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
       <c r="AL4" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:39" s="9" customFormat="1">
@@ -3825,13 +3853,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>56</v>
@@ -3840,7 +3868,7 @@
         <v>54</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I5" s="5">
         <v>1.08</v>
@@ -3887,7 +3915,7 @@
         <v>0.6</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z5" s="8" t="s">
         <v>25</v>
@@ -3903,7 +3931,7 @@
       </c>
       <c r="AI5" s="8"/>
       <c r="AL5" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:39" s="33" customFormat="1">
@@ -3914,22 +3942,22 @@
         <v>5</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I6" s="28">
         <v>1.76</v>
@@ -3950,7 +3978,7 @@
         <v>8</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P6" s="27">
         <v>1</v>
@@ -3978,7 +4006,7 @@
         <v>0.4</v>
       </c>
       <c r="Y6" s="30" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="Z6" s="32" t="s">
         <v>30</v>
@@ -3997,13 +4025,13 @@
         <v>2</v>
       </c>
       <c r="AH6" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI6" s="32" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AL6" s="32" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:39" s="9" customFormat="1">
@@ -4014,13 +4042,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>62</v>
@@ -4029,7 +4057,7 @@
         <v>62</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I7" s="5">
         <v>1.76</v>
@@ -4076,7 +4104,7 @@
         <v>0.4</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z7" s="8" t="s">
         <v>30</v>
@@ -4095,7 +4123,7 @@
       </c>
       <c r="AI7" s="8"/>
       <c r="AL7" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:39" s="9" customFormat="1">
@@ -4106,22 +4134,22 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>54</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I8" s="5">
         <v>0.78</v>
@@ -4168,7 +4196,7 @@
         <v>0.35</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z8" s="8" t="s">
         <v>27</v>
@@ -4186,7 +4214,7 @@
         <v>1.2</v>
       </c>
       <c r="AL8" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:39" s="9" customFormat="1">
@@ -4197,13 +4225,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>61</v>
@@ -4212,7 +4240,7 @@
         <v>62</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I9" s="5">
         <v>1.76</v>
@@ -4259,7 +4287,7 @@
         <v>0.4</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z9" s="8" t="s">
         <v>30</v>
@@ -4278,7 +4306,7 @@
       </c>
       <c r="AI9" s="8"/>
       <c r="AL9" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:39" s="33" customFormat="1">
@@ -4289,13 +4317,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>58</v>
@@ -4304,7 +4332,7 @@
         <v>58</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I10" s="28">
         <v>1.64</v>
@@ -4325,7 +4353,7 @@
         <v>10</v>
       </c>
       <c r="O10" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P10" s="27">
         <v>1</v>
@@ -4353,7 +4381,7 @@
         <v>0.45</v>
       </c>
       <c r="Y10" s="30" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Z10" s="100" t="s">
         <v>31</v>
@@ -4371,10 +4399,10 @@
         <v>2</v>
       </c>
       <c r="AI10" s="107" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AL10" s="32" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:39" s="33" customFormat="1">
@@ -4385,13 +4413,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>58</v>
@@ -4400,7 +4428,7 @@
         <v>58</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I11" s="28">
         <v>1</v>
@@ -4421,7 +4449,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P11" s="27">
         <v>2</v>
@@ -4449,10 +4477,10 @@
         <v>0.5</v>
       </c>
       <c r="Y11" s="30" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Z11" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA11" s="32" t="s">
         <v>33</v>
@@ -4467,13 +4495,13 @@
         <v>2</v>
       </c>
       <c r="AH11" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI11" s="32" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AL11" s="32" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:39" s="33" customFormat="1">
@@ -4484,13 +4512,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>58</v>
@@ -4499,7 +4527,7 @@
         <v>58</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I12" s="28">
         <v>1.8</v>
@@ -4520,7 +4548,7 @@
         <v>15</v>
       </c>
       <c r="O12" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P12" s="27">
         <v>2</v>
@@ -4548,10 +4576,10 @@
         <v>0.35</v>
       </c>
       <c r="Y12" s="30" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Z12" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA12" s="32" t="s">
         <v>33</v>
@@ -4566,13 +4594,13 @@
         <v>2</v>
       </c>
       <c r="AH12" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI12" s="32" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AL12" s="32" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:39" s="33" customFormat="1">
@@ -4583,22 +4611,22 @@
         <v>12</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D13" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="F13" s="28" t="s">
         <v>386</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="G13" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="H13" s="28" t="s">
         <v>387</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>388</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>389</v>
       </c>
       <c r="I13" s="28">
         <v>1.5</v>
@@ -4619,7 +4647,7 @@
         <v>18</v>
       </c>
       <c r="O13" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P13" s="27">
         <v>3</v>
@@ -4647,7 +4675,7 @@
         <v>0.35</v>
       </c>
       <c r="Y13" s="30" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="Z13" s="32" t="s">
         <v>35</v>
@@ -4665,13 +4693,13 @@
         <v>2</v>
       </c>
       <c r="AH13" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI13" s="32" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AL13" s="32" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:39" s="33" customFormat="1">
@@ -4682,22 +4710,22 @@
         <v>13</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I14" s="28">
         <v>0.96</v>
@@ -4718,7 +4746,7 @@
         <v>20</v>
       </c>
       <c r="O14" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P14" s="27">
         <v>3</v>
@@ -4746,7 +4774,7 @@
         <v>0.35</v>
       </c>
       <c r="Y14" s="30" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Z14" s="32" t="s">
         <v>37</v>
@@ -4764,13 +4792,13 @@
         <v>2</v>
       </c>
       <c r="AH14" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI14" s="32" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AL14" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:39" s="33" customFormat="1">
@@ -4781,22 +4809,22 @@
         <v>14</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D15" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="H15" s="28" t="s">
         <v>368</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>369</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>393</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>370</v>
       </c>
       <c r="I15" s="28">
         <v>0.74</v>
@@ -4817,7 +4845,7 @@
         <v>25</v>
       </c>
       <c r="O15" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P15" s="27">
         <v>2</v>
@@ -4845,7 +4873,7 @@
         <v>0.4</v>
       </c>
       <c r="Y15" s="30" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="Z15" s="32" t="s">
         <v>30</v>
@@ -4863,13 +4891,13 @@
         <v>2</v>
       </c>
       <c r="AH15" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI15" s="32" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AL15" s="32" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:39" s="33" customFormat="1">
@@ -4880,22 +4908,22 @@
         <v>15</v>
       </c>
       <c r="C16" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>372</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>394</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>374</v>
-      </c>
       <c r="G16" s="28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I16" s="28">
         <v>1.53</v>
@@ -4916,7 +4944,7 @@
         <v>30</v>
       </c>
       <c r="O16" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P16" s="27">
         <v>4</v>
@@ -4944,7 +4972,7 @@
         <v>0.35</v>
       </c>
       <c r="Y16" s="30" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Z16" s="32" t="s">
         <v>32</v>
@@ -4962,13 +4990,13 @@
         <v>2</v>
       </c>
       <c r="AH16" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI16" s="32" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AL16" s="32" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:39" s="33" customFormat="1">
@@ -4979,22 +5007,22 @@
         <v>16</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I17" s="28">
         <v>1.5</v>
@@ -5015,7 +5043,7 @@
         <v>35</v>
       </c>
       <c r="O17" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P17" s="27">
         <v>3</v>
@@ -5043,7 +5071,7 @@
         <v>0.5</v>
       </c>
       <c r="Y17" s="30" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Z17" s="32" t="s">
         <v>32</v>
@@ -5061,13 +5089,13 @@
         <v>2</v>
       </c>
       <c r="AH17" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI17" s="32" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AL17" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:39" s="33" customFormat="1">
@@ -5078,22 +5106,22 @@
         <v>17</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E18" s="99" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I18" s="28">
         <v>2.5</v>
@@ -5114,7 +5142,7 @@
         <v>40</v>
       </c>
       <c r="O18" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P18" s="27">
         <v>4</v>
@@ -5142,7 +5170,7 @@
         <v>0.35</v>
       </c>
       <c r="Y18" s="30" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Z18" s="32" t="s">
         <v>32</v>
@@ -5160,13 +5188,13 @@
         <v>2</v>
       </c>
       <c r="AH18" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI18" s="32" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AL18" s="32" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:39" s="33" customFormat="1">
@@ -5177,22 +5205,22 @@
         <v>18</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I19" s="28">
         <v>2</v>
@@ -5213,7 +5241,7 @@
         <v>60</v>
       </c>
       <c r="O19" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P19" s="27">
         <v>4</v>
@@ -5241,7 +5269,7 @@
         <v>0.35</v>
       </c>
       <c r="Y19" s="30" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Z19" s="32" t="s">
         <v>35</v>
@@ -5265,13 +5293,13 @@
         <v>2</v>
       </c>
       <c r="AH19" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI19" s="32" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AL19" s="32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:39" s="33" customFormat="1">
@@ -5282,22 +5310,22 @@
         <v>19</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I20" s="28">
         <v>2.2799999999999998</v>
@@ -5318,7 +5346,7 @@
         <v>60</v>
       </c>
       <c r="O20" s="30" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="P20" s="27">
         <v>4</v>
@@ -5346,7 +5374,7 @@
         <v>0.35</v>
       </c>
       <c r="Y20" s="30" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Z20" s="32" t="s">
         <v>37</v>
@@ -5364,13 +5392,13 @@
         <v>1</v>
       </c>
       <c r="AH20" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI20" s="32" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AL20" s="32" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:39" s="108" customFormat="1">
@@ -5381,22 +5409,22 @@
         <v>20</v>
       </c>
       <c r="C21" s="102" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D21" s="102" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E21" s="102" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F21" s="102" t="s">
         <v>62</v>
       </c>
       <c r="G21" s="102" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H21" s="102" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I21" s="102">
         <v>2.72</v>
@@ -5441,7 +5469,7 @@
         <v>0.35</v>
       </c>
       <c r="Y21" s="106" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Z21" s="107" t="s">
         <v>40</v>
@@ -5466,10 +5494,10 @@
       </c>
       <c r="AH21" s="107"/>
       <c r="AI21" s="107" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AL21" s="107" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:39" s="33" customFormat="1">
@@ -5480,22 +5508,22 @@
         <v>21</v>
       </c>
       <c r="C22" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="F22" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>267</v>
-      </c>
       <c r="G22" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I22" s="28">
         <v>1.29</v>
@@ -5542,7 +5570,7 @@
         <v>0.35</v>
       </c>
       <c r="Y22" s="30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Z22" s="32" t="s">
         <v>38</v>
@@ -5560,13 +5588,13 @@
         <v>1</v>
       </c>
       <c r="AH22" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI22" s="32" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AL22" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:39" s="108" customFormat="1">
@@ -5577,22 +5605,22 @@
         <v>22</v>
       </c>
       <c r="C23" s="102" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E23" s="102" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F23" s="102" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G23" s="102" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H23" s="103" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I23" s="102">
         <v>3</v>
@@ -5639,7 +5667,7 @@
         <v>0.35</v>
       </c>
       <c r="Y23" s="106" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z23" s="107" t="s">
         <v>38</v>
@@ -5657,10 +5685,10 @@
         <v>1</v>
       </c>
       <c r="AI23" s="107" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AL23" s="107" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:39" s="108" customFormat="1">
@@ -5671,22 +5699,22 @@
         <v>23</v>
       </c>
       <c r="C24" s="102" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E24" s="102" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F24" s="102" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G24" s="102" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H24" s="103" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I24" s="102">
         <v>2</v>
@@ -5733,7 +5761,7 @@
         <v>0.8</v>
       </c>
       <c r="Y24" s="106" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Z24" s="107" t="s">
         <v>25</v>
@@ -5749,10 +5777,10 @@
       </c>
       <c r="AH24" s="33"/>
       <c r="AI24" s="32" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AL24" s="107" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:39" s="108" customFormat="1">
@@ -5763,22 +5791,22 @@
         <v>24</v>
       </c>
       <c r="C25" s="102" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="102" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E25" s="102" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F25" s="102" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G25" s="102" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H25" s="103" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I25" s="102">
         <v>1</v>
@@ -5825,7 +5853,7 @@
         <v>0.7</v>
       </c>
       <c r="Y25" s="106" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Z25" s="107" t="s">
         <v>25</v>
@@ -5840,10 +5868,10 @@
         <v>1.2</v>
       </c>
       <c r="AI25" s="107" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AL25" s="107" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:39" s="108" customFormat="1">
@@ -5854,22 +5882,22 @@
         <v>25</v>
       </c>
       <c r="C26" s="102" t="s">
+        <v>272</v>
+      </c>
+      <c r="D26" s="102" t="s">
+        <v>273</v>
+      </c>
+      <c r="E26" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="D26" s="102" t="s">
-        <v>275</v>
-      </c>
-      <c r="E26" s="102" t="s">
-        <v>276</v>
-      </c>
       <c r="F26" s="102" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G26" s="102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H26" s="103" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I26" s="102">
         <v>1.44</v>
@@ -5916,7 +5944,7 @@
         <v>0.35</v>
       </c>
       <c r="Y26" s="106" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Z26" s="107" t="s">
         <v>44</v>
@@ -5936,7 +5964,7 @@
       </c>
       <c r="AI26" s="107"/>
       <c r="AL26" s="107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:39" s="108" customFormat="1">
@@ -5947,22 +5975,22 @@
         <v>26</v>
       </c>
       <c r="C27" s="102" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D27" s="102" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E27" s="102" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F27" s="102" t="s">
         <v>62</v>
       </c>
       <c r="G27" s="102" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H27" s="103" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I27" s="102">
         <v>3.77</v>
@@ -5983,7 +6011,7 @@
         <v>180</v>
       </c>
       <c r="O27" s="101" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P27" s="101">
         <v>4</v>
@@ -6011,7 +6039,7 @@
         <v>0.35</v>
       </c>
       <c r="Y27" s="106" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z27" s="107" t="s">
         <v>37</v>
@@ -6030,10 +6058,10 @@
         <v>1</v>
       </c>
       <c r="AI27" s="107" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AL27" s="107" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:39" s="108" customFormat="1">
@@ -6044,22 +6072,22 @@
         <v>27</v>
       </c>
       <c r="C28" s="102" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D28" s="102" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E28" s="102" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F28" s="103" t="s">
         <v>62</v>
       </c>
       <c r="G28" s="103" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H28" s="103" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I28" s="102">
         <v>2.64</v>
@@ -6080,7 +6108,7 @@
         <v>200</v>
       </c>
       <c r="O28" s="101" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P28" s="101">
         <v>4</v>
@@ -6096,7 +6124,7 @@
         <v>0.74</v>
       </c>
       <c r="U28" s="102" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="V28" s="105">
         <v>1</v>
@@ -6108,13 +6136,13 @@
         <v>0.1</v>
       </c>
       <c r="Y28" s="106" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Z28" s="107" t="s">
         <v>52</v>
       </c>
       <c r="AA28" s="107" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AB28" s="107"/>
       <c r="AC28" s="107"/>
@@ -6130,10 +6158,10 @@
       </c>
       <c r="AH28" s="33"/>
       <c r="AI28" s="32" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AL28" s="107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:39" s="43" customFormat="1">
@@ -6144,22 +6172,22 @@
         <v>28</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I29" s="44">
         <v>2.1</v>
@@ -6223,13 +6251,13 @@
         <v>1</v>
       </c>
       <c r="AI29" s="35" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AL29" s="42" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AM29" s="111" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:39" s="43" customFormat="1">
@@ -6240,22 +6268,22 @@
         <v>29</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E30" s="37" t="s">
         <v>50</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I30" s="37">
         <v>1.68</v>
@@ -6302,7 +6330,7 @@
         <v>0.35</v>
       </c>
       <c r="Y30" s="40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Z30" s="42" t="s">
         <v>38</v>
@@ -6321,10 +6349,10 @@
       </c>
       <c r="AI30" s="35"/>
       <c r="AL30" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM30" s="111" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:39" s="43" customFormat="1">
@@ -6335,22 +6363,22 @@
         <v>30</v>
       </c>
       <c r="C31" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F31" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="D31" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="F31" s="38" t="s">
-        <v>285</v>
-      </c>
       <c r="G31" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H31" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I31" s="44">
         <v>1.48</v>
@@ -6396,7 +6424,7 @@
         <v>0.35</v>
       </c>
       <c r="Y31" s="40" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Z31" s="42" t="s">
         <v>37</v>
@@ -6416,10 +6444,10 @@
       </c>
       <c r="AI31" s="35"/>
       <c r="AL31" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AM31" s="111" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="1:39" s="43" customFormat="1">
@@ -6430,22 +6458,22 @@
         <v>31</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D32" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="F32" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="E32" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="F32" s="38" t="s">
-        <v>125</v>
-      </c>
       <c r="G32" s="38" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I32" s="44">
         <v>1.48</v>
@@ -6492,7 +6520,7 @@
         <v>0.35</v>
       </c>
       <c r="Y32" s="40" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Z32" s="42" t="s">
         <v>37</v>
@@ -6515,10 +6543,10 @@
       </c>
       <c r="AI32" s="35"/>
       <c r="AL32" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM32" s="111" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="1:39" s="43" customFormat="1">
@@ -6529,22 +6557,22 @@
         <v>32</v>
       </c>
       <c r="C33" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="F33" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="D33" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>291</v>
-      </c>
       <c r="G33" s="38" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H33" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I33" s="37">
         <v>1.56</v>
@@ -6610,10 +6638,10 @@
       <c r="AI33" s="35"/>
       <c r="AJ33" s="45"/>
       <c r="AL33" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AM33" s="42" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="34" spans="1:39" s="43" customFormat="1">
@@ -6624,22 +6652,22 @@
         <v>33</v>
       </c>
       <c r="C34" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="G34" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="D34" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="F34" s="37" t="s">
+      <c r="H34" s="37" t="s">
         <v>208</v>
-      </c>
-      <c r="G34" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="H34" s="37" t="s">
-        <v>210</v>
       </c>
       <c r="I34" s="37">
         <v>4.9000000000000004</v>
@@ -6686,7 +6714,7 @@
         <v>0.35</v>
       </c>
       <c r="Y34" s="40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Z34" s="42" t="s">
         <v>37</v>
@@ -6707,10 +6735,10 @@
       <c r="AI34" s="35"/>
       <c r="AJ34" s="46"/>
       <c r="AL34" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AM34" s="42" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:39" s="43" customFormat="1">
@@ -6721,22 +6749,22 @@
         <v>34</v>
       </c>
       <c r="C35" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F35" s="37" t="s">
         <v>295</v>
       </c>
-      <c r="D35" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>297</v>
-      </c>
       <c r="G35" s="37" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H35" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I35" s="37">
         <v>1.1299999999999999</v>
@@ -6796,14 +6824,14 @@
         <v>1.2</v>
       </c>
       <c r="AI35" s="35" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AJ35" s="46"/>
       <c r="AL35" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AM35" s="42" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" spans="1:39" s="43" customFormat="1">
@@ -6814,22 +6842,22 @@
         <v>35</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G36" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H36" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I36" s="37">
         <v>0.78</v>
@@ -6892,14 +6920,14 @@
         <v>1.2</v>
       </c>
       <c r="AI36" s="35" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AJ36" s="46"/>
       <c r="AL36" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AM36" s="42" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="37" spans="1:39" s="43" customFormat="1">
@@ -6910,22 +6938,22 @@
         <v>36</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F37" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G37" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I37" s="37">
         <v>1.76</v>
@@ -6988,14 +7016,14 @@
         <v>2</v>
       </c>
       <c r="AH37" s="42" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AI37" s="35" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AJ37" s="46"/>
       <c r="AL37" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:39" s="51" customFormat="1">
@@ -7006,22 +7034,22 @@
         <v>37</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E38" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F38" s="49" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G38" s="49" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H38" s="48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I38" s="48">
         <v>2.64</v>
@@ -7056,7 +7084,7 @@
         <v>0.74</v>
       </c>
       <c r="U38" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V38" s="50">
         <v>1</v>
@@ -7069,10 +7097,10 @@
       </c>
       <c r="Y38" s="47"/>
       <c r="Z38" s="51" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AA38" s="51" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AB38" s="51">
         <v>1</v>
@@ -7087,7 +7115,7 @@
         <v>1</v>
       </c>
       <c r="AI38" s="35" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AJ38" s="52"/>
       <c r="AK38" s="52"/>
@@ -7100,22 +7128,22 @@
         <v>38</v>
       </c>
       <c r="C39" s="54" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D39" s="54" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E39" s="54" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F39" s="55" t="s">
-        <v>242</v>
+        <v>495</v>
       </c>
       <c r="G39" s="54" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H39" s="54" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I39" s="54">
         <v>10</v>
@@ -7150,7 +7178,7 @@
         <v>0.74</v>
       </c>
       <c r="U39" s="54" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V39" s="56">
         <v>1</v>
@@ -7163,7 +7191,7 @@
       </c>
       <c r="Y39" s="53"/>
       <c r="Z39" s="57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AA39" s="57" t="s">
         <v>45</v>
@@ -7179,10 +7207,10 @@
       </c>
       <c r="AI39" s="35"/>
       <c r="AK39" s="58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AL39" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:39" s="63" customFormat="1">
@@ -7193,22 +7221,22 @@
         <v>39</v>
       </c>
       <c r="C40" s="60" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D40" s="60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F40" s="60" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G40" s="60" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H40" s="60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I40" s="60">
         <v>1.68</v>
@@ -7256,7 +7284,7 @@
       </c>
       <c r="Y40" s="59"/>
       <c r="Z40" s="63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA40" s="63" t="s">
         <v>39</v>
@@ -7271,16 +7299,16 @@
         <v>1</v>
       </c>
       <c r="AH40" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI40" s="32" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AK40" s="64" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AL40" s="32" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:39" s="57" customFormat="1">
@@ -7291,22 +7319,22 @@
         <v>40</v>
       </c>
       <c r="C41" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="D41" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="E41" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="G41" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="D41" s="54" t="s">
-        <v>312</v>
-      </c>
-      <c r="E41" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="F41" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="G41" s="54" t="s">
-        <v>313</v>
-      </c>
       <c r="H41" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I41" s="54">
         <v>7.28</v>
@@ -7370,10 +7398,10 @@
       </c>
       <c r="AI41" s="35"/>
       <c r="AK41" s="58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AL41" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:39" s="63" customFormat="1">
@@ -7384,22 +7412,22 @@
         <v>41</v>
       </c>
       <c r="C42" s="60" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D42" s="60" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E42" s="60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F42" s="60" t="s">
-        <v>242</v>
+        <v>500</v>
       </c>
       <c r="G42" s="60" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H42" s="60" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I42" s="60">
         <v>1</v>
@@ -7447,7 +7475,7 @@
       </c>
       <c r="Y42" s="59"/>
       <c r="Z42" s="63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA42" s="63" t="s">
         <v>33</v>
@@ -7463,13 +7491,13 @@
       </c>
       <c r="AH42" s="33"/>
       <c r="AI42" s="32" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AK42" s="64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AL42" s="32" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:39" s="68" customFormat="1">
@@ -7480,22 +7508,22 @@
         <v>42</v>
       </c>
       <c r="C43" s="66" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D43" s="66" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E43" s="66" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F43" s="66" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G43" s="66" t="s">
         <v>62</v>
       </c>
       <c r="H43" s="66" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I43" s="66">
         <v>1</v>
@@ -7543,7 +7571,7 @@
       </c>
       <c r="Y43" s="65"/>
       <c r="Z43" s="68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA43" s="68" t="s">
         <v>33</v>
@@ -7561,7 +7589,7 @@
         <v>2</v>
       </c>
       <c r="AI43" s="35" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AK43" s="69"/>
       <c r="AL43" s="69"/>
@@ -7574,22 +7602,22 @@
         <v>43</v>
       </c>
       <c r="C44" s="60" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D44" s="60" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F44" s="60" t="s">
-        <v>62</v>
+        <v>501</v>
       </c>
       <c r="G44" s="60" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H44" s="60" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I44" s="60">
         <v>0.96</v>
@@ -7610,7 +7638,7 @@
         <v>500</v>
       </c>
       <c r="O44" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P44" s="59">
         <v>3</v>
@@ -7639,7 +7667,7 @@
       </c>
       <c r="Y44" s="59"/>
       <c r="Z44" s="63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA44" s="63" t="s">
         <v>36</v>
@@ -7654,16 +7682,16 @@
         <v>2</v>
       </c>
       <c r="AH44" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI44" s="32" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AK44" s="64" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AL44" s="32" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:39" s="68" customFormat="1">
@@ -7674,22 +7702,22 @@
         <v>44</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D45" s="66" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E45" s="66" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F45" s="66" t="s">
         <v>62</v>
       </c>
       <c r="G45" s="66" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H45" s="66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I45" s="66">
         <v>1</v>
@@ -7737,7 +7765,7 @@
       </c>
       <c r="Y45" s="65"/>
       <c r="Z45" s="68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA45" s="68" t="s">
         <v>33</v>
@@ -7755,7 +7783,7 @@
         <v>2</v>
       </c>
       <c r="AI45" s="35" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AK45" s="69"/>
       <c r="AL45" s="69"/>
@@ -7768,22 +7796,22 @@
         <v>45</v>
       </c>
       <c r="C46" s="66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E46" s="66" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F46" s="66" t="s">
         <v>62</v>
       </c>
       <c r="G46" s="66" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H46" s="66" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I46" s="66">
         <v>0.96</v>
@@ -7831,7 +7859,7 @@
       </c>
       <c r="Y46" s="65"/>
       <c r="Z46" s="68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AA46" s="68" t="s">
         <v>36</v>
@@ -7846,7 +7874,7 @@
         <v>2</v>
       </c>
       <c r="AI46" s="35" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AK46" s="69"/>
       <c r="AL46" s="69"/>
@@ -7859,22 +7887,22 @@
         <v>46</v>
       </c>
       <c r="C47" s="60" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D47" s="60" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E47" s="60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F47" s="60" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G47" s="60" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H47" s="60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I47" s="60">
         <v>0.74</v>
@@ -7922,7 +7950,7 @@
       </c>
       <c r="Y47" s="59"/>
       <c r="Z47" s="63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AA47" s="63" t="s">
         <v>28</v>
@@ -7937,16 +7965,16 @@
         <v>2</v>
       </c>
       <c r="AH47" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI47" s="32" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AK47" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AL47" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:39" s="73" customFormat="1">
@@ -7957,22 +7985,22 @@
         <v>47</v>
       </c>
       <c r="C48" s="71" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D48" s="71" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E48" s="71" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F48" s="71" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G48" s="71" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H48" s="71" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I48" s="71">
         <v>1</v>
@@ -8020,7 +8048,7 @@
       </c>
       <c r="Y48" s="70"/>
       <c r="Z48" s="73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA48" s="73" t="s">
         <v>33</v>
@@ -8035,13 +8063,13 @@
         <v>2</v>
       </c>
       <c r="AI48" s="35" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AK48" s="74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AL48" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49" spans="1:38" s="63" customFormat="1">
@@ -8052,22 +8080,22 @@
         <v>48</v>
       </c>
       <c r="C49" s="60" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D49" s="60" t="s">
+        <v>327</v>
+      </c>
+      <c r="E49" s="60" t="s">
+        <v>328</v>
+      </c>
+      <c r="F49" s="60" t="s">
         <v>329</v>
       </c>
-      <c r="E49" s="60" t="s">
-        <v>330</v>
-      </c>
-      <c r="F49" s="60" t="s">
-        <v>331</v>
-      </c>
       <c r="G49" s="60" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H49" s="60" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I49" s="60">
         <v>2</v>
@@ -8130,16 +8158,16 @@
         <v>2</v>
       </c>
       <c r="AH49" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI49" s="32" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AK49" s="64" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL49" s="32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:38" s="73" customFormat="1">
@@ -8150,22 +8178,22 @@
         <v>49</v>
       </c>
       <c r="C50" s="71" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D50" s="71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E50" s="71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F50" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G50" s="71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H50" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I50" s="71">
         <v>2</v>
@@ -8231,13 +8259,13 @@
         <v>2</v>
       </c>
       <c r="AI50" s="35" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AK50" s="74" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AL50" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:38" s="80" customFormat="1">
@@ -8248,22 +8276,22 @@
         <v>50</v>
       </c>
       <c r="C51" s="78" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D51" s="78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E51" s="78" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F51" s="71" t="s">
         <v>62</v>
       </c>
       <c r="G51" s="71" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H51" s="71" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I51" s="71">
         <v>2</v>
@@ -8298,7 +8326,7 @@
         <v>0.22</v>
       </c>
       <c r="U51" s="71" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="V51" s="72">
         <v>0.8</v>
@@ -8341,22 +8369,22 @@
         <v>51</v>
       </c>
       <c r="C52" s="60" t="s">
+        <v>238</v>
+      </c>
+      <c r="D52" s="60" t="s">
+        <v>355</v>
+      </c>
+      <c r="E52" s="60" t="s">
+        <v>334</v>
+      </c>
+      <c r="F52" s="60" t="s">
+        <v>498</v>
+      </c>
+      <c r="G52" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="D52" s="60" t="s">
-        <v>357</v>
-      </c>
-      <c r="E52" s="60" t="s">
-        <v>336</v>
-      </c>
-      <c r="F52" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="G52" s="60" t="s">
-        <v>242</v>
-      </c>
       <c r="H52" s="60" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I52" s="60">
         <v>2.64</v>
@@ -8377,7 +8405,7 @@
         <v>300</v>
       </c>
       <c r="O52" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P52" s="59">
         <v>4</v>
@@ -8392,7 +8420,7 @@
         <v>0.74</v>
       </c>
       <c r="U52" s="60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V52" s="62">
         <v>1</v>
@@ -8404,10 +8432,10 @@
         <v>0.1</v>
       </c>
       <c r="Z52" s="75" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AA52" s="63" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AB52" s="63"/>
       <c r="AC52" s="63"/>
@@ -8421,13 +8449,13 @@
         <v>1</v>
       </c>
       <c r="AH52" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI52" s="32" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AK52" s="64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:38" s="33" customFormat="1">
@@ -8438,22 +8466,22 @@
         <v>52</v>
       </c>
       <c r="C53" s="60" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D53" s="60" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E53" s="60" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F53" s="60" t="s">
-        <v>242</v>
+        <v>497</v>
       </c>
       <c r="G53" s="60" t="s">
         <v>58</v>
       </c>
       <c r="H53" s="60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I53" s="60">
         <v>2.64</v>
@@ -8474,7 +8502,7 @@
         <v>400</v>
       </c>
       <c r="O53" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P53" s="59">
         <v>4</v>
@@ -8489,7 +8517,7 @@
         <v>0.74</v>
       </c>
       <c r="U53" s="60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V53" s="62">
         <v>1</v>
@@ -8501,7 +8529,7 @@
         <v>0.1</v>
       </c>
       <c r="Z53" s="75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AA53" s="63" t="s">
         <v>53</v>
@@ -8518,13 +8546,13 @@
         <v>1</v>
       </c>
       <c r="AH53" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI53" s="32" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AK53" s="64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:38" s="33" customFormat="1">
@@ -8535,22 +8563,22 @@
         <v>53</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F54" s="60" t="s">
-        <v>58</v>
+        <v>494</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>62</v>
       </c>
       <c r="H54" s="60" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I54" s="28">
         <v>0.96</v>
@@ -8571,7 +8599,7 @@
         <v>800</v>
       </c>
       <c r="O54" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P54" s="27">
         <v>3</v>
@@ -8615,16 +8643,16 @@
         <v>2</v>
       </c>
       <c r="AH54" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI54" s="32" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AK54" s="64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AL54" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:38" s="33" customFormat="1">
@@ -8635,22 +8663,22 @@
         <v>54</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F55" s="60" t="s">
-        <v>58</v>
+        <v>496</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>62</v>
       </c>
       <c r="H55" s="60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I55" s="28">
         <v>1.53</v>
@@ -8671,7 +8699,7 @@
         <v>800</v>
       </c>
       <c r="O55" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P55" s="27">
         <v>4</v>
@@ -8715,16 +8743,16 @@
         <v>2</v>
       </c>
       <c r="AH55" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI55" s="32" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AK55" s="64" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AL55" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:38" s="33" customFormat="1">
@@ -8735,22 +8763,22 @@
         <v>55</v>
       </c>
       <c r="C56" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="E56" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="D56" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>346</v>
-      </c>
       <c r="F56" s="60" t="s">
-        <v>58</v>
+        <v>499</v>
       </c>
       <c r="G56" s="60" t="s">
         <v>58</v>
       </c>
       <c r="H56" s="60" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I56" s="28">
         <v>1.53</v>
@@ -8771,7 +8799,7 @@
         <v>500</v>
       </c>
       <c r="O56" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P56" s="27">
         <v>4</v>
@@ -8815,16 +8843,16 @@
         <v>2</v>
       </c>
       <c r="AH56" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AI56" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AK56" s="64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AL56" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="1:38" s="86" customFormat="1">
@@ -8835,22 +8863,22 @@
         <v>56</v>
       </c>
       <c r="C57" s="82" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D57" s="82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E57" s="82" t="s">
         <v>43</v>
       </c>
       <c r="F57" s="82" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G57" s="82" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H57" s="82" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I57" s="82">
         <v>0.66</v>
@@ -8913,10 +8941,10 @@
         <v>2</v>
       </c>
       <c r="AI57" s="85" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AL57" s="85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:38" s="86" customFormat="1">
@@ -8927,22 +8955,22 @@
         <v>57</v>
       </c>
       <c r="C58" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="D58" s="88" t="s">
+        <v>246</v>
+      </c>
+      <c r="E58" s="88" t="s">
         <v>247</v>
       </c>
-      <c r="D58" s="88" t="s">
+      <c r="F58" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="E58" s="88" t="s">
-        <v>249</v>
-      </c>
-      <c r="F58" s="88" t="s">
-        <v>250</v>
-      </c>
       <c r="G58" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H58" s="88" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I58" s="88">
         <v>2.64</v>
@@ -8976,7 +9004,7 @@
         <v>0.74</v>
       </c>
       <c r="U58" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V58" s="89">
         <v>1</v>
@@ -8988,10 +9016,10 @@
         <v>0.1</v>
       </c>
       <c r="Z58" s="90" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AA58" s="91" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AB58" s="91">
         <v>1</v>
@@ -9013,22 +9041,22 @@
         <v>58</v>
       </c>
       <c r="C59" s="88" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D59" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E59" s="88" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F59" s="88" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G59" s="88" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H59" s="88" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I59" s="88">
         <v>2.64</v>
@@ -9062,7 +9090,7 @@
         <v>0.74</v>
       </c>
       <c r="U59" s="88" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V59" s="89">
         <v>1</v>
@@ -9074,10 +9102,10 @@
         <v>0.1</v>
       </c>
       <c r="Z59" s="90" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AA59" s="91" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AB59" s="91">
         <v>1</v>
@@ -9099,22 +9127,22 @@
         <v>59</v>
       </c>
       <c r="C60" s="88" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D60" s="88" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E60" s="88" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F60" s="88" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G60" s="88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H60" s="88" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I60" s="88">
         <v>2.64</v>
@@ -9148,7 +9176,7 @@
         <v>0.74</v>
       </c>
       <c r="U60" s="88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V60" s="89">
         <v>1</v>
@@ -9160,7 +9188,7 @@
         <v>0.1</v>
       </c>
       <c r="Z60" s="90" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AA60" s="91" t="s">
         <v>53</v>
@@ -9185,22 +9213,22 @@
         <v>60</v>
       </c>
       <c r="C61" s="88" t="s">
+        <v>255</v>
+      </c>
+      <c r="D61" s="88" t="s">
+        <v>350</v>
+      </c>
+      <c r="E61" s="88" t="s">
         <v>257</v>
       </c>
-      <c r="D61" s="88" t="s">
-        <v>352</v>
-      </c>
-      <c r="E61" s="88" t="s">
-        <v>259</v>
-      </c>
       <c r="F61" s="88" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G61" s="88" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H61" s="88" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I61" s="88">
         <v>2.64</v>
@@ -9234,7 +9262,7 @@
         <v>0.74</v>
       </c>
       <c r="U61" s="88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V61" s="89">
         <v>1</v>
@@ -9246,7 +9274,7 @@
         <v>0.1</v>
       </c>
       <c r="Z61" s="90" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AA61" s="91" t="s">
         <v>53</v>
@@ -9271,22 +9299,22 @@
         <v>61</v>
       </c>
       <c r="C62" s="93" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D62" s="94" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E62" s="93" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F62" s="94" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G62" s="94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H62" s="93" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I62" s="93">
         <v>2.64</v>
@@ -9320,7 +9348,7 @@
         <v>0.74</v>
       </c>
       <c r="U62" s="93" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V62" s="96">
         <v>1</v>
@@ -9332,10 +9360,10 @@
         <v>0.1</v>
       </c>
       <c r="Y62" s="95" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Z62" s="97" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AA62" s="92" t="s">
         <v>53</v>
@@ -9360,22 +9388,22 @@
         <v>62</v>
       </c>
       <c r="C63" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="E63" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F63" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="E63" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="F63" s="23" t="s">
+      <c r="G63" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="G63" s="23" t="s">
-        <v>166</v>
-      </c>
       <c r="H63" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I63" s="23">
         <v>2.64</v>
@@ -9409,7 +9437,7 @@
         <v>0.74</v>
       </c>
       <c r="U63" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V63" s="24">
         <v>1</v>
@@ -9421,7 +9449,7 @@
         <v>0.1</v>
       </c>
       <c r="Z63" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AA63" s="25" t="s">
         <v>53</v>
@@ -9445,22 +9473,22 @@
         <v>63</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I64" s="13">
         <v>2.72</v>
@@ -9506,7 +9534,7 @@
         <v>0.35</v>
       </c>
       <c r="Y64" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z64" s="18" t="s">
         <v>40</v>
@@ -9524,13 +9552,13 @@
         <v>1</v>
       </c>
       <c r="AH64" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI64" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL64" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:38" s="19" customFormat="1">
@@ -9541,22 +9569,22 @@
         <v>64</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I65" s="13">
         <v>1.29</v>
@@ -9603,7 +9631,7 @@
         <v>0.35</v>
       </c>
       <c r="Y65" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z65" s="18" t="s">
         <v>38</v>
@@ -9621,10 +9649,10 @@
         <v>1</v>
       </c>
       <c r="AI65" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL65" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:38" s="19" customFormat="1">
@@ -9635,22 +9663,22 @@
         <v>65</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H66" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I66" s="13">
         <v>0.94</v>
@@ -9697,7 +9725,7 @@
         <v>0.8</v>
       </c>
       <c r="Y66" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z66" s="18" t="s">
         <v>25</v>
@@ -9712,13 +9740,13 @@
         <v>1.2</v>
       </c>
       <c r="AH66" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI66" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="AI66" s="18" t="s">
-        <v>82</v>
-      </c>
       <c r="AL66" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:38" s="19" customFormat="1">
@@ -9732,19 +9760,19 @@
         <v>49</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F67" s="16" t="s">
         <v>60</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I67" s="13">
         <v>1.44</v>
@@ -9791,7 +9819,7 @@
         <v>0.35</v>
       </c>
       <c r="Y67" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z67" s="18" t="s">
         <v>44</v>
@@ -9810,7 +9838,7 @@
         <v>1</v>
       </c>
       <c r="AL67" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:38" s="19" customFormat="1">
@@ -9821,22 +9849,22 @@
         <v>67</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F68" s="16" t="s">
         <v>59</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H68" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I68" s="13">
         <v>3.77</v>
@@ -9883,7 +9911,7 @@
         <v>0.35</v>
       </c>
       <c r="Y68" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z68" s="18" t="s">
         <v>37</v>
@@ -9902,13 +9930,13 @@
         <v>1</v>
       </c>
       <c r="AH68" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AI68" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AL68" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:38" s="19" customFormat="1">
@@ -9919,22 +9947,22 @@
         <v>68</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F69" s="20" t="s">
         <v>63</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I69" s="13">
         <v>2.64</v>
@@ -9981,7 +10009,7 @@
         <v>0.1</v>
       </c>
       <c r="Y69" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z69" s="18" t="s">
         <v>52</v>
@@ -10002,10 +10030,10 @@
         <v>1</v>
       </c>
       <c r="AI69" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AL69" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
